--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8310600</v>
+        <v>7711700</v>
       </c>
       <c r="E8" s="3">
-        <v>16409200</v>
+        <v>8360300</v>
       </c>
       <c r="F8" s="3">
-        <v>8134400</v>
+        <v>6977400</v>
       </c>
       <c r="G8" s="3">
-        <v>9511600</v>
+        <v>13776800</v>
       </c>
       <c r="H8" s="3">
-        <v>7921800</v>
+        <v>6829500</v>
       </c>
       <c r="I8" s="3">
+        <v>7985700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6651000</v>
+      </c>
+      <c r="K8" s="3">
         <v>7862800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7776400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8698500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7080300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7020300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6856800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8363100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6352300</v>
+        <v>5953400</v>
       </c>
       <c r="E9" s="3">
-        <v>12688300</v>
+        <v>6464700</v>
       </c>
       <c r="F9" s="3">
-        <v>6285100</v>
+        <v>5333300</v>
       </c>
       <c r="G9" s="3">
-        <v>7342800</v>
+        <v>10652800</v>
       </c>
       <c r="H9" s="3">
-        <v>6073400</v>
+        <v>5276800</v>
       </c>
       <c r="I9" s="3">
+        <v>6164900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5099100</v>
+      </c>
+      <c r="K9" s="3">
         <v>6076200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5992600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6786200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5437300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5420400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5285300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6525500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1958200</v>
+        <v>1758300</v>
       </c>
       <c r="E10" s="3">
-        <v>3720900</v>
+        <v>1895700</v>
       </c>
       <c r="F10" s="3">
-        <v>1849400</v>
+        <v>1644100</v>
       </c>
       <c r="G10" s="3">
-        <v>2168800</v>
+        <v>3124000</v>
       </c>
       <c r="H10" s="3">
-        <v>1848400</v>
+        <v>1552700</v>
       </c>
       <c r="I10" s="3">
+        <v>1820800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1551900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1786600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1783700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1912300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1643000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1599900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1571500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1837600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7593100</v>
+        <v>7052800</v>
       </c>
       <c r="E17" s="3">
-        <v>15100000</v>
+        <v>7631200</v>
       </c>
       <c r="F17" s="3">
-        <v>7472900</v>
+        <v>6375000</v>
       </c>
       <c r="G17" s="3">
-        <v>8674300</v>
+        <v>12677700</v>
       </c>
       <c r="H17" s="3">
-        <v>7288600</v>
+        <v>6274100</v>
       </c>
       <c r="I17" s="3">
+        <v>7282800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6119400</v>
+      </c>
+      <c r="K17" s="3">
         <v>7303800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7168700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7984100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6538800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6520800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6345000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7691500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>717500</v>
+        <v>659000</v>
       </c>
       <c r="E18" s="3">
-        <v>1309100</v>
+        <v>729100</v>
       </c>
       <c r="F18" s="3">
-        <v>661500</v>
+        <v>602400</v>
       </c>
       <c r="G18" s="3">
-        <v>837300</v>
+        <v>1099100</v>
       </c>
       <c r="H18" s="3">
-        <v>633200</v>
+        <v>555400</v>
       </c>
       <c r="I18" s="3">
+        <v>703000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>531600</v>
+      </c>
+      <c r="K18" s="3">
         <v>559000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>607600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>714500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>541500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>499500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>511900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>671600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,104 +1243,118 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-71500</v>
+        <v>-72500</v>
       </c>
       <c r="E20" s="3">
-        <v>-111300</v>
+        <v>196300</v>
       </c>
       <c r="F20" s="3">
-        <v>-53700</v>
+        <v>-60000</v>
       </c>
       <c r="G20" s="3">
-        <v>-6800</v>
+        <v>-93500</v>
       </c>
       <c r="H20" s="3">
-        <v>-19600</v>
+        <v>-45100</v>
       </c>
       <c r="I20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K20" s="3">
         <v>10700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-9700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>7100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>876200</v>
+        <v>785000</v>
       </c>
       <c r="E21" s="3">
-        <v>1643700</v>
+        <v>1123100</v>
       </c>
       <c r="F21" s="3">
-        <v>828800</v>
+        <v>735600</v>
       </c>
       <c r="G21" s="3">
-        <v>1009900</v>
+        <v>1380000</v>
       </c>
       <c r="H21" s="3">
-        <v>779300</v>
+        <v>695800</v>
       </c>
       <c r="I21" s="3">
+        <v>847900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>654300</v>
+      </c>
+      <c r="K21" s="3">
         <v>734600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>768700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>866900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>685500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>637700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>651100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>828900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>258900</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1305,101 +1384,119 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>20700</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>646000</v>
+        <v>586500</v>
       </c>
       <c r="E23" s="3">
-        <v>1197800</v>
+        <v>666500</v>
       </c>
       <c r="F23" s="3">
-        <v>607800</v>
+        <v>542400</v>
       </c>
       <c r="G23" s="3">
-        <v>830500</v>
+        <v>1005600</v>
       </c>
       <c r="H23" s="3">
-        <v>613600</v>
+        <v>510300</v>
       </c>
       <c r="I23" s="3">
+        <v>697300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>515100</v>
+      </c>
+      <c r="K23" s="3">
         <v>569700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>605600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>708200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>536200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>492400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>502100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>657900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>150100</v>
+        <v>136500</v>
       </c>
       <c r="E24" s="3">
-        <v>264200</v>
+        <v>161000</v>
       </c>
       <c r="F24" s="3">
-        <v>143300</v>
+        <v>126000</v>
       </c>
       <c r="G24" s="3">
-        <v>200000</v>
+        <v>221800</v>
       </c>
       <c r="H24" s="3">
-        <v>148100</v>
+        <v>120300</v>
       </c>
       <c r="I24" s="3">
+        <v>167900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>124400</v>
+      </c>
+      <c r="K24" s="3">
         <v>143000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>158000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>161000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>122300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>143500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>136900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>158600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>495900</v>
+        <v>450000</v>
       </c>
       <c r="E26" s="3">
-        <v>933600</v>
+        <v>505500</v>
       </c>
       <c r="F26" s="3">
-        <v>464500</v>
+        <v>416400</v>
       </c>
       <c r="G26" s="3">
-        <v>630600</v>
+        <v>783900</v>
       </c>
       <c r="H26" s="3">
-        <v>465400</v>
+        <v>390000</v>
       </c>
       <c r="I26" s="3">
+        <v>529400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>390800</v>
+      </c>
+      <c r="K26" s="3">
         <v>426700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>447600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>547200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>413900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>348900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>365200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>499400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>495900</v>
+        <v>450000</v>
       </c>
       <c r="E27" s="3">
-        <v>933600</v>
+        <v>505500</v>
       </c>
       <c r="F27" s="3">
-        <v>464500</v>
+        <v>416400</v>
       </c>
       <c r="G27" s="3">
-        <v>630600</v>
+        <v>783900</v>
       </c>
       <c r="H27" s="3">
-        <v>465400</v>
+        <v>390000</v>
       </c>
       <c r="I27" s="3">
+        <v>529400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>390800</v>
+      </c>
+      <c r="K27" s="3">
         <v>426700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>447600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>547200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>413900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>348900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>365200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>499600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,19 +1689,25 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1604,22 +1725,28 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>34800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>348200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>3600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>52700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>71500</v>
+        <v>72500</v>
       </c>
       <c r="E32" s="3">
-        <v>111300</v>
+        <v>-196300</v>
       </c>
       <c r="F32" s="3">
-        <v>53700</v>
+        <v>60000</v>
       </c>
       <c r="G32" s="3">
-        <v>6800</v>
+        <v>93500</v>
       </c>
       <c r="H32" s="3">
-        <v>19600</v>
+        <v>45100</v>
       </c>
       <c r="I32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>9700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-7100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>495900</v>
+        <v>450000</v>
       </c>
       <c r="E33" s="3">
-        <v>933600</v>
+        <v>505500</v>
       </c>
       <c r="F33" s="3">
-        <v>464500</v>
+        <v>416400</v>
       </c>
       <c r="G33" s="3">
-        <v>630600</v>
+        <v>783900</v>
       </c>
       <c r="H33" s="3">
-        <v>465400</v>
+        <v>390000</v>
       </c>
       <c r="I33" s="3">
+        <v>529400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>390800</v>
+      </c>
+      <c r="K33" s="3">
         <v>426700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>447600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>547200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>448800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>697100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>368800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>552200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>495900</v>
+        <v>450000</v>
       </c>
       <c r="E35" s="3">
-        <v>933600</v>
+        <v>505500</v>
       </c>
       <c r="F35" s="3">
-        <v>464500</v>
+        <v>416400</v>
       </c>
       <c r="G35" s="3">
-        <v>630600</v>
+        <v>783900</v>
       </c>
       <c r="H35" s="3">
-        <v>465400</v>
+        <v>390000</v>
       </c>
       <c r="I35" s="3">
+        <v>529400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>390800</v>
+      </c>
+      <c r="K35" s="3">
         <v>426700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>447600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>547200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>448800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>697100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>368800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>552200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1102000</v>
+        <v>1705400</v>
       </c>
       <c r="E41" s="3">
-        <v>1426200</v>
+        <v>1388900</v>
       </c>
       <c r="F41" s="3">
-        <v>1582100</v>
+        <v>925200</v>
       </c>
       <c r="G41" s="3">
-        <v>2081700</v>
+        <v>1197400</v>
       </c>
       <c r="H41" s="3">
-        <v>1772400</v>
+        <v>1328300</v>
       </c>
       <c r="I41" s="3">
+        <v>1747700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1488100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1622000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1819400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1841000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1367700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>826200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>919400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1485500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2028,20 +2207,20 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K42" s="3">
         <v>9600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>8700</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2055,316 +2234,364 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>575800</v>
+        <v>632500</v>
       </c>
       <c r="E43" s="3">
-        <v>596000</v>
+        <v>617400</v>
       </c>
       <c r="F43" s="3">
-        <v>607200</v>
+        <v>483400</v>
       </c>
       <c r="G43" s="3">
-        <v>645200</v>
+        <v>500400</v>
       </c>
       <c r="H43" s="3">
-        <v>498800</v>
+        <v>509800</v>
       </c>
       <c r="I43" s="3">
+        <v>541700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>418800</v>
+      </c>
+      <c r="K43" s="3">
         <v>462300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>390300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>560400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>393700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>361100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>361800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>715300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3678800</v>
+        <v>2856700</v>
       </c>
       <c r="E44" s="3">
-        <v>3233100</v>
+        <v>3040600</v>
       </c>
       <c r="F44" s="3">
-        <v>3164700</v>
+        <v>3088600</v>
       </c>
       <c r="G44" s="3">
-        <v>3395900</v>
+        <v>2714500</v>
       </c>
       <c r="H44" s="3">
-        <v>3254200</v>
+        <v>2657100</v>
       </c>
       <c r="I44" s="3">
+        <v>2851100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2732200</v>
+      </c>
+      <c r="K44" s="3">
         <v>3084200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2919100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3075400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2976400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2675600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2772500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2849600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>40700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>70700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>54400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>63300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>66900</v>
+      </c>
+      <c r="L45" s="3">
         <v>48500</v>
       </c>
-      <c r="E45" s="3">
-        <v>84200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>64800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>75400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>59300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>66900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>48500</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>50800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>39600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>43600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>649000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>667100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5405100</v>
+        <v>5249800</v>
       </c>
       <c r="E46" s="3">
-        <v>5339600</v>
+        <v>5126900</v>
       </c>
       <c r="F46" s="3">
-        <v>5418900</v>
+        <v>4538000</v>
       </c>
       <c r="G46" s="3">
-        <v>6198100</v>
+        <v>4483000</v>
       </c>
       <c r="H46" s="3">
-        <v>5593700</v>
+        <v>4549600</v>
       </c>
       <c r="I46" s="3">
+        <v>5203800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4696400</v>
+      </c>
+      <c r="K46" s="3">
         <v>5245000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5186000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5527600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4777400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3906500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4702600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5523600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>114300</v>
+        <v>102600</v>
       </c>
       <c r="E47" s="3">
-        <v>120600</v>
+        <v>82600</v>
       </c>
       <c r="F47" s="3">
-        <v>115400</v>
+        <v>96000</v>
       </c>
       <c r="G47" s="3">
-        <v>119400</v>
+        <v>101200</v>
       </c>
       <c r="H47" s="3">
-        <v>112300</v>
+        <v>96900</v>
       </c>
       <c r="I47" s="3">
+        <v>100200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K47" s="3">
         <v>109100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>99000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>105900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>79200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>73500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>79900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>99800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9945900</v>
+        <v>8893500</v>
       </c>
       <c r="E48" s="3">
-        <v>9608500</v>
+        <v>8481600</v>
       </c>
       <c r="F48" s="3">
-        <v>9504300</v>
+        <v>8350400</v>
       </c>
       <c r="G48" s="3">
-        <v>7731700</v>
+        <v>8067100</v>
       </c>
       <c r="H48" s="3">
-        <v>7499400</v>
+        <v>7979600</v>
       </c>
       <c r="I48" s="3">
+        <v>6491400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6296400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7530400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7347300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7245000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6959000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6874900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6833900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7240200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2037700</v>
+        <v>2059900</v>
       </c>
       <c r="E49" s="3">
-        <v>1990700</v>
+        <v>1669100</v>
       </c>
       <c r="F49" s="3">
-        <v>1973900</v>
+        <v>1710800</v>
       </c>
       <c r="G49" s="3">
-        <v>1983400</v>
+        <v>1671400</v>
       </c>
       <c r="H49" s="3">
-        <v>2009000</v>
+        <v>1657200</v>
       </c>
       <c r="I49" s="3">
+        <v>1665300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1686800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2133700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1954500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2036100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1886700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1864000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1933200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2195100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>447600</v>
+        <v>317000</v>
       </c>
       <c r="E52" s="3">
-        <v>426700</v>
+        <v>356000</v>
       </c>
       <c r="F52" s="3">
-        <v>407800</v>
+        <v>375800</v>
       </c>
       <c r="G52" s="3">
-        <v>400300</v>
+        <v>358200</v>
       </c>
       <c r="H52" s="3">
-        <v>446200</v>
+        <v>342400</v>
       </c>
       <c r="I52" s="3">
+        <v>336100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>374600</v>
+      </c>
+      <c r="K52" s="3">
         <v>355100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>385300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>356000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>291600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>265500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>226800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>249600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17950600</v>
+        <v>16622800</v>
       </c>
       <c r="E54" s="3">
-        <v>17486000</v>
+        <v>15716200</v>
       </c>
       <c r="F54" s="3">
-        <v>17420200</v>
+        <v>15071000</v>
       </c>
       <c r="G54" s="3">
-        <v>16433000</v>
+        <v>14681000</v>
       </c>
       <c r="H54" s="3">
-        <v>15660600</v>
+        <v>14625700</v>
       </c>
       <c r="I54" s="3">
+        <v>13796900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13148400</v>
+      </c>
+      <c r="K54" s="3">
         <v>15373400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>14972000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>15270600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13993900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12984500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>13776500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>15308300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4017100</v>
+        <v>3661500</v>
       </c>
       <c r="E57" s="3">
-        <v>3906600</v>
+        <v>3921100</v>
       </c>
       <c r="F57" s="3">
-        <v>3900400</v>
+        <v>3372700</v>
       </c>
       <c r="G57" s="3">
-        <v>4574400</v>
+        <v>3279900</v>
       </c>
       <c r="H57" s="3">
-        <v>3899900</v>
+        <v>3274700</v>
       </c>
       <c r="I57" s="3">
+        <v>3840600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3274300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3722700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3686100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4142700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3310400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2747300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2862000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3500300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>162500</v>
+        <v>136800</v>
       </c>
       <c r="E58" s="3">
-        <v>160000</v>
+        <v>137000</v>
       </c>
       <c r="F58" s="3">
-        <v>159400</v>
+        <v>136400</v>
       </c>
       <c r="G58" s="3">
-        <v>16500</v>
+        <v>134300</v>
       </c>
       <c r="H58" s="3">
-        <v>15900</v>
+        <v>133800</v>
       </c>
       <c r="I58" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K58" s="3">
         <v>15800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>16800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>19700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>21000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>23100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>26200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>28300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1769000</v>
+        <v>2346200</v>
       </c>
       <c r="E59" s="3">
-        <v>2147500</v>
+        <v>1050500</v>
       </c>
       <c r="F59" s="3">
-        <v>2668300</v>
+        <v>1485200</v>
       </c>
       <c r="G59" s="3">
-        <v>1529500</v>
+        <v>1803000</v>
       </c>
       <c r="H59" s="3">
-        <v>1971900</v>
+        <v>2240300</v>
       </c>
       <c r="I59" s="3">
+        <v>1284100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1655600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2137400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2567100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1414400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1668500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1709800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3197300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1479700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5948600</v>
+        <v>6144600</v>
       </c>
       <c r="E60" s="3">
-        <v>6214100</v>
+        <v>5108600</v>
       </c>
       <c r="F60" s="3">
-        <v>6728200</v>
+        <v>4994400</v>
       </c>
       <c r="G60" s="3">
-        <v>6120400</v>
+        <v>5217200</v>
       </c>
       <c r="H60" s="3">
-        <v>5887700</v>
+        <v>5648800</v>
       </c>
       <c r="I60" s="3">
+        <v>5138600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4943200</v>
+      </c>
+      <c r="K60" s="3">
         <v>5875900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6270000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5576800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4999800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4480200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6085500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5008300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2812700</v>
+        <v>2587100</v>
       </c>
       <c r="E61" s="3">
-        <v>2672000</v>
+        <v>2438100</v>
       </c>
       <c r="F61" s="3">
-        <v>2618800</v>
+        <v>2361500</v>
       </c>
       <c r="G61" s="3">
-        <v>759500</v>
+        <v>2243300</v>
       </c>
       <c r="H61" s="3">
-        <v>762500</v>
+        <v>2198700</v>
       </c>
       <c r="I61" s="3">
+        <v>637700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>640200</v>
+      </c>
+      <c r="K61" s="3">
         <v>772600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>751700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>709900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>694900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>680000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>671600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>694400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>606600</v>
+        <v>560700</v>
       </c>
       <c r="E62" s="3">
-        <v>622100</v>
+        <v>601300</v>
       </c>
       <c r="F62" s="3">
-        <v>617100</v>
+        <v>509300</v>
       </c>
       <c r="G62" s="3">
-        <v>712000</v>
+        <v>522300</v>
       </c>
       <c r="H62" s="3">
-        <v>822100</v>
+        <v>518100</v>
       </c>
       <c r="I62" s="3">
+        <v>597800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>690200</v>
+      </c>
+      <c r="K62" s="3">
         <v>740600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>762200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>732800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>853400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>886100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>668600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>736500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9368000</v>
+        <v>9292400</v>
       </c>
       <c r="E66" s="3">
-        <v>9508200</v>
+        <v>8148000</v>
       </c>
       <c r="F66" s="3">
-        <v>9964100</v>
+        <v>7865200</v>
       </c>
       <c r="G66" s="3">
-        <v>7592000</v>
+        <v>7982900</v>
       </c>
       <c r="H66" s="3">
-        <v>7472300</v>
+        <v>8365700</v>
       </c>
       <c r="I66" s="3">
+        <v>6374100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6273600</v>
+      </c>
+      <c r="K66" s="3">
         <v>7389100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7783900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7019500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6548100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6046300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7425700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6439200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5273400</v>
+        <v>3958400</v>
       </c>
       <c r="E72" s="3">
-        <v>4777800</v>
+        <v>4899800</v>
       </c>
       <c r="F72" s="3">
-        <v>4306400</v>
+        <v>4427400</v>
       </c>
       <c r="G72" s="3">
-        <v>5609700</v>
+        <v>4011300</v>
       </c>
       <c r="H72" s="3">
-        <v>4979300</v>
+        <v>3615600</v>
       </c>
       <c r="I72" s="3">
+        <v>4709800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4180500</v>
+      </c>
+      <c r="K72" s="3">
         <v>4514300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4089200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4986500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4439600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3991400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3295400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5291400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8582600</v>
+        <v>7330400</v>
       </c>
       <c r="E76" s="3">
-        <v>7977900</v>
+        <v>7568200</v>
       </c>
       <c r="F76" s="3">
-        <v>7456100</v>
+        <v>7205800</v>
       </c>
       <c r="G76" s="3">
-        <v>8841000</v>
+        <v>6698100</v>
       </c>
       <c r="H76" s="3">
-        <v>8188400</v>
+        <v>6260000</v>
       </c>
       <c r="I76" s="3">
+        <v>7422800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6874800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7984200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7188100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8251100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7445700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6938200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6350800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8869100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>495900</v>
+        <v>450000</v>
       </c>
       <c r="E81" s="3">
-        <v>933600</v>
+        <v>505500</v>
       </c>
       <c r="F81" s="3">
-        <v>464500</v>
+        <v>416400</v>
       </c>
       <c r="G81" s="3">
-        <v>630600</v>
+        <v>783900</v>
       </c>
       <c r="H81" s="3">
-        <v>465400</v>
+        <v>390000</v>
       </c>
       <c r="I81" s="3">
+        <v>529400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>390800</v>
+      </c>
+      <c r="K81" s="3">
         <v>426700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>447600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>547200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>448800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>697100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>368800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>552200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>230100</v>
+        <v>198500</v>
       </c>
       <c r="E83" s="3">
-        <v>445900</v>
+        <v>197700</v>
       </c>
       <c r="F83" s="3">
-        <v>221000</v>
+        <v>193200</v>
       </c>
       <c r="G83" s="3">
-        <v>179400</v>
+        <v>374400</v>
       </c>
       <c r="H83" s="3">
-        <v>165800</v>
+        <v>185600</v>
       </c>
       <c r="I83" s="3">
+        <v>150600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>139200</v>
+      </c>
+      <c r="K83" s="3">
         <v>164900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>163200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>158700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>149300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>145300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>149000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>150200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>662000</v>
+        <v>438800</v>
       </c>
       <c r="E89" s="3">
-        <v>873500</v>
+        <v>1259700</v>
       </c>
       <c r="F89" s="3">
-        <v>148600</v>
+        <v>555800</v>
       </c>
       <c r="G89" s="3">
-        <v>1312100</v>
+        <v>733300</v>
       </c>
       <c r="H89" s="3">
-        <v>743600</v>
+        <v>124800</v>
       </c>
       <c r="I89" s="3">
+        <v>1101600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>624300</v>
+      </c>
+      <c r="K89" s="3">
         <v>287000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>205600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1218100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>895800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>588900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-164100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1324000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-361300</v>
+        <v>-106200</v>
       </c>
       <c r="E91" s="3">
-        <v>-411500</v>
+        <v>-277200</v>
       </c>
       <c r="F91" s="3">
-        <v>-171200</v>
+        <v>-303300</v>
       </c>
       <c r="G91" s="3">
-        <v>-384300</v>
+        <v>-345500</v>
       </c>
       <c r="H91" s="3">
-        <v>-280600</v>
+        <v>-143800</v>
       </c>
       <c r="I91" s="3">
+        <v>-322600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-235600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-197400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-99100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-348500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-230500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-197600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-124700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-342300</v>
+        <v>-165900</v>
       </c>
       <c r="E94" s="3">
-        <v>-405500</v>
+        <v>-258000</v>
       </c>
       <c r="F94" s="3">
-        <v>-218400</v>
+        <v>-287400</v>
       </c>
       <c r="G94" s="3">
-        <v>-354100</v>
+        <v>-340500</v>
       </c>
       <c r="H94" s="3">
-        <v>-245600</v>
+        <v>-183300</v>
       </c>
       <c r="I94" s="3">
+        <v>-297300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-206200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-140400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-89100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-314300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-171700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>866900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-178000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-247400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-537600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-889400</v>
+        <v>-420400</v>
       </c>
       <c r="F96" s="3">
-        <v>-305900</v>
+        <v>-451300</v>
       </c>
       <c r="G96" s="3">
-        <v>-593400</v>
+        <v>-746700</v>
       </c>
       <c r="H96" s="3">
-        <v>-268800</v>
+        <v>-256800</v>
       </c>
       <c r="I96" s="3">
+        <v>-498200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-225700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-361100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-148100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-473200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-142700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-124800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-568100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-646700</v>
+        <v>-92300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1100900</v>
+        <v>-514700</v>
       </c>
       <c r="F100" s="3">
-        <v>-407800</v>
+        <v>-542900</v>
       </c>
       <c r="G100" s="3">
-        <v>-614100</v>
+        <v>-924300</v>
       </c>
       <c r="H100" s="3">
-        <v>-289100</v>
+        <v>-342400</v>
       </c>
       <c r="I100" s="3">
+        <v>-515600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-242800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-381700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-170000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-494500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-167100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-145400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-591300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2800</v>
+        <v>135900</v>
       </c>
       <c r="E101" s="3">
-        <v>-22500</v>
+        <v>-23300</v>
       </c>
       <c r="F101" s="3">
-        <v>-22000</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-34600</v>
+        <v>-18900</v>
       </c>
       <c r="H101" s="3">
-        <v>-58500</v>
+        <v>-18500</v>
       </c>
       <c r="I101" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="K101" s="3">
         <v>37700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-35300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>29600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-15600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-26900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-39900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>29200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-324200</v>
+        <v>316600</v>
       </c>
       <c r="E102" s="3">
-        <v>-655400</v>
+        <v>463700</v>
       </c>
       <c r="F102" s="3">
-        <v>-499500</v>
+        <v>-272200</v>
       </c>
       <c r="G102" s="3">
-        <v>309200</v>
+        <v>-550300</v>
       </c>
       <c r="H102" s="3">
-        <v>150400</v>
+        <v>-419400</v>
       </c>
       <c r="I102" s="3">
+        <v>259600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-197400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-88900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>473300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>541400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-93200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-527500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>503000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7711700</v>
+        <v>7707600</v>
       </c>
       <c r="E8" s="3">
-        <v>8360300</v>
+        <v>7812800</v>
       </c>
       <c r="F8" s="3">
-        <v>6977400</v>
+        <v>8469900</v>
       </c>
       <c r="G8" s="3">
-        <v>13776800</v>
+        <v>7068900</v>
       </c>
       <c r="H8" s="3">
-        <v>6829500</v>
+        <v>13957400</v>
       </c>
       <c r="I8" s="3">
-        <v>7985700</v>
+        <v>6919100</v>
       </c>
       <c r="J8" s="3">
+        <v>8090400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6651000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7862800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7776400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8698500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7080300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7020300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6856800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8363100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5953400</v>
+        <v>5950400</v>
       </c>
       <c r="E9" s="3">
-        <v>6464700</v>
+        <v>6031500</v>
       </c>
       <c r="F9" s="3">
-        <v>5333300</v>
+        <v>6549400</v>
       </c>
       <c r="G9" s="3">
-        <v>10652800</v>
+        <v>5403200</v>
       </c>
       <c r="H9" s="3">
-        <v>5276800</v>
+        <v>10792500</v>
       </c>
       <c r="I9" s="3">
-        <v>6164900</v>
+        <v>5346000</v>
       </c>
       <c r="J9" s="3">
+        <v>6245700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5099100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6076200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5992600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6786200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5437300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5420400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5285300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6525500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1758300</v>
+        <v>1757100</v>
       </c>
       <c r="E10" s="3">
-        <v>1895700</v>
+        <v>1781300</v>
       </c>
       <c r="F10" s="3">
-        <v>1644100</v>
+        <v>1920500</v>
       </c>
       <c r="G10" s="3">
-        <v>3124000</v>
+        <v>1665600</v>
       </c>
       <c r="H10" s="3">
-        <v>1552700</v>
+        <v>3165000</v>
       </c>
       <c r="I10" s="3">
-        <v>1820800</v>
+        <v>1573100</v>
       </c>
       <c r="J10" s="3">
+        <v>1844700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1551900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1786600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1783700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1912300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1643000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1599900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1571500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1837600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7052800</v>
+        <v>7199200</v>
       </c>
       <c r="E17" s="3">
-        <v>7631200</v>
+        <v>7145200</v>
       </c>
       <c r="F17" s="3">
-        <v>6375000</v>
+        <v>7731200</v>
       </c>
       <c r="G17" s="3">
-        <v>12677700</v>
+        <v>6458600</v>
       </c>
       <c r="H17" s="3">
-        <v>6274100</v>
+        <v>12843900</v>
       </c>
       <c r="I17" s="3">
-        <v>7282800</v>
+        <v>6356400</v>
       </c>
       <c r="J17" s="3">
+        <v>7378300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6119400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7303800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7168700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7984100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6538800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6520800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6345000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7691500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>659000</v>
+        <v>508400</v>
       </c>
       <c r="E18" s="3">
-        <v>729100</v>
+        <v>667600</v>
       </c>
       <c r="F18" s="3">
-        <v>602400</v>
+        <v>738700</v>
       </c>
       <c r="G18" s="3">
-        <v>1099100</v>
+        <v>610300</v>
       </c>
       <c r="H18" s="3">
-        <v>555400</v>
+        <v>1113500</v>
       </c>
       <c r="I18" s="3">
-        <v>703000</v>
+        <v>562700</v>
       </c>
       <c r="J18" s="3">
+        <v>712200</v>
+      </c>
+      <c r="K18" s="3">
         <v>531600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>559000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>607600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>714500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>541500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>499500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>511900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>671600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,119 +1278,126 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-72500</v>
+        <v>-95900</v>
       </c>
       <c r="E20" s="3">
-        <v>196300</v>
+        <v>-2400</v>
       </c>
       <c r="F20" s="3">
-        <v>-60000</v>
+        <v>198900</v>
       </c>
       <c r="G20" s="3">
-        <v>-93500</v>
+        <v>-60800</v>
       </c>
       <c r="H20" s="3">
-        <v>-45100</v>
+        <v>-94700</v>
       </c>
       <c r="I20" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-16500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>785000</v>
+        <v>621600</v>
       </c>
       <c r="E21" s="3">
-        <v>1123100</v>
+        <v>866300</v>
       </c>
       <c r="F21" s="3">
-        <v>735600</v>
+        <v>1137900</v>
       </c>
       <c r="G21" s="3">
-        <v>1380000</v>
+        <v>745300</v>
       </c>
       <c r="H21" s="3">
-        <v>695800</v>
+        <v>1398100</v>
       </c>
       <c r="I21" s="3">
-        <v>847900</v>
+        <v>705000</v>
       </c>
       <c r="J21" s="3">
+        <v>859000</v>
+      </c>
+      <c r="K21" s="3">
         <v>654300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>734600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>768700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>866900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>685500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>637700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>651100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>828900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>74400</v>
       </c>
       <c r="E22" s="3">
-        <v>258900</v>
+        <v>71000</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>262300</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1390,113 +1430,122 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>20700</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>586500</v>
+        <v>338100</v>
       </c>
       <c r="E23" s="3">
-        <v>666500</v>
+        <v>594200</v>
       </c>
       <c r="F23" s="3">
-        <v>542400</v>
+        <v>675300</v>
       </c>
       <c r="G23" s="3">
-        <v>1005600</v>
+        <v>549500</v>
       </c>
       <c r="H23" s="3">
-        <v>510300</v>
+        <v>1018800</v>
       </c>
       <c r="I23" s="3">
-        <v>697300</v>
+        <v>517000</v>
       </c>
       <c r="J23" s="3">
+        <v>706400</v>
+      </c>
+      <c r="K23" s="3">
         <v>515100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>569700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>605600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>708200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>536200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>492400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>502100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>657900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>136500</v>
+        <v>262300</v>
       </c>
       <c r="E24" s="3">
+        <v>138300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>163100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>127700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>224700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>121900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>170100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>124400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>143000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>158000</v>
+      </c>
+      <c r="N24" s="3">
         <v>161000</v>
       </c>
-      <c r="F24" s="3">
-        <v>126000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>221800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>120300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>167900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>124400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>143000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>158000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>161000</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>122300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>143500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>136900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>158600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>450000</v>
+        <v>75800</v>
       </c>
       <c r="E26" s="3">
-        <v>505500</v>
+        <v>455900</v>
       </c>
       <c r="F26" s="3">
-        <v>416400</v>
+        <v>512200</v>
       </c>
       <c r="G26" s="3">
-        <v>783900</v>
+        <v>421800</v>
       </c>
       <c r="H26" s="3">
-        <v>390000</v>
+        <v>794100</v>
       </c>
       <c r="I26" s="3">
-        <v>529400</v>
+        <v>395100</v>
       </c>
       <c r="J26" s="3">
+        <v>536300</v>
+      </c>
+      <c r="K26" s="3">
         <v>390800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>426700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>447600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>547200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>413900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>348900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>365200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>499400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>450000</v>
+        <v>75800</v>
       </c>
       <c r="E27" s="3">
-        <v>505500</v>
+        <v>455900</v>
       </c>
       <c r="F27" s="3">
-        <v>416400</v>
+        <v>512200</v>
       </c>
       <c r="G27" s="3">
-        <v>783900</v>
+        <v>421800</v>
       </c>
       <c r="H27" s="3">
-        <v>390000</v>
+        <v>794100</v>
       </c>
       <c r="I27" s="3">
-        <v>529400</v>
+        <v>395100</v>
       </c>
       <c r="J27" s="3">
+        <v>536300</v>
+      </c>
+      <c r="K27" s="3">
         <v>390800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>426700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>447600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>547200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>413900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>348900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>365200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>499600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1709,8 +1770,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1731,22 +1792,25 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>34800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>348200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>3600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>52700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>72500</v>
+        <v>95900</v>
       </c>
       <c r="E32" s="3">
-        <v>-196300</v>
+        <v>2400</v>
       </c>
       <c r="F32" s="3">
-        <v>60000</v>
+        <v>-198900</v>
       </c>
       <c r="G32" s="3">
-        <v>93500</v>
+        <v>60800</v>
       </c>
       <c r="H32" s="3">
-        <v>45100</v>
+        <v>94700</v>
       </c>
       <c r="I32" s="3">
+        <v>45700</v>
+      </c>
+      <c r="J32" s="3">
         <v>5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>16500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>450000</v>
+        <v>75800</v>
       </c>
       <c r="E33" s="3">
-        <v>505500</v>
+        <v>455900</v>
       </c>
       <c r="F33" s="3">
-        <v>416400</v>
+        <v>512200</v>
       </c>
       <c r="G33" s="3">
-        <v>783900</v>
+        <v>421800</v>
       </c>
       <c r="H33" s="3">
-        <v>390000</v>
+        <v>794100</v>
       </c>
       <c r="I33" s="3">
-        <v>529400</v>
+        <v>395100</v>
       </c>
       <c r="J33" s="3">
+        <v>536300</v>
+      </c>
+      <c r="K33" s="3">
         <v>390800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>426700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>447600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>547200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>448800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>697100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>368800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>552200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>450000</v>
+        <v>75800</v>
       </c>
       <c r="E35" s="3">
-        <v>505500</v>
+        <v>455900</v>
       </c>
       <c r="F35" s="3">
-        <v>416400</v>
+        <v>512200</v>
       </c>
       <c r="G35" s="3">
-        <v>783900</v>
+        <v>421800</v>
       </c>
       <c r="H35" s="3">
-        <v>390000</v>
+        <v>794100</v>
       </c>
       <c r="I35" s="3">
-        <v>529400</v>
+        <v>395100</v>
       </c>
       <c r="J35" s="3">
+        <v>536300</v>
+      </c>
+      <c r="K35" s="3">
         <v>390800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>426700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>447600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>547200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>448800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>697100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>368800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>552200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1705400</v>
+        <v>1404700</v>
       </c>
       <c r="E41" s="3">
-        <v>1388900</v>
+        <v>1727800</v>
       </c>
       <c r="F41" s="3">
-        <v>925200</v>
+        <v>1407100</v>
       </c>
       <c r="G41" s="3">
-        <v>1197400</v>
+        <v>937300</v>
       </c>
       <c r="H41" s="3">
-        <v>1328300</v>
+        <v>1213100</v>
       </c>
       <c r="I41" s="3">
-        <v>1747700</v>
+        <v>1345700</v>
       </c>
       <c r="J41" s="3">
+        <v>1770600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1488100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1622000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1819400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1841000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1367700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>826200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>919400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1485500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2213,17 +2303,17 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>7600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8700</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>632500</v>
+        <v>630100</v>
       </c>
       <c r="E43" s="3">
-        <v>617400</v>
+        <v>640800</v>
       </c>
       <c r="F43" s="3">
-        <v>483400</v>
+        <v>625500</v>
       </c>
       <c r="G43" s="3">
-        <v>500400</v>
+        <v>489800</v>
       </c>
       <c r="H43" s="3">
-        <v>509800</v>
+        <v>507000</v>
       </c>
       <c r="I43" s="3">
-        <v>541700</v>
+        <v>516500</v>
       </c>
       <c r="J43" s="3">
+        <v>548800</v>
+      </c>
+      <c r="K43" s="3">
         <v>418800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>462300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>390300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>560400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>393700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>361100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>361800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>715300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2856700</v>
+        <v>2947700</v>
       </c>
       <c r="E44" s="3">
-        <v>3040600</v>
+        <v>2894100</v>
       </c>
       <c r="F44" s="3">
-        <v>3088600</v>
+        <v>3080400</v>
       </c>
       <c r="G44" s="3">
-        <v>2714500</v>
+        <v>3129100</v>
       </c>
       <c r="H44" s="3">
-        <v>2657100</v>
+        <v>2750000</v>
       </c>
       <c r="I44" s="3">
-        <v>2851100</v>
+        <v>2691900</v>
       </c>
       <c r="J44" s="3">
+        <v>2888500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2732200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3084200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2919100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3075400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2976400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2675600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2772500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2849600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>55900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>81100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>41300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>71700</v>
+      </c>
+      <c r="I45" s="3">
         <v>55100</v>
       </c>
-      <c r="E45" s="3">
-        <v>80000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>40700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>70700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>54400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>63300</v>
-      </c>
       <c r="J45" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K45" s="3">
         <v>49800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>43600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>649000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>667100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5249800</v>
+        <v>5035200</v>
       </c>
       <c r="E46" s="3">
-        <v>5126900</v>
+        <v>5318600</v>
       </c>
       <c r="F46" s="3">
-        <v>4538000</v>
+        <v>5194100</v>
       </c>
       <c r="G46" s="3">
-        <v>4483000</v>
+        <v>4597500</v>
       </c>
       <c r="H46" s="3">
-        <v>4549600</v>
+        <v>4541800</v>
       </c>
       <c r="I46" s="3">
-        <v>5203800</v>
+        <v>4609300</v>
       </c>
       <c r="J46" s="3">
+        <v>5272000</v>
+      </c>
+      <c r="K46" s="3">
         <v>4696400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5245000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5186000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5527600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4777400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3906500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4702600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5523600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>104000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>83700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>97200</v>
+      </c>
+      <c r="H47" s="3">
         <v>102600</v>
       </c>
-      <c r="E47" s="3">
-        <v>82600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>96000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>101200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>96900</v>
-      </c>
       <c r="I47" s="3">
-        <v>100200</v>
+        <v>98100</v>
       </c>
       <c r="J47" s="3">
+        <v>101500</v>
+      </c>
+      <c r="K47" s="3">
         <v>94300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>109100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>99000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>105900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>79200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>73500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>79900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>99800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8893500</v>
+        <v>8898000</v>
       </c>
       <c r="E48" s="3">
-        <v>8481600</v>
+        <v>9010100</v>
       </c>
       <c r="F48" s="3">
-        <v>8350400</v>
+        <v>8592800</v>
       </c>
       <c r="G48" s="3">
-        <v>8067100</v>
+        <v>8459800</v>
       </c>
       <c r="H48" s="3">
-        <v>7979600</v>
+        <v>8172800</v>
       </c>
       <c r="I48" s="3">
-        <v>6491400</v>
+        <v>8084200</v>
       </c>
       <c r="J48" s="3">
+        <v>6576500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6296400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7530400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7347300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7245000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6959000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6874900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6833900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7240200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2059900</v>
+        <v>2044500</v>
       </c>
       <c r="E49" s="3">
-        <v>1669100</v>
+        <v>2086900</v>
       </c>
       <c r="F49" s="3">
-        <v>1710800</v>
+        <v>1691000</v>
       </c>
       <c r="G49" s="3">
-        <v>1671400</v>
+        <v>1733300</v>
       </c>
       <c r="H49" s="3">
-        <v>1657200</v>
+        <v>1693300</v>
       </c>
       <c r="I49" s="3">
-        <v>1665300</v>
+        <v>1678900</v>
       </c>
       <c r="J49" s="3">
+        <v>1687100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1686800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2133700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1954500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2036100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1886700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1864000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1933200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2195100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>317000</v>
+        <v>333900</v>
       </c>
       <c r="E52" s="3">
+        <v>321200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>360600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>380700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>362900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>346900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>340500</v>
+      </c>
+      <c r="K52" s="3">
+        <v>374600</v>
+      </c>
+      <c r="L52" s="3">
+        <v>355100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>385300</v>
+      </c>
+      <c r="N52" s="3">
         <v>356000</v>
       </c>
-      <c r="F52" s="3">
-        <v>375800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>358200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>342400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>336100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>374600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>355100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>385300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>356000</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>291600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>265500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>226800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>249600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16622800</v>
+        <v>16416700</v>
       </c>
       <c r="E54" s="3">
-        <v>15716200</v>
+        <v>16840700</v>
       </c>
       <c r="F54" s="3">
-        <v>15071000</v>
+        <v>15922300</v>
       </c>
       <c r="G54" s="3">
-        <v>14681000</v>
+        <v>15268600</v>
       </c>
       <c r="H54" s="3">
-        <v>14625700</v>
+        <v>14873400</v>
       </c>
       <c r="I54" s="3">
-        <v>13796900</v>
+        <v>14817400</v>
       </c>
       <c r="J54" s="3">
+        <v>13977700</v>
+      </c>
+      <c r="K54" s="3">
         <v>13148400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15373400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14972000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15270600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13993900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12984500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13776500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15308300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3661500</v>
+        <v>3493000</v>
       </c>
       <c r="E57" s="3">
-        <v>3921100</v>
+        <v>3709500</v>
       </c>
       <c r="F57" s="3">
-        <v>3372700</v>
+        <v>3972500</v>
       </c>
       <c r="G57" s="3">
-        <v>3279900</v>
+        <v>3416900</v>
       </c>
       <c r="H57" s="3">
-        <v>3274700</v>
+        <v>3322900</v>
       </c>
       <c r="I57" s="3">
-        <v>3840600</v>
+        <v>3317600</v>
       </c>
       <c r="J57" s="3">
+        <v>3890900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3274300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3722700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3686100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4142700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3310400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2747300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2862000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>136800</v>
+        <v>143000</v>
       </c>
       <c r="E58" s="3">
-        <v>137000</v>
+        <v>138600</v>
       </c>
       <c r="F58" s="3">
-        <v>136400</v>
+        <v>138800</v>
       </c>
       <c r="G58" s="3">
-        <v>134300</v>
+        <v>138200</v>
       </c>
       <c r="H58" s="3">
-        <v>133800</v>
+        <v>136100</v>
       </c>
       <c r="I58" s="3">
-        <v>13900</v>
+        <v>135600</v>
       </c>
       <c r="J58" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K58" s="3">
         <v>13300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>28300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2346200</v>
+        <v>2185000</v>
       </c>
       <c r="E59" s="3">
-        <v>1050500</v>
+        <v>2377000</v>
       </c>
       <c r="F59" s="3">
-        <v>1485200</v>
+        <v>1064200</v>
       </c>
       <c r="G59" s="3">
-        <v>1803000</v>
+        <v>1504700</v>
       </c>
       <c r="H59" s="3">
-        <v>2240300</v>
+        <v>1826600</v>
       </c>
       <c r="I59" s="3">
-        <v>1284100</v>
+        <v>2269700</v>
       </c>
       <c r="J59" s="3">
+        <v>1301000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1655600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2137400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2567100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1414400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1668500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1709800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3197300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1479700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6144600</v>
+        <v>5821000</v>
       </c>
       <c r="E60" s="3">
-        <v>5108600</v>
+        <v>6225100</v>
       </c>
       <c r="F60" s="3">
-        <v>4994400</v>
+        <v>5175600</v>
       </c>
       <c r="G60" s="3">
-        <v>5217200</v>
+        <v>5059800</v>
       </c>
       <c r="H60" s="3">
-        <v>5648800</v>
+        <v>5285600</v>
       </c>
       <c r="I60" s="3">
-        <v>5138600</v>
+        <v>5722900</v>
       </c>
       <c r="J60" s="3">
+        <v>5205900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4943200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5875900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6270000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5576800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4999800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4480200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6085500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5008300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2587100</v>
+        <v>2609900</v>
       </c>
       <c r="E61" s="3">
-        <v>2438100</v>
+        <v>2621000</v>
       </c>
       <c r="F61" s="3">
-        <v>2361500</v>
+        <v>2470100</v>
       </c>
       <c r="G61" s="3">
-        <v>2243300</v>
+        <v>2392400</v>
       </c>
       <c r="H61" s="3">
-        <v>2198700</v>
+        <v>2272800</v>
       </c>
       <c r="I61" s="3">
-        <v>637700</v>
+        <v>2227500</v>
       </c>
       <c r="J61" s="3">
+        <v>646000</v>
+      </c>
+      <c r="K61" s="3">
         <v>640200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>772600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>751700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>709900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>694900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>680000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>671600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>694400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>560700</v>
+        <v>578100</v>
       </c>
       <c r="E62" s="3">
-        <v>601300</v>
+        <v>568100</v>
       </c>
       <c r="F62" s="3">
-        <v>509300</v>
+        <v>609200</v>
       </c>
       <c r="G62" s="3">
-        <v>522300</v>
+        <v>516000</v>
       </c>
       <c r="H62" s="3">
-        <v>518100</v>
+        <v>529100</v>
       </c>
       <c r="I62" s="3">
-        <v>597800</v>
+        <v>524900</v>
       </c>
       <c r="J62" s="3">
+        <v>605700</v>
+      </c>
+      <c r="K62" s="3">
         <v>690200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>740600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>762200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>732800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>853400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>886100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>668600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>736500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9292400</v>
+        <v>9008900</v>
       </c>
       <c r="E66" s="3">
-        <v>8148000</v>
+        <v>9414200</v>
       </c>
       <c r="F66" s="3">
-        <v>7865200</v>
+        <v>8254900</v>
       </c>
       <c r="G66" s="3">
-        <v>7982900</v>
+        <v>7968300</v>
       </c>
       <c r="H66" s="3">
-        <v>8365700</v>
+        <v>8087500</v>
       </c>
       <c r="I66" s="3">
-        <v>6374100</v>
+        <v>8475300</v>
       </c>
       <c r="J66" s="3">
+        <v>6457600</v>
+      </c>
+      <c r="K66" s="3">
         <v>6273600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7389100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7783900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7019500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6548100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6046300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7425700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6439200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3958400</v>
+        <v>4085500</v>
       </c>
       <c r="E72" s="3">
-        <v>4899800</v>
+        <v>4010300</v>
       </c>
       <c r="F72" s="3">
-        <v>4427400</v>
+        <v>4964000</v>
       </c>
       <c r="G72" s="3">
-        <v>4011300</v>
+        <v>4485500</v>
       </c>
       <c r="H72" s="3">
-        <v>3615600</v>
+        <v>4063900</v>
       </c>
       <c r="I72" s="3">
-        <v>4709800</v>
+        <v>3663000</v>
       </c>
       <c r="J72" s="3">
+        <v>4771500</v>
+      </c>
+      <c r="K72" s="3">
         <v>4180500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4514300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4089200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4986500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4439600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3991400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3295400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5291400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7330400</v>
+        <v>7407800</v>
       </c>
       <c r="E76" s="3">
-        <v>7568200</v>
+        <v>7426500</v>
       </c>
       <c r="F76" s="3">
-        <v>7205800</v>
+        <v>7667400</v>
       </c>
       <c r="G76" s="3">
-        <v>6698100</v>
+        <v>7300300</v>
       </c>
       <c r="H76" s="3">
-        <v>6260000</v>
+        <v>6785900</v>
       </c>
       <c r="I76" s="3">
-        <v>7422800</v>
+        <v>6342100</v>
       </c>
       <c r="J76" s="3">
+        <v>7520100</v>
+      </c>
+      <c r="K76" s="3">
         <v>6874800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7984200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7188100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8251100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7445700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6938200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6350800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8869100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>450000</v>
+        <v>75800</v>
       </c>
       <c r="E81" s="3">
-        <v>505500</v>
+        <v>455900</v>
       </c>
       <c r="F81" s="3">
-        <v>416400</v>
+        <v>512200</v>
       </c>
       <c r="G81" s="3">
-        <v>783900</v>
+        <v>421800</v>
       </c>
       <c r="H81" s="3">
-        <v>390000</v>
+        <v>794100</v>
       </c>
       <c r="I81" s="3">
-        <v>529400</v>
+        <v>395100</v>
       </c>
       <c r="J81" s="3">
+        <v>536300</v>
+      </c>
+      <c r="K81" s="3">
         <v>390800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>426700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>447600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>547200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>448800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>697100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>368800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>552200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>198500</v>
+        <v>209100</v>
       </c>
       <c r="E83" s="3">
-        <v>197700</v>
+        <v>201100</v>
       </c>
       <c r="F83" s="3">
-        <v>193200</v>
+        <v>200300</v>
       </c>
       <c r="G83" s="3">
-        <v>374400</v>
+        <v>195700</v>
       </c>
       <c r="H83" s="3">
-        <v>185600</v>
+        <v>379300</v>
       </c>
       <c r="I83" s="3">
-        <v>150600</v>
+        <v>188000</v>
       </c>
       <c r="J83" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K83" s="3">
         <v>139200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>164900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>163200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>158700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>149300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>145300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>149000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>150200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>438800</v>
+        <v>124000</v>
       </c>
       <c r="E89" s="3">
-        <v>1259700</v>
+        <v>444600</v>
       </c>
       <c r="F89" s="3">
-        <v>555800</v>
+        <v>1276200</v>
       </c>
       <c r="G89" s="3">
-        <v>733300</v>
+        <v>563100</v>
       </c>
       <c r="H89" s="3">
-        <v>124800</v>
+        <v>743000</v>
       </c>
       <c r="I89" s="3">
-        <v>1101600</v>
+        <v>126400</v>
       </c>
       <c r="J89" s="3">
+        <v>1116100</v>
+      </c>
+      <c r="K89" s="3">
         <v>624300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>287000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>205600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1218100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>895800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>588900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-164100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1324000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106200</v>
+        <v>-140200</v>
       </c>
       <c r="E91" s="3">
-        <v>-277200</v>
+        <v>-107600</v>
       </c>
       <c r="F91" s="3">
-        <v>-303300</v>
+        <v>-280900</v>
       </c>
       <c r="G91" s="3">
-        <v>-345500</v>
+        <v>-307300</v>
       </c>
       <c r="H91" s="3">
-        <v>-143800</v>
+        <v>-350000</v>
       </c>
       <c r="I91" s="3">
-        <v>-322600</v>
+        <v>-145600</v>
       </c>
       <c r="J91" s="3">
+        <v>-326900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-235600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-197400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-99100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-348500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-230500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-197600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-124700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-165900</v>
+        <v>-114100</v>
       </c>
       <c r="E94" s="3">
-        <v>-258000</v>
+        <v>-168000</v>
       </c>
       <c r="F94" s="3">
-        <v>-287400</v>
+        <v>-261400</v>
       </c>
       <c r="G94" s="3">
-        <v>-340500</v>
+        <v>-291200</v>
       </c>
       <c r="H94" s="3">
-        <v>-183300</v>
+        <v>-344900</v>
       </c>
       <c r="I94" s="3">
-        <v>-297300</v>
+        <v>-185700</v>
       </c>
       <c r="J94" s="3">
+        <v>-301200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-206200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-140400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-89100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-314300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-171700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>866900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-247400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-212700</v>
       </c>
       <c r="E96" s="3">
-        <v>-420400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-451300</v>
+        <v>-425900</v>
       </c>
       <c r="G96" s="3">
-        <v>-746700</v>
+        <v>-457300</v>
       </c>
       <c r="H96" s="3">
-        <v>-256800</v>
+        <v>-756500</v>
       </c>
       <c r="I96" s="3">
-        <v>-498200</v>
+        <v>-260200</v>
       </c>
       <c r="J96" s="3">
+        <v>-504800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-225700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-361100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-148100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-473200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-142700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-124800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-568100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-92300</v>
+        <v>-312700</v>
       </c>
       <c r="E100" s="3">
-        <v>-514700</v>
+        <v>-93500</v>
       </c>
       <c r="F100" s="3">
-        <v>-542900</v>
+        <v>-521500</v>
       </c>
       <c r="G100" s="3">
-        <v>-924300</v>
+        <v>-550100</v>
       </c>
       <c r="H100" s="3">
-        <v>-342400</v>
+        <v>-936400</v>
       </c>
       <c r="I100" s="3">
-        <v>-515600</v>
+        <v>-346900</v>
       </c>
       <c r="J100" s="3">
+        <v>-522400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-242800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-381700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-170000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-494500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-167100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-145400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-591300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>135900</v>
+        <v>-20200</v>
       </c>
       <c r="E101" s="3">
-        <v>-23300</v>
+        <v>137700</v>
       </c>
       <c r="F101" s="3">
-        <v>2300</v>
+        <v>-23600</v>
       </c>
       <c r="G101" s="3">
-        <v>-18900</v>
+        <v>2400</v>
       </c>
       <c r="H101" s="3">
-        <v>-18500</v>
+        <v>-19200</v>
       </c>
       <c r="I101" s="3">
-        <v>-29100</v>
+        <v>-18700</v>
       </c>
       <c r="J101" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-49100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>37700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-35300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>29600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-26900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-39900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>29200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>316600</v>
+        <v>-323100</v>
       </c>
       <c r="E102" s="3">
-        <v>463700</v>
+        <v>320700</v>
       </c>
       <c r="F102" s="3">
-        <v>-272200</v>
+        <v>469800</v>
       </c>
       <c r="G102" s="3">
-        <v>-550300</v>
+        <v>-275800</v>
       </c>
       <c r="H102" s="3">
-        <v>-419400</v>
+        <v>-557500</v>
       </c>
       <c r="I102" s="3">
-        <v>259600</v>
+        <v>-424900</v>
       </c>
       <c r="J102" s="3">
+        <v>263000</v>
+      </c>
+      <c r="K102" s="3">
         <v>126200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-197400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-88900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>473300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>541400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-93200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-527500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>503000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7707600</v>
+        <v>8257700</v>
       </c>
       <c r="E8" s="3">
-        <v>7812800</v>
+        <v>8439500</v>
       </c>
       <c r="F8" s="3">
-        <v>8469900</v>
+        <v>8554700</v>
       </c>
       <c r="G8" s="3">
-        <v>7068900</v>
+        <v>9274200</v>
       </c>
       <c r="H8" s="3">
-        <v>13957400</v>
+        <v>7740100</v>
       </c>
       <c r="I8" s="3">
-        <v>6919100</v>
+        <v>15282800</v>
       </c>
       <c r="J8" s="3">
+        <v>7576100</v>
+      </c>
+      <c r="K8" s="3">
         <v>8090400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6651000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7862800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7776400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8698500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7080300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7020300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6856800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8363100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5950400</v>
+        <v>6305700</v>
       </c>
       <c r="E9" s="3">
-        <v>6031500</v>
+        <v>6515500</v>
       </c>
       <c r="F9" s="3">
-        <v>6549400</v>
+        <v>6604200</v>
       </c>
       <c r="G9" s="3">
-        <v>5403200</v>
+        <v>7171300</v>
       </c>
       <c r="H9" s="3">
-        <v>10792500</v>
+        <v>5916300</v>
       </c>
       <c r="I9" s="3">
-        <v>5346000</v>
+        <v>11817300</v>
       </c>
       <c r="J9" s="3">
+        <v>5853600</v>
+      </c>
+      <c r="K9" s="3">
         <v>6245700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5099100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6076200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5992600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6786200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5437300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5420400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5285300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6525500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1757100</v>
+        <v>1952000</v>
       </c>
       <c r="E10" s="3">
-        <v>1781300</v>
+        <v>1924000</v>
       </c>
       <c r="F10" s="3">
-        <v>1920500</v>
+        <v>1950500</v>
       </c>
       <c r="G10" s="3">
-        <v>1665600</v>
+        <v>2102900</v>
       </c>
       <c r="H10" s="3">
-        <v>3165000</v>
+        <v>1823800</v>
       </c>
       <c r="I10" s="3">
-        <v>1573100</v>
+        <v>3465500</v>
       </c>
       <c r="J10" s="3">
+        <v>1722400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1844700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1551900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1786600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1783700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1912300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1643000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1599900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1571500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1837600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7199200</v>
+        <v>7569500</v>
       </c>
       <c r="E17" s="3">
-        <v>7145200</v>
+        <v>7882800</v>
       </c>
       <c r="F17" s="3">
-        <v>7731200</v>
+        <v>7823700</v>
       </c>
       <c r="G17" s="3">
-        <v>6458600</v>
+        <v>8465300</v>
       </c>
       <c r="H17" s="3">
-        <v>12843900</v>
+        <v>7071800</v>
       </c>
       <c r="I17" s="3">
-        <v>6356400</v>
+        <v>14063500</v>
       </c>
       <c r="J17" s="3">
+        <v>6960000</v>
+      </c>
+      <c r="K17" s="3">
         <v>7378300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6119400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7303800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7168700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7984100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6538800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6520800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6345000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7691500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>508400</v>
+        <v>688200</v>
       </c>
       <c r="E18" s="3">
-        <v>667600</v>
+        <v>556700</v>
       </c>
       <c r="F18" s="3">
-        <v>738700</v>
+        <v>731000</v>
       </c>
       <c r="G18" s="3">
-        <v>610300</v>
+        <v>808800</v>
       </c>
       <c r="H18" s="3">
-        <v>1113500</v>
+        <v>668200</v>
       </c>
       <c r="I18" s="3">
-        <v>562700</v>
+        <v>1219300</v>
       </c>
       <c r="J18" s="3">
+        <v>616100</v>
+      </c>
+      <c r="K18" s="3">
         <v>712200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>531600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>559000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>607600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>714500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>541500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>499500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>511900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>671600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,128 +1312,135 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-95900</v>
+        <v>9100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2400</v>
+        <v>-105000</v>
       </c>
       <c r="F20" s="3">
-        <v>198900</v>
+        <v>-2700</v>
       </c>
       <c r="G20" s="3">
-        <v>-60800</v>
+        <v>217800</v>
       </c>
       <c r="H20" s="3">
-        <v>-94700</v>
+        <v>-66600</v>
       </c>
       <c r="I20" s="3">
-        <v>-45700</v>
+        <v>-103700</v>
       </c>
       <c r="J20" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>621600</v>
+        <v>920700</v>
       </c>
       <c r="E21" s="3">
-        <v>866300</v>
+        <v>680600</v>
       </c>
       <c r="F21" s="3">
-        <v>1137900</v>
+        <v>948500</v>
       </c>
       <c r="G21" s="3">
-        <v>745300</v>
+        <v>1245900</v>
       </c>
       <c r="H21" s="3">
-        <v>1398100</v>
+        <v>816000</v>
       </c>
       <c r="I21" s="3">
-        <v>705000</v>
+        <v>1530900</v>
       </c>
       <c r="J21" s="3">
+        <v>771900</v>
+      </c>
+      <c r="K21" s="3">
         <v>859000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>654300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>734600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>768700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>866900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>685500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>637700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>651100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>828900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>74400</v>
+        <v>81400</v>
       </c>
       <c r="E22" s="3">
-        <v>71000</v>
+        <v>81500</v>
       </c>
       <c r="F22" s="3">
-        <v>262300</v>
+        <v>77700</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>287200</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1433,119 +1473,128 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>20700</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>338100</v>
+        <v>616000</v>
       </c>
       <c r="E23" s="3">
-        <v>594200</v>
+        <v>370200</v>
       </c>
       <c r="F23" s="3">
-        <v>675300</v>
+        <v>650600</v>
       </c>
       <c r="G23" s="3">
-        <v>549500</v>
+        <v>739400</v>
       </c>
       <c r="H23" s="3">
-        <v>1018800</v>
+        <v>601700</v>
       </c>
       <c r="I23" s="3">
-        <v>517000</v>
+        <v>1115600</v>
       </c>
       <c r="J23" s="3">
+        <v>566100</v>
+      </c>
+      <c r="K23" s="3">
         <v>706400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>515100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>569700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>605600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>708200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>536200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>492400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>502100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>657900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>262300</v>
+        <v>158000</v>
       </c>
       <c r="E24" s="3">
-        <v>138300</v>
+        <v>287200</v>
       </c>
       <c r="F24" s="3">
-        <v>163100</v>
+        <v>151400</v>
       </c>
       <c r="G24" s="3">
-        <v>127700</v>
+        <v>178600</v>
       </c>
       <c r="H24" s="3">
-        <v>224700</v>
+        <v>139800</v>
       </c>
       <c r="I24" s="3">
-        <v>121900</v>
+        <v>246000</v>
       </c>
       <c r="J24" s="3">
+        <v>133500</v>
+      </c>
+      <c r="K24" s="3">
         <v>170100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>124400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>143000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>158000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>161000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>122300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>143500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>136900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>158600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>75800</v>
+        <v>458000</v>
       </c>
       <c r="E26" s="3">
-        <v>455900</v>
+        <v>83000</v>
       </c>
       <c r="F26" s="3">
-        <v>512200</v>
+        <v>499200</v>
       </c>
       <c r="G26" s="3">
-        <v>421800</v>
+        <v>560800</v>
       </c>
       <c r="H26" s="3">
-        <v>794100</v>
+        <v>461900</v>
       </c>
       <c r="I26" s="3">
-        <v>395100</v>
+        <v>869500</v>
       </c>
       <c r="J26" s="3">
+        <v>432600</v>
+      </c>
+      <c r="K26" s="3">
         <v>536300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>390800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>426700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>447600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>547200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>413900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>348900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>365200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>499400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>75800</v>
+        <v>458000</v>
       </c>
       <c r="E27" s="3">
-        <v>455900</v>
+        <v>83000</v>
       </c>
       <c r="F27" s="3">
-        <v>512200</v>
+        <v>499200</v>
       </c>
       <c r="G27" s="3">
-        <v>421800</v>
+        <v>560800</v>
       </c>
       <c r="H27" s="3">
-        <v>794100</v>
+        <v>461900</v>
       </c>
       <c r="I27" s="3">
-        <v>395100</v>
+        <v>869500</v>
       </c>
       <c r="J27" s="3">
+        <v>432600</v>
+      </c>
+      <c r="K27" s="3">
         <v>536300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>390800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>426700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>447600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>547200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>413900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>348900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>365200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>499600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1773,8 +1834,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1795,22 +1856,25 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>34800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>348200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>3600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>52700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>95900</v>
+        <v>-9100</v>
       </c>
       <c r="E32" s="3">
-        <v>2400</v>
+        <v>105000</v>
       </c>
       <c r="F32" s="3">
-        <v>-198900</v>
+        <v>2700</v>
       </c>
       <c r="G32" s="3">
-        <v>60800</v>
+        <v>-217800</v>
       </c>
       <c r="H32" s="3">
-        <v>94700</v>
+        <v>66600</v>
       </c>
       <c r="I32" s="3">
-        <v>45700</v>
+        <v>103700</v>
       </c>
       <c r="J32" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>75800</v>
+        <v>458000</v>
       </c>
       <c r="E33" s="3">
-        <v>455900</v>
+        <v>83000</v>
       </c>
       <c r="F33" s="3">
-        <v>512200</v>
+        <v>499200</v>
       </c>
       <c r="G33" s="3">
-        <v>421800</v>
+        <v>560800</v>
       </c>
       <c r="H33" s="3">
-        <v>794100</v>
+        <v>461900</v>
       </c>
       <c r="I33" s="3">
-        <v>395100</v>
+        <v>869500</v>
       </c>
       <c r="J33" s="3">
+        <v>432600</v>
+      </c>
+      <c r="K33" s="3">
         <v>536300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>390800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>426700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>447600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>547200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>448800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>697100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>368800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>552200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>75800</v>
+        <v>458000</v>
       </c>
       <c r="E35" s="3">
-        <v>455900</v>
+        <v>83000</v>
       </c>
       <c r="F35" s="3">
-        <v>512200</v>
+        <v>499200</v>
       </c>
       <c r="G35" s="3">
-        <v>421800</v>
+        <v>560800</v>
       </c>
       <c r="H35" s="3">
-        <v>794100</v>
+        <v>461900</v>
       </c>
       <c r="I35" s="3">
-        <v>395100</v>
+        <v>869500</v>
       </c>
       <c r="J35" s="3">
+        <v>432600</v>
+      </c>
+      <c r="K35" s="3">
         <v>536300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>390800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>426700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>447600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>547200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>448800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>697100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>368800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>552200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,96 +2313,100 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1404700</v>
+        <v>1914700</v>
       </c>
       <c r="E41" s="3">
-        <v>1727800</v>
+        <v>1538100</v>
       </c>
       <c r="F41" s="3">
-        <v>1407100</v>
+        <v>1891900</v>
       </c>
       <c r="G41" s="3">
-        <v>937300</v>
+        <v>1540700</v>
       </c>
       <c r="H41" s="3">
-        <v>1213100</v>
+        <v>1026300</v>
       </c>
       <c r="I41" s="3">
-        <v>1345700</v>
+        <v>1328300</v>
       </c>
       <c r="J41" s="3">
+        <v>1473500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1770600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1488100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1622000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1819400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1841000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1367700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>826200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>919400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1485500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8700</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>630100</v>
+        <v>661800</v>
       </c>
       <c r="E43" s="3">
-        <v>640800</v>
+        <v>689900</v>
       </c>
       <c r="F43" s="3">
-        <v>625500</v>
+        <v>701700</v>
       </c>
       <c r="G43" s="3">
-        <v>489800</v>
+        <v>684900</v>
       </c>
       <c r="H43" s="3">
-        <v>507000</v>
+        <v>536300</v>
       </c>
       <c r="I43" s="3">
-        <v>516500</v>
+        <v>555100</v>
       </c>
       <c r="J43" s="3">
+        <v>565500</v>
+      </c>
+      <c r="K43" s="3">
         <v>548800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>418800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>462300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>390300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>560400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>393700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>361100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>361800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>715300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2947700</v>
+        <v>3588600</v>
       </c>
       <c r="E44" s="3">
-        <v>2894100</v>
+        <v>3227600</v>
       </c>
       <c r="F44" s="3">
-        <v>3080400</v>
+        <v>3168900</v>
       </c>
       <c r="G44" s="3">
-        <v>3129100</v>
+        <v>3372900</v>
       </c>
       <c r="H44" s="3">
-        <v>2750000</v>
+        <v>3426300</v>
       </c>
       <c r="I44" s="3">
-        <v>2691900</v>
+        <v>3011200</v>
       </c>
       <c r="J44" s="3">
+        <v>2947500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2888500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2732200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3084200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2919100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3075400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2976400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2675600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2772500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2849600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52800</v>
+        <v>64800</v>
       </c>
       <c r="E45" s="3">
-        <v>55900</v>
+        <v>57800</v>
       </c>
       <c r="F45" s="3">
-        <v>81100</v>
+        <v>61200</v>
       </c>
       <c r="G45" s="3">
-        <v>41300</v>
+        <v>88800</v>
       </c>
       <c r="H45" s="3">
-        <v>71700</v>
+        <v>45200</v>
       </c>
       <c r="I45" s="3">
-        <v>55100</v>
+        <v>78500</v>
       </c>
       <c r="J45" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K45" s="3">
         <v>64100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>49800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>66900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>43600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>649000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>667100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5035200</v>
+        <v>6229900</v>
       </c>
       <c r="E46" s="3">
-        <v>5318600</v>
+        <v>5513400</v>
       </c>
       <c r="F46" s="3">
-        <v>5194100</v>
+        <v>5823600</v>
       </c>
       <c r="G46" s="3">
-        <v>4597500</v>
+        <v>5687300</v>
       </c>
       <c r="H46" s="3">
-        <v>4541800</v>
+        <v>5034000</v>
       </c>
       <c r="I46" s="3">
-        <v>4609300</v>
+        <v>4973000</v>
       </c>
       <c r="J46" s="3">
+        <v>5046900</v>
+      </c>
+      <c r="K46" s="3">
         <v>5272000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4696400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5245000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5186000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5527600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4777400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3906500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4702600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5523600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>105000</v>
+        <v>112900</v>
       </c>
       <c r="E47" s="3">
-        <v>104000</v>
+        <v>115000</v>
       </c>
       <c r="F47" s="3">
-        <v>83700</v>
+        <v>113800</v>
       </c>
       <c r="G47" s="3">
-        <v>97200</v>
+        <v>91700</v>
       </c>
       <c r="H47" s="3">
-        <v>102600</v>
+        <v>106500</v>
       </c>
       <c r="I47" s="3">
-        <v>98100</v>
+        <v>112300</v>
       </c>
       <c r="J47" s="3">
+        <v>107500</v>
+      </c>
+      <c r="K47" s="3">
         <v>101500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>94300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>109100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>99000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>105900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>79200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>73500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>79900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>99800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8898000</v>
+        <v>9693500</v>
       </c>
       <c r="E48" s="3">
-        <v>9010100</v>
+        <v>9742900</v>
       </c>
       <c r="F48" s="3">
-        <v>8592800</v>
+        <v>9865700</v>
       </c>
       <c r="G48" s="3">
-        <v>8459800</v>
+        <v>9408800</v>
       </c>
       <c r="H48" s="3">
-        <v>8172800</v>
+        <v>9263200</v>
       </c>
       <c r="I48" s="3">
-        <v>8084200</v>
+        <v>8948900</v>
       </c>
       <c r="J48" s="3">
+        <v>8851900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6576500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6296400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7530400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7347300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7245000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6959000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6874900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6833900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7240200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2044500</v>
+        <v>2117600</v>
       </c>
       <c r="E49" s="3">
-        <v>2086900</v>
+        <v>2238700</v>
       </c>
       <c r="F49" s="3">
-        <v>1691000</v>
+        <v>2285000</v>
       </c>
       <c r="G49" s="3">
-        <v>1733300</v>
+        <v>1851600</v>
       </c>
       <c r="H49" s="3">
-        <v>1693300</v>
+        <v>1897800</v>
       </c>
       <c r="I49" s="3">
-        <v>1678900</v>
+        <v>1854100</v>
       </c>
       <c r="J49" s="3">
+        <v>1838400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1687100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1686800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2133700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1954500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2036100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1886700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1864000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1933200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2195100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>333900</v>
+        <v>381800</v>
       </c>
       <c r="E52" s="3">
-        <v>321200</v>
+        <v>365600</v>
       </c>
       <c r="F52" s="3">
-        <v>360600</v>
+        <v>351700</v>
       </c>
       <c r="G52" s="3">
-        <v>380700</v>
+        <v>394900</v>
       </c>
       <c r="H52" s="3">
-        <v>362900</v>
+        <v>416900</v>
       </c>
       <c r="I52" s="3">
-        <v>346900</v>
+        <v>397400</v>
       </c>
       <c r="J52" s="3">
+        <v>379800</v>
+      </c>
+      <c r="K52" s="3">
         <v>340500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>374600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>355100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>385300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>356000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>291600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>265500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>226800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>249600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16416700</v>
+        <v>18535800</v>
       </c>
       <c r="E54" s="3">
-        <v>16840700</v>
+        <v>17975500</v>
       </c>
       <c r="F54" s="3">
-        <v>15922300</v>
+        <v>18439900</v>
       </c>
       <c r="G54" s="3">
-        <v>15268600</v>
+        <v>17434200</v>
       </c>
       <c r="H54" s="3">
-        <v>14873400</v>
+        <v>16718400</v>
       </c>
       <c r="I54" s="3">
-        <v>14817400</v>
+        <v>16285700</v>
       </c>
       <c r="J54" s="3">
+        <v>16224400</v>
+      </c>
+      <c r="K54" s="3">
         <v>13977700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13148400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15373400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14972000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15270600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13993900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12984500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13776500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15308300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3493000</v>
+        <v>3988000</v>
       </c>
       <c r="E57" s="3">
-        <v>3709500</v>
+        <v>3824700</v>
       </c>
       <c r="F57" s="3">
-        <v>3972500</v>
+        <v>4061800</v>
       </c>
       <c r="G57" s="3">
-        <v>3416900</v>
+        <v>4349700</v>
       </c>
       <c r="H57" s="3">
-        <v>3322900</v>
+        <v>3741400</v>
       </c>
       <c r="I57" s="3">
-        <v>3317600</v>
+        <v>3638500</v>
       </c>
       <c r="J57" s="3">
+        <v>3632700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3890900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3274300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3722700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3686100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4142700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3310400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2747300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2862000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3500300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>143000</v>
+        <v>161200</v>
       </c>
       <c r="E58" s="3">
-        <v>138600</v>
+        <v>156600</v>
       </c>
       <c r="F58" s="3">
-        <v>138800</v>
+        <v>151800</v>
       </c>
       <c r="G58" s="3">
-        <v>138200</v>
+        <v>152000</v>
       </c>
       <c r="H58" s="3">
-        <v>136100</v>
+        <v>151300</v>
       </c>
       <c r="I58" s="3">
-        <v>135600</v>
+        <v>149000</v>
       </c>
       <c r="J58" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K58" s="3">
         <v>14100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>28300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2185000</v>
+        <v>2475300</v>
       </c>
       <c r="E59" s="3">
-        <v>2377000</v>
+        <v>2392400</v>
       </c>
       <c r="F59" s="3">
-        <v>1064200</v>
+        <v>2602700</v>
       </c>
       <c r="G59" s="3">
-        <v>1504700</v>
+        <v>1165300</v>
       </c>
       <c r="H59" s="3">
-        <v>1826600</v>
+        <v>1647600</v>
       </c>
       <c r="I59" s="3">
-        <v>2269700</v>
+        <v>2000100</v>
       </c>
       <c r="J59" s="3">
+        <v>2485200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1301000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1655600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2137400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2567100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1414400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1668500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1709800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3197300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1479700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5821000</v>
+        <v>6624600</v>
       </c>
       <c r="E60" s="3">
-        <v>6225100</v>
+        <v>6373700</v>
       </c>
       <c r="F60" s="3">
-        <v>5175600</v>
+        <v>6816300</v>
       </c>
       <c r="G60" s="3">
-        <v>5059800</v>
+        <v>5667000</v>
       </c>
       <c r="H60" s="3">
-        <v>5285600</v>
+        <v>5540300</v>
       </c>
       <c r="I60" s="3">
-        <v>5722900</v>
+        <v>5787500</v>
       </c>
       <c r="J60" s="3">
+        <v>6266300</v>
+      </c>
+      <c r="K60" s="3">
         <v>5205900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4943200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5875900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6270000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5576800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4999800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4480200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6085500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5008300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2609900</v>
+        <v>2860500</v>
       </c>
       <c r="E61" s="3">
-        <v>2621000</v>
+        <v>2857700</v>
       </c>
       <c r="F61" s="3">
-        <v>2470100</v>
+        <v>2869800</v>
       </c>
       <c r="G61" s="3">
-        <v>2392400</v>
+        <v>2704600</v>
       </c>
       <c r="H61" s="3">
-        <v>2272800</v>
+        <v>2619600</v>
       </c>
       <c r="I61" s="3">
-        <v>2227500</v>
+        <v>2488600</v>
       </c>
       <c r="J61" s="3">
+        <v>2439000</v>
+      </c>
+      <c r="K61" s="3">
         <v>646000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>640200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>772600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>751700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>709900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>694900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>680000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>671600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>694400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>578100</v>
+        <v>702200</v>
       </c>
       <c r="E62" s="3">
-        <v>568100</v>
+        <v>633000</v>
       </c>
       <c r="F62" s="3">
-        <v>609200</v>
+        <v>622000</v>
       </c>
       <c r="G62" s="3">
-        <v>516000</v>
+        <v>667100</v>
       </c>
       <c r="H62" s="3">
-        <v>529100</v>
+        <v>565000</v>
       </c>
       <c r="I62" s="3">
-        <v>524900</v>
+        <v>579400</v>
       </c>
       <c r="J62" s="3">
+        <v>574800</v>
+      </c>
+      <c r="K62" s="3">
         <v>605700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>690200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>740600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>762200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>732800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>853400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>886100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>668600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>736500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9008900</v>
+        <v>10187200</v>
       </c>
       <c r="E66" s="3">
-        <v>9414200</v>
+        <v>9864300</v>
       </c>
       <c r="F66" s="3">
-        <v>8254900</v>
+        <v>10308100</v>
       </c>
       <c r="G66" s="3">
-        <v>7968300</v>
+        <v>9038700</v>
       </c>
       <c r="H66" s="3">
-        <v>8087500</v>
+        <v>8724900</v>
       </c>
       <c r="I66" s="3">
-        <v>8475300</v>
+        <v>8855500</v>
       </c>
       <c r="J66" s="3">
+        <v>9280100</v>
+      </c>
+      <c r="K66" s="3">
         <v>6457600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6273600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7389100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7783900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7019500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6548100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6046300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7425700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6439200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4085500</v>
+        <v>4931100</v>
       </c>
       <c r="E72" s="3">
-        <v>4010300</v>
+        <v>4473500</v>
       </c>
       <c r="F72" s="3">
-        <v>4964000</v>
+        <v>4391100</v>
       </c>
       <c r="G72" s="3">
-        <v>4485500</v>
+        <v>5435400</v>
       </c>
       <c r="H72" s="3">
-        <v>4063900</v>
+        <v>4911400</v>
       </c>
       <c r="I72" s="3">
-        <v>3663000</v>
+        <v>4449800</v>
       </c>
       <c r="J72" s="3">
+        <v>4010800</v>
+      </c>
+      <c r="K72" s="3">
         <v>4771500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4180500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4514300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4089200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4986500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4439600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3991400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3295400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5291400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7407800</v>
+        <v>8348600</v>
       </c>
       <c r="E76" s="3">
-        <v>7426500</v>
+        <v>8111200</v>
       </c>
       <c r="F76" s="3">
-        <v>7667400</v>
+        <v>8131700</v>
       </c>
       <c r="G76" s="3">
-        <v>7300300</v>
+        <v>8395500</v>
       </c>
       <c r="H76" s="3">
-        <v>6785900</v>
+        <v>7993500</v>
       </c>
       <c r="I76" s="3">
-        <v>6342100</v>
+        <v>7430200</v>
       </c>
       <c r="J76" s="3">
+        <v>6944300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7520100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6874800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7984200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7188100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8251100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7445700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6938200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6350800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8869100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>75800</v>
+        <v>458000</v>
       </c>
       <c r="E81" s="3">
-        <v>455900</v>
+        <v>83000</v>
       </c>
       <c r="F81" s="3">
-        <v>512200</v>
+        <v>499200</v>
       </c>
       <c r="G81" s="3">
-        <v>421800</v>
+        <v>560800</v>
       </c>
       <c r="H81" s="3">
-        <v>794100</v>
+        <v>461900</v>
       </c>
       <c r="I81" s="3">
-        <v>395100</v>
+        <v>869500</v>
       </c>
       <c r="J81" s="3">
+        <v>432600</v>
+      </c>
+      <c r="K81" s="3">
         <v>536300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>390800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>426700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>447600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>547200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>448800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>697100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>368800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>552200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>209100</v>
+        <v>223300</v>
       </c>
       <c r="E83" s="3">
-        <v>201100</v>
+        <v>228900</v>
       </c>
       <c r="F83" s="3">
-        <v>200300</v>
+        <v>220200</v>
       </c>
       <c r="G83" s="3">
-        <v>195700</v>
+        <v>219300</v>
       </c>
       <c r="H83" s="3">
-        <v>379300</v>
+        <v>214300</v>
       </c>
       <c r="I83" s="3">
-        <v>188000</v>
+        <v>415300</v>
       </c>
       <c r="J83" s="3">
+        <v>205800</v>
+      </c>
+      <c r="K83" s="3">
         <v>152600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>164900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>163200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>158700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>149300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>145300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>149000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>150200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>124000</v>
+        <v>720200</v>
       </c>
       <c r="E89" s="3">
-        <v>444600</v>
+        <v>135700</v>
       </c>
       <c r="F89" s="3">
-        <v>1276200</v>
+        <v>486800</v>
       </c>
       <c r="G89" s="3">
-        <v>563100</v>
+        <v>1397400</v>
       </c>
       <c r="H89" s="3">
-        <v>743000</v>
+        <v>616500</v>
       </c>
       <c r="I89" s="3">
-        <v>126400</v>
+        <v>813500</v>
       </c>
       <c r="J89" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1116100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>624300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>287000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>205600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1218100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>895800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>588900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-164100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1324000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-140200</v>
+        <v>-230000</v>
       </c>
       <c r="E91" s="3">
-        <v>-107600</v>
+        <v>-153500</v>
       </c>
       <c r="F91" s="3">
-        <v>-280900</v>
+        <v>-117800</v>
       </c>
       <c r="G91" s="3">
-        <v>-307300</v>
+        <v>-307500</v>
       </c>
       <c r="H91" s="3">
-        <v>-350000</v>
+        <v>-336500</v>
       </c>
       <c r="I91" s="3">
-        <v>-145600</v>
+        <v>-383300</v>
       </c>
       <c r="J91" s="3">
+        <v>-159500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-326900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-235600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-197400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-99100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-348500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-230500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-197600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-124700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-114100</v>
+        <v>-209400</v>
       </c>
       <c r="E94" s="3">
-        <v>-168000</v>
+        <v>-124900</v>
       </c>
       <c r="F94" s="3">
-        <v>-261400</v>
+        <v>-184000</v>
       </c>
       <c r="G94" s="3">
-        <v>-291200</v>
+        <v>-286200</v>
       </c>
       <c r="H94" s="3">
-        <v>-344900</v>
+        <v>-318800</v>
       </c>
       <c r="I94" s="3">
-        <v>-185700</v>
+        <v>-377700</v>
       </c>
       <c r="J94" s="3">
+        <v>-203400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-301200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-206200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-140400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-89100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-314300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-171700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>866900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-178000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-247400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-212700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-232900</v>
       </c>
       <c r="F96" s="3">
-        <v>-425900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-457300</v>
+        <v>-466300</v>
       </c>
       <c r="H96" s="3">
-        <v>-756500</v>
+        <v>-500700</v>
       </c>
       <c r="I96" s="3">
-        <v>-260200</v>
+        <v>-828400</v>
       </c>
       <c r="J96" s="3">
+        <v>-284900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-504800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-225700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-361100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-148100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-473200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-142700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-124800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-568100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-312700</v>
+        <v>-114400</v>
       </c>
       <c r="E100" s="3">
-        <v>-93500</v>
+        <v>-342400</v>
       </c>
       <c r="F100" s="3">
-        <v>-521500</v>
+        <v>-102400</v>
       </c>
       <c r="G100" s="3">
-        <v>-550100</v>
+        <v>-571000</v>
       </c>
       <c r="H100" s="3">
-        <v>-936400</v>
+        <v>-602300</v>
       </c>
       <c r="I100" s="3">
-        <v>-346900</v>
+        <v>-1025300</v>
       </c>
       <c r="J100" s="3">
+        <v>-379800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-522400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-242800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-381700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-170000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-494500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-167100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-145400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-591300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20200</v>
+        <v>-19800</v>
       </c>
       <c r="E101" s="3">
-        <v>137700</v>
+        <v>-22100</v>
       </c>
       <c r="F101" s="3">
-        <v>-23600</v>
+        <v>150800</v>
       </c>
       <c r="G101" s="3">
-        <v>2400</v>
+        <v>-25800</v>
       </c>
       <c r="H101" s="3">
-        <v>-19200</v>
+        <v>2600</v>
       </c>
       <c r="I101" s="3">
-        <v>-18700</v>
+        <v>-21000</v>
       </c>
       <c r="J101" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-29400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-49100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>37700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-35300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>29600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-39900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>29200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-323100</v>
+        <v>376600</v>
       </c>
       <c r="E102" s="3">
-        <v>320700</v>
+        <v>-353700</v>
       </c>
       <c r="F102" s="3">
-        <v>469800</v>
+        <v>351200</v>
       </c>
       <c r="G102" s="3">
-        <v>-275800</v>
+        <v>514400</v>
       </c>
       <c r="H102" s="3">
-        <v>-557500</v>
+        <v>-302000</v>
       </c>
       <c r="I102" s="3">
-        <v>-424900</v>
+        <v>-610500</v>
       </c>
       <c r="J102" s="3">
+        <v>-465200</v>
+      </c>
+      <c r="K102" s="3">
         <v>263000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>126200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-197400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-88900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>473300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>541400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-93200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-527500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>503000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8257700</v>
+        <v>9480000</v>
       </c>
       <c r="E8" s="3">
-        <v>8439500</v>
+        <v>7999700</v>
       </c>
       <c r="F8" s="3">
-        <v>8554700</v>
+        <v>8175800</v>
       </c>
       <c r="G8" s="3">
-        <v>9274200</v>
+        <v>8287400</v>
       </c>
       <c r="H8" s="3">
-        <v>7740100</v>
+        <v>8984400</v>
       </c>
       <c r="I8" s="3">
-        <v>15282800</v>
+        <v>7498300</v>
       </c>
       <c r="J8" s="3">
+        <v>14805300</v>
+      </c>
+      <c r="K8" s="3">
         <v>7576100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8090400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6651000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7862800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7776400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8698500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7080300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7020300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6856800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8363100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6305700</v>
+        <v>7286600</v>
       </c>
       <c r="E9" s="3">
-        <v>6515500</v>
+        <v>6108700</v>
       </c>
       <c r="F9" s="3">
-        <v>6604200</v>
+        <v>6311900</v>
       </c>
       <c r="G9" s="3">
-        <v>7171300</v>
+        <v>6397900</v>
       </c>
       <c r="H9" s="3">
-        <v>5916300</v>
+        <v>6947200</v>
       </c>
       <c r="I9" s="3">
-        <v>11817300</v>
+        <v>5731400</v>
       </c>
       <c r="J9" s="3">
+        <v>11448100</v>
+      </c>
+      <c r="K9" s="3">
         <v>5853600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6245700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5099100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6076200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5992600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6786200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5437300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5420400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5285300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6525500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1952000</v>
+        <v>2193400</v>
       </c>
       <c r="E10" s="3">
-        <v>1924000</v>
+        <v>1891000</v>
       </c>
       <c r="F10" s="3">
-        <v>1950500</v>
+        <v>1863900</v>
       </c>
       <c r="G10" s="3">
-        <v>2102900</v>
+        <v>1889500</v>
       </c>
       <c r="H10" s="3">
-        <v>1823800</v>
+        <v>2037200</v>
       </c>
       <c r="I10" s="3">
-        <v>3465500</v>
+        <v>1766800</v>
       </c>
       <c r="J10" s="3">
+        <v>3357200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1722400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1844700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1551900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1786600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1783700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1912300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1643000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1599900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1571500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1837600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7569500</v>
+        <v>8615400</v>
       </c>
       <c r="E17" s="3">
-        <v>7882800</v>
+        <v>7333000</v>
       </c>
       <c r="F17" s="3">
-        <v>7823700</v>
+        <v>7636500</v>
       </c>
       <c r="G17" s="3">
-        <v>8465300</v>
+        <v>7579300</v>
       </c>
       <c r="H17" s="3">
-        <v>7071800</v>
+        <v>8200800</v>
       </c>
       <c r="I17" s="3">
-        <v>14063500</v>
+        <v>6850900</v>
       </c>
       <c r="J17" s="3">
+        <v>13624100</v>
+      </c>
+      <c r="K17" s="3">
         <v>6960000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7378300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6119400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7303800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7168700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7984100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6538800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6520800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6345000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7691500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>688200</v>
+        <v>864600</v>
       </c>
       <c r="E18" s="3">
-        <v>556700</v>
+        <v>666700</v>
       </c>
       <c r="F18" s="3">
-        <v>731000</v>
+        <v>539300</v>
       </c>
       <c r="G18" s="3">
-        <v>808800</v>
+        <v>708100</v>
       </c>
       <c r="H18" s="3">
-        <v>668200</v>
+        <v>783600</v>
       </c>
       <c r="I18" s="3">
-        <v>1219300</v>
+        <v>647400</v>
       </c>
       <c r="J18" s="3">
+        <v>1181200</v>
+      </c>
+      <c r="K18" s="3">
         <v>616100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>712200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>531600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>559000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>607600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>714500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>541500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>499500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>511900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>671600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,137 +1345,144 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9100</v>
+        <v>19400</v>
       </c>
       <c r="E20" s="3">
-        <v>-105000</v>
+        <v>8800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2700</v>
+        <v>-101700</v>
       </c>
       <c r="G20" s="3">
-        <v>217800</v>
+        <v>-2600</v>
       </c>
       <c r="H20" s="3">
-        <v>-66600</v>
+        <v>211000</v>
       </c>
       <c r="I20" s="3">
-        <v>-103700</v>
+        <v>-64500</v>
       </c>
       <c r="J20" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-50000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>920700</v>
+        <v>1100300</v>
       </c>
       <c r="E21" s="3">
-        <v>680600</v>
+        <v>891900</v>
       </c>
       <c r="F21" s="3">
-        <v>948500</v>
+        <v>659300</v>
       </c>
       <c r="G21" s="3">
-        <v>1245900</v>
+        <v>918900</v>
       </c>
       <c r="H21" s="3">
-        <v>816000</v>
+        <v>1207000</v>
       </c>
       <c r="I21" s="3">
-        <v>1530900</v>
+        <v>790500</v>
       </c>
       <c r="J21" s="3">
+        <v>1483100</v>
+      </c>
+      <c r="K21" s="3">
         <v>771900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>859000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>654300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>734600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>768700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>866900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>685500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>637700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>651100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>828900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>81400</v>
+        <v>77000</v>
       </c>
       <c r="E22" s="3">
-        <v>81500</v>
+        <v>78800</v>
       </c>
       <c r="F22" s="3">
-        <v>77700</v>
+        <v>78900</v>
       </c>
       <c r="G22" s="3">
-        <v>287200</v>
+        <v>75300</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>278200</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1476,125 +1515,134 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>20700</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>616000</v>
+        <v>807000</v>
       </c>
       <c r="E23" s="3">
-        <v>370200</v>
+        <v>596700</v>
       </c>
       <c r="F23" s="3">
-        <v>650600</v>
+        <v>358600</v>
       </c>
       <c r="G23" s="3">
-        <v>739400</v>
+        <v>630300</v>
       </c>
       <c r="H23" s="3">
-        <v>601700</v>
+        <v>716300</v>
       </c>
       <c r="I23" s="3">
-        <v>1115600</v>
+        <v>582900</v>
       </c>
       <c r="J23" s="3">
+        <v>1080700</v>
+      </c>
+      <c r="K23" s="3">
         <v>566100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>706400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>515100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>569700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>605600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>708200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>536200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>492400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>502100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>657900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>197400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>153100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>278200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>146700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>173000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>135400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>238300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>133500</v>
+      </c>
+      <c r="L24" s="3">
+        <v>170100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>124400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>143000</v>
+      </c>
+      <c r="O24" s="3">
         <v>158000</v>
       </c>
-      <c r="E24" s="3">
-        <v>287200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>151400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>178600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>139800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>246000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>133500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>170100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>124400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>143000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>158000</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>161000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>122300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>143500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>136900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>158600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>458000</v>
+        <v>609600</v>
       </c>
       <c r="E26" s="3">
-        <v>83000</v>
+        <v>443700</v>
       </c>
       <c r="F26" s="3">
-        <v>499200</v>
+        <v>80400</v>
       </c>
       <c r="G26" s="3">
-        <v>560800</v>
+        <v>483600</v>
       </c>
       <c r="H26" s="3">
-        <v>461900</v>
+        <v>543300</v>
       </c>
       <c r="I26" s="3">
-        <v>869500</v>
+        <v>447500</v>
       </c>
       <c r="J26" s="3">
+        <v>842400</v>
+      </c>
+      <c r="K26" s="3">
         <v>432600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>536300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>390800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>426700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>447600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>547200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>413900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>348900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>365200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>499400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>458000</v>
+        <v>609600</v>
       </c>
       <c r="E27" s="3">
-        <v>83000</v>
+        <v>443700</v>
       </c>
       <c r="F27" s="3">
-        <v>499200</v>
+        <v>80400</v>
       </c>
       <c r="G27" s="3">
-        <v>560800</v>
+        <v>483600</v>
       </c>
       <c r="H27" s="3">
-        <v>461900</v>
+        <v>543300</v>
       </c>
       <c r="I27" s="3">
-        <v>869500</v>
+        <v>447500</v>
       </c>
       <c r="J27" s="3">
+        <v>842400</v>
+      </c>
+      <c r="K27" s="3">
         <v>432600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>536300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>390800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>426700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>447600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>547200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>413900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>348900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>365200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>499600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,25 +1874,28 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1859,22 +1919,25 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>34800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>348200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>3600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>52700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9100</v>
+        <v>-19400</v>
       </c>
       <c r="E32" s="3">
-        <v>105000</v>
+        <v>-8800</v>
       </c>
       <c r="F32" s="3">
-        <v>2700</v>
+        <v>101700</v>
       </c>
       <c r="G32" s="3">
-        <v>-217800</v>
+        <v>2600</v>
       </c>
       <c r="H32" s="3">
-        <v>66600</v>
+        <v>-211000</v>
       </c>
       <c r="I32" s="3">
-        <v>103700</v>
+        <v>64500</v>
       </c>
       <c r="J32" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K32" s="3">
         <v>50000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>458000</v>
+        <v>609600</v>
       </c>
       <c r="E33" s="3">
-        <v>83000</v>
+        <v>443700</v>
       </c>
       <c r="F33" s="3">
-        <v>499200</v>
+        <v>80400</v>
       </c>
       <c r="G33" s="3">
-        <v>560800</v>
+        <v>483600</v>
       </c>
       <c r="H33" s="3">
-        <v>461900</v>
+        <v>543300</v>
       </c>
       <c r="I33" s="3">
-        <v>869500</v>
+        <v>447500</v>
       </c>
       <c r="J33" s="3">
+        <v>842400</v>
+      </c>
+      <c r="K33" s="3">
         <v>432600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>536300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>390800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>426700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>447600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>547200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>448800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>697100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>368800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>552200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>458000</v>
+        <v>609600</v>
       </c>
       <c r="E35" s="3">
-        <v>83000</v>
+        <v>443700</v>
       </c>
       <c r="F35" s="3">
-        <v>499200</v>
+        <v>80400</v>
       </c>
       <c r="G35" s="3">
-        <v>560800</v>
+        <v>483600</v>
       </c>
       <c r="H35" s="3">
-        <v>461900</v>
+        <v>543300</v>
       </c>
       <c r="I35" s="3">
-        <v>869500</v>
+        <v>447500</v>
       </c>
       <c r="J35" s="3">
+        <v>842400</v>
+      </c>
+      <c r="K35" s="3">
         <v>432600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>536300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>390800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>426700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>447600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>547200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>448800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>697100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>368800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>552200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1914700</v>
+        <v>1725400</v>
       </c>
       <c r="E41" s="3">
-        <v>1538100</v>
+        <v>1854900</v>
       </c>
       <c r="F41" s="3">
-        <v>1891900</v>
+        <v>1490100</v>
       </c>
       <c r="G41" s="3">
-        <v>1540700</v>
+        <v>1832700</v>
       </c>
       <c r="H41" s="3">
-        <v>1026300</v>
+        <v>1492600</v>
       </c>
       <c r="I41" s="3">
-        <v>1328300</v>
+        <v>994300</v>
       </c>
       <c r="J41" s="3">
+        <v>1286800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1473500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1770600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1488100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1622000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1819400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1841000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1367700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>826200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>919400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1485500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2396,20 +2485,20 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8700</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>661800</v>
+        <v>822000</v>
       </c>
       <c r="E43" s="3">
-        <v>689900</v>
+        <v>641100</v>
       </c>
       <c r="F43" s="3">
-        <v>701700</v>
+        <v>668300</v>
       </c>
       <c r="G43" s="3">
-        <v>684900</v>
+        <v>679800</v>
       </c>
       <c r="H43" s="3">
-        <v>536300</v>
+        <v>663500</v>
       </c>
       <c r="I43" s="3">
-        <v>555100</v>
+        <v>519500</v>
       </c>
       <c r="J43" s="3">
+        <v>537800</v>
+      </c>
+      <c r="K43" s="3">
         <v>565500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>548800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>418800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>462300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>390300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>560400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>393700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>361100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>361800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>715300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3588600</v>
+        <v>3306600</v>
       </c>
       <c r="E44" s="3">
-        <v>3227600</v>
+        <v>3476500</v>
       </c>
       <c r="F44" s="3">
-        <v>3168900</v>
+        <v>3126700</v>
       </c>
       <c r="G44" s="3">
-        <v>3372900</v>
+        <v>3069900</v>
       </c>
       <c r="H44" s="3">
-        <v>3426300</v>
+        <v>3267500</v>
       </c>
       <c r="I44" s="3">
-        <v>3011200</v>
+        <v>3319200</v>
       </c>
       <c r="J44" s="3">
+        <v>2917100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2947500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2888500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2732200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3084200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2919100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3075400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2976400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2675600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2772500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2849600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64800</v>
+        <v>33900</v>
       </c>
       <c r="E45" s="3">
-        <v>57800</v>
+        <v>62800</v>
       </c>
       <c r="F45" s="3">
-        <v>61200</v>
+        <v>56000</v>
       </c>
       <c r="G45" s="3">
-        <v>88800</v>
+        <v>59300</v>
       </c>
       <c r="H45" s="3">
-        <v>45200</v>
+        <v>86000</v>
       </c>
       <c r="I45" s="3">
-        <v>78500</v>
+        <v>43800</v>
       </c>
       <c r="J45" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K45" s="3">
         <v>60400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>64100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>49800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>66900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>43600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>649000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>667100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6229900</v>
+        <v>5887800</v>
       </c>
       <c r="E46" s="3">
-        <v>5513400</v>
+        <v>6035300</v>
       </c>
       <c r="F46" s="3">
-        <v>5823600</v>
+        <v>5341100</v>
       </c>
       <c r="G46" s="3">
-        <v>5687300</v>
+        <v>5641700</v>
       </c>
       <c r="H46" s="3">
-        <v>5034000</v>
+        <v>5509600</v>
       </c>
       <c r="I46" s="3">
-        <v>4973000</v>
+        <v>4876800</v>
       </c>
       <c r="J46" s="3">
+        <v>4817700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5046900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5272000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4696400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5245000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5186000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5527600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4777400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3906500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4702600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5523600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>112900</v>
+        <v>98800</v>
       </c>
       <c r="E47" s="3">
-        <v>115000</v>
+        <v>109400</v>
       </c>
       <c r="F47" s="3">
-        <v>113800</v>
+        <v>111400</v>
       </c>
       <c r="G47" s="3">
-        <v>91700</v>
+        <v>110300</v>
       </c>
       <c r="H47" s="3">
-        <v>106500</v>
+        <v>88800</v>
       </c>
       <c r="I47" s="3">
-        <v>112300</v>
+        <v>103100</v>
       </c>
       <c r="J47" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K47" s="3">
         <v>107500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>101500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>94300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>109100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>99000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>105900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>79200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>73500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>79900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>99800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9693500</v>
+        <v>9260600</v>
       </c>
       <c r="E48" s="3">
-        <v>9742900</v>
+        <v>9390700</v>
       </c>
       <c r="F48" s="3">
-        <v>9865700</v>
+        <v>9438500</v>
       </c>
       <c r="G48" s="3">
-        <v>9408800</v>
+        <v>9557400</v>
       </c>
       <c r="H48" s="3">
-        <v>9263200</v>
+        <v>9114800</v>
       </c>
       <c r="I48" s="3">
-        <v>8948900</v>
+        <v>8973700</v>
       </c>
       <c r="J48" s="3">
+        <v>8669300</v>
+      </c>
+      <c r="K48" s="3">
         <v>8851900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6576500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6296400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7530400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7347300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7245000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6959000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6874900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6833900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7240200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2117600</v>
+        <v>1816400</v>
       </c>
       <c r="E49" s="3">
-        <v>2238700</v>
+        <v>2051500</v>
       </c>
       <c r="F49" s="3">
-        <v>2285000</v>
+        <v>2168700</v>
       </c>
       <c r="G49" s="3">
-        <v>1851600</v>
+        <v>2213600</v>
       </c>
       <c r="H49" s="3">
-        <v>1897800</v>
+        <v>1793700</v>
       </c>
       <c r="I49" s="3">
-        <v>1854100</v>
+        <v>1838500</v>
       </c>
       <c r="J49" s="3">
+        <v>1796200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1838400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1687100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1686800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2133700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1954500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2036100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1886700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1864000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1933200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2195100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>381800</v>
+        <v>440600</v>
       </c>
       <c r="E52" s="3">
-        <v>365600</v>
+        <v>369800</v>
       </c>
       <c r="F52" s="3">
-        <v>351700</v>
+        <v>354100</v>
       </c>
       <c r="G52" s="3">
-        <v>394900</v>
+        <v>340700</v>
       </c>
       <c r="H52" s="3">
-        <v>416900</v>
+        <v>382500</v>
       </c>
       <c r="I52" s="3">
-        <v>397400</v>
+        <v>403900</v>
       </c>
       <c r="J52" s="3">
+        <v>385000</v>
+      </c>
+      <c r="K52" s="3">
         <v>379800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>340500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>374600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>355100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>385300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>356000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>291600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>265500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>226800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>249600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18535800</v>
+        <v>17504300</v>
       </c>
       <c r="E54" s="3">
-        <v>17975500</v>
+        <v>17956600</v>
       </c>
       <c r="F54" s="3">
-        <v>18439900</v>
+        <v>17413900</v>
       </c>
       <c r="G54" s="3">
-        <v>17434200</v>
+        <v>17863700</v>
       </c>
       <c r="H54" s="3">
-        <v>16718400</v>
+        <v>16889500</v>
       </c>
       <c r="I54" s="3">
-        <v>16285700</v>
+        <v>16196100</v>
       </c>
       <c r="J54" s="3">
+        <v>15776900</v>
+      </c>
+      <c r="K54" s="3">
         <v>16224400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13977700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13148400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15373400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14972000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15270600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13993900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12984500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13776500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15308300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3988000</v>
+        <v>4467300</v>
       </c>
       <c r="E57" s="3">
-        <v>3824700</v>
+        <v>3863400</v>
       </c>
       <c r="F57" s="3">
-        <v>4061800</v>
+        <v>3705200</v>
       </c>
       <c r="G57" s="3">
-        <v>4349700</v>
+        <v>3934900</v>
       </c>
       <c r="H57" s="3">
-        <v>3741400</v>
+        <v>4213800</v>
       </c>
       <c r="I57" s="3">
-        <v>3638500</v>
+        <v>3624500</v>
       </c>
       <c r="J57" s="3">
+        <v>3524800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3632700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3890900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3274300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3722700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3686100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4142700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3310400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2747300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2862000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3500300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>161200</v>
+        <v>155600</v>
       </c>
       <c r="E58" s="3">
-        <v>156600</v>
+        <v>156100</v>
       </c>
       <c r="F58" s="3">
-        <v>151800</v>
+        <v>151700</v>
       </c>
       <c r="G58" s="3">
-        <v>152000</v>
+        <v>147000</v>
       </c>
       <c r="H58" s="3">
-        <v>151300</v>
+        <v>147300</v>
       </c>
       <c r="I58" s="3">
-        <v>149000</v>
+        <v>146600</v>
       </c>
       <c r="J58" s="3">
+        <v>144300</v>
+      </c>
+      <c r="K58" s="3">
         <v>148500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>28300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2475300</v>
+        <v>1330000</v>
       </c>
       <c r="E59" s="3">
-        <v>2392400</v>
+        <v>2398000</v>
       </c>
       <c r="F59" s="3">
-        <v>2602700</v>
+        <v>2317700</v>
       </c>
       <c r="G59" s="3">
-        <v>1165300</v>
+        <v>2521400</v>
       </c>
       <c r="H59" s="3">
-        <v>1647600</v>
+        <v>1128900</v>
       </c>
       <c r="I59" s="3">
-        <v>2000100</v>
+        <v>1596100</v>
       </c>
       <c r="J59" s="3">
+        <v>1937600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2485200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1301000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1655600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2137400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2567100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1414400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1668500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1709800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3197300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1479700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6624600</v>
+        <v>5952900</v>
       </c>
       <c r="E60" s="3">
-        <v>6373700</v>
+        <v>6417600</v>
       </c>
       <c r="F60" s="3">
-        <v>6816300</v>
+        <v>6174600</v>
       </c>
       <c r="G60" s="3">
-        <v>5667000</v>
+        <v>6603300</v>
       </c>
       <c r="H60" s="3">
-        <v>5540300</v>
+        <v>5489900</v>
       </c>
       <c r="I60" s="3">
-        <v>5787500</v>
+        <v>5367200</v>
       </c>
       <c r="J60" s="3">
+        <v>5606700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6266300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5205900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4943200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5875900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6270000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5576800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4999800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4480200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6085500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5008300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2860500</v>
+        <v>2733900</v>
       </c>
       <c r="E61" s="3">
-        <v>2857700</v>
+        <v>2771100</v>
       </c>
       <c r="F61" s="3">
-        <v>2869800</v>
+        <v>2768400</v>
       </c>
       <c r="G61" s="3">
-        <v>2704600</v>
+        <v>2780200</v>
       </c>
       <c r="H61" s="3">
-        <v>2619600</v>
+        <v>2620100</v>
       </c>
       <c r="I61" s="3">
-        <v>2488600</v>
+        <v>2537800</v>
       </c>
       <c r="J61" s="3">
+        <v>2410800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2439000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>646000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>640200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>772600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>751700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>709900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>694900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>680000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>671600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>694400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>702200</v>
+        <v>637200</v>
       </c>
       <c r="E62" s="3">
-        <v>633000</v>
+        <v>680200</v>
       </c>
       <c r="F62" s="3">
-        <v>622000</v>
+        <v>613200</v>
       </c>
       <c r="G62" s="3">
-        <v>667100</v>
+        <v>602600</v>
       </c>
       <c r="H62" s="3">
-        <v>565000</v>
+        <v>646200</v>
       </c>
       <c r="I62" s="3">
-        <v>579400</v>
+        <v>547300</v>
       </c>
       <c r="J62" s="3">
+        <v>561300</v>
+      </c>
+      <c r="K62" s="3">
         <v>574800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>605700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>690200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>740600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>762200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>732800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>853400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>886100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>668600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>736500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10187200</v>
+        <v>9324000</v>
       </c>
       <c r="E66" s="3">
-        <v>9864300</v>
+        <v>9868900</v>
       </c>
       <c r="F66" s="3">
-        <v>10308100</v>
+        <v>9556100</v>
       </c>
       <c r="G66" s="3">
-        <v>9038700</v>
+        <v>9986100</v>
       </c>
       <c r="H66" s="3">
-        <v>8724900</v>
+        <v>8756300</v>
       </c>
       <c r="I66" s="3">
-        <v>8855500</v>
+        <v>8452300</v>
       </c>
       <c r="J66" s="3">
+        <v>8578800</v>
+      </c>
+      <c r="K66" s="3">
         <v>9280100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6457600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6273600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7389100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7783900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7019500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6548100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6046300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7425700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6439200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4931100</v>
+        <v>5386600</v>
       </c>
       <c r="E72" s="3">
-        <v>4473500</v>
+        <v>4777100</v>
       </c>
       <c r="F72" s="3">
-        <v>4391100</v>
+        <v>4333700</v>
       </c>
       <c r="G72" s="3">
-        <v>5435400</v>
+        <v>4253900</v>
       </c>
       <c r="H72" s="3">
-        <v>4911400</v>
+        <v>5265600</v>
       </c>
       <c r="I72" s="3">
-        <v>4449800</v>
+        <v>4757900</v>
       </c>
       <c r="J72" s="3">
+        <v>4310800</v>
+      </c>
+      <c r="K72" s="3">
         <v>4010800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4771500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4180500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4514300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4089200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4986500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4439600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3991400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3295400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5291400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8348600</v>
+        <v>8180300</v>
       </c>
       <c r="E76" s="3">
-        <v>8111200</v>
+        <v>8087700</v>
       </c>
       <c r="F76" s="3">
-        <v>8131700</v>
+        <v>7857800</v>
       </c>
       <c r="G76" s="3">
-        <v>8395500</v>
+        <v>7877700</v>
       </c>
       <c r="H76" s="3">
-        <v>7993500</v>
+        <v>8133200</v>
       </c>
       <c r="I76" s="3">
-        <v>7430200</v>
+        <v>7743700</v>
       </c>
       <c r="J76" s="3">
+        <v>7198100</v>
+      </c>
+      <c r="K76" s="3">
         <v>6944300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7520100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6874800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7984200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7188100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8251100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7445700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6938200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6350800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8869100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>458000</v>
+        <v>609600</v>
       </c>
       <c r="E81" s="3">
-        <v>83000</v>
+        <v>443700</v>
       </c>
       <c r="F81" s="3">
-        <v>499200</v>
+        <v>80400</v>
       </c>
       <c r="G81" s="3">
-        <v>560800</v>
+        <v>483600</v>
       </c>
       <c r="H81" s="3">
-        <v>461900</v>
+        <v>543300</v>
       </c>
       <c r="I81" s="3">
-        <v>869500</v>
+        <v>447500</v>
       </c>
       <c r="J81" s="3">
+        <v>842400</v>
+      </c>
+      <c r="K81" s="3">
         <v>432600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>536300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>390800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>426700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>447600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>547200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>448800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>697100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>368800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>552200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>223300</v>
+        <v>216300</v>
       </c>
       <c r="E83" s="3">
-        <v>228900</v>
+        <v>216300</v>
       </c>
       <c r="F83" s="3">
-        <v>220200</v>
+        <v>221800</v>
       </c>
       <c r="G83" s="3">
-        <v>219300</v>
+        <v>213300</v>
       </c>
       <c r="H83" s="3">
-        <v>214300</v>
+        <v>212400</v>
       </c>
       <c r="I83" s="3">
-        <v>415300</v>
+        <v>207600</v>
       </c>
       <c r="J83" s="3">
+        <v>402300</v>
+      </c>
+      <c r="K83" s="3">
         <v>205800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>152600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>139200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>164900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>163200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>158700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>149300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>145300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>149000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>150200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>720200</v>
+        <v>1667800</v>
       </c>
       <c r="E89" s="3">
-        <v>135700</v>
+        <v>697700</v>
       </c>
       <c r="F89" s="3">
-        <v>486800</v>
+        <v>131500</v>
       </c>
       <c r="G89" s="3">
-        <v>1397400</v>
+        <v>471600</v>
       </c>
       <c r="H89" s="3">
-        <v>616500</v>
+        <v>1389000</v>
       </c>
       <c r="I89" s="3">
-        <v>813500</v>
+        <v>597300</v>
       </c>
       <c r="J89" s="3">
+        <v>788100</v>
+      </c>
+      <c r="K89" s="3">
         <v>138400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1116100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>624300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>287000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>205600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1218100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>895800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>588900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-164100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1324000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-230000</v>
+        <v>-323400</v>
       </c>
       <c r="E91" s="3">
-        <v>-153500</v>
+        <v>-222800</v>
       </c>
       <c r="F91" s="3">
-        <v>-117800</v>
+        <v>-148800</v>
       </c>
       <c r="G91" s="3">
-        <v>-307500</v>
+        <v>-114100</v>
       </c>
       <c r="H91" s="3">
-        <v>-336500</v>
+        <v>-297900</v>
       </c>
       <c r="I91" s="3">
-        <v>-383300</v>
+        <v>-326000</v>
       </c>
       <c r="J91" s="3">
+        <v>-371300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-159500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-326900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-235600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-197400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-99100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-348500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-230500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-197600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-124700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-209400</v>
+        <v>-297400</v>
       </c>
       <c r="E94" s="3">
-        <v>-124900</v>
+        <v>-202900</v>
       </c>
       <c r="F94" s="3">
-        <v>-184000</v>
+        <v>-121000</v>
       </c>
       <c r="G94" s="3">
-        <v>-286200</v>
+        <v>-178300</v>
       </c>
       <c r="H94" s="3">
-        <v>-318800</v>
+        <v>-277300</v>
       </c>
       <c r="I94" s="3">
-        <v>-377700</v>
+        <v>-308800</v>
       </c>
       <c r="J94" s="3">
+        <v>-365900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-203400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-301200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-206200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-140400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-89100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-314300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-171700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>866900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-178000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-247400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1270600</v>
       </c>
       <c r="E96" s="3">
-        <v>-232900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-225600</v>
       </c>
       <c r="G96" s="3">
-        <v>-466300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-500700</v>
+        <v>-451700</v>
       </c>
       <c r="I96" s="3">
-        <v>-828400</v>
+        <v>-485000</v>
       </c>
       <c r="J96" s="3">
+        <v>-802500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-284900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-504800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-225700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-361100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-148100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-473200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-142700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-124800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-568100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-114400</v>
+        <v>-1378700</v>
       </c>
       <c r="E100" s="3">
-        <v>-342400</v>
+        <v>-110800</v>
       </c>
       <c r="F100" s="3">
-        <v>-102400</v>
+        <v>-331700</v>
       </c>
       <c r="G100" s="3">
-        <v>-571000</v>
+        <v>-99200</v>
       </c>
       <c r="H100" s="3">
-        <v>-602300</v>
+        <v>-553100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1025300</v>
+        <v>-583500</v>
       </c>
       <c r="J100" s="3">
+        <v>-993300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-379800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-522400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-242800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-381700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-170000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-494500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-167100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-145400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-591300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19800</v>
+        <v>-121300</v>
       </c>
       <c r="E101" s="3">
-        <v>-22100</v>
+        <v>-19200</v>
       </c>
       <c r="F101" s="3">
-        <v>150800</v>
+        <v>-21400</v>
       </c>
       <c r="G101" s="3">
-        <v>-25800</v>
+        <v>146100</v>
       </c>
       <c r="H101" s="3">
-        <v>2600</v>
+        <v>-25000</v>
       </c>
       <c r="I101" s="3">
-        <v>-21000</v>
+        <v>2500</v>
       </c>
       <c r="J101" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-20500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-29400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-49100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>37700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-35300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>29600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-26900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-39900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>29200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>376600</v>
+        <v>-129500</v>
       </c>
       <c r="E102" s="3">
-        <v>-353700</v>
+        <v>364900</v>
       </c>
       <c r="F102" s="3">
-        <v>351200</v>
+        <v>-342700</v>
       </c>
       <c r="G102" s="3">
-        <v>514400</v>
+        <v>340200</v>
       </c>
       <c r="H102" s="3">
-        <v>-302000</v>
+        <v>498300</v>
       </c>
       <c r="I102" s="3">
-        <v>-610500</v>
+        <v>-292500</v>
       </c>
       <c r="J102" s="3">
+        <v>-591400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-465200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>263000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>126200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-197400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-88900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>473300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>541400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-93200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-527500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>503000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9480000</v>
+        <v>8575400</v>
       </c>
       <c r="E8" s="3">
-        <v>7999700</v>
+        <v>9842500</v>
       </c>
       <c r="F8" s="3">
-        <v>8175800</v>
+        <v>8305700</v>
       </c>
       <c r="G8" s="3">
-        <v>8287400</v>
+        <v>8488500</v>
       </c>
       <c r="H8" s="3">
-        <v>8984400</v>
+        <v>8604400</v>
       </c>
       <c r="I8" s="3">
-        <v>7498300</v>
+        <v>9328000</v>
       </c>
       <c r="J8" s="3">
+        <v>7785000</v>
+      </c>
+      <c r="K8" s="3">
         <v>14805300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7576100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8090400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6651000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7862800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7776400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8698500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7080300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7020300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6856800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8363100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7286600</v>
+        <v>6577700</v>
       </c>
       <c r="E9" s="3">
-        <v>6108700</v>
+        <v>7565300</v>
       </c>
       <c r="F9" s="3">
-        <v>6311900</v>
+        <v>6342300</v>
       </c>
       <c r="G9" s="3">
-        <v>6397900</v>
+        <v>6553300</v>
       </c>
       <c r="H9" s="3">
-        <v>6947200</v>
+        <v>6642600</v>
       </c>
       <c r="I9" s="3">
-        <v>5731400</v>
+        <v>7212900</v>
       </c>
       <c r="J9" s="3">
+        <v>5950700</v>
+      </c>
+      <c r="K9" s="3">
         <v>11448100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5853600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6245700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5099100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6076200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5992600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6786200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5437300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5420400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5285300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6525500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2193400</v>
+        <v>1997700</v>
       </c>
       <c r="E10" s="3">
-        <v>1891000</v>
+        <v>2277300</v>
       </c>
       <c r="F10" s="3">
-        <v>1863900</v>
+        <v>1963400</v>
       </c>
       <c r="G10" s="3">
-        <v>1889500</v>
+        <v>1935200</v>
       </c>
       <c r="H10" s="3">
-        <v>2037200</v>
+        <v>1961800</v>
       </c>
       <c r="I10" s="3">
-        <v>1766800</v>
+        <v>2115100</v>
       </c>
       <c r="J10" s="3">
+        <v>1834400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3357200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1722400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1844700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1551900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1786600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1783700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1912300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1643000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1599900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1571500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1837600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8615400</v>
+        <v>7825100</v>
       </c>
       <c r="E17" s="3">
-        <v>7333000</v>
+        <v>8944900</v>
       </c>
       <c r="F17" s="3">
-        <v>7636500</v>
+        <v>7613500</v>
       </c>
       <c r="G17" s="3">
-        <v>7579300</v>
+        <v>7928600</v>
       </c>
       <c r="H17" s="3">
-        <v>8200800</v>
+        <v>7869200</v>
       </c>
       <c r="I17" s="3">
-        <v>6850900</v>
+        <v>8514500</v>
       </c>
       <c r="J17" s="3">
+        <v>7112900</v>
+      </c>
+      <c r="K17" s="3">
         <v>13624100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6960000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7378300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6119400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7303800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7168700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7984100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6538800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6520800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6345000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7691500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>864600</v>
+        <v>750300</v>
       </c>
       <c r="E18" s="3">
-        <v>666700</v>
+        <v>897700</v>
       </c>
       <c r="F18" s="3">
-        <v>539300</v>
+        <v>692200</v>
       </c>
       <c r="G18" s="3">
-        <v>708100</v>
+        <v>559900</v>
       </c>
       <c r="H18" s="3">
-        <v>783600</v>
+        <v>735200</v>
       </c>
       <c r="I18" s="3">
-        <v>647400</v>
+        <v>813500</v>
       </c>
       <c r="J18" s="3">
+        <v>672100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1181200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>616100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>712200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>531600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>559000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>607600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>714500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>541500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>499500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>511900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>671600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,146 +1379,153 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19400</v>
+        <v>-3300</v>
       </c>
       <c r="E20" s="3">
-        <v>8800</v>
+        <v>20100</v>
       </c>
       <c r="F20" s="3">
-        <v>-101700</v>
+        <v>9200</v>
       </c>
       <c r="G20" s="3">
-        <v>-2600</v>
+        <v>-105600</v>
       </c>
       <c r="H20" s="3">
-        <v>211000</v>
+        <v>-2700</v>
       </c>
       <c r="I20" s="3">
-        <v>-64500</v>
+        <v>219000</v>
       </c>
       <c r="J20" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1100300</v>
+        <v>974700</v>
       </c>
       <c r="E21" s="3">
-        <v>891900</v>
+        <v>1142400</v>
       </c>
       <c r="F21" s="3">
-        <v>659300</v>
+        <v>926000</v>
       </c>
       <c r="G21" s="3">
-        <v>918900</v>
+        <v>684500</v>
       </c>
       <c r="H21" s="3">
-        <v>1207000</v>
+        <v>954000</v>
       </c>
       <c r="I21" s="3">
-        <v>790500</v>
+        <v>1253100</v>
       </c>
       <c r="J21" s="3">
+        <v>820800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1483100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>771900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>859000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>654300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>734600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>768700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>866900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>685500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>637700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>651100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>828900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>77000</v>
+        <v>80900</v>
       </c>
       <c r="E22" s="3">
-        <v>78800</v>
+        <v>80000</v>
       </c>
       <c r="F22" s="3">
-        <v>78900</v>
+        <v>81800</v>
       </c>
       <c r="G22" s="3">
-        <v>75300</v>
+        <v>81900</v>
       </c>
       <c r="H22" s="3">
-        <v>278200</v>
+        <v>78200</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>288900</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1518,131 +1558,140 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>20700</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>807000</v>
+        <v>666100</v>
       </c>
       <c r="E23" s="3">
-        <v>596700</v>
+        <v>837800</v>
       </c>
       <c r="F23" s="3">
-        <v>358600</v>
+        <v>619500</v>
       </c>
       <c r="G23" s="3">
-        <v>630300</v>
+        <v>372300</v>
       </c>
       <c r="H23" s="3">
-        <v>716300</v>
+        <v>654400</v>
       </c>
       <c r="I23" s="3">
-        <v>582900</v>
+        <v>743700</v>
       </c>
       <c r="J23" s="3">
+        <v>605200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1080700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>566100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>706400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>515100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>569700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>605600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>708200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>536200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>492400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>502100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>657900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>197400</v>
+        <v>160400</v>
       </c>
       <c r="E24" s="3">
-        <v>153100</v>
+        <v>204900</v>
       </c>
       <c r="F24" s="3">
-        <v>278200</v>
+        <v>158900</v>
       </c>
       <c r="G24" s="3">
-        <v>146700</v>
+        <v>288900</v>
       </c>
       <c r="H24" s="3">
-        <v>173000</v>
+        <v>152300</v>
       </c>
       <c r="I24" s="3">
-        <v>135400</v>
+        <v>179600</v>
       </c>
       <c r="J24" s="3">
+        <v>140600</v>
+      </c>
+      <c r="K24" s="3">
         <v>238300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>133500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>170100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>124400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>143000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>158000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>161000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>122300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>143500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>136900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>158600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>609600</v>
+        <v>505700</v>
       </c>
       <c r="E26" s="3">
-        <v>443700</v>
+        <v>632900</v>
       </c>
       <c r="F26" s="3">
-        <v>80400</v>
+        <v>460600</v>
       </c>
       <c r="G26" s="3">
-        <v>483600</v>
+        <v>83500</v>
       </c>
       <c r="H26" s="3">
-        <v>543300</v>
+        <v>502100</v>
       </c>
       <c r="I26" s="3">
-        <v>447500</v>
+        <v>564100</v>
       </c>
       <c r="J26" s="3">
+        <v>464600</v>
+      </c>
+      <c r="K26" s="3">
         <v>842400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>432600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>536300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>390800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>426700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>447600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>547200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>413900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>348900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>365200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>499400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>609600</v>
+        <v>505700</v>
       </c>
       <c r="E27" s="3">
-        <v>443700</v>
+        <v>632900</v>
       </c>
       <c r="F27" s="3">
-        <v>80400</v>
+        <v>460600</v>
       </c>
       <c r="G27" s="3">
-        <v>483600</v>
+        <v>83500</v>
       </c>
       <c r="H27" s="3">
-        <v>543300</v>
+        <v>502100</v>
       </c>
       <c r="I27" s="3">
-        <v>447500</v>
+        <v>564100</v>
       </c>
       <c r="J27" s="3">
+        <v>464600</v>
+      </c>
+      <c r="K27" s="3">
         <v>842400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>432600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>536300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>390800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>426700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>447600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>547200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>413900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>348900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>365200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>499600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1922,22 +1983,25 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>34800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>348200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>3600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>52700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19400</v>
+        <v>3300</v>
       </c>
       <c r="E32" s="3">
-        <v>-8800</v>
+        <v>-20100</v>
       </c>
       <c r="F32" s="3">
-        <v>101700</v>
+        <v>-9200</v>
       </c>
       <c r="G32" s="3">
-        <v>2600</v>
+        <v>105600</v>
       </c>
       <c r="H32" s="3">
-        <v>-211000</v>
+        <v>2700</v>
       </c>
       <c r="I32" s="3">
-        <v>64500</v>
+        <v>-219000</v>
       </c>
       <c r="J32" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K32" s="3">
         <v>100500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>609600</v>
+        <v>505700</v>
       </c>
       <c r="E33" s="3">
-        <v>443700</v>
+        <v>632900</v>
       </c>
       <c r="F33" s="3">
-        <v>80400</v>
+        <v>460600</v>
       </c>
       <c r="G33" s="3">
-        <v>483600</v>
+        <v>83500</v>
       </c>
       <c r="H33" s="3">
-        <v>543300</v>
+        <v>502100</v>
       </c>
       <c r="I33" s="3">
-        <v>447500</v>
+        <v>564100</v>
       </c>
       <c r="J33" s="3">
+        <v>464600</v>
+      </c>
+      <c r="K33" s="3">
         <v>842400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>432600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>536300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>390800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>426700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>447600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>547200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>448800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>697100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>368800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>552200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>609600</v>
+        <v>505700</v>
       </c>
       <c r="E35" s="3">
-        <v>443700</v>
+        <v>632900</v>
       </c>
       <c r="F35" s="3">
-        <v>80400</v>
+        <v>460600</v>
       </c>
       <c r="G35" s="3">
-        <v>483600</v>
+        <v>83500</v>
       </c>
       <c r="H35" s="3">
-        <v>543300</v>
+        <v>502100</v>
       </c>
       <c r="I35" s="3">
-        <v>447500</v>
+        <v>564100</v>
       </c>
       <c r="J35" s="3">
+        <v>464600</v>
+      </c>
+      <c r="K35" s="3">
         <v>842400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>432600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>536300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>390800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>426700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>447600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>547200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>448800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>697100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>368800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>552200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1725400</v>
+        <v>1499000</v>
       </c>
       <c r="E41" s="3">
-        <v>1854900</v>
+        <v>1791400</v>
       </c>
       <c r="F41" s="3">
-        <v>1490100</v>
+        <v>1925900</v>
       </c>
       <c r="G41" s="3">
-        <v>1832700</v>
+        <v>1547000</v>
       </c>
       <c r="H41" s="3">
-        <v>1492600</v>
+        <v>1902800</v>
       </c>
       <c r="I41" s="3">
-        <v>994300</v>
+        <v>1549600</v>
       </c>
       <c r="J41" s="3">
+        <v>1032300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1286800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1473500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1770600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1488100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1622000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1819400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1841000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1367700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>826200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>919400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1485500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2488,20 +2578,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8700</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>822000</v>
+        <v>792900</v>
       </c>
       <c r="E43" s="3">
-        <v>641100</v>
+        <v>853400</v>
       </c>
       <c r="F43" s="3">
-        <v>668300</v>
+        <v>665700</v>
       </c>
       <c r="G43" s="3">
-        <v>679800</v>
+        <v>693900</v>
       </c>
       <c r="H43" s="3">
-        <v>663500</v>
+        <v>705800</v>
       </c>
       <c r="I43" s="3">
-        <v>519500</v>
+        <v>688900</v>
       </c>
       <c r="J43" s="3">
+        <v>539400</v>
+      </c>
+      <c r="K43" s="3">
         <v>537800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>565500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>548800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>418800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>462300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>390300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>560400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>393700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>361100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>361800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>715300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3306600</v>
+        <v>3364400</v>
       </c>
       <c r="E44" s="3">
-        <v>3476500</v>
+        <v>3433100</v>
       </c>
       <c r="F44" s="3">
-        <v>3126700</v>
+        <v>3609400</v>
       </c>
       <c r="G44" s="3">
-        <v>3069900</v>
+        <v>3246300</v>
       </c>
       <c r="H44" s="3">
-        <v>3267500</v>
+        <v>3187300</v>
       </c>
       <c r="I44" s="3">
-        <v>3319200</v>
+        <v>3392500</v>
       </c>
       <c r="J44" s="3">
+        <v>3446200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2917100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2947500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2888500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2732200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3084200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2919100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3075400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2976400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2675600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2772500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2849600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33900</v>
+        <v>53600</v>
       </c>
       <c r="E45" s="3">
-        <v>62800</v>
+        <v>35200</v>
       </c>
       <c r="F45" s="3">
-        <v>56000</v>
+        <v>65200</v>
       </c>
       <c r="G45" s="3">
-        <v>59300</v>
+        <v>58100</v>
       </c>
       <c r="H45" s="3">
-        <v>86000</v>
+        <v>61500</v>
       </c>
       <c r="I45" s="3">
-        <v>43800</v>
+        <v>89300</v>
       </c>
       <c r="J45" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K45" s="3">
         <v>76000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>64100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>66900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>43600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>649000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>667100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5887800</v>
+        <v>5709900</v>
       </c>
       <c r="E46" s="3">
-        <v>6035300</v>
+        <v>6113000</v>
       </c>
       <c r="F46" s="3">
-        <v>5341100</v>
+        <v>6266100</v>
       </c>
       <c r="G46" s="3">
-        <v>5641700</v>
+        <v>5545400</v>
       </c>
       <c r="H46" s="3">
-        <v>5509600</v>
+        <v>5857500</v>
       </c>
       <c r="I46" s="3">
-        <v>4876800</v>
+        <v>5720300</v>
       </c>
       <c r="J46" s="3">
+        <v>5063300</v>
+      </c>
+      <c r="K46" s="3">
         <v>4817700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5046900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5272000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4696400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5245000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5186000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5527600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4777400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3906500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4702600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5523600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>98800</v>
+        <v>103800</v>
       </c>
       <c r="E47" s="3">
-        <v>109400</v>
+        <v>102600</v>
       </c>
       <c r="F47" s="3">
-        <v>111400</v>
+        <v>113600</v>
       </c>
       <c r="G47" s="3">
-        <v>110300</v>
+        <v>115700</v>
       </c>
       <c r="H47" s="3">
-        <v>88800</v>
+        <v>114500</v>
       </c>
       <c r="I47" s="3">
-        <v>103100</v>
+        <v>92200</v>
       </c>
       <c r="J47" s="3">
+        <v>107100</v>
+      </c>
+      <c r="K47" s="3">
         <v>108800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>107500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>101500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>94300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>109100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>99000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>105900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>79200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>73500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>79900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>99800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9260600</v>
+        <v>9637100</v>
       </c>
       <c r="E48" s="3">
-        <v>9390700</v>
+        <v>9614800</v>
       </c>
       <c r="F48" s="3">
-        <v>9438500</v>
+        <v>9749800</v>
       </c>
       <c r="G48" s="3">
-        <v>9557400</v>
+        <v>9799500</v>
       </c>
       <c r="H48" s="3">
-        <v>9114800</v>
+        <v>9923000</v>
       </c>
       <c r="I48" s="3">
-        <v>8973700</v>
+        <v>9463400</v>
       </c>
       <c r="J48" s="3">
+        <v>9317000</v>
+      </c>
+      <c r="K48" s="3">
         <v>8669300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8851900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6576500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6296400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7530400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7347300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7245000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6959000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6874900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6833900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7240200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1816400</v>
+        <v>1958100</v>
       </c>
       <c r="E49" s="3">
-        <v>2051500</v>
+        <v>1885900</v>
       </c>
       <c r="F49" s="3">
-        <v>2168700</v>
+        <v>2129900</v>
       </c>
       <c r="G49" s="3">
-        <v>2213600</v>
+        <v>2251700</v>
       </c>
       <c r="H49" s="3">
-        <v>1793700</v>
+        <v>2298300</v>
       </c>
       <c r="I49" s="3">
-        <v>1838500</v>
+        <v>1862300</v>
       </c>
       <c r="J49" s="3">
+        <v>1908900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1796200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1838400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1687100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1686800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2133700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1954500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2036100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1886700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1864000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1933200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2195100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>440600</v>
+        <v>479000</v>
       </c>
       <c r="E52" s="3">
-        <v>369800</v>
+        <v>457400</v>
       </c>
       <c r="F52" s="3">
-        <v>354100</v>
+        <v>384000</v>
       </c>
       <c r="G52" s="3">
-        <v>340700</v>
+        <v>367700</v>
       </c>
       <c r="H52" s="3">
-        <v>382500</v>
+        <v>353700</v>
       </c>
       <c r="I52" s="3">
-        <v>403900</v>
+        <v>397200</v>
       </c>
       <c r="J52" s="3">
+        <v>419300</v>
+      </c>
+      <c r="K52" s="3">
         <v>385000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>379800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>340500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>374600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>355100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>385300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>356000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>291600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>265500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>226800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>249600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17504300</v>
+        <v>17887900</v>
       </c>
       <c r="E54" s="3">
-        <v>17956600</v>
+        <v>18173800</v>
       </c>
       <c r="F54" s="3">
-        <v>17413900</v>
+        <v>18643400</v>
       </c>
       <c r="G54" s="3">
-        <v>17863700</v>
+        <v>18079900</v>
       </c>
       <c r="H54" s="3">
-        <v>16889500</v>
+        <v>18547000</v>
       </c>
       <c r="I54" s="3">
-        <v>16196100</v>
+        <v>17535400</v>
       </c>
       <c r="J54" s="3">
+        <v>16815500</v>
+      </c>
+      <c r="K54" s="3">
         <v>15776900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16224400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13977700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13148400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15373400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14972000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15270600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13993900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12984500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13776500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15308300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4467300</v>
+        <v>3976300</v>
       </c>
       <c r="E57" s="3">
-        <v>3863400</v>
+        <v>4638100</v>
       </c>
       <c r="F57" s="3">
-        <v>3705200</v>
+        <v>4011200</v>
       </c>
       <c r="G57" s="3">
-        <v>3934900</v>
+        <v>3846900</v>
       </c>
       <c r="H57" s="3">
-        <v>4213800</v>
+        <v>4085400</v>
       </c>
       <c r="I57" s="3">
-        <v>3624500</v>
+        <v>4375000</v>
       </c>
       <c r="J57" s="3">
+        <v>3763100</v>
+      </c>
+      <c r="K57" s="3">
         <v>3524800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3632700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3890900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3274300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3722700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3686100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4142700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3310400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2747300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2862000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3500300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>155600</v>
+        <v>160900</v>
       </c>
       <c r="E58" s="3">
-        <v>156100</v>
+        <v>161500</v>
       </c>
       <c r="F58" s="3">
-        <v>151700</v>
+        <v>162100</v>
       </c>
       <c r="G58" s="3">
-        <v>147000</v>
+        <v>157500</v>
       </c>
       <c r="H58" s="3">
-        <v>147300</v>
+        <v>152600</v>
       </c>
       <c r="I58" s="3">
-        <v>146600</v>
+        <v>152900</v>
       </c>
       <c r="J58" s="3">
+        <v>152200</v>
+      </c>
+      <c r="K58" s="3">
         <v>144300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>148500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>16800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>26200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>28300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1330000</v>
+        <v>2490200</v>
       </c>
       <c r="E59" s="3">
-        <v>2398000</v>
+        <v>1380900</v>
       </c>
       <c r="F59" s="3">
-        <v>2317700</v>
+        <v>2489700</v>
       </c>
       <c r="G59" s="3">
-        <v>2521400</v>
+        <v>2406300</v>
       </c>
       <c r="H59" s="3">
-        <v>1128900</v>
+        <v>2617800</v>
       </c>
       <c r="I59" s="3">
-        <v>1596100</v>
+        <v>1172100</v>
       </c>
       <c r="J59" s="3">
+        <v>1657200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1937600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2485200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1301000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1655600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2137400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2567100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1414400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1668500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1709800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3197300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1479700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5952900</v>
+        <v>6627400</v>
       </c>
       <c r="E60" s="3">
-        <v>6417600</v>
+        <v>6180600</v>
       </c>
       <c r="F60" s="3">
-        <v>6174600</v>
+        <v>6663000</v>
       </c>
       <c r="G60" s="3">
-        <v>6603300</v>
+        <v>6410700</v>
       </c>
       <c r="H60" s="3">
-        <v>5489900</v>
+        <v>6855800</v>
       </c>
       <c r="I60" s="3">
-        <v>5367200</v>
+        <v>5699900</v>
       </c>
       <c r="J60" s="3">
+        <v>5572500</v>
+      </c>
+      <c r="K60" s="3">
         <v>5606700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6266300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5205900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4943200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5875900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6270000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5576800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4999800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4480200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6085500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5008300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2733900</v>
+        <v>2888400</v>
       </c>
       <c r="E61" s="3">
-        <v>2771100</v>
+        <v>2838500</v>
       </c>
       <c r="F61" s="3">
-        <v>2768400</v>
+        <v>2877100</v>
       </c>
       <c r="G61" s="3">
-        <v>2780200</v>
+        <v>2874300</v>
       </c>
       <c r="H61" s="3">
-        <v>2620100</v>
+        <v>2886500</v>
       </c>
       <c r="I61" s="3">
-        <v>2537800</v>
+        <v>2720300</v>
       </c>
       <c r="J61" s="3">
+        <v>2634800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2410800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2439000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>646000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>640200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>772600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>751700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>709900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>694900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>680000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>671600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>694400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>637200</v>
+        <v>659500</v>
       </c>
       <c r="E62" s="3">
-        <v>680200</v>
+        <v>661600</v>
       </c>
       <c r="F62" s="3">
-        <v>613200</v>
+        <v>706200</v>
       </c>
       <c r="G62" s="3">
-        <v>602600</v>
+        <v>636600</v>
       </c>
       <c r="H62" s="3">
-        <v>646200</v>
+        <v>625700</v>
       </c>
       <c r="I62" s="3">
-        <v>547300</v>
+        <v>671000</v>
       </c>
       <c r="J62" s="3">
+        <v>568300</v>
+      </c>
+      <c r="K62" s="3">
         <v>561300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>574800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>605700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>690200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>740600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>762200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>732800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>853400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>886100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>668600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>736500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9324000</v>
+        <v>10175200</v>
       </c>
       <c r="E66" s="3">
-        <v>9868900</v>
+        <v>9680600</v>
       </c>
       <c r="F66" s="3">
-        <v>9556100</v>
+        <v>10246400</v>
       </c>
       <c r="G66" s="3">
-        <v>9986100</v>
+        <v>9921600</v>
       </c>
       <c r="H66" s="3">
-        <v>8756300</v>
+        <v>10368000</v>
       </c>
       <c r="I66" s="3">
-        <v>8452300</v>
+        <v>9091200</v>
       </c>
       <c r="J66" s="3">
+        <v>8775600</v>
+      </c>
+      <c r="K66" s="3">
         <v>8578800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9280100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6457600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6273600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7389100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7783900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7019500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6548100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6046300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7425700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6439200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5386600</v>
+        <v>4683800</v>
       </c>
       <c r="E72" s="3">
-        <v>4777100</v>
+        <v>5592600</v>
       </c>
       <c r="F72" s="3">
-        <v>4333700</v>
+        <v>4959800</v>
       </c>
       <c r="G72" s="3">
-        <v>4253900</v>
+        <v>4499400</v>
       </c>
       <c r="H72" s="3">
-        <v>5265600</v>
+        <v>4416600</v>
       </c>
       <c r="I72" s="3">
-        <v>4757900</v>
+        <v>5467000</v>
       </c>
       <c r="J72" s="3">
+        <v>4939900</v>
+      </c>
+      <c r="K72" s="3">
         <v>4310800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4010800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4771500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4180500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4514300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4089200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4986500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4439600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3991400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3295400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5291400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8180300</v>
+        <v>7712700</v>
       </c>
       <c r="E76" s="3">
-        <v>8087700</v>
+        <v>8493100</v>
       </c>
       <c r="F76" s="3">
-        <v>7857800</v>
+        <v>8397100</v>
       </c>
       <c r="G76" s="3">
-        <v>7877700</v>
+        <v>8158300</v>
       </c>
       <c r="H76" s="3">
-        <v>8133200</v>
+        <v>8179000</v>
       </c>
       <c r="I76" s="3">
-        <v>7743700</v>
+        <v>8444200</v>
       </c>
       <c r="J76" s="3">
+        <v>8039900</v>
+      </c>
+      <c r="K76" s="3">
         <v>7198100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6944300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7520100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6874800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7984200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7188100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8251100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7445700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6938200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6350800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8869100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>609600</v>
+        <v>505700</v>
       </c>
       <c r="E81" s="3">
-        <v>443700</v>
+        <v>632900</v>
       </c>
       <c r="F81" s="3">
-        <v>80400</v>
+        <v>460600</v>
       </c>
       <c r="G81" s="3">
-        <v>483600</v>
+        <v>83500</v>
       </c>
       <c r="H81" s="3">
-        <v>543300</v>
+        <v>502100</v>
       </c>
       <c r="I81" s="3">
-        <v>447500</v>
+        <v>564100</v>
       </c>
       <c r="J81" s="3">
+        <v>464600</v>
+      </c>
+      <c r="K81" s="3">
         <v>842400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>432600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>536300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>390800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>426700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>447600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>547200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>448800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>697100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>368800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>552200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>216300</v>
+        <v>227700</v>
       </c>
       <c r="E83" s="3">
-        <v>216300</v>
+        <v>224600</v>
       </c>
       <c r="F83" s="3">
-        <v>221800</v>
+        <v>224600</v>
       </c>
       <c r="G83" s="3">
-        <v>213300</v>
+        <v>230300</v>
       </c>
       <c r="H83" s="3">
-        <v>212400</v>
+        <v>221500</v>
       </c>
       <c r="I83" s="3">
-        <v>207600</v>
+        <v>220500</v>
       </c>
       <c r="J83" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K83" s="3">
         <v>402300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>205800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>152600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>139200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>164900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>163200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>158700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>149300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>145300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>149000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>150200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1667800</v>
+        <v>-81100</v>
       </c>
       <c r="E89" s="3">
-        <v>697700</v>
+        <v>1731600</v>
       </c>
       <c r="F89" s="3">
-        <v>131500</v>
+        <v>724400</v>
       </c>
       <c r="G89" s="3">
-        <v>471600</v>
+        <v>136500</v>
       </c>
       <c r="H89" s="3">
-        <v>1389000</v>
+        <v>489600</v>
       </c>
       <c r="I89" s="3">
-        <v>597300</v>
+        <v>1442100</v>
       </c>
       <c r="J89" s="3">
+        <v>620100</v>
+      </c>
+      <c r="K89" s="3">
         <v>788100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>138400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1116100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>624300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>287000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>205600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1218100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>895800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>588900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-164100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1324000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-323400</v>
+        <v>-117200</v>
       </c>
       <c r="E91" s="3">
-        <v>-222800</v>
+        <v>-335800</v>
       </c>
       <c r="F91" s="3">
-        <v>-148800</v>
+        <v>-231400</v>
       </c>
       <c r="G91" s="3">
-        <v>-114100</v>
+        <v>-154400</v>
       </c>
       <c r="H91" s="3">
-        <v>-297900</v>
+        <v>-118500</v>
       </c>
       <c r="I91" s="3">
-        <v>-326000</v>
+        <v>-309300</v>
       </c>
       <c r="J91" s="3">
+        <v>-338500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-371300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-159500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-326900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-235600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-197400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-99100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-348500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-230500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-197600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-124700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-297400</v>
+        <v>-128900</v>
       </c>
       <c r="E94" s="3">
-        <v>-202900</v>
+        <v>-308800</v>
       </c>
       <c r="F94" s="3">
-        <v>-121000</v>
+        <v>-210600</v>
       </c>
       <c r="G94" s="3">
-        <v>-178300</v>
+        <v>-125600</v>
       </c>
       <c r="H94" s="3">
-        <v>-277300</v>
+        <v>-185100</v>
       </c>
       <c r="I94" s="3">
-        <v>-308800</v>
+        <v>-287900</v>
       </c>
       <c r="J94" s="3">
+        <v>-320700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-365900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-203400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-301200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-206200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-140400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-89100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-314300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-171700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>866900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-178000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-247400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1270600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1319200</v>
       </c>
       <c r="F96" s="3">
-        <v>-225600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-234300</v>
       </c>
       <c r="H96" s="3">
-        <v>-451700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-485000</v>
+        <v>-469000</v>
       </c>
       <c r="J96" s="3">
+        <v>-503600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-802500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-284900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-504800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-225700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-361100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-148100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-473200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-142700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-124800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-568100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1378700</v>
+        <v>-115100</v>
       </c>
       <c r="E100" s="3">
-        <v>-110800</v>
+        <v>-1431400</v>
       </c>
       <c r="F100" s="3">
-        <v>-331700</v>
+        <v>-115000</v>
       </c>
       <c r="G100" s="3">
-        <v>-99200</v>
+        <v>-344400</v>
       </c>
       <c r="H100" s="3">
-        <v>-553100</v>
+        <v>-103000</v>
       </c>
       <c r="I100" s="3">
-        <v>-583500</v>
+        <v>-574300</v>
       </c>
       <c r="J100" s="3">
+        <v>-605800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-993300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-379800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-522400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-242800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-381700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-170000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-494500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-167100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-145400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-591300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-121300</v>
+        <v>32700</v>
       </c>
       <c r="E101" s="3">
-        <v>-19200</v>
+        <v>-125900</v>
       </c>
       <c r="F101" s="3">
-        <v>-21400</v>
+        <v>-19900</v>
       </c>
       <c r="G101" s="3">
-        <v>146100</v>
+        <v>-40200</v>
       </c>
       <c r="H101" s="3">
-        <v>-25000</v>
+        <v>169600</v>
       </c>
       <c r="I101" s="3">
-        <v>2500</v>
+        <v>-26000</v>
       </c>
       <c r="J101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-20300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-29400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-49100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>37700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-35300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>29600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-26900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-39900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>29200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-129500</v>
+        <v>-292400</v>
       </c>
       <c r="E102" s="3">
-        <v>364900</v>
+        <v>-134500</v>
       </c>
       <c r="F102" s="3">
-        <v>-342700</v>
+        <v>378800</v>
       </c>
       <c r="G102" s="3">
-        <v>340200</v>
+        <v>-355800</v>
       </c>
       <c r="H102" s="3">
-        <v>498300</v>
+        <v>353200</v>
       </c>
       <c r="I102" s="3">
-        <v>-292500</v>
+        <v>517300</v>
       </c>
       <c r="J102" s="3">
+        <v>-303700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-591400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-465200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>263000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>126200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-197400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-88900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>473300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>541400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-93200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-527500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>503000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8575400</v>
+        <v>8667300</v>
       </c>
       <c r="E8" s="3">
-        <v>9842500</v>
+        <v>8473000</v>
       </c>
       <c r="F8" s="3">
-        <v>8305700</v>
+        <v>9724900</v>
       </c>
       <c r="G8" s="3">
-        <v>8488500</v>
+        <v>8206400</v>
       </c>
       <c r="H8" s="3">
-        <v>8604400</v>
+        <v>8387100</v>
       </c>
       <c r="I8" s="3">
-        <v>9328000</v>
+        <v>8501600</v>
       </c>
       <c r="J8" s="3">
+        <v>9216600</v>
+      </c>
+      <c r="K8" s="3">
         <v>7785000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14805300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7576100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8090400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6651000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7862800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7776400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8698500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7080300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7020300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6856800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8363100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6577700</v>
+        <v>6651300</v>
       </c>
       <c r="E9" s="3">
-        <v>7565300</v>
+        <v>6499100</v>
       </c>
       <c r="F9" s="3">
-        <v>6342300</v>
+        <v>7474900</v>
       </c>
       <c r="G9" s="3">
-        <v>6553300</v>
+        <v>6266500</v>
       </c>
       <c r="H9" s="3">
-        <v>6642600</v>
+        <v>6475000</v>
       </c>
       <c r="I9" s="3">
-        <v>7212900</v>
+        <v>6563200</v>
       </c>
       <c r="J9" s="3">
+        <v>7126800</v>
+      </c>
+      <c r="K9" s="3">
         <v>5950700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11448100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5853600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6245700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5099100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6076200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5992600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6786200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5437300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5420400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5285300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6525500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1997700</v>
+        <v>2016000</v>
       </c>
       <c r="E10" s="3">
-        <v>2277300</v>
+        <v>1973900</v>
       </c>
       <c r="F10" s="3">
-        <v>1963400</v>
+        <v>2250100</v>
       </c>
       <c r="G10" s="3">
-        <v>1935200</v>
+        <v>1939900</v>
       </c>
       <c r="H10" s="3">
-        <v>1961800</v>
+        <v>1912100</v>
       </c>
       <c r="I10" s="3">
-        <v>2115100</v>
+        <v>1938400</v>
       </c>
       <c r="J10" s="3">
+        <v>2089800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1834400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3357200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1722400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1844700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1551900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1786600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1783700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1912300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1643000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1599900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1571500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1837600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7825100</v>
+        <v>7989900</v>
       </c>
       <c r="E17" s="3">
-        <v>8944900</v>
+        <v>7731600</v>
       </c>
       <c r="F17" s="3">
-        <v>7613500</v>
+        <v>8838000</v>
       </c>
       <c r="G17" s="3">
-        <v>7928600</v>
+        <v>7522500</v>
       </c>
       <c r="H17" s="3">
-        <v>7869200</v>
+        <v>7833900</v>
       </c>
       <c r="I17" s="3">
-        <v>8514500</v>
+        <v>7775100</v>
       </c>
       <c r="J17" s="3">
+        <v>8412800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7112900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13624100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6960000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7378300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6119400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7303800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7168700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7984100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6538800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6520800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6345000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7691500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>750300</v>
+        <v>677400</v>
       </c>
       <c r="E18" s="3">
-        <v>897700</v>
+        <v>741300</v>
       </c>
       <c r="F18" s="3">
-        <v>692200</v>
+        <v>886900</v>
       </c>
       <c r="G18" s="3">
-        <v>559900</v>
+        <v>683900</v>
       </c>
       <c r="H18" s="3">
-        <v>735200</v>
+        <v>553200</v>
       </c>
       <c r="I18" s="3">
-        <v>813500</v>
+        <v>726400</v>
       </c>
       <c r="J18" s="3">
+        <v>803800</v>
+      </c>
+      <c r="K18" s="3">
         <v>672100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1181200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>616100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>712200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>531600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>559000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>607600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>714500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>541500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>499500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>511900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>671600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,155 +1413,162 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
-        <v>20100</v>
-      </c>
       <c r="F20" s="3">
-        <v>9200</v>
+        <v>19900</v>
       </c>
       <c r="G20" s="3">
-        <v>-105600</v>
+        <v>9100</v>
       </c>
       <c r="H20" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="I20" s="3">
-        <v>219000</v>
-      </c>
       <c r="J20" s="3">
+        <v>216400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-66900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-50000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>974700</v>
+        <v>921900</v>
       </c>
       <c r="E21" s="3">
-        <v>1142400</v>
+        <v>963000</v>
       </c>
       <c r="F21" s="3">
-        <v>926000</v>
+        <v>1128700</v>
       </c>
       <c r="G21" s="3">
-        <v>684500</v>
+        <v>914900</v>
       </c>
       <c r="H21" s="3">
-        <v>954000</v>
+        <v>676300</v>
       </c>
       <c r="I21" s="3">
-        <v>1253100</v>
+        <v>942600</v>
       </c>
       <c r="J21" s="3">
+        <v>1238200</v>
+      </c>
+      <c r="K21" s="3">
         <v>820800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1483100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>771900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>859000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>654300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>734600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>768700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>866900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>685500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>637700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>651100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>828900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>79900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>79000</v>
+      </c>
+      <c r="G22" s="3">
         <v>80900</v>
       </c>
-      <c r="E22" s="3">
-        <v>80000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>81800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>81900</v>
-      </c>
       <c r="H22" s="3">
-        <v>78200</v>
+        <v>81000</v>
       </c>
       <c r="I22" s="3">
-        <v>288900</v>
+        <v>77200</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>285400</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1561,137 +1601,146 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>20700</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>666100</v>
+        <v>619500</v>
       </c>
       <c r="E23" s="3">
-        <v>837800</v>
+        <v>658100</v>
       </c>
       <c r="F23" s="3">
-        <v>619500</v>
+        <v>827800</v>
       </c>
       <c r="G23" s="3">
-        <v>372300</v>
+        <v>612100</v>
       </c>
       <c r="H23" s="3">
-        <v>654400</v>
+        <v>367900</v>
       </c>
       <c r="I23" s="3">
-        <v>743700</v>
+        <v>646600</v>
       </c>
       <c r="J23" s="3">
+        <v>734800</v>
+      </c>
+      <c r="K23" s="3">
         <v>605200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1080700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>566100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>706400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>515100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>569700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>605600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>708200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>536200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>492400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>502100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>657900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>160400</v>
+        <v>135000</v>
       </c>
       <c r="E24" s="3">
-        <v>204900</v>
+        <v>158500</v>
       </c>
       <c r="F24" s="3">
-        <v>158900</v>
+        <v>202500</v>
       </c>
       <c r="G24" s="3">
-        <v>288900</v>
+        <v>157000</v>
       </c>
       <c r="H24" s="3">
-        <v>152300</v>
+        <v>285400</v>
       </c>
       <c r="I24" s="3">
-        <v>179600</v>
+        <v>150500</v>
       </c>
       <c r="J24" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K24" s="3">
         <v>140600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>238300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>133500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>170100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>124400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>143000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>158000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>161000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>122300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>143500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>136900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>158600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>505700</v>
+        <v>484500</v>
       </c>
       <c r="E26" s="3">
-        <v>632900</v>
+        <v>499700</v>
       </c>
       <c r="F26" s="3">
-        <v>460600</v>
+        <v>625400</v>
       </c>
       <c r="G26" s="3">
-        <v>83500</v>
+        <v>455100</v>
       </c>
       <c r="H26" s="3">
-        <v>502100</v>
+        <v>82500</v>
       </c>
       <c r="I26" s="3">
-        <v>564100</v>
+        <v>496100</v>
       </c>
       <c r="J26" s="3">
+        <v>557300</v>
+      </c>
+      <c r="K26" s="3">
         <v>464600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>842400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>432600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>536300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>390800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>426700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>447600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>547200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>413900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>348900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>365200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>499400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>505700</v>
+        <v>484500</v>
       </c>
       <c r="E27" s="3">
-        <v>632900</v>
+        <v>499700</v>
       </c>
       <c r="F27" s="3">
-        <v>460600</v>
+        <v>625400</v>
       </c>
       <c r="G27" s="3">
-        <v>83500</v>
+        <v>455100</v>
       </c>
       <c r="H27" s="3">
-        <v>502100</v>
+        <v>82500</v>
       </c>
       <c r="I27" s="3">
-        <v>564100</v>
+        <v>496100</v>
       </c>
       <c r="J27" s="3">
+        <v>557300</v>
+      </c>
+      <c r="K27" s="3">
         <v>464600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>842400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>432600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>536300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>390800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>426700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>447600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>547200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>413900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>348900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>365200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>499600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1986,22 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>34800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>348200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>3600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>52700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-20100</v>
-      </c>
       <c r="F32" s="3">
-        <v>-9200</v>
+        <v>-19900</v>
       </c>
       <c r="G32" s="3">
-        <v>105600</v>
+        <v>-9100</v>
       </c>
       <c r="H32" s="3">
+        <v>104400</v>
+      </c>
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="I32" s="3">
-        <v>-219000</v>
-      </c>
       <c r="J32" s="3">
+        <v>-216400</v>
+      </c>
+      <c r="K32" s="3">
         <v>66900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>50000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>505700</v>
+        <v>484500</v>
       </c>
       <c r="E33" s="3">
-        <v>632900</v>
+        <v>499700</v>
       </c>
       <c r="F33" s="3">
-        <v>460600</v>
+        <v>625400</v>
       </c>
       <c r="G33" s="3">
-        <v>83500</v>
+        <v>455100</v>
       </c>
       <c r="H33" s="3">
-        <v>502100</v>
+        <v>82500</v>
       </c>
       <c r="I33" s="3">
-        <v>564100</v>
+        <v>496100</v>
       </c>
       <c r="J33" s="3">
+        <v>557300</v>
+      </c>
+      <c r="K33" s="3">
         <v>464600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>842400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>432600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>536300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>390800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>426700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>447600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>547200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>448800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>697100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>368800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>552200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>505700</v>
+        <v>484500</v>
       </c>
       <c r="E35" s="3">
-        <v>632900</v>
+        <v>499700</v>
       </c>
       <c r="F35" s="3">
-        <v>460600</v>
+        <v>625400</v>
       </c>
       <c r="G35" s="3">
-        <v>83500</v>
+        <v>455100</v>
       </c>
       <c r="H35" s="3">
-        <v>502100</v>
+        <v>82500</v>
       </c>
       <c r="I35" s="3">
-        <v>564100</v>
+        <v>496100</v>
       </c>
       <c r="J35" s="3">
+        <v>557300</v>
+      </c>
+      <c r="K35" s="3">
         <v>464600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>842400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>432600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>536300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>390800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>426700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>447600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>547200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>448800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>697100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>368800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>552200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1499000</v>
+        <v>2074200</v>
       </c>
       <c r="E41" s="3">
-        <v>1791400</v>
+        <v>1481100</v>
       </c>
       <c r="F41" s="3">
-        <v>1925900</v>
+        <v>1770000</v>
       </c>
       <c r="G41" s="3">
-        <v>1547000</v>
+        <v>1902800</v>
       </c>
       <c r="H41" s="3">
-        <v>1902800</v>
+        <v>1528600</v>
       </c>
       <c r="I41" s="3">
-        <v>1549600</v>
+        <v>1880100</v>
       </c>
       <c r="J41" s="3">
+        <v>1531100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1032300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1286800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1473500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1770600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1488100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1622000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1819400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1841000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1367700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>826200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>919400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1485500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2581,20 +2671,20 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8700</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>792900</v>
+        <v>721100</v>
       </c>
       <c r="E43" s="3">
-        <v>853400</v>
+        <v>783400</v>
       </c>
       <c r="F43" s="3">
-        <v>665700</v>
+        <v>843200</v>
       </c>
       <c r="G43" s="3">
-        <v>693900</v>
+        <v>657700</v>
       </c>
       <c r="H43" s="3">
-        <v>705800</v>
+        <v>685600</v>
       </c>
       <c r="I43" s="3">
-        <v>688900</v>
+        <v>697300</v>
       </c>
       <c r="J43" s="3">
+        <v>680600</v>
+      </c>
+      <c r="K43" s="3">
         <v>539400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>537800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>565500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>548800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>418800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>462300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>390300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>560400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>393700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>361100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>361800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>715300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3364400</v>
+        <v>3375600</v>
       </c>
       <c r="E44" s="3">
-        <v>3433100</v>
+        <v>3324200</v>
       </c>
       <c r="F44" s="3">
-        <v>3609400</v>
+        <v>3392000</v>
       </c>
       <c r="G44" s="3">
-        <v>3246300</v>
+        <v>3566300</v>
       </c>
       <c r="H44" s="3">
-        <v>3187300</v>
+        <v>3207500</v>
       </c>
       <c r="I44" s="3">
-        <v>3392500</v>
+        <v>3149300</v>
       </c>
       <c r="J44" s="3">
+        <v>3352000</v>
+      </c>
+      <c r="K44" s="3">
         <v>3446200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2917100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2947500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2888500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2732200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3084200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2919100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3075400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2976400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2675600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2772500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2849600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>53600</v>
+        <v>42100</v>
       </c>
       <c r="E45" s="3">
-        <v>35200</v>
+        <v>53000</v>
       </c>
       <c r="F45" s="3">
-        <v>65200</v>
+        <v>34800</v>
       </c>
       <c r="G45" s="3">
-        <v>58100</v>
+        <v>64400</v>
       </c>
       <c r="H45" s="3">
-        <v>61500</v>
+        <v>57400</v>
       </c>
       <c r="I45" s="3">
-        <v>89300</v>
+        <v>60800</v>
       </c>
       <c r="J45" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K45" s="3">
         <v>45400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>76000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>64100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>49800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>66900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>39600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>43600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>649000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>667100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5709900</v>
+        <v>6213000</v>
       </c>
       <c r="E46" s="3">
-        <v>6113000</v>
+        <v>5641700</v>
       </c>
       <c r="F46" s="3">
-        <v>6266100</v>
+        <v>6040000</v>
       </c>
       <c r="G46" s="3">
-        <v>5545400</v>
+        <v>6191200</v>
       </c>
       <c r="H46" s="3">
-        <v>5857500</v>
+        <v>5479100</v>
       </c>
       <c r="I46" s="3">
-        <v>5720300</v>
+        <v>5787500</v>
       </c>
       <c r="J46" s="3">
+        <v>5652000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5063300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4817700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5046900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5272000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4696400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5245000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5186000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5527600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4777400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3906500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4702600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5523600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>103800</v>
+        <v>100600</v>
       </c>
       <c r="E47" s="3">
         <v>102600</v>
       </c>
       <c r="F47" s="3">
-        <v>113600</v>
+        <v>101400</v>
       </c>
       <c r="G47" s="3">
-        <v>115700</v>
+        <v>112200</v>
       </c>
       <c r="H47" s="3">
-        <v>114500</v>
+        <v>114300</v>
       </c>
       <c r="I47" s="3">
-        <v>92200</v>
+        <v>113100</v>
       </c>
       <c r="J47" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K47" s="3">
         <v>107100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>108800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>107500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>101500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>109100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>99000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>105900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>79200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>73500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>79900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>99800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9637100</v>
+        <v>9490700</v>
       </c>
       <c r="E48" s="3">
-        <v>9614800</v>
+        <v>9522000</v>
       </c>
       <c r="F48" s="3">
-        <v>9749800</v>
+        <v>9500000</v>
       </c>
       <c r="G48" s="3">
-        <v>9799500</v>
+        <v>9633300</v>
       </c>
       <c r="H48" s="3">
-        <v>9923000</v>
+        <v>9682400</v>
       </c>
       <c r="I48" s="3">
-        <v>9463400</v>
+        <v>9804400</v>
       </c>
       <c r="J48" s="3">
+        <v>9350300</v>
+      </c>
+      <c r="K48" s="3">
         <v>9317000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8669300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8851900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6576500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6296400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7530400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7347300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7245000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6959000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6874900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6833900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7240200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1958100</v>
+        <v>1851900</v>
       </c>
       <c r="E49" s="3">
-        <v>1885900</v>
+        <v>1934700</v>
       </c>
       <c r="F49" s="3">
-        <v>2129900</v>
+        <v>1863300</v>
       </c>
       <c r="G49" s="3">
-        <v>2251700</v>
+        <v>2104500</v>
       </c>
       <c r="H49" s="3">
-        <v>2298300</v>
+        <v>2224800</v>
       </c>
       <c r="I49" s="3">
-        <v>1862300</v>
+        <v>2270900</v>
       </c>
       <c r="J49" s="3">
+        <v>1840100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1908900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1796200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1838400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1687100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1686800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2133700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1954500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2036100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1886700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1864000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1933200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2195100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>479000</v>
+        <v>502400</v>
       </c>
       <c r="E52" s="3">
-        <v>457400</v>
+        <v>473300</v>
       </c>
       <c r="F52" s="3">
-        <v>384000</v>
+        <v>452000</v>
       </c>
       <c r="G52" s="3">
-        <v>367700</v>
+        <v>379400</v>
       </c>
       <c r="H52" s="3">
-        <v>353700</v>
+        <v>363300</v>
       </c>
       <c r="I52" s="3">
-        <v>397200</v>
+        <v>349500</v>
       </c>
       <c r="J52" s="3">
+        <v>392400</v>
+      </c>
+      <c r="K52" s="3">
         <v>419300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>385000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>379800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>340500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>374600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>355100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>385300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>356000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>291600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>265500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>226800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>249600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17887900</v>
+        <v>18158600</v>
       </c>
       <c r="E54" s="3">
-        <v>18173800</v>
+        <v>17674200</v>
       </c>
       <c r="F54" s="3">
-        <v>18643400</v>
+        <v>17956600</v>
       </c>
       <c r="G54" s="3">
-        <v>18079900</v>
+        <v>18420700</v>
       </c>
       <c r="H54" s="3">
-        <v>18547000</v>
+        <v>17863900</v>
       </c>
       <c r="I54" s="3">
-        <v>17535400</v>
+        <v>18325400</v>
       </c>
       <c r="J54" s="3">
+        <v>17325900</v>
+      </c>
+      <c r="K54" s="3">
         <v>16815500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15776900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16224400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13977700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13148400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15373400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14972000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15270600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13993900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12984500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13776500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15308300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3976300</v>
+        <v>3872400</v>
       </c>
       <c r="E57" s="3">
-        <v>4638100</v>
+        <v>3928700</v>
       </c>
       <c r="F57" s="3">
-        <v>4011200</v>
+        <v>4582700</v>
       </c>
       <c r="G57" s="3">
-        <v>3846900</v>
+        <v>3963300</v>
       </c>
       <c r="H57" s="3">
-        <v>4085400</v>
+        <v>3801000</v>
       </c>
       <c r="I57" s="3">
-        <v>4375000</v>
+        <v>4036600</v>
       </c>
       <c r="J57" s="3">
+        <v>4322700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3763100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3524800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3632700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3890900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3274300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3722700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3686100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4142700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3310400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2747300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2862000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3500300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>160900</v>
+        <v>151600</v>
       </c>
       <c r="E58" s="3">
-        <v>161500</v>
+        <v>158900</v>
       </c>
       <c r="F58" s="3">
-        <v>162100</v>
+        <v>159600</v>
       </c>
       <c r="G58" s="3">
-        <v>157500</v>
+        <v>160200</v>
       </c>
       <c r="H58" s="3">
-        <v>152600</v>
+        <v>155600</v>
       </c>
       <c r="I58" s="3">
-        <v>152900</v>
+        <v>150800</v>
       </c>
       <c r="J58" s="3">
+        <v>151100</v>
+      </c>
+      <c r="K58" s="3">
         <v>152200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>144300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>148500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>16800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>26200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>28300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2490200</v>
+        <v>2650800</v>
       </c>
       <c r="E59" s="3">
-        <v>1380900</v>
+        <v>2460500</v>
       </c>
       <c r="F59" s="3">
-        <v>2489700</v>
+        <v>1364400</v>
       </c>
       <c r="G59" s="3">
-        <v>2406300</v>
+        <v>2460000</v>
       </c>
       <c r="H59" s="3">
-        <v>2617800</v>
+        <v>2377600</v>
       </c>
       <c r="I59" s="3">
-        <v>1172100</v>
+        <v>2586600</v>
       </c>
       <c r="J59" s="3">
+        <v>1158100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1657200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1937600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2485200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1301000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1655600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2137400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2567100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1414400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1668500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1709800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3197300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1479700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6627400</v>
+        <v>6674800</v>
       </c>
       <c r="E60" s="3">
-        <v>6180600</v>
+        <v>6548200</v>
       </c>
       <c r="F60" s="3">
-        <v>6663000</v>
+        <v>6106700</v>
       </c>
       <c r="G60" s="3">
-        <v>6410700</v>
+        <v>6583400</v>
       </c>
       <c r="H60" s="3">
-        <v>6855800</v>
+        <v>6334100</v>
       </c>
       <c r="I60" s="3">
-        <v>5699900</v>
+        <v>6773900</v>
       </c>
       <c r="J60" s="3">
+        <v>5631800</v>
+      </c>
+      <c r="K60" s="3">
         <v>5572500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5606700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6266300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5205900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4943200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5875900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6270000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5576800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4999800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4480200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6085500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5008300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2888400</v>
+        <v>2882900</v>
       </c>
       <c r="E61" s="3">
-        <v>2838500</v>
+        <v>2853900</v>
       </c>
       <c r="F61" s="3">
-        <v>2877100</v>
+        <v>2804600</v>
       </c>
       <c r="G61" s="3">
-        <v>2874300</v>
+        <v>2842700</v>
       </c>
       <c r="H61" s="3">
-        <v>2886500</v>
+        <v>2839900</v>
       </c>
       <c r="I61" s="3">
-        <v>2720300</v>
+        <v>2852000</v>
       </c>
       <c r="J61" s="3">
+        <v>2687800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2634800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2410800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2439000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>646000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>640200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>772600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>751700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>709900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>694900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>680000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>671600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>694400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>659500</v>
+        <v>655500</v>
       </c>
       <c r="E62" s="3">
-        <v>661600</v>
+        <v>651600</v>
       </c>
       <c r="F62" s="3">
-        <v>706200</v>
+        <v>653600</v>
       </c>
       <c r="G62" s="3">
-        <v>636600</v>
+        <v>697800</v>
       </c>
       <c r="H62" s="3">
-        <v>625700</v>
+        <v>629000</v>
       </c>
       <c r="I62" s="3">
-        <v>671000</v>
+        <v>618200</v>
       </c>
       <c r="J62" s="3">
+        <v>662900</v>
+      </c>
+      <c r="K62" s="3">
         <v>568300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>561300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>574800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>605700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>690200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>740600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>762200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>732800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>853400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>886100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>668600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>736500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10175200</v>
+        <v>10213300</v>
       </c>
       <c r="E66" s="3">
-        <v>9680600</v>
+        <v>10053700</v>
       </c>
       <c r="F66" s="3">
-        <v>10246400</v>
+        <v>9565000</v>
       </c>
       <c r="G66" s="3">
-        <v>9921600</v>
+        <v>10123900</v>
       </c>
       <c r="H66" s="3">
-        <v>10368000</v>
+        <v>9803100</v>
       </c>
       <c r="I66" s="3">
-        <v>9091200</v>
+        <v>10244100</v>
       </c>
       <c r="J66" s="3">
+        <v>8982600</v>
+      </c>
+      <c r="K66" s="3">
         <v>8775600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8578800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9280100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6457600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6273600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7389100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7783900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7019500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6548100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6046300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7425700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6439200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4683800</v>
+        <v>5111900</v>
       </c>
       <c r="E72" s="3">
-        <v>5592600</v>
+        <v>4627800</v>
       </c>
       <c r="F72" s="3">
-        <v>4959800</v>
+        <v>5525800</v>
       </c>
       <c r="G72" s="3">
-        <v>4499400</v>
+        <v>4900500</v>
       </c>
       <c r="H72" s="3">
-        <v>4416600</v>
+        <v>4445700</v>
       </c>
       <c r="I72" s="3">
-        <v>5467000</v>
+        <v>4363800</v>
       </c>
       <c r="J72" s="3">
+        <v>5401600</v>
+      </c>
+      <c r="K72" s="3">
         <v>4939900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4310800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4010800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4771500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4180500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4514300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4089200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4986500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4439600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3991400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3295400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5291400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7712700</v>
+        <v>7945300</v>
       </c>
       <c r="E76" s="3">
-        <v>8493100</v>
+        <v>7620500</v>
       </c>
       <c r="F76" s="3">
-        <v>8397100</v>
+        <v>8391700</v>
       </c>
       <c r="G76" s="3">
-        <v>8158300</v>
+        <v>8296700</v>
       </c>
       <c r="H76" s="3">
-        <v>8179000</v>
+        <v>8060800</v>
       </c>
       <c r="I76" s="3">
-        <v>8444200</v>
+        <v>8081200</v>
       </c>
       <c r="J76" s="3">
+        <v>8343300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8039900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7198100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6944300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7520100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6874800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7984200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7188100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8251100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7445700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6938200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6350800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8869100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>505700</v>
+        <v>484500</v>
       </c>
       <c r="E81" s="3">
-        <v>632900</v>
+        <v>499700</v>
       </c>
       <c r="F81" s="3">
-        <v>460600</v>
+        <v>625400</v>
       </c>
       <c r="G81" s="3">
-        <v>83500</v>
+        <v>455100</v>
       </c>
       <c r="H81" s="3">
-        <v>502100</v>
+        <v>82500</v>
       </c>
       <c r="I81" s="3">
-        <v>564100</v>
+        <v>496100</v>
       </c>
       <c r="J81" s="3">
+        <v>557300</v>
+      </c>
+      <c r="K81" s="3">
         <v>464600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>842400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>432600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>536300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>390800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>426700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>447600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>547200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>448800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>697100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>368800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>552200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>227700</v>
+        <v>222500</v>
       </c>
       <c r="E83" s="3">
-        <v>224600</v>
+        <v>225000</v>
       </c>
       <c r="F83" s="3">
-        <v>224600</v>
+        <v>221900</v>
       </c>
       <c r="G83" s="3">
-        <v>230300</v>
+        <v>221900</v>
       </c>
       <c r="H83" s="3">
-        <v>221500</v>
+        <v>227500</v>
       </c>
       <c r="I83" s="3">
-        <v>220500</v>
+        <v>218800</v>
       </c>
       <c r="J83" s="3">
+        <v>217900</v>
+      </c>
+      <c r="K83" s="3">
         <v>215600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>402300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>205800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>152600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>139200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>164900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>163200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>158700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>149300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>145300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>149000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>150200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-81100</v>
+        <v>946900</v>
       </c>
       <c r="E89" s="3">
-        <v>1731600</v>
+        <v>-80100</v>
       </c>
       <c r="F89" s="3">
-        <v>724400</v>
+        <v>1710900</v>
       </c>
       <c r="G89" s="3">
-        <v>136500</v>
+        <v>715800</v>
       </c>
       <c r="H89" s="3">
-        <v>489600</v>
+        <v>134900</v>
       </c>
       <c r="I89" s="3">
-        <v>1442100</v>
+        <v>483800</v>
       </c>
       <c r="J89" s="3">
+        <v>1424900</v>
+      </c>
+      <c r="K89" s="3">
         <v>620100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>788100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>138400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1116100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>624300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>287000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>205600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1218100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>895800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>588900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-164100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1324000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-117200</v>
+        <v>-213300</v>
       </c>
       <c r="E91" s="3">
-        <v>-335800</v>
+        <v>-115800</v>
       </c>
       <c r="F91" s="3">
-        <v>-231400</v>
+        <v>-331800</v>
       </c>
       <c r="G91" s="3">
-        <v>-154400</v>
+        <v>-228600</v>
       </c>
       <c r="H91" s="3">
-        <v>-118500</v>
+        <v>-152600</v>
       </c>
       <c r="I91" s="3">
-        <v>-309300</v>
+        <v>-117100</v>
       </c>
       <c r="J91" s="3">
+        <v>-305600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-338500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-371300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-159500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-326900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-235600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-197400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-99100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-348500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-230500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-197600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-124700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-128900</v>
+        <v>-198400</v>
       </c>
       <c r="E94" s="3">
-        <v>-308800</v>
+        <v>-127300</v>
       </c>
       <c r="F94" s="3">
-        <v>-210600</v>
+        <v>-305100</v>
       </c>
       <c r="G94" s="3">
-        <v>-125600</v>
+        <v>-208100</v>
       </c>
       <c r="H94" s="3">
-        <v>-185100</v>
+        <v>-124100</v>
       </c>
       <c r="I94" s="3">
-        <v>-287900</v>
+        <v>-182900</v>
       </c>
       <c r="J94" s="3">
+        <v>-284400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-320700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-365900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-203400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-301200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-206200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-140400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-89100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-314300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-171700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>866900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-178000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-247400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,61 +5793,64 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1319200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1303500</v>
       </c>
       <c r="G96" s="3">
-        <v>-234300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-231500</v>
       </c>
       <c r="I96" s="3">
-        <v>-469000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-463400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-503600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-802500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-284900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-504800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-225700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-361100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-148100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-473200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-142700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-124800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-568100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-115100</v>
+        <v>-111800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1431400</v>
+        <v>-113700</v>
       </c>
       <c r="F100" s="3">
-        <v>-115000</v>
+        <v>-1414300</v>
       </c>
       <c r="G100" s="3">
-        <v>-344400</v>
+        <v>-113700</v>
       </c>
       <c r="H100" s="3">
-        <v>-103000</v>
+        <v>-340300</v>
       </c>
       <c r="I100" s="3">
-        <v>-574300</v>
+        <v>-101800</v>
       </c>
       <c r="J100" s="3">
+        <v>-567400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-605800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-993300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-379800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-522400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-242800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-381700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-494500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-167100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-145400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-591300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>32700</v>
+        <v>-43600</v>
       </c>
       <c r="E101" s="3">
-        <v>-125900</v>
+        <v>32300</v>
       </c>
       <c r="F101" s="3">
-        <v>-19900</v>
+        <v>-124400</v>
       </c>
       <c r="G101" s="3">
-        <v>-40200</v>
+        <v>-44200</v>
       </c>
       <c r="H101" s="3">
-        <v>169600</v>
+        <v>-15100</v>
       </c>
       <c r="I101" s="3">
-        <v>-26000</v>
+        <v>167500</v>
       </c>
       <c r="J101" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-20500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-29400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-49100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>37700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-35300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>29600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-15600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-26900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-39900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>29200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-292400</v>
+        <v>593200</v>
       </c>
       <c r="E102" s="3">
-        <v>-134500</v>
+        <v>-288900</v>
       </c>
       <c r="F102" s="3">
-        <v>378800</v>
+        <v>-132900</v>
       </c>
       <c r="G102" s="3">
-        <v>-355800</v>
+        <v>374300</v>
       </c>
       <c r="H102" s="3">
-        <v>353200</v>
+        <v>-351600</v>
       </c>
       <c r="I102" s="3">
-        <v>517300</v>
+        <v>349000</v>
       </c>
       <c r="J102" s="3">
+        <v>511200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-303700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-591400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-465200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>263000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>126200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-197400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-88900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>473300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>541400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-93200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-527500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>503000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8667300</v>
+        <v>8124300</v>
       </c>
       <c r="E8" s="3">
-        <v>8473000</v>
+        <v>8061200</v>
       </c>
       <c r="F8" s="3">
-        <v>9724900</v>
+        <v>7880400</v>
       </c>
       <c r="G8" s="3">
-        <v>8206400</v>
+        <v>9044900</v>
       </c>
       <c r="H8" s="3">
-        <v>8387100</v>
+        <v>7632600</v>
       </c>
       <c r="I8" s="3">
-        <v>8501600</v>
+        <v>7800600</v>
       </c>
       <c r="J8" s="3">
+        <v>7907100</v>
+      </c>
+      <c r="K8" s="3">
         <v>9216600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7785000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14805300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7576100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8090400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6651000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7862800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7776400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8698500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7080300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7020300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6856800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8363100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6651300</v>
+        <v>6202500</v>
       </c>
       <c r="E9" s="3">
-        <v>6499100</v>
+        <v>6186200</v>
       </c>
       <c r="F9" s="3">
-        <v>7474900</v>
+        <v>6044600</v>
       </c>
       <c r="G9" s="3">
-        <v>6266500</v>
+        <v>6952100</v>
       </c>
       <c r="H9" s="3">
-        <v>6475000</v>
+        <v>5828300</v>
       </c>
       <c r="I9" s="3">
-        <v>6563200</v>
+        <v>6022200</v>
       </c>
       <c r="J9" s="3">
+        <v>6104200</v>
+      </c>
+      <c r="K9" s="3">
         <v>7126800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5950700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11448100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5853600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6245700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5099100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6076200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5992600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6786200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5437300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5420400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5285300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6525500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2016000</v>
+        <v>1921800</v>
       </c>
       <c r="E10" s="3">
-        <v>1973900</v>
+        <v>1875000</v>
       </c>
       <c r="F10" s="3">
-        <v>2250100</v>
+        <v>1835800</v>
       </c>
       <c r="G10" s="3">
-        <v>1939900</v>
+        <v>2092700</v>
       </c>
       <c r="H10" s="3">
-        <v>1912100</v>
+        <v>1804300</v>
       </c>
       <c r="I10" s="3">
-        <v>1938400</v>
+        <v>1778300</v>
       </c>
       <c r="J10" s="3">
+        <v>1802800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2089800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1834400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3357200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1722400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1844700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1551900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1786600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1783700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1912300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1643000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1599900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1571500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1837600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7989900</v>
+        <v>7410900</v>
       </c>
       <c r="E17" s="3">
-        <v>7731600</v>
+        <v>7431200</v>
       </c>
       <c r="F17" s="3">
-        <v>8838000</v>
+        <v>7190900</v>
       </c>
       <c r="G17" s="3">
-        <v>7522500</v>
+        <v>8219900</v>
       </c>
       <c r="H17" s="3">
-        <v>7833900</v>
+        <v>6996500</v>
       </c>
       <c r="I17" s="3">
-        <v>7775100</v>
+        <v>7286000</v>
       </c>
       <c r="J17" s="3">
+        <v>7231400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8412800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7112900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13624100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6960000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7378300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6119400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7303800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7168700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7984100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6538800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6520800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6345000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7691500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>677400</v>
+        <v>713500</v>
       </c>
       <c r="E18" s="3">
-        <v>741300</v>
+        <v>630000</v>
       </c>
       <c r="F18" s="3">
-        <v>886900</v>
+        <v>689500</v>
       </c>
       <c r="G18" s="3">
-        <v>683900</v>
+        <v>824900</v>
       </c>
       <c r="H18" s="3">
-        <v>553200</v>
+        <v>636100</v>
       </c>
       <c r="I18" s="3">
-        <v>726400</v>
+        <v>514500</v>
       </c>
       <c r="J18" s="3">
+        <v>675600</v>
+      </c>
+      <c r="K18" s="3">
         <v>803800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>672100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1181200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>616100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>712200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>531600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>559000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>607600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>714500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>541500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>499500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>511900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>671600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,165 +1447,172 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22000</v>
+        <v>9800</v>
       </c>
       <c r="E20" s="3">
-        <v>-3300</v>
+        <v>20500</v>
       </c>
       <c r="F20" s="3">
-        <v>19900</v>
+        <v>-3100</v>
       </c>
       <c r="G20" s="3">
-        <v>9100</v>
+        <v>18500</v>
       </c>
       <c r="H20" s="3">
-        <v>-104400</v>
+        <v>8400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2700</v>
+        <v>-97100</v>
       </c>
       <c r="J20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>216400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-66900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-50000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-16500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>921900</v>
+        <v>934500</v>
       </c>
       <c r="E21" s="3">
-        <v>963000</v>
+        <v>857500</v>
       </c>
       <c r="F21" s="3">
-        <v>1128700</v>
+        <v>895700</v>
       </c>
       <c r="G21" s="3">
-        <v>914900</v>
+        <v>1049800</v>
       </c>
       <c r="H21" s="3">
-        <v>676300</v>
+        <v>851000</v>
       </c>
       <c r="I21" s="3">
-        <v>942600</v>
+        <v>629000</v>
       </c>
       <c r="J21" s="3">
+        <v>876700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1238200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>820800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1483100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>771900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>859000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>654300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>734600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>768700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>866900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>685500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>637700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>651100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>828900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>79900</v>
+        <v>73600</v>
       </c>
       <c r="E22" s="3">
-        <v>79900</v>
+        <v>74400</v>
       </c>
       <c r="F22" s="3">
-        <v>79000</v>
+        <v>74300</v>
       </c>
       <c r="G22" s="3">
-        <v>80900</v>
+        <v>73500</v>
       </c>
       <c r="H22" s="3">
-        <v>81000</v>
+        <v>75200</v>
       </c>
       <c r="I22" s="3">
-        <v>77200</v>
+        <v>75300</v>
       </c>
       <c r="J22" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K22" s="3">
         <v>285400</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1604,143 +1644,152 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>20700</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>619500</v>
+        <v>649600</v>
       </c>
       <c r="E23" s="3">
-        <v>658100</v>
+        <v>576200</v>
       </c>
       <c r="F23" s="3">
-        <v>827800</v>
+        <v>612100</v>
       </c>
       <c r="G23" s="3">
-        <v>612100</v>
+        <v>769900</v>
       </c>
       <c r="H23" s="3">
-        <v>367900</v>
+        <v>569300</v>
       </c>
       <c r="I23" s="3">
-        <v>646600</v>
+        <v>342200</v>
       </c>
       <c r="J23" s="3">
+        <v>601300</v>
+      </c>
+      <c r="K23" s="3">
         <v>734800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>605200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1080700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>566100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>706400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>515100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>569700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>605600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>708200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>536200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>492400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>502100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>657900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>135000</v>
+        <v>139700</v>
       </c>
       <c r="E24" s="3">
-        <v>158500</v>
+        <v>125500</v>
       </c>
       <c r="F24" s="3">
-        <v>202500</v>
+        <v>147400</v>
       </c>
       <c r="G24" s="3">
-        <v>157000</v>
+        <v>188300</v>
       </c>
       <c r="H24" s="3">
-        <v>285400</v>
+        <v>146000</v>
       </c>
       <c r="I24" s="3">
-        <v>150500</v>
+        <v>265400</v>
       </c>
       <c r="J24" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K24" s="3">
         <v>177500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>140600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>238300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>133500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>170100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>124400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>143000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>158000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>161000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>122300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>143500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>136900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>158600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>484500</v>
+        <v>509900</v>
       </c>
       <c r="E26" s="3">
-        <v>499700</v>
+        <v>450600</v>
       </c>
       <c r="F26" s="3">
-        <v>625400</v>
+        <v>464700</v>
       </c>
       <c r="G26" s="3">
-        <v>455100</v>
+        <v>581600</v>
       </c>
       <c r="H26" s="3">
-        <v>82500</v>
+        <v>423300</v>
       </c>
       <c r="I26" s="3">
-        <v>496100</v>
+        <v>76700</v>
       </c>
       <c r="J26" s="3">
+        <v>461400</v>
+      </c>
+      <c r="K26" s="3">
         <v>557300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>464600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>842400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>432600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>536300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>390800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>426700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>447600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>547200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>413900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>348900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>365200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>499400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>484500</v>
+        <v>509900</v>
       </c>
       <c r="E27" s="3">
-        <v>499700</v>
+        <v>450600</v>
       </c>
       <c r="F27" s="3">
-        <v>625400</v>
+        <v>464700</v>
       </c>
       <c r="G27" s="3">
-        <v>455100</v>
+        <v>581600</v>
       </c>
       <c r="H27" s="3">
-        <v>82500</v>
+        <v>423300</v>
       </c>
       <c r="I27" s="3">
-        <v>496100</v>
+        <v>76700</v>
       </c>
       <c r="J27" s="3">
+        <v>461400</v>
+      </c>
+      <c r="K27" s="3">
         <v>557300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>464600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>842400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>432600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>536300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>390800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>426700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>447600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>547200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>413900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>348900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>365200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>499600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2050,22 +2111,25 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>34800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>348200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>3600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>52700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22000</v>
+        <v>-9800</v>
       </c>
       <c r="E32" s="3">
-        <v>3300</v>
+        <v>-20500</v>
       </c>
       <c r="F32" s="3">
-        <v>-19900</v>
+        <v>3100</v>
       </c>
       <c r="G32" s="3">
-        <v>-9100</v>
+        <v>-18500</v>
       </c>
       <c r="H32" s="3">
-        <v>104400</v>
+        <v>-8400</v>
       </c>
       <c r="I32" s="3">
-        <v>2700</v>
+        <v>97100</v>
       </c>
       <c r="J32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-216400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>66900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>50000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>16500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>484500</v>
+        <v>509900</v>
       </c>
       <c r="E33" s="3">
-        <v>499700</v>
+        <v>450600</v>
       </c>
       <c r="F33" s="3">
-        <v>625400</v>
+        <v>464700</v>
       </c>
       <c r="G33" s="3">
-        <v>455100</v>
+        <v>581600</v>
       </c>
       <c r="H33" s="3">
-        <v>82500</v>
+        <v>423300</v>
       </c>
       <c r="I33" s="3">
-        <v>496100</v>
+        <v>76700</v>
       </c>
       <c r="J33" s="3">
+        <v>461400</v>
+      </c>
+      <c r="K33" s="3">
         <v>557300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>464600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>842400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>432600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>536300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>390800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>426700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>447600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>547200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>448800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>697100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>368800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>552200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>484500</v>
+        <v>509900</v>
       </c>
       <c r="E35" s="3">
-        <v>499700</v>
+        <v>450600</v>
       </c>
       <c r="F35" s="3">
-        <v>625400</v>
+        <v>464700</v>
       </c>
       <c r="G35" s="3">
-        <v>455100</v>
+        <v>581600</v>
       </c>
       <c r="H35" s="3">
-        <v>82500</v>
+        <v>423300</v>
       </c>
       <c r="I35" s="3">
-        <v>496100</v>
+        <v>76700</v>
       </c>
       <c r="J35" s="3">
+        <v>461400</v>
+      </c>
+      <c r="K35" s="3">
         <v>557300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>464600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>842400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>432600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>536300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>390800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>426700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>447600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>547200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>448800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>697100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>368800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>552200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2074200</v>
+        <v>2228500</v>
       </c>
       <c r="E41" s="3">
-        <v>1481100</v>
+        <v>1929200</v>
       </c>
       <c r="F41" s="3">
-        <v>1770000</v>
+        <v>1377500</v>
       </c>
       <c r="G41" s="3">
-        <v>1902800</v>
+        <v>1646200</v>
       </c>
       <c r="H41" s="3">
-        <v>1528600</v>
+        <v>1769800</v>
       </c>
       <c r="I41" s="3">
-        <v>1880100</v>
+        <v>1421700</v>
       </c>
       <c r="J41" s="3">
+        <v>1748600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1531100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1032300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1286800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1473500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1770600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1488100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1622000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1819400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1841000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1367700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>826200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>919400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1485500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2674,20 +2764,20 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8700</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>721100</v>
+        <v>752000</v>
       </c>
       <c r="E43" s="3">
-        <v>783400</v>
+        <v>670700</v>
       </c>
       <c r="F43" s="3">
-        <v>843200</v>
+        <v>728600</v>
       </c>
       <c r="G43" s="3">
-        <v>657700</v>
+        <v>784300</v>
       </c>
       <c r="H43" s="3">
-        <v>685600</v>
+        <v>611700</v>
       </c>
       <c r="I43" s="3">
-        <v>697300</v>
+        <v>637700</v>
       </c>
       <c r="J43" s="3">
+        <v>648600</v>
+      </c>
+      <c r="K43" s="3">
         <v>680600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>539400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>537800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>565500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>548800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>418800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>462300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>390300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>560400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>393700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>361100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>361800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>715300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3375600</v>
+        <v>3727900</v>
       </c>
       <c r="E44" s="3">
-        <v>3324200</v>
+        <v>3139500</v>
       </c>
       <c r="F44" s="3">
-        <v>3392000</v>
+        <v>3091700</v>
       </c>
       <c r="G44" s="3">
-        <v>3566300</v>
+        <v>3154800</v>
       </c>
       <c r="H44" s="3">
-        <v>3207500</v>
+        <v>3316900</v>
       </c>
       <c r="I44" s="3">
-        <v>3149300</v>
+        <v>2983200</v>
       </c>
       <c r="J44" s="3">
+        <v>2929000</v>
+      </c>
+      <c r="K44" s="3">
         <v>3352000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3446200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2917100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2947500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2888500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2732200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3084200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2919100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3075400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2976400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2675600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2772500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2849600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42100</v>
+        <v>50200</v>
       </c>
       <c r="E45" s="3">
-        <v>53000</v>
+        <v>39200</v>
       </c>
       <c r="F45" s="3">
-        <v>34800</v>
+        <v>49300</v>
       </c>
       <c r="G45" s="3">
-        <v>64400</v>
+        <v>32300</v>
       </c>
       <c r="H45" s="3">
-        <v>57400</v>
+        <v>59900</v>
       </c>
       <c r="I45" s="3">
-        <v>60800</v>
+        <v>53400</v>
       </c>
       <c r="J45" s="3">
+        <v>56500</v>
+      </c>
+      <c r="K45" s="3">
         <v>88200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>76000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>64100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>49800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>66900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>43600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>649000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>667100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6213000</v>
+        <v>6758600</v>
       </c>
       <c r="E46" s="3">
-        <v>5641700</v>
+        <v>5778500</v>
       </c>
       <c r="F46" s="3">
-        <v>6040000</v>
+        <v>5247100</v>
       </c>
       <c r="G46" s="3">
-        <v>6191200</v>
+        <v>5617600</v>
       </c>
       <c r="H46" s="3">
-        <v>5479100</v>
+        <v>5758300</v>
       </c>
       <c r="I46" s="3">
-        <v>5787500</v>
+        <v>5096000</v>
       </c>
       <c r="J46" s="3">
+        <v>5382800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5652000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5063300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4817700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5046900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5272000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4696400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5245000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5186000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5527600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4777400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3906500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4702600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5523600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100600</v>
+        <v>99400</v>
       </c>
       <c r="E47" s="3">
-        <v>102600</v>
+        <v>93600</v>
       </c>
       <c r="F47" s="3">
-        <v>101400</v>
+        <v>95400</v>
       </c>
       <c r="G47" s="3">
-        <v>112200</v>
+        <v>94300</v>
       </c>
       <c r="H47" s="3">
-        <v>114300</v>
+        <v>104400</v>
       </c>
       <c r="I47" s="3">
-        <v>113100</v>
+        <v>106300</v>
       </c>
       <c r="J47" s="3">
+        <v>105200</v>
+      </c>
+      <c r="K47" s="3">
         <v>91100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>107100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>108800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>107500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>101500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>94300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>109100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>99000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>105900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>79200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>73500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>79900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>99800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9490700</v>
+        <v>8996100</v>
       </c>
       <c r="E48" s="3">
-        <v>9522000</v>
+        <v>8827000</v>
       </c>
       <c r="F48" s="3">
-        <v>9500000</v>
+        <v>8856100</v>
       </c>
       <c r="G48" s="3">
-        <v>9633300</v>
+        <v>8835600</v>
       </c>
       <c r="H48" s="3">
-        <v>9682400</v>
+        <v>8959700</v>
       </c>
       <c r="I48" s="3">
-        <v>9804400</v>
+        <v>9005300</v>
       </c>
       <c r="J48" s="3">
+        <v>9118800</v>
+      </c>
+      <c r="K48" s="3">
         <v>9350300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9317000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8669300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8851900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6576500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6296400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7530400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7347300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7245000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6959000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6874900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6833900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7240200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1851900</v>
+        <v>1806400</v>
       </c>
       <c r="E49" s="3">
-        <v>1934700</v>
+        <v>1722400</v>
       </c>
       <c r="F49" s="3">
-        <v>1863300</v>
+        <v>1799400</v>
       </c>
       <c r="G49" s="3">
-        <v>2104500</v>
+        <v>1733000</v>
       </c>
       <c r="H49" s="3">
-        <v>2224800</v>
+        <v>1957300</v>
       </c>
       <c r="I49" s="3">
-        <v>2270900</v>
+        <v>2069200</v>
       </c>
       <c r="J49" s="3">
+        <v>2112000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1840100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1908900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1796200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1838400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1687100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1686800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2133700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1954500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2036100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1886700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1864000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1933200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2195100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>502400</v>
+        <v>496900</v>
       </c>
       <c r="E52" s="3">
-        <v>473300</v>
+        <v>467200</v>
       </c>
       <c r="F52" s="3">
-        <v>452000</v>
+        <v>440200</v>
       </c>
       <c r="G52" s="3">
-        <v>379400</v>
+        <v>420300</v>
       </c>
       <c r="H52" s="3">
-        <v>363300</v>
+        <v>352900</v>
       </c>
       <c r="I52" s="3">
-        <v>349500</v>
+        <v>337900</v>
       </c>
       <c r="J52" s="3">
+        <v>325100</v>
+      </c>
+      <c r="K52" s="3">
         <v>392400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>419300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>385000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>379800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>340500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>374600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>355100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>385300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>356000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>291600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>265500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>226800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>249600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18158600</v>
+        <v>18157500</v>
       </c>
       <c r="E54" s="3">
-        <v>17674200</v>
+        <v>16888700</v>
       </c>
       <c r="F54" s="3">
-        <v>17956600</v>
+        <v>16438200</v>
       </c>
       <c r="G54" s="3">
-        <v>18420700</v>
+        <v>16700900</v>
       </c>
       <c r="H54" s="3">
-        <v>17863900</v>
+        <v>17132500</v>
       </c>
       <c r="I54" s="3">
-        <v>18325400</v>
+        <v>16614700</v>
       </c>
       <c r="J54" s="3">
+        <v>17043900</v>
+      </c>
+      <c r="K54" s="3">
         <v>17325900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16815500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15776900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16224400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13977700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13148400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15373400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14972000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15270600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13993900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12984500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13776500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15308300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3872400</v>
+        <v>4034400</v>
       </c>
       <c r="E57" s="3">
-        <v>3928700</v>
+        <v>3601600</v>
       </c>
       <c r="F57" s="3">
-        <v>4582700</v>
+        <v>3654000</v>
       </c>
       <c r="G57" s="3">
-        <v>3963300</v>
+        <v>4262200</v>
       </c>
       <c r="H57" s="3">
-        <v>3801000</v>
+        <v>3686100</v>
       </c>
       <c r="I57" s="3">
-        <v>4036600</v>
+        <v>3535100</v>
       </c>
       <c r="J57" s="3">
+        <v>3754300</v>
+      </c>
+      <c r="K57" s="3">
         <v>4322700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3763100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3524800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3632700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3890900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3274300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3722700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3686100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4142700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3310400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2747300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2862000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3500300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>151600</v>
+        <v>160900</v>
       </c>
       <c r="E58" s="3">
-        <v>158900</v>
+        <v>141000</v>
       </c>
       <c r="F58" s="3">
-        <v>159600</v>
+        <v>147800</v>
       </c>
       <c r="G58" s="3">
-        <v>160200</v>
+        <v>148500</v>
       </c>
       <c r="H58" s="3">
-        <v>155600</v>
+        <v>149000</v>
       </c>
       <c r="I58" s="3">
-        <v>150800</v>
+        <v>144700</v>
       </c>
       <c r="J58" s="3">
+        <v>140300</v>
+      </c>
+      <c r="K58" s="3">
         <v>151100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>152200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>144300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>148500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>16800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>19700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>21000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>26200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>28300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2650800</v>
+        <v>2611000</v>
       </c>
       <c r="E59" s="3">
-        <v>2460500</v>
+        <v>2465400</v>
       </c>
       <c r="F59" s="3">
-        <v>1364400</v>
+        <v>2288400</v>
       </c>
       <c r="G59" s="3">
-        <v>2460000</v>
+        <v>1269000</v>
       </c>
       <c r="H59" s="3">
-        <v>2377600</v>
+        <v>2287900</v>
       </c>
       <c r="I59" s="3">
-        <v>2586600</v>
+        <v>2211300</v>
       </c>
       <c r="J59" s="3">
+        <v>2405700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1158100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1657200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1937600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2485200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1301000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1655600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2137400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2567100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1414400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1668500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1709800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3197300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1479700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6674800</v>
+        <v>6806300</v>
       </c>
       <c r="E60" s="3">
-        <v>6548200</v>
+        <v>6208100</v>
       </c>
       <c r="F60" s="3">
-        <v>6106700</v>
+        <v>6090300</v>
       </c>
       <c r="G60" s="3">
-        <v>6583400</v>
+        <v>5679700</v>
       </c>
       <c r="H60" s="3">
-        <v>6334100</v>
+        <v>6123100</v>
       </c>
       <c r="I60" s="3">
-        <v>6773900</v>
+        <v>5891200</v>
       </c>
       <c r="J60" s="3">
+        <v>6300200</v>
+      </c>
+      <c r="K60" s="3">
         <v>5631800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5572500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5606700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6266300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5205900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4943200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5875900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6270000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5576800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4999800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4480200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6085500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5008300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2882900</v>
+        <v>2710400</v>
       </c>
       <c r="E61" s="3">
-        <v>2853900</v>
+        <v>2681300</v>
       </c>
       <c r="F61" s="3">
-        <v>2804600</v>
+        <v>2654300</v>
       </c>
       <c r="G61" s="3">
-        <v>2842700</v>
+        <v>2608500</v>
       </c>
       <c r="H61" s="3">
-        <v>2839900</v>
+        <v>2643900</v>
       </c>
       <c r="I61" s="3">
-        <v>2852000</v>
+        <v>2641300</v>
       </c>
       <c r="J61" s="3">
+        <v>2652600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2687800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2634800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2410800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2439000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>646000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>640200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>772600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>751700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>709900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>694900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>680000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>671600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>694400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>655500</v>
+        <v>637200</v>
       </c>
       <c r="E62" s="3">
-        <v>651600</v>
+        <v>609700</v>
       </c>
       <c r="F62" s="3">
-        <v>653600</v>
+        <v>606100</v>
       </c>
       <c r="G62" s="3">
-        <v>697800</v>
+        <v>607900</v>
       </c>
       <c r="H62" s="3">
-        <v>629000</v>
+        <v>649000</v>
       </c>
       <c r="I62" s="3">
-        <v>618200</v>
+        <v>585000</v>
       </c>
       <c r="J62" s="3">
+        <v>574900</v>
+      </c>
+      <c r="K62" s="3">
         <v>662900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>568300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>561300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>574800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>605700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>690200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>740600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>762200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>732800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>853400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>886100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>668600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>736500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10213300</v>
+        <v>10153800</v>
       </c>
       <c r="E66" s="3">
-        <v>10053700</v>
+        <v>9499000</v>
       </c>
       <c r="F66" s="3">
-        <v>9565000</v>
+        <v>9350600</v>
       </c>
       <c r="G66" s="3">
-        <v>10123900</v>
+        <v>8896100</v>
       </c>
       <c r="H66" s="3">
-        <v>9803100</v>
+        <v>9416000</v>
       </c>
       <c r="I66" s="3">
-        <v>10244100</v>
+        <v>9117500</v>
       </c>
       <c r="J66" s="3">
+        <v>9527700</v>
+      </c>
+      <c r="K66" s="3">
         <v>8982600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8775600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8578800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9280100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6457600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6273600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7389100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7783900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7019500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6548100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6046300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7425700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6439200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5111900</v>
+        <v>5231800</v>
       </c>
       <c r="E72" s="3">
-        <v>4627800</v>
+        <v>4754400</v>
       </c>
       <c r="F72" s="3">
-        <v>5525800</v>
+        <v>4304200</v>
       </c>
       <c r="G72" s="3">
-        <v>4900500</v>
+        <v>5139300</v>
       </c>
       <c r="H72" s="3">
-        <v>4445700</v>
+        <v>4557800</v>
       </c>
       <c r="I72" s="3">
-        <v>4363800</v>
+        <v>4134800</v>
       </c>
       <c r="J72" s="3">
+        <v>4058700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5401600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4939900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4310800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4010800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4771500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4180500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4514300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4089200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4986500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4439600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3991400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3295400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5291400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7945300</v>
+        <v>8003600</v>
       </c>
       <c r="E76" s="3">
-        <v>7620500</v>
+        <v>7389700</v>
       </c>
       <c r="F76" s="3">
-        <v>8391700</v>
+        <v>7087600</v>
       </c>
       <c r="G76" s="3">
-        <v>8296700</v>
+        <v>7804800</v>
       </c>
       <c r="H76" s="3">
-        <v>8060800</v>
+        <v>7716500</v>
       </c>
       <c r="I76" s="3">
-        <v>8081200</v>
+        <v>7497100</v>
       </c>
       <c r="J76" s="3">
+        <v>7516100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8343300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8039900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7198100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6944300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7520100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6874800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7984200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7188100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8251100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7445700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6938200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6350800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8869100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>484500</v>
+        <v>509900</v>
       </c>
       <c r="E81" s="3">
-        <v>499700</v>
+        <v>450600</v>
       </c>
       <c r="F81" s="3">
-        <v>625400</v>
+        <v>464700</v>
       </c>
       <c r="G81" s="3">
-        <v>455100</v>
+        <v>581600</v>
       </c>
       <c r="H81" s="3">
-        <v>82500</v>
+        <v>423300</v>
       </c>
       <c r="I81" s="3">
-        <v>496100</v>
+        <v>76700</v>
       </c>
       <c r="J81" s="3">
+        <v>461400</v>
+      </c>
+      <c r="K81" s="3">
         <v>557300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>464600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>842400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>432600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>536300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>390800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>426700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>447600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>547200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>448800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>697100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>368800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>552200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>222500</v>
+        <v>211300</v>
       </c>
       <c r="E83" s="3">
-        <v>225000</v>
+        <v>207000</v>
       </c>
       <c r="F83" s="3">
-        <v>221900</v>
+        <v>209300</v>
       </c>
       <c r="G83" s="3">
-        <v>221900</v>
+        <v>206400</v>
       </c>
       <c r="H83" s="3">
-        <v>227500</v>
+        <v>206400</v>
       </c>
       <c r="I83" s="3">
-        <v>218800</v>
+        <v>211600</v>
       </c>
       <c r="J83" s="3">
+        <v>203500</v>
+      </c>
+      <c r="K83" s="3">
         <v>217900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>215600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>402300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>205800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>152600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>164900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>163200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>158700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>149300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>145300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>149000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>150200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>946900</v>
+        <v>675800</v>
       </c>
       <c r="E89" s="3">
-        <v>-80100</v>
+        <v>880700</v>
       </c>
       <c r="F89" s="3">
-        <v>1710900</v>
+        <v>-74500</v>
       </c>
       <c r="G89" s="3">
-        <v>715800</v>
+        <v>1591300</v>
       </c>
       <c r="H89" s="3">
-        <v>134900</v>
+        <v>665700</v>
       </c>
       <c r="I89" s="3">
-        <v>483800</v>
+        <v>125500</v>
       </c>
       <c r="J89" s="3">
+        <v>449900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1424900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>620100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>788100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>138400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1116100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>624300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>287000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>205600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1218100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>895800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>588900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-164100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1324000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-213300</v>
+        <v>-276600</v>
       </c>
       <c r="E91" s="3">
-        <v>-115800</v>
+        <v>-198400</v>
       </c>
       <c r="F91" s="3">
-        <v>-331800</v>
+        <v>-107700</v>
       </c>
       <c r="G91" s="3">
-        <v>-228600</v>
+        <v>-308600</v>
       </c>
       <c r="H91" s="3">
-        <v>-152600</v>
+        <v>-212600</v>
       </c>
       <c r="I91" s="3">
-        <v>-117100</v>
+        <v>-141900</v>
       </c>
       <c r="J91" s="3">
+        <v>-108900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-305600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-338500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-371300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-159500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-326900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-235600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-197400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-99100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-348500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-230500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-197600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-124700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-198400</v>
+        <v>-250200</v>
       </c>
       <c r="E94" s="3">
-        <v>-127300</v>
+        <v>-184500</v>
       </c>
       <c r="F94" s="3">
-        <v>-305100</v>
+        <v>-118400</v>
       </c>
       <c r="G94" s="3">
-        <v>-208100</v>
+        <v>-283700</v>
       </c>
       <c r="H94" s="3">
-        <v>-124100</v>
+        <v>-193500</v>
       </c>
       <c r="I94" s="3">
-        <v>-182900</v>
+        <v>-115500</v>
       </c>
       <c r="J94" s="3">
+        <v>-170100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-284400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-320700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-365900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-203400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-301200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-206200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-140400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-89100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-314300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-171700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>866900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-178000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-247400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5796,61 +6030,64 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1303500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1212300</v>
       </c>
       <c r="H96" s="3">
-        <v>-231500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-215300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-463400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-503600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-802500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-284900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-504800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-225700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-361100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-148100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-473200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-142700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-124800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-568100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-111800</v>
+        <v>-108000</v>
       </c>
       <c r="E100" s="3">
-        <v>-113700</v>
+        <v>-103900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1414300</v>
+        <v>-105800</v>
       </c>
       <c r="G100" s="3">
-        <v>-113700</v>
+        <v>-1315400</v>
       </c>
       <c r="H100" s="3">
-        <v>-340300</v>
+        <v>-105700</v>
       </c>
       <c r="I100" s="3">
-        <v>-101800</v>
+        <v>-316500</v>
       </c>
       <c r="J100" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-567400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-605800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-993300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-379800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-522400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-242800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-381700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-170000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-494500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-167100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-145400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-591300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-43600</v>
+        <v>-18400</v>
       </c>
       <c r="E101" s="3">
-        <v>32300</v>
+        <v>-40500</v>
       </c>
       <c r="F101" s="3">
-        <v>-124400</v>
+        <v>30000</v>
       </c>
       <c r="G101" s="3">
-        <v>-44200</v>
+        <v>-115700</v>
       </c>
       <c r="H101" s="3">
-        <v>-15100</v>
+        <v>-41100</v>
       </c>
       <c r="I101" s="3">
-        <v>167500</v>
+        <v>-14100</v>
       </c>
       <c r="J101" s="3">
+        <v>155800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-25600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-20300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-20500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-29400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-49100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>37700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-35300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>29600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-15600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-26900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-39900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>29200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>593200</v>
+        <v>299300</v>
       </c>
       <c r="E102" s="3">
-        <v>-288900</v>
+        <v>551700</v>
       </c>
       <c r="F102" s="3">
-        <v>-132900</v>
+        <v>-268700</v>
       </c>
       <c r="G102" s="3">
-        <v>374300</v>
+        <v>-123600</v>
       </c>
       <c r="H102" s="3">
-        <v>-351600</v>
+        <v>348100</v>
       </c>
       <c r="I102" s="3">
-        <v>349000</v>
+        <v>-327000</v>
       </c>
       <c r="J102" s="3">
+        <v>324600</v>
+      </c>
+      <c r="K102" s="3">
         <v>511200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-303700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-591400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-465200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>263000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>126200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-197400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-88900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>473300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>541400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-93200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-527500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>503000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8124300</v>
+        <v>8423600</v>
       </c>
       <c r="E8" s="3">
-        <v>8061200</v>
+        <v>8358200</v>
       </c>
       <c r="F8" s="3">
-        <v>7880400</v>
+        <v>8170700</v>
       </c>
       <c r="G8" s="3">
-        <v>9044900</v>
+        <v>9378000</v>
       </c>
       <c r="H8" s="3">
-        <v>7632600</v>
+        <v>7913700</v>
       </c>
       <c r="I8" s="3">
-        <v>7800600</v>
+        <v>8087900</v>
       </c>
       <c r="J8" s="3">
-        <v>7907100</v>
+        <v>8198300</v>
       </c>
       <c r="K8" s="3">
         <v>9216600</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6202500</v>
+        <v>6431000</v>
       </c>
       <c r="E9" s="3">
-        <v>6186200</v>
+        <v>6414100</v>
       </c>
       <c r="F9" s="3">
-        <v>6044600</v>
+        <v>6267300</v>
       </c>
       <c r="G9" s="3">
-        <v>6952100</v>
+        <v>7208200</v>
       </c>
       <c r="H9" s="3">
-        <v>5828300</v>
+        <v>6043000</v>
       </c>
       <c r="I9" s="3">
-        <v>6022200</v>
+        <v>6244100</v>
       </c>
       <c r="J9" s="3">
-        <v>6104200</v>
+        <v>6329100</v>
       </c>
       <c r="K9" s="3">
         <v>7126800</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1921800</v>
+        <v>1992600</v>
       </c>
       <c r="E10" s="3">
-        <v>1875000</v>
+        <v>1944100</v>
       </c>
       <c r="F10" s="3">
-        <v>1835800</v>
+        <v>1903500</v>
       </c>
       <c r="G10" s="3">
-        <v>2092700</v>
+        <v>2169800</v>
       </c>
       <c r="H10" s="3">
-        <v>1804300</v>
+        <v>1870700</v>
       </c>
       <c r="I10" s="3">
-        <v>1778300</v>
+        <v>1843900</v>
       </c>
       <c r="J10" s="3">
-        <v>1802800</v>
+        <v>1869200</v>
       </c>
       <c r="K10" s="3">
         <v>2089800</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7410900</v>
+        <v>7683900</v>
       </c>
       <c r="E17" s="3">
-        <v>7431200</v>
+        <v>7704900</v>
       </c>
       <c r="F17" s="3">
-        <v>7190900</v>
+        <v>7455800</v>
       </c>
       <c r="G17" s="3">
-        <v>8219900</v>
+        <v>8522700</v>
       </c>
       <c r="H17" s="3">
-        <v>6996500</v>
+        <v>7254200</v>
       </c>
       <c r="I17" s="3">
-        <v>7286000</v>
+        <v>7554400</v>
       </c>
       <c r="J17" s="3">
-        <v>7231400</v>
+        <v>7497800</v>
       </c>
       <c r="K17" s="3">
         <v>8412800</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>713500</v>
+        <v>739700</v>
       </c>
       <c r="E18" s="3">
-        <v>630000</v>
+        <v>653200</v>
       </c>
       <c r="F18" s="3">
-        <v>689500</v>
+        <v>714900</v>
       </c>
       <c r="G18" s="3">
-        <v>824900</v>
+        <v>855300</v>
       </c>
       <c r="H18" s="3">
-        <v>636100</v>
+        <v>659500</v>
       </c>
       <c r="I18" s="3">
-        <v>514500</v>
+        <v>533500</v>
       </c>
       <c r="J18" s="3">
-        <v>675600</v>
+        <v>700500</v>
       </c>
       <c r="K18" s="3">
         <v>803800</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="E20" s="3">
-        <v>20500</v>
+        <v>21200</v>
       </c>
       <c r="F20" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G20" s="3">
-        <v>18500</v>
+        <v>19200</v>
       </c>
       <c r="H20" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="I20" s="3">
-        <v>-97100</v>
+        <v>-100600</v>
       </c>
       <c r="J20" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K20" s="3">
         <v>216400</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>934500</v>
+        <v>969000</v>
       </c>
       <c r="E21" s="3">
-        <v>857500</v>
+        <v>889100</v>
       </c>
       <c r="F21" s="3">
-        <v>895700</v>
+        <v>928700</v>
       </c>
       <c r="G21" s="3">
-        <v>1049800</v>
+        <v>1088500</v>
       </c>
       <c r="H21" s="3">
-        <v>851000</v>
+        <v>882300</v>
       </c>
       <c r="I21" s="3">
-        <v>629000</v>
+        <v>652200</v>
       </c>
       <c r="J21" s="3">
-        <v>876700</v>
+        <v>909000</v>
       </c>
       <c r="K21" s="3">
         <v>1238200</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>73600</v>
+        <v>76400</v>
       </c>
       <c r="E22" s="3">
-        <v>74400</v>
+        <v>77100</v>
       </c>
       <c r="F22" s="3">
-        <v>74300</v>
+        <v>77100</v>
       </c>
       <c r="G22" s="3">
-        <v>73500</v>
+        <v>76200</v>
       </c>
       <c r="H22" s="3">
-        <v>75200</v>
+        <v>78000</v>
       </c>
       <c r="I22" s="3">
-        <v>75300</v>
+        <v>78100</v>
       </c>
       <c r="J22" s="3">
-        <v>71800</v>
+        <v>74500</v>
       </c>
       <c r="K22" s="3">
         <v>285400</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>649600</v>
+        <v>673500</v>
       </c>
       <c r="E23" s="3">
-        <v>576200</v>
+        <v>597400</v>
       </c>
       <c r="F23" s="3">
-        <v>612100</v>
+        <v>634700</v>
       </c>
       <c r="G23" s="3">
-        <v>769900</v>
+        <v>798300</v>
       </c>
       <c r="H23" s="3">
-        <v>569300</v>
+        <v>590300</v>
       </c>
       <c r="I23" s="3">
-        <v>342200</v>
+        <v>354800</v>
       </c>
       <c r="J23" s="3">
-        <v>601300</v>
+        <v>623500</v>
       </c>
       <c r="K23" s="3">
         <v>734800</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>139700</v>
+        <v>144800</v>
       </c>
       <c r="E24" s="3">
-        <v>125500</v>
+        <v>130200</v>
       </c>
       <c r="F24" s="3">
-        <v>147400</v>
+        <v>152800</v>
       </c>
       <c r="G24" s="3">
-        <v>188300</v>
+        <v>195200</v>
       </c>
       <c r="H24" s="3">
-        <v>146000</v>
+        <v>151400</v>
       </c>
       <c r="I24" s="3">
-        <v>265400</v>
+        <v>275200</v>
       </c>
       <c r="J24" s="3">
-        <v>140000</v>
+        <v>145100</v>
       </c>
       <c r="K24" s="3">
         <v>177500</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>509900</v>
+        <v>528700</v>
       </c>
       <c r="E26" s="3">
-        <v>450600</v>
+        <v>467200</v>
       </c>
       <c r="F26" s="3">
-        <v>464700</v>
+        <v>481900</v>
       </c>
       <c r="G26" s="3">
-        <v>581600</v>
+        <v>603100</v>
       </c>
       <c r="H26" s="3">
-        <v>423300</v>
+        <v>438900</v>
       </c>
       <c r="I26" s="3">
-        <v>76700</v>
+        <v>79500</v>
       </c>
       <c r="J26" s="3">
-        <v>461400</v>
+        <v>478400</v>
       </c>
       <c r="K26" s="3">
         <v>557300</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>509900</v>
+        <v>528700</v>
       </c>
       <c r="E27" s="3">
-        <v>450600</v>
+        <v>467200</v>
       </c>
       <c r="F27" s="3">
-        <v>464700</v>
+        <v>481900</v>
       </c>
       <c r="G27" s="3">
-        <v>581600</v>
+        <v>603100</v>
       </c>
       <c r="H27" s="3">
-        <v>423300</v>
+        <v>438900</v>
       </c>
       <c r="I27" s="3">
-        <v>76700</v>
+        <v>79500</v>
       </c>
       <c r="J27" s="3">
-        <v>461400</v>
+        <v>478400</v>
       </c>
       <c r="K27" s="3">
         <v>557300</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="E32" s="3">
-        <v>-20500</v>
+        <v>-21200</v>
       </c>
       <c r="F32" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G32" s="3">
-        <v>-18500</v>
+        <v>-19200</v>
       </c>
       <c r="H32" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="I32" s="3">
-        <v>97100</v>
+        <v>100600</v>
       </c>
       <c r="J32" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K32" s="3">
         <v>-216400</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>509900</v>
+        <v>528700</v>
       </c>
       <c r="E33" s="3">
-        <v>450600</v>
+        <v>467200</v>
       </c>
       <c r="F33" s="3">
-        <v>464700</v>
+        <v>481900</v>
       </c>
       <c r="G33" s="3">
-        <v>581600</v>
+        <v>603100</v>
       </c>
       <c r="H33" s="3">
-        <v>423300</v>
+        <v>438900</v>
       </c>
       <c r="I33" s="3">
-        <v>76700</v>
+        <v>79500</v>
       </c>
       <c r="J33" s="3">
-        <v>461400</v>
+        <v>478400</v>
       </c>
       <c r="K33" s="3">
         <v>557300</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>509900</v>
+        <v>528700</v>
       </c>
       <c r="E35" s="3">
-        <v>450600</v>
+        <v>467200</v>
       </c>
       <c r="F35" s="3">
-        <v>464700</v>
+        <v>481900</v>
       </c>
       <c r="G35" s="3">
-        <v>581600</v>
+        <v>603100</v>
       </c>
       <c r="H35" s="3">
-        <v>423300</v>
+        <v>438900</v>
       </c>
       <c r="I35" s="3">
-        <v>76700</v>
+        <v>79500</v>
       </c>
       <c r="J35" s="3">
-        <v>461400</v>
+        <v>478400</v>
       </c>
       <c r="K35" s="3">
         <v>557300</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2228500</v>
+        <v>2310500</v>
       </c>
       <c r="E41" s="3">
-        <v>1929200</v>
+        <v>2000200</v>
       </c>
       <c r="F41" s="3">
-        <v>1377500</v>
+        <v>1428200</v>
       </c>
       <c r="G41" s="3">
-        <v>1646200</v>
+        <v>1706800</v>
       </c>
       <c r="H41" s="3">
-        <v>1769800</v>
+        <v>1835000</v>
       </c>
       <c r="I41" s="3">
-        <v>1421700</v>
+        <v>1474000</v>
       </c>
       <c r="J41" s="3">
-        <v>1748600</v>
+        <v>1813000</v>
       </c>
       <c r="K41" s="3">
         <v>1531100</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>752000</v>
+        <v>779700</v>
       </c>
       <c r="E43" s="3">
-        <v>670700</v>
+        <v>695400</v>
       </c>
       <c r="F43" s="3">
-        <v>728600</v>
+        <v>755500</v>
       </c>
       <c r="G43" s="3">
-        <v>784300</v>
+        <v>813200</v>
       </c>
       <c r="H43" s="3">
-        <v>611700</v>
+        <v>634200</v>
       </c>
       <c r="I43" s="3">
-        <v>637700</v>
+        <v>661100</v>
       </c>
       <c r="J43" s="3">
-        <v>648600</v>
+        <v>672500</v>
       </c>
       <c r="K43" s="3">
         <v>680600</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3727900</v>
+        <v>3865200</v>
       </c>
       <c r="E44" s="3">
-        <v>3139500</v>
+        <v>3255200</v>
       </c>
       <c r="F44" s="3">
-        <v>3091700</v>
+        <v>3205600</v>
       </c>
       <c r="G44" s="3">
-        <v>3154800</v>
+        <v>3271000</v>
       </c>
       <c r="H44" s="3">
-        <v>3316900</v>
+        <v>3439100</v>
       </c>
       <c r="I44" s="3">
-        <v>2983200</v>
+        <v>3093100</v>
       </c>
       <c r="J44" s="3">
-        <v>2929000</v>
+        <v>3036900</v>
       </c>
       <c r="K44" s="3">
         <v>3352000</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50200</v>
+        <v>52100</v>
       </c>
       <c r="E45" s="3">
-        <v>39200</v>
+        <v>40600</v>
       </c>
       <c r="F45" s="3">
-        <v>49300</v>
+        <v>51100</v>
       </c>
       <c r="G45" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="H45" s="3">
-        <v>59900</v>
+        <v>62100</v>
       </c>
       <c r="I45" s="3">
-        <v>53400</v>
+        <v>55400</v>
       </c>
       <c r="J45" s="3">
-        <v>56500</v>
+        <v>58600</v>
       </c>
       <c r="K45" s="3">
         <v>88200</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6758600</v>
+        <v>7007500</v>
       </c>
       <c r="E46" s="3">
-        <v>5778500</v>
+        <v>5991400</v>
       </c>
       <c r="F46" s="3">
-        <v>5247100</v>
+        <v>5440400</v>
       </c>
       <c r="G46" s="3">
-        <v>5617600</v>
+        <v>5824500</v>
       </c>
       <c r="H46" s="3">
-        <v>5758300</v>
+        <v>5970400</v>
       </c>
       <c r="I46" s="3">
-        <v>5096000</v>
+        <v>5283700</v>
       </c>
       <c r="J46" s="3">
-        <v>5382800</v>
+        <v>5581000</v>
       </c>
       <c r="K46" s="3">
         <v>5652000</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>99400</v>
+        <v>103100</v>
       </c>
       <c r="E47" s="3">
-        <v>93600</v>
+        <v>97000</v>
       </c>
       <c r="F47" s="3">
-        <v>95400</v>
+        <v>98900</v>
       </c>
       <c r="G47" s="3">
-        <v>94300</v>
+        <v>97800</v>
       </c>
       <c r="H47" s="3">
-        <v>104400</v>
+        <v>108200</v>
       </c>
       <c r="I47" s="3">
-        <v>106300</v>
+        <v>110200</v>
       </c>
       <c r="J47" s="3">
-        <v>105200</v>
+        <v>109100</v>
       </c>
       <c r="K47" s="3">
         <v>91100</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8996100</v>
+        <v>9327500</v>
       </c>
       <c r="E48" s="3">
-        <v>8827000</v>
+        <v>9152200</v>
       </c>
       <c r="F48" s="3">
-        <v>8856100</v>
+        <v>9182300</v>
       </c>
       <c r="G48" s="3">
-        <v>8835600</v>
+        <v>9161100</v>
       </c>
       <c r="H48" s="3">
-        <v>8959700</v>
+        <v>9289700</v>
       </c>
       <c r="I48" s="3">
-        <v>9005300</v>
+        <v>9337000</v>
       </c>
       <c r="J48" s="3">
-        <v>9118800</v>
+        <v>9454700</v>
       </c>
       <c r="K48" s="3">
         <v>9350300</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1806400</v>
+        <v>1872900</v>
       </c>
       <c r="E49" s="3">
-        <v>1722400</v>
+        <v>1785800</v>
       </c>
       <c r="F49" s="3">
-        <v>1799400</v>
+        <v>1865700</v>
       </c>
       <c r="G49" s="3">
-        <v>1733000</v>
+        <v>1796900</v>
       </c>
       <c r="H49" s="3">
-        <v>1957300</v>
+        <v>2029400</v>
       </c>
       <c r="I49" s="3">
-        <v>2069200</v>
+        <v>2145400</v>
       </c>
       <c r="J49" s="3">
-        <v>2112000</v>
+        <v>2189800</v>
       </c>
       <c r="K49" s="3">
         <v>1840100</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>496900</v>
+        <v>515200</v>
       </c>
       <c r="E52" s="3">
-        <v>467200</v>
+        <v>484400</v>
       </c>
       <c r="F52" s="3">
-        <v>440200</v>
+        <v>456400</v>
       </c>
       <c r="G52" s="3">
-        <v>420300</v>
+        <v>435800</v>
       </c>
       <c r="H52" s="3">
-        <v>352900</v>
+        <v>365900</v>
       </c>
       <c r="I52" s="3">
-        <v>337900</v>
+        <v>350300</v>
       </c>
       <c r="J52" s="3">
-        <v>325100</v>
+        <v>337000</v>
       </c>
       <c r="K52" s="3">
         <v>392400</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18157500</v>
+        <v>18826300</v>
       </c>
       <c r="E54" s="3">
-        <v>16888700</v>
+        <v>17510900</v>
       </c>
       <c r="F54" s="3">
-        <v>16438200</v>
+        <v>17043700</v>
       </c>
       <c r="G54" s="3">
-        <v>16700900</v>
+        <v>17316100</v>
       </c>
       <c r="H54" s="3">
-        <v>17132500</v>
+        <v>17763600</v>
       </c>
       <c r="I54" s="3">
-        <v>16614700</v>
+        <v>17226700</v>
       </c>
       <c r="J54" s="3">
-        <v>17043900</v>
+        <v>17671700</v>
       </c>
       <c r="K54" s="3">
         <v>17325900</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4034400</v>
+        <v>4183000</v>
       </c>
       <c r="E57" s="3">
-        <v>3601600</v>
+        <v>3734200</v>
       </c>
       <c r="F57" s="3">
-        <v>3654000</v>
+        <v>3788600</v>
       </c>
       <c r="G57" s="3">
-        <v>4262200</v>
+        <v>4419200</v>
       </c>
       <c r="H57" s="3">
-        <v>3686100</v>
+        <v>3821900</v>
       </c>
       <c r="I57" s="3">
-        <v>3535100</v>
+        <v>3665400</v>
       </c>
       <c r="J57" s="3">
-        <v>3754300</v>
+        <v>3892600</v>
       </c>
       <c r="K57" s="3">
         <v>4322700</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>160900</v>
+        <v>166800</v>
       </c>
       <c r="E58" s="3">
-        <v>141000</v>
+        <v>146200</v>
       </c>
       <c r="F58" s="3">
-        <v>147800</v>
+        <v>153300</v>
       </c>
       <c r="G58" s="3">
-        <v>148500</v>
+        <v>153900</v>
       </c>
       <c r="H58" s="3">
-        <v>149000</v>
+        <v>154500</v>
       </c>
       <c r="I58" s="3">
-        <v>144700</v>
+        <v>150000</v>
       </c>
       <c r="J58" s="3">
-        <v>140300</v>
+        <v>145400</v>
       </c>
       <c r="K58" s="3">
         <v>151100</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2611000</v>
+        <v>2707200</v>
       </c>
       <c r="E59" s="3">
-        <v>2465400</v>
+        <v>2556300</v>
       </c>
       <c r="F59" s="3">
-        <v>2288400</v>
+        <v>2372700</v>
       </c>
       <c r="G59" s="3">
-        <v>1269000</v>
+        <v>1315700</v>
       </c>
       <c r="H59" s="3">
-        <v>2287900</v>
+        <v>2372200</v>
       </c>
       <c r="I59" s="3">
-        <v>2211300</v>
+        <v>2292800</v>
       </c>
       <c r="J59" s="3">
-        <v>2405700</v>
+        <v>2494300</v>
       </c>
       <c r="K59" s="3">
         <v>1158100</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6806300</v>
+        <v>7057000</v>
       </c>
       <c r="E60" s="3">
-        <v>6208100</v>
+        <v>6436700</v>
       </c>
       <c r="F60" s="3">
-        <v>6090300</v>
+        <v>6314600</v>
       </c>
       <c r="G60" s="3">
-        <v>5679700</v>
+        <v>5888900</v>
       </c>
       <c r="H60" s="3">
-        <v>6123100</v>
+        <v>6348600</v>
       </c>
       <c r="I60" s="3">
-        <v>5891200</v>
+        <v>6108200</v>
       </c>
       <c r="J60" s="3">
-        <v>6300200</v>
+        <v>6532300</v>
       </c>
       <c r="K60" s="3">
         <v>5631800</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2710400</v>
+        <v>2810200</v>
       </c>
       <c r="E61" s="3">
-        <v>2681300</v>
+        <v>2780100</v>
       </c>
       <c r="F61" s="3">
-        <v>2654300</v>
+        <v>2752100</v>
       </c>
       <c r="G61" s="3">
-        <v>2608500</v>
+        <v>2704500</v>
       </c>
       <c r="H61" s="3">
-        <v>2643900</v>
+        <v>2741300</v>
       </c>
       <c r="I61" s="3">
-        <v>2641300</v>
+        <v>2738600</v>
       </c>
       <c r="J61" s="3">
-        <v>2652600</v>
+        <v>2750300</v>
       </c>
       <c r="K61" s="3">
         <v>2687800</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>637200</v>
+        <v>660700</v>
       </c>
       <c r="E62" s="3">
-        <v>609700</v>
+        <v>632100</v>
       </c>
       <c r="F62" s="3">
-        <v>606100</v>
+        <v>628400</v>
       </c>
       <c r="G62" s="3">
-        <v>607900</v>
+        <v>630300</v>
       </c>
       <c r="H62" s="3">
-        <v>649000</v>
+        <v>672900</v>
       </c>
       <c r="I62" s="3">
-        <v>585000</v>
+        <v>606600</v>
       </c>
       <c r="J62" s="3">
-        <v>574900</v>
+        <v>596100</v>
       </c>
       <c r="K62" s="3">
         <v>662900</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10153800</v>
+        <v>10527900</v>
       </c>
       <c r="E66" s="3">
-        <v>9499000</v>
+        <v>9849000</v>
       </c>
       <c r="F66" s="3">
-        <v>9350600</v>
+        <v>9695000</v>
       </c>
       <c r="G66" s="3">
-        <v>8896100</v>
+        <v>9223800</v>
       </c>
       <c r="H66" s="3">
-        <v>9416000</v>
+        <v>9762800</v>
       </c>
       <c r="I66" s="3">
-        <v>9117500</v>
+        <v>9453400</v>
       </c>
       <c r="J66" s="3">
-        <v>9527700</v>
+        <v>9878700</v>
       </c>
       <c r="K66" s="3">
         <v>8982600</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5231800</v>
+        <v>5424500</v>
       </c>
       <c r="E72" s="3">
-        <v>4754400</v>
+        <v>4929600</v>
       </c>
       <c r="F72" s="3">
-        <v>4304200</v>
+        <v>4462800</v>
       </c>
       <c r="G72" s="3">
-        <v>5139300</v>
+        <v>5328600</v>
       </c>
       <c r="H72" s="3">
-        <v>4557800</v>
+        <v>4725700</v>
       </c>
       <c r="I72" s="3">
-        <v>4134800</v>
+        <v>4287100</v>
       </c>
       <c r="J72" s="3">
-        <v>4058700</v>
+        <v>4208200</v>
       </c>
       <c r="K72" s="3">
         <v>5401600</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8003600</v>
+        <v>8298500</v>
       </c>
       <c r="E76" s="3">
-        <v>7389700</v>
+        <v>7661900</v>
       </c>
       <c r="F76" s="3">
-        <v>7087600</v>
+        <v>7348700</v>
       </c>
       <c r="G76" s="3">
-        <v>7804800</v>
+        <v>8092300</v>
       </c>
       <c r="H76" s="3">
-        <v>7716500</v>
+        <v>8000800</v>
       </c>
       <c r="I76" s="3">
-        <v>7497100</v>
+        <v>7773300</v>
       </c>
       <c r="J76" s="3">
-        <v>7516100</v>
+        <v>7793000</v>
       </c>
       <c r="K76" s="3">
         <v>8343300</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>509900</v>
+        <v>528700</v>
       </c>
       <c r="E81" s="3">
-        <v>450600</v>
+        <v>467200</v>
       </c>
       <c r="F81" s="3">
-        <v>464700</v>
+        <v>481900</v>
       </c>
       <c r="G81" s="3">
-        <v>581600</v>
+        <v>603100</v>
       </c>
       <c r="H81" s="3">
-        <v>423300</v>
+        <v>438900</v>
       </c>
       <c r="I81" s="3">
-        <v>76700</v>
+        <v>79500</v>
       </c>
       <c r="J81" s="3">
-        <v>461400</v>
+        <v>478400</v>
       </c>
       <c r="K81" s="3">
         <v>557300</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>211300</v>
+        <v>219100</v>
       </c>
       <c r="E83" s="3">
-        <v>207000</v>
+        <v>214600</v>
       </c>
       <c r="F83" s="3">
-        <v>209300</v>
+        <v>217000</v>
       </c>
       <c r="G83" s="3">
-        <v>206400</v>
+        <v>214000</v>
       </c>
       <c r="H83" s="3">
-        <v>206400</v>
+        <v>214000</v>
       </c>
       <c r="I83" s="3">
-        <v>211600</v>
+        <v>219400</v>
       </c>
       <c r="J83" s="3">
-        <v>203500</v>
+        <v>211000</v>
       </c>
       <c r="K83" s="3">
         <v>217900</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>675800</v>
+        <v>700700</v>
       </c>
       <c r="E89" s="3">
-        <v>880700</v>
+        <v>913100</v>
       </c>
       <c r="F89" s="3">
-        <v>-74500</v>
+        <v>-77300</v>
       </c>
       <c r="G89" s="3">
-        <v>1591300</v>
+        <v>1649900</v>
       </c>
       <c r="H89" s="3">
-        <v>665700</v>
+        <v>690200</v>
       </c>
       <c r="I89" s="3">
-        <v>125500</v>
+        <v>130100</v>
       </c>
       <c r="J89" s="3">
-        <v>449900</v>
+        <v>466500</v>
       </c>
       <c r="K89" s="3">
         <v>1424900</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-276600</v>
+        <v>-286700</v>
       </c>
       <c r="E91" s="3">
-        <v>-198400</v>
+        <v>-205700</v>
       </c>
       <c r="F91" s="3">
-        <v>-107700</v>
+        <v>-111700</v>
       </c>
       <c r="G91" s="3">
-        <v>-308600</v>
+        <v>-319900</v>
       </c>
       <c r="H91" s="3">
-        <v>-212600</v>
+        <v>-220500</v>
       </c>
       <c r="I91" s="3">
-        <v>-141900</v>
+        <v>-147200</v>
       </c>
       <c r="J91" s="3">
-        <v>-108900</v>
+        <v>-112900</v>
       </c>
       <c r="K91" s="3">
         <v>-305600</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-250200</v>
+        <v>-259400</v>
       </c>
       <c r="E94" s="3">
-        <v>-184500</v>
+        <v>-191300</v>
       </c>
       <c r="F94" s="3">
-        <v>-118400</v>
+        <v>-122800</v>
       </c>
       <c r="G94" s="3">
-        <v>-283700</v>
+        <v>-294200</v>
       </c>
       <c r="H94" s="3">
-        <v>-193500</v>
+        <v>-200700</v>
       </c>
       <c r="I94" s="3">
-        <v>-115500</v>
+        <v>-119700</v>
       </c>
       <c r="J94" s="3">
-        <v>-170100</v>
+        <v>-176300</v>
       </c>
       <c r="K94" s="3">
         <v>-284400</v>
@@ -6033,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1212300</v>
+        <v>-1257000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-215300</v>
+        <v>-223200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-108000</v>
+        <v>-111900</v>
       </c>
       <c r="E100" s="3">
-        <v>-103900</v>
+        <v>-107800</v>
       </c>
       <c r="F100" s="3">
-        <v>-105800</v>
+        <v>-109700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1315400</v>
+        <v>-1363900</v>
       </c>
       <c r="H100" s="3">
-        <v>-105700</v>
+        <v>-109600</v>
       </c>
       <c r="I100" s="3">
-        <v>-316500</v>
+        <v>-328200</v>
       </c>
       <c r="J100" s="3">
-        <v>-94700</v>
+        <v>-98100</v>
       </c>
       <c r="K100" s="3">
         <v>-567400</v>
@@ -6364,25 +6364,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18400</v>
+        <v>-19100</v>
       </c>
       <c r="E101" s="3">
-        <v>-40500</v>
+        <v>-42000</v>
       </c>
       <c r="F101" s="3">
-        <v>30000</v>
+        <v>31100</v>
       </c>
       <c r="G101" s="3">
-        <v>-115700</v>
+        <v>-120000</v>
       </c>
       <c r="H101" s="3">
-        <v>-41100</v>
+        <v>-42700</v>
       </c>
       <c r="I101" s="3">
-        <v>-14100</v>
+        <v>-14600</v>
       </c>
       <c r="J101" s="3">
-        <v>155800</v>
+        <v>161600</v>
       </c>
       <c r="K101" s="3">
         <v>-25600</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>299300</v>
+        <v>310300</v>
       </c>
       <c r="E102" s="3">
-        <v>551700</v>
+        <v>572000</v>
       </c>
       <c r="F102" s="3">
-        <v>-268700</v>
+        <v>-278600</v>
       </c>
       <c r="G102" s="3">
-        <v>-123600</v>
+        <v>-128100</v>
       </c>
       <c r="H102" s="3">
-        <v>348100</v>
+        <v>360900</v>
       </c>
       <c r="I102" s="3">
-        <v>-327000</v>
+        <v>-339000</v>
       </c>
       <c r="J102" s="3">
-        <v>324600</v>
+        <v>336500</v>
       </c>
       <c r="K102" s="3">
         <v>511200</v>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8423600</v>
+        <v>10599800</v>
       </c>
       <c r="E8" s="3">
-        <v>8358200</v>
+        <v>8696500</v>
       </c>
       <c r="F8" s="3">
-        <v>8170700</v>
+        <v>8628900</v>
       </c>
       <c r="G8" s="3">
-        <v>9378000</v>
+        <v>8435400</v>
       </c>
       <c r="H8" s="3">
-        <v>7913700</v>
+        <v>9681800</v>
       </c>
       <c r="I8" s="3">
-        <v>8087900</v>
+        <v>8170100</v>
       </c>
       <c r="J8" s="3">
+        <v>8349900</v>
+      </c>
+      <c r="K8" s="3">
         <v>8198300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9216600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7785000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14805300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7576100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8090400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6651000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7862800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7776400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8698500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7080300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7020300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6856800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8363100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6431000</v>
+        <v>8140300</v>
       </c>
       <c r="E9" s="3">
-        <v>6414100</v>
+        <v>6639300</v>
       </c>
       <c r="F9" s="3">
-        <v>6267300</v>
+        <v>6621900</v>
       </c>
       <c r="G9" s="3">
-        <v>7208200</v>
+        <v>6470300</v>
       </c>
       <c r="H9" s="3">
-        <v>6043000</v>
+        <v>7441700</v>
       </c>
       <c r="I9" s="3">
-        <v>6244100</v>
+        <v>6238700</v>
       </c>
       <c r="J9" s="3">
+        <v>6446300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6329100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7126800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5950700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11448100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5853600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6245700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5099100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6076200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5992600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6786200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5437300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5420400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5285300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6525500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1992600</v>
+        <v>2459600</v>
       </c>
       <c r="E10" s="3">
-        <v>1944100</v>
+        <v>2057100</v>
       </c>
       <c r="F10" s="3">
-        <v>1903500</v>
+        <v>2007000</v>
       </c>
       <c r="G10" s="3">
-        <v>2169800</v>
+        <v>1965100</v>
       </c>
       <c r="H10" s="3">
-        <v>1870700</v>
+        <v>2240100</v>
       </c>
       <c r="I10" s="3">
-        <v>1843900</v>
+        <v>1931300</v>
       </c>
       <c r="J10" s="3">
+        <v>1903600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1869200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2089800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1834400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3357200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1722400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1844700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1551900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1786600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1783700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1912300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1643000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1599900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1571500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1837600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7683900</v>
+        <v>9668300</v>
       </c>
       <c r="E17" s="3">
-        <v>7704900</v>
+        <v>7932800</v>
       </c>
       <c r="F17" s="3">
-        <v>7455800</v>
+        <v>7954500</v>
       </c>
       <c r="G17" s="3">
-        <v>8522700</v>
+        <v>7697300</v>
       </c>
       <c r="H17" s="3">
-        <v>7254200</v>
+        <v>8798800</v>
       </c>
       <c r="I17" s="3">
-        <v>7554400</v>
+        <v>7489200</v>
       </c>
       <c r="J17" s="3">
+        <v>7799100</v>
+      </c>
+      <c r="K17" s="3">
         <v>7497800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8412800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7112900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13624100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6960000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7378300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6119400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7303800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7168700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7984100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6538800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6520800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6345000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7691500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>739700</v>
+        <v>931500</v>
       </c>
       <c r="E18" s="3">
-        <v>653200</v>
+        <v>763700</v>
       </c>
       <c r="F18" s="3">
-        <v>714900</v>
+        <v>674400</v>
       </c>
       <c r="G18" s="3">
-        <v>855300</v>
+        <v>738000</v>
       </c>
       <c r="H18" s="3">
-        <v>659500</v>
+        <v>883000</v>
       </c>
       <c r="I18" s="3">
-        <v>533500</v>
+        <v>680900</v>
       </c>
       <c r="J18" s="3">
+        <v>550800</v>
+      </c>
+      <c r="K18" s="3">
         <v>700500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>803800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>672100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1181200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>616100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>712200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>531600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>559000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>607600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>714500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>541500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>499500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>511900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>671600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,174 +1480,181 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10100</v>
+        <v>13700</v>
       </c>
       <c r="E20" s="3">
-        <v>21200</v>
+        <v>10400</v>
       </c>
       <c r="F20" s="3">
-        <v>-3200</v>
+        <v>21900</v>
       </c>
       <c r="G20" s="3">
-        <v>19200</v>
+        <v>-3300</v>
       </c>
       <c r="H20" s="3">
-        <v>8700</v>
+        <v>19800</v>
       </c>
       <c r="I20" s="3">
-        <v>-100600</v>
+        <v>9000</v>
       </c>
       <c r="J20" s="3">
+        <v>-103900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>216400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-66900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-50000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-9700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>969000</v>
+        <v>1177800</v>
       </c>
       <c r="E21" s="3">
-        <v>889100</v>
+        <v>1000400</v>
       </c>
       <c r="F21" s="3">
-        <v>928700</v>
+        <v>917900</v>
       </c>
       <c r="G21" s="3">
-        <v>1088500</v>
+        <v>958800</v>
       </c>
       <c r="H21" s="3">
-        <v>882300</v>
+        <v>1123700</v>
       </c>
       <c r="I21" s="3">
-        <v>652200</v>
+        <v>910900</v>
       </c>
       <c r="J21" s="3">
+        <v>673300</v>
+      </c>
+      <c r="K21" s="3">
         <v>909000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1238200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>820800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1483100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>771900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>859000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>654300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>734600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>768700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>866900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>685500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>637700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>651100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>828900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>76400</v>
+        <v>82100</v>
       </c>
       <c r="E22" s="3">
-        <v>77100</v>
+        <v>78800</v>
       </c>
       <c r="F22" s="3">
-        <v>77100</v>
+        <v>79600</v>
       </c>
       <c r="G22" s="3">
-        <v>76200</v>
+        <v>79500</v>
       </c>
       <c r="H22" s="3">
-        <v>78000</v>
+        <v>78700</v>
       </c>
       <c r="I22" s="3">
-        <v>78100</v>
+        <v>80500</v>
       </c>
       <c r="J22" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K22" s="3">
         <v>74500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>285400</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1647,149 +1686,158 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>20700</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>673500</v>
+        <v>863100</v>
       </c>
       <c r="E23" s="3">
-        <v>597400</v>
+        <v>695300</v>
       </c>
       <c r="F23" s="3">
-        <v>634700</v>
+        <v>616700</v>
       </c>
       <c r="G23" s="3">
-        <v>798300</v>
+        <v>655200</v>
       </c>
       <c r="H23" s="3">
-        <v>590300</v>
+        <v>824100</v>
       </c>
       <c r="I23" s="3">
-        <v>354800</v>
+        <v>609400</v>
       </c>
       <c r="J23" s="3">
+        <v>366300</v>
+      </c>
+      <c r="K23" s="3">
         <v>623500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>734800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>605200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1080700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>566100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>706400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>515100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>569700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>605600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>708200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>536200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>492400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>502100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>657900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>144800</v>
+        <v>208300</v>
       </c>
       <c r="E24" s="3">
-        <v>130200</v>
+        <v>149500</v>
       </c>
       <c r="F24" s="3">
-        <v>152800</v>
+        <v>134400</v>
       </c>
       <c r="G24" s="3">
-        <v>195200</v>
+        <v>157700</v>
       </c>
       <c r="H24" s="3">
-        <v>151400</v>
+        <v>201600</v>
       </c>
       <c r="I24" s="3">
-        <v>275200</v>
+        <v>156300</v>
       </c>
       <c r="J24" s="3">
+        <v>284100</v>
+      </c>
+      <c r="K24" s="3">
         <v>145100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>177500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>140600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>238300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>133500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>170100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>124400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>143000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>158000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>161000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>122300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>143500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>136900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>158600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>528700</v>
+        <v>654800</v>
       </c>
       <c r="E26" s="3">
-        <v>467200</v>
+        <v>545800</v>
       </c>
       <c r="F26" s="3">
-        <v>481900</v>
+        <v>482400</v>
       </c>
       <c r="G26" s="3">
-        <v>603100</v>
+        <v>497500</v>
       </c>
       <c r="H26" s="3">
-        <v>438900</v>
+        <v>622600</v>
       </c>
       <c r="I26" s="3">
-        <v>79500</v>
+        <v>453100</v>
       </c>
       <c r="J26" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K26" s="3">
         <v>478400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>557300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>464600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>842400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>432600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>536300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>390800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>426700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>447600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>547200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>413900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>348900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>365200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>499400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>528700</v>
+        <v>654800</v>
       </c>
       <c r="E27" s="3">
-        <v>467200</v>
+        <v>545800</v>
       </c>
       <c r="F27" s="3">
-        <v>481900</v>
+        <v>482400</v>
       </c>
       <c r="G27" s="3">
-        <v>603100</v>
+        <v>497500</v>
       </c>
       <c r="H27" s="3">
-        <v>438900</v>
+        <v>622600</v>
       </c>
       <c r="I27" s="3">
-        <v>79500</v>
+        <v>453100</v>
       </c>
       <c r="J27" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K27" s="3">
         <v>478400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>557300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>464600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>842400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>432600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>536300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>390800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>426700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>447600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>547200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>413900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>348900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>365200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>499600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2114,22 +2174,25 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>34800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>348200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>3600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>52700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10100</v>
+        <v>-13700</v>
       </c>
       <c r="E32" s="3">
-        <v>-21200</v>
+        <v>-10400</v>
       </c>
       <c r="F32" s="3">
-        <v>3200</v>
+        <v>-21900</v>
       </c>
       <c r="G32" s="3">
-        <v>-19200</v>
+        <v>3300</v>
       </c>
       <c r="H32" s="3">
-        <v>-8700</v>
+        <v>-19800</v>
       </c>
       <c r="I32" s="3">
-        <v>100600</v>
+        <v>-9000</v>
       </c>
       <c r="J32" s="3">
+        <v>103900</v>
+      </c>
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-216400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>66900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>50000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>16500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>9700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>528700</v>
+        <v>654800</v>
       </c>
       <c r="E33" s="3">
-        <v>467200</v>
+        <v>545800</v>
       </c>
       <c r="F33" s="3">
-        <v>481900</v>
+        <v>482400</v>
       </c>
       <c r="G33" s="3">
-        <v>603100</v>
+        <v>497500</v>
       </c>
       <c r="H33" s="3">
-        <v>438900</v>
+        <v>622600</v>
       </c>
       <c r="I33" s="3">
-        <v>79500</v>
+        <v>453100</v>
       </c>
       <c r="J33" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K33" s="3">
         <v>478400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>557300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>464600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>842400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>432600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>536300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>390800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>426700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>447600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>547200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>448800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>697100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>368800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>552200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>528700</v>
+        <v>654800</v>
       </c>
       <c r="E35" s="3">
-        <v>467200</v>
+        <v>545800</v>
       </c>
       <c r="F35" s="3">
-        <v>481900</v>
+        <v>482400</v>
       </c>
       <c r="G35" s="3">
-        <v>603100</v>
+        <v>497500</v>
       </c>
       <c r="H35" s="3">
-        <v>438900</v>
+        <v>622600</v>
       </c>
       <c r="I35" s="3">
-        <v>79500</v>
+        <v>453100</v>
       </c>
       <c r="J35" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K35" s="3">
         <v>478400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>557300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>464600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>842400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>432600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>536300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>390800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>426700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>447600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>547200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>448800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>697100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>368800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>552200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2310500</v>
+        <v>2115100</v>
       </c>
       <c r="E41" s="3">
-        <v>2000200</v>
+        <v>2385400</v>
       </c>
       <c r="F41" s="3">
-        <v>1428200</v>
+        <v>2065000</v>
       </c>
       <c r="G41" s="3">
-        <v>1706800</v>
+        <v>1474500</v>
       </c>
       <c r="H41" s="3">
-        <v>1835000</v>
+        <v>1762100</v>
       </c>
       <c r="I41" s="3">
-        <v>1474000</v>
+        <v>1894400</v>
       </c>
       <c r="J41" s="3">
+        <v>1521800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1813000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1531100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1032300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1286800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1473500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1770600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1488100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1622000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1819400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1841000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1367700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>826200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>919400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1485500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2767,20 +2856,20 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8700</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>779700</v>
+        <v>831300</v>
       </c>
       <c r="E43" s="3">
-        <v>695400</v>
+        <v>805000</v>
       </c>
       <c r="F43" s="3">
-        <v>755500</v>
+        <v>717900</v>
       </c>
       <c r="G43" s="3">
-        <v>813200</v>
+        <v>779900</v>
       </c>
       <c r="H43" s="3">
-        <v>634200</v>
+        <v>839500</v>
       </c>
       <c r="I43" s="3">
-        <v>661100</v>
+        <v>654800</v>
       </c>
       <c r="J43" s="3">
+        <v>682600</v>
+      </c>
+      <c r="K43" s="3">
         <v>672500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>680600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>539400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>537800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>565500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>548800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>418800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>462300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>390300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>560400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>393700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>361100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>361800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>715300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3865200</v>
+        <v>3967700</v>
       </c>
       <c r="E44" s="3">
-        <v>3255200</v>
+        <v>3990400</v>
       </c>
       <c r="F44" s="3">
-        <v>3205600</v>
+        <v>3360600</v>
       </c>
       <c r="G44" s="3">
-        <v>3271000</v>
+        <v>3309400</v>
       </c>
       <c r="H44" s="3">
-        <v>3439100</v>
+        <v>3377000</v>
       </c>
       <c r="I44" s="3">
-        <v>3093100</v>
+        <v>3550500</v>
       </c>
       <c r="J44" s="3">
+        <v>3193300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3036900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3352000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3446200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2917100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2947500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2888500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2732200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3084200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2919100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3075400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2976400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2675600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2772500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2849600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52100</v>
+        <v>42300</v>
       </c>
       <c r="E45" s="3">
-        <v>40600</v>
+        <v>53800</v>
       </c>
       <c r="F45" s="3">
-        <v>51100</v>
+        <v>41900</v>
       </c>
       <c r="G45" s="3">
-        <v>33500</v>
+        <v>52800</v>
       </c>
       <c r="H45" s="3">
-        <v>62100</v>
+        <v>34600</v>
       </c>
       <c r="I45" s="3">
-        <v>55400</v>
+        <v>64100</v>
       </c>
       <c r="J45" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K45" s="3">
         <v>58600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>88200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>76000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>60400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>64100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>66900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>39600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>43600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>649000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>667100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7007500</v>
+        <v>6956400</v>
       </c>
       <c r="E46" s="3">
-        <v>5991400</v>
+        <v>7234500</v>
       </c>
       <c r="F46" s="3">
-        <v>5440400</v>
+        <v>6185500</v>
       </c>
       <c r="G46" s="3">
-        <v>5824500</v>
+        <v>5616600</v>
       </c>
       <c r="H46" s="3">
-        <v>5970400</v>
+        <v>6013200</v>
       </c>
       <c r="I46" s="3">
-        <v>5283700</v>
+        <v>6163800</v>
       </c>
       <c r="J46" s="3">
+        <v>5454800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5581000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5652000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5063300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4817700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5046900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5272000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4696400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5245000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5186000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5527600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4777400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3906500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4702600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5523600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>103100</v>
+        <v>109700</v>
       </c>
       <c r="E47" s="3">
-        <v>97000</v>
+        <v>106400</v>
       </c>
       <c r="F47" s="3">
-        <v>98900</v>
+        <v>100200</v>
       </c>
       <c r="G47" s="3">
-        <v>97800</v>
+        <v>102100</v>
       </c>
       <c r="H47" s="3">
-        <v>108200</v>
+        <v>101000</v>
       </c>
       <c r="I47" s="3">
-        <v>110200</v>
+        <v>111700</v>
       </c>
       <c r="J47" s="3">
+        <v>113800</v>
+      </c>
+      <c r="K47" s="3">
         <v>109100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>91100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>107100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>108800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>107500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>101500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>94300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>109100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>99000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>105900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>79200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>73500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>79900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>99800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9327500</v>
+        <v>9890800</v>
       </c>
       <c r="E48" s="3">
-        <v>9152200</v>
+        <v>9629700</v>
       </c>
       <c r="F48" s="3">
-        <v>9182300</v>
+        <v>9448600</v>
       </c>
       <c r="G48" s="3">
-        <v>9161100</v>
+        <v>9479700</v>
       </c>
       <c r="H48" s="3">
-        <v>9289700</v>
+        <v>9457800</v>
       </c>
       <c r="I48" s="3">
-        <v>9337000</v>
+        <v>9590600</v>
       </c>
       <c r="J48" s="3">
+        <v>9639500</v>
+      </c>
+      <c r="K48" s="3">
         <v>9454700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9350300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9317000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8669300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8851900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6576500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6296400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7530400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7347300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7245000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6959000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6874900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6833900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7240200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1872900</v>
+        <v>1914600</v>
       </c>
       <c r="E49" s="3">
-        <v>1785800</v>
+        <v>1933600</v>
       </c>
       <c r="F49" s="3">
-        <v>1865700</v>
+        <v>1843700</v>
       </c>
       <c r="G49" s="3">
-        <v>1796900</v>
+        <v>1926100</v>
       </c>
       <c r="H49" s="3">
-        <v>2029400</v>
+        <v>1855100</v>
       </c>
       <c r="I49" s="3">
-        <v>2145400</v>
+        <v>2095200</v>
       </c>
       <c r="J49" s="3">
+        <v>2214900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2189800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1840100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1908900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1796200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1838400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1687100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1686800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2133700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1954500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2036100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1886700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1864000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1933200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2195100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>515200</v>
+        <v>611300</v>
       </c>
       <c r="E52" s="3">
-        <v>484400</v>
+        <v>531900</v>
       </c>
       <c r="F52" s="3">
-        <v>456400</v>
+        <v>500100</v>
       </c>
       <c r="G52" s="3">
-        <v>435800</v>
+        <v>471200</v>
       </c>
       <c r="H52" s="3">
-        <v>365900</v>
+        <v>449900</v>
       </c>
       <c r="I52" s="3">
-        <v>350300</v>
+        <v>377700</v>
       </c>
       <c r="J52" s="3">
+        <v>361700</v>
+      </c>
+      <c r="K52" s="3">
         <v>337000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>392400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>419300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>385000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>379800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>340500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>374600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>355100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>385300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>356000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>291600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>265500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>226800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>249600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18826300</v>
+        <v>19482800</v>
       </c>
       <c r="E54" s="3">
-        <v>17510900</v>
+        <v>19436200</v>
       </c>
       <c r="F54" s="3">
-        <v>17043700</v>
+        <v>18078100</v>
       </c>
       <c r="G54" s="3">
-        <v>17316100</v>
+        <v>17595800</v>
       </c>
       <c r="H54" s="3">
-        <v>17763600</v>
+        <v>17877000</v>
       </c>
       <c r="I54" s="3">
-        <v>17226700</v>
+        <v>18339000</v>
       </c>
       <c r="J54" s="3">
+        <v>17784700</v>
+      </c>
+      <c r="K54" s="3">
         <v>17671700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17325900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16815500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15776900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16224400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13977700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13148400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15373400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14972000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15270600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13993900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12984500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13776500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15308300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4183000</v>
+        <v>4773900</v>
       </c>
       <c r="E57" s="3">
-        <v>3734200</v>
+        <v>4318500</v>
       </c>
       <c r="F57" s="3">
-        <v>3788600</v>
+        <v>3855200</v>
       </c>
       <c r="G57" s="3">
-        <v>4419200</v>
+        <v>3911300</v>
       </c>
       <c r="H57" s="3">
-        <v>3821900</v>
+        <v>4562400</v>
       </c>
       <c r="I57" s="3">
-        <v>3665400</v>
+        <v>3945700</v>
       </c>
       <c r="J57" s="3">
+        <v>3784100</v>
+      </c>
+      <c r="K57" s="3">
         <v>3892600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4322700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3763100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3524800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3632700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3890900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3274300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3722700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3686100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4142700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3310400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2747300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2862000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3500300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>166800</v>
+        <v>169900</v>
       </c>
       <c r="E58" s="3">
-        <v>146200</v>
+        <v>172200</v>
       </c>
       <c r="F58" s="3">
-        <v>153300</v>
+        <v>151000</v>
       </c>
       <c r="G58" s="3">
-        <v>153900</v>
+        <v>158200</v>
       </c>
       <c r="H58" s="3">
-        <v>154500</v>
+        <v>158900</v>
       </c>
       <c r="I58" s="3">
-        <v>150000</v>
+        <v>159500</v>
       </c>
       <c r="J58" s="3">
+        <v>154900</v>
+      </c>
+      <c r="K58" s="3">
         <v>145400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>151100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>152200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>144300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>148500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>16800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>19700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>21000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>26200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>28300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2707200</v>
+        <v>1612000</v>
       </c>
       <c r="E59" s="3">
-        <v>2556300</v>
+        <v>2794900</v>
       </c>
       <c r="F59" s="3">
-        <v>2372700</v>
+        <v>2639100</v>
       </c>
       <c r="G59" s="3">
-        <v>1315700</v>
+        <v>2449600</v>
       </c>
       <c r="H59" s="3">
-        <v>2372200</v>
+        <v>1358300</v>
       </c>
       <c r="I59" s="3">
-        <v>2292800</v>
+        <v>2449100</v>
       </c>
       <c r="J59" s="3">
+        <v>2367000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2494300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1158100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1657200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1937600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2485200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1301000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1655600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2137400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2567100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1414400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1668500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1709800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3197300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1479700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7057000</v>
+        <v>6555800</v>
       </c>
       <c r="E60" s="3">
-        <v>6436700</v>
+        <v>7285600</v>
       </c>
       <c r="F60" s="3">
-        <v>6314600</v>
+        <v>6645200</v>
       </c>
       <c r="G60" s="3">
-        <v>5888900</v>
+        <v>6519200</v>
       </c>
       <c r="H60" s="3">
-        <v>6348600</v>
+        <v>6079700</v>
       </c>
       <c r="I60" s="3">
-        <v>6108200</v>
+        <v>6554300</v>
       </c>
       <c r="J60" s="3">
+        <v>6306000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6532300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5631800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5572500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5606700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6266300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5205900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4943200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5875900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6270000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5576800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4999800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4480200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6085500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5008300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2810200</v>
+        <v>3025900</v>
       </c>
       <c r="E61" s="3">
-        <v>2780100</v>
+        <v>2901200</v>
       </c>
       <c r="F61" s="3">
-        <v>2752100</v>
+        <v>2870100</v>
       </c>
       <c r="G61" s="3">
-        <v>2704500</v>
+        <v>2841200</v>
       </c>
       <c r="H61" s="3">
-        <v>2741300</v>
+        <v>2792200</v>
       </c>
       <c r="I61" s="3">
-        <v>2738600</v>
+        <v>2830100</v>
       </c>
       <c r="J61" s="3">
+        <v>2827300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2750300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2687800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2634800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2410800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2439000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>646000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>640200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>772600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>751700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>709900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>694900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>680000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>671600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>694400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>660700</v>
+        <v>718600</v>
       </c>
       <c r="E62" s="3">
-        <v>632100</v>
+        <v>682100</v>
       </c>
       <c r="F62" s="3">
-        <v>628400</v>
+        <v>652600</v>
       </c>
       <c r="G62" s="3">
-        <v>630300</v>
+        <v>648700</v>
       </c>
       <c r="H62" s="3">
-        <v>672900</v>
+        <v>650800</v>
       </c>
       <c r="I62" s="3">
-        <v>606600</v>
+        <v>694700</v>
       </c>
       <c r="J62" s="3">
+        <v>626200</v>
+      </c>
+      <c r="K62" s="3">
         <v>596100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>662900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>568300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>561300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>574800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>605700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>690200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>740600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>762200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>732800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>853400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>886100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>668600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>736500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10527900</v>
+        <v>10300300</v>
       </c>
       <c r="E66" s="3">
-        <v>9849000</v>
+        <v>10868900</v>
       </c>
       <c r="F66" s="3">
-        <v>9695000</v>
+        <v>10168000</v>
       </c>
       <c r="G66" s="3">
-        <v>9223800</v>
+        <v>10009100</v>
       </c>
       <c r="H66" s="3">
-        <v>9762800</v>
+        <v>9522600</v>
       </c>
       <c r="I66" s="3">
-        <v>9453400</v>
+        <v>10079100</v>
       </c>
       <c r="J66" s="3">
+        <v>9759600</v>
+      </c>
+      <c r="K66" s="3">
         <v>9878700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8982600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8775600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8578800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9280100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6457600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6273600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7389100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7783900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7019500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6548100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6046300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7425700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6439200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5424500</v>
+        <v>6289200</v>
       </c>
       <c r="E72" s="3">
-        <v>4929600</v>
+        <v>5600300</v>
       </c>
       <c r="F72" s="3">
-        <v>4462800</v>
+        <v>5089300</v>
       </c>
       <c r="G72" s="3">
-        <v>5328600</v>
+        <v>4607300</v>
       </c>
       <c r="H72" s="3">
-        <v>4725700</v>
+        <v>5501300</v>
       </c>
       <c r="I72" s="3">
-        <v>4287100</v>
+        <v>4878800</v>
       </c>
       <c r="J72" s="3">
+        <v>4426000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4208200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5401600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4939900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4310800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4010800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4771500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4180500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4514300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4089200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4986500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4439600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3991400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3295400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5291400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8298500</v>
+        <v>9182600</v>
       </c>
       <c r="E76" s="3">
-        <v>7661900</v>
+        <v>8567300</v>
       </c>
       <c r="F76" s="3">
-        <v>7348700</v>
+        <v>7910100</v>
       </c>
       <c r="G76" s="3">
-        <v>8092300</v>
+        <v>7586700</v>
       </c>
       <c r="H76" s="3">
-        <v>8000800</v>
+        <v>8354500</v>
       </c>
       <c r="I76" s="3">
-        <v>7773300</v>
+        <v>8260000</v>
       </c>
       <c r="J76" s="3">
+        <v>8025100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7793000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8343300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8039900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7198100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6944300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7520100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6874800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7984200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7188100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8251100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7445700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6938200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6350800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8869100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>528700</v>
+        <v>654800</v>
       </c>
       <c r="E81" s="3">
-        <v>467200</v>
+        <v>545800</v>
       </c>
       <c r="F81" s="3">
-        <v>481900</v>
+        <v>482400</v>
       </c>
       <c r="G81" s="3">
-        <v>603100</v>
+        <v>497500</v>
       </c>
       <c r="H81" s="3">
-        <v>438900</v>
+        <v>622600</v>
       </c>
       <c r="I81" s="3">
-        <v>79500</v>
+        <v>453100</v>
       </c>
       <c r="J81" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K81" s="3">
         <v>478400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>557300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>464600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>842400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>432600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>536300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>390800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>426700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>447600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>547200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>448800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>697100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>368800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>552200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>219100</v>
+        <v>232600</v>
       </c>
       <c r="E83" s="3">
-        <v>214600</v>
+        <v>226200</v>
       </c>
       <c r="F83" s="3">
-        <v>217000</v>
+        <v>221500</v>
       </c>
       <c r="G83" s="3">
-        <v>214000</v>
+        <v>224000</v>
       </c>
       <c r="H83" s="3">
-        <v>214000</v>
+        <v>220900</v>
       </c>
       <c r="I83" s="3">
-        <v>219400</v>
+        <v>221000</v>
       </c>
       <c r="J83" s="3">
+        <v>226500</v>
+      </c>
+      <c r="K83" s="3">
         <v>211000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>217900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>215600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>402300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>205800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>152600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>164900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>163200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>158700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>149300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>145300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>149000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>150200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>700700</v>
+        <v>1618800</v>
       </c>
       <c r="E89" s="3">
-        <v>913100</v>
+        <v>723400</v>
       </c>
       <c r="F89" s="3">
-        <v>-77300</v>
+        <v>942700</v>
       </c>
       <c r="G89" s="3">
-        <v>1649900</v>
+        <v>-79800</v>
       </c>
       <c r="H89" s="3">
-        <v>690200</v>
+        <v>1703300</v>
       </c>
       <c r="I89" s="3">
-        <v>130100</v>
+        <v>712600</v>
       </c>
       <c r="J89" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K89" s="3">
         <v>466500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1424900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>620100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>788100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>138400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1116100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>624300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>287000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>205600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1218100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>895800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>588900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-164100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1324000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-286700</v>
+        <v>-387300</v>
       </c>
       <c r="E91" s="3">
-        <v>-205700</v>
+        <v>-296000</v>
       </c>
       <c r="F91" s="3">
-        <v>-111700</v>
+        <v>-212300</v>
       </c>
       <c r="G91" s="3">
-        <v>-319900</v>
+        <v>-115300</v>
       </c>
       <c r="H91" s="3">
-        <v>-220500</v>
+        <v>-330300</v>
       </c>
       <c r="I91" s="3">
-        <v>-147200</v>
+        <v>-227600</v>
       </c>
       <c r="J91" s="3">
+        <v>-151900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-112900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-305600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-338500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-371300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-159500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-326900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-235600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-197400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-99100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-348500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-230500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-197600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-124700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-259400</v>
+        <v>-352900</v>
       </c>
       <c r="E94" s="3">
-        <v>-191300</v>
+        <v>-267800</v>
       </c>
       <c r="F94" s="3">
-        <v>-122800</v>
+        <v>-197500</v>
       </c>
       <c r="G94" s="3">
-        <v>-294200</v>
+        <v>-126800</v>
       </c>
       <c r="H94" s="3">
-        <v>-200700</v>
+        <v>-303700</v>
       </c>
       <c r="I94" s="3">
-        <v>-119700</v>
+        <v>-207200</v>
       </c>
       <c r="J94" s="3">
+        <v>-123600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-176300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-284400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-320700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-365900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-203400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-301200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-206200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-140400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-89100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-314300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-171700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>866900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-178000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-247400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,13 +6250,14 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1392500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6033,61 +6266,64 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1257000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1297700</v>
       </c>
       <c r="I96" s="3">
-        <v>-223200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-230400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-463400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-503600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-802500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-284900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-504800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-225700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-361100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-148100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-473200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-142700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-124800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-568100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-111900</v>
+        <v>-1512300</v>
       </c>
       <c r="E100" s="3">
-        <v>-107800</v>
+        <v>-115600</v>
       </c>
       <c r="F100" s="3">
-        <v>-109700</v>
+        <v>-111300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1363900</v>
+        <v>-113200</v>
       </c>
       <c r="H100" s="3">
-        <v>-109600</v>
+        <v>-1408100</v>
       </c>
       <c r="I100" s="3">
-        <v>-328200</v>
+        <v>-113200</v>
       </c>
       <c r="J100" s="3">
+        <v>-338800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-98100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-567400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-605800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-993300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-379800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-522400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-242800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-381700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-170000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-494500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-167100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-145400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-591300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19100</v>
+        <v>-23900</v>
       </c>
       <c r="E101" s="3">
-        <v>-42000</v>
+        <v>-19700</v>
       </c>
       <c r="F101" s="3">
-        <v>31100</v>
+        <v>-43400</v>
       </c>
       <c r="G101" s="3">
-        <v>-120000</v>
+        <v>32100</v>
       </c>
       <c r="H101" s="3">
-        <v>-42700</v>
+        <v>-123800</v>
       </c>
       <c r="I101" s="3">
-        <v>-14600</v>
+        <v>-44000</v>
       </c>
       <c r="J101" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K101" s="3">
         <v>161600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-25600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-20300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-20500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-29400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>37700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-35300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>29600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-15600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-26900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-39900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>29200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>310300</v>
+        <v>-270200</v>
       </c>
       <c r="E102" s="3">
-        <v>572000</v>
+        <v>320300</v>
       </c>
       <c r="F102" s="3">
-        <v>-278600</v>
+        <v>590500</v>
       </c>
       <c r="G102" s="3">
-        <v>-128100</v>
+        <v>-287600</v>
       </c>
       <c r="H102" s="3">
-        <v>360900</v>
+        <v>-132300</v>
       </c>
       <c r="I102" s="3">
-        <v>-339000</v>
+        <v>372600</v>
       </c>
       <c r="J102" s="3">
+        <v>-350000</v>
+      </c>
+      <c r="K102" s="3">
         <v>336500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>511200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-303700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-591400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-465200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>263000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>126200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-197400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-88900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>473300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>541400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-93200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-527500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>503000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10599800</v>
+        <v>9824000</v>
       </c>
       <c r="E8" s="3">
-        <v>8696500</v>
+        <v>9433500</v>
       </c>
       <c r="F8" s="3">
-        <v>8628900</v>
+        <v>10775800</v>
       </c>
       <c r="G8" s="3">
-        <v>8435400</v>
+        <v>8840800</v>
       </c>
       <c r="H8" s="3">
-        <v>9681800</v>
+        <v>8772100</v>
       </c>
       <c r="I8" s="3">
+        <v>8575400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9842500</v>
+      </c>
+      <c r="K8" s="3">
         <v>8170100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8349900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8198300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9216600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7785000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>14805300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7576100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8090400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6651000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7862800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7776400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>8698500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>7080300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>7020300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>6856800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>8363100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8140300</v>
+        <v>7525400</v>
       </c>
       <c r="E9" s="3">
-        <v>6639300</v>
+        <v>7224400</v>
       </c>
       <c r="F9" s="3">
-        <v>6621900</v>
+        <v>8275400</v>
       </c>
       <c r="G9" s="3">
-        <v>6470300</v>
+        <v>6749500</v>
       </c>
       <c r="H9" s="3">
-        <v>7441700</v>
+        <v>6731800</v>
       </c>
       <c r="I9" s="3">
+        <v>6577700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7565300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6238700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6446300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6329100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7126800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5950700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11448100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5853600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6245700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5099100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>6076200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>5992600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>6786200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>5437300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>5420400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>5285300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>6525500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2459600</v>
+        <v>2298600</v>
       </c>
       <c r="E10" s="3">
-        <v>2057100</v>
+        <v>2209100</v>
       </c>
       <c r="F10" s="3">
-        <v>2007000</v>
+        <v>2500400</v>
       </c>
       <c r="G10" s="3">
-        <v>1965100</v>
+        <v>2091300</v>
       </c>
       <c r="H10" s="3">
-        <v>2240100</v>
+        <v>2040400</v>
       </c>
       <c r="I10" s="3">
+        <v>1997700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2277300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1931300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1903600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1869200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2089800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1834400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3357200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1722400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1844700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1551900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1786600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1783700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1912300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1643000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1599900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1571500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1837600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9668300</v>
+        <v>9051300</v>
       </c>
       <c r="E17" s="3">
-        <v>7932800</v>
+        <v>8633200</v>
       </c>
       <c r="F17" s="3">
-        <v>7954500</v>
+        <v>9828800</v>
       </c>
       <c r="G17" s="3">
-        <v>7697300</v>
+        <v>8064400</v>
       </c>
       <c r="H17" s="3">
-        <v>8798800</v>
+        <v>8086500</v>
       </c>
       <c r="I17" s="3">
+        <v>7825100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8944900</v>
+      </c>
+      <c r="K17" s="3">
         <v>7489200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7799100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7497800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8412800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7112900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>13624100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6960000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7378300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6119400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7303800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7168700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7984100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6538800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>6520800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>6345000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>7691500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>931500</v>
+        <v>772600</v>
       </c>
       <c r="E18" s="3">
-        <v>763700</v>
+        <v>800400</v>
       </c>
       <c r="F18" s="3">
-        <v>674400</v>
+        <v>946900</v>
       </c>
       <c r="G18" s="3">
-        <v>738000</v>
+        <v>776400</v>
       </c>
       <c r="H18" s="3">
-        <v>883000</v>
+        <v>685600</v>
       </c>
       <c r="I18" s="3">
+        <v>750300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>897700</v>
+      </c>
+      <c r="K18" s="3">
         <v>680900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>550800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>700500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>803800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>672100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1181200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>616100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>712200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>531600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>559000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>607600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>714500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>541500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>499500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>511900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>671600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,186 +1547,200 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13700</v>
+        <v>25100</v>
       </c>
       <c r="E20" s="3">
-        <v>10400</v>
+        <v>6000</v>
       </c>
       <c r="F20" s="3">
-        <v>21900</v>
+        <v>14000</v>
       </c>
       <c r="G20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>22300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-103900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>216400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-66900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-50000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-16500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>10700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-6300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-5300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-7000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-9700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>7100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1177800</v>
+        <v>1036800</v>
       </c>
       <c r="E21" s="3">
-        <v>1000400</v>
+        <v>1046800</v>
       </c>
       <c r="F21" s="3">
-        <v>917900</v>
+        <v>1197300</v>
       </c>
       <c r="G21" s="3">
-        <v>958800</v>
+        <v>1017000</v>
       </c>
       <c r="H21" s="3">
-        <v>1123700</v>
+        <v>933100</v>
       </c>
       <c r="I21" s="3">
+        <v>974700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1142400</v>
+      </c>
+      <c r="K21" s="3">
         <v>910900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>673300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>909000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1238200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>820800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1483100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>771900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>859000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>654300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>734600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>768700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>866900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>685500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>637700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>651100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>828900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>82100</v>
+        <v>87200</v>
       </c>
       <c r="E22" s="3">
-        <v>78800</v>
+        <v>86000</v>
       </c>
       <c r="F22" s="3">
-        <v>79600</v>
+        <v>83500</v>
       </c>
       <c r="G22" s="3">
-        <v>79500</v>
+        <v>80100</v>
       </c>
       <c r="H22" s="3">
-        <v>78700</v>
+        <v>80900</v>
       </c>
       <c r="I22" s="3">
+        <v>80900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K22" s="3">
         <v>80500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>80600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>74500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>285400</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1689,155 +1769,173 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>20700</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>863100</v>
+        <v>710500</v>
       </c>
       <c r="E23" s="3">
-        <v>695300</v>
+        <v>720400</v>
       </c>
       <c r="F23" s="3">
-        <v>616700</v>
+        <v>877400</v>
       </c>
       <c r="G23" s="3">
-        <v>655200</v>
+        <v>706900</v>
       </c>
       <c r="H23" s="3">
-        <v>824100</v>
+        <v>627000</v>
       </c>
       <c r="I23" s="3">
+        <v>666100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>837800</v>
+      </c>
+      <c r="K23" s="3">
         <v>609400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>366300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>623500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>734800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>605200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1080700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>566100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>706400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>515100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>569700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>605600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>708200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>536200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>492400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>502100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>657900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>208300</v>
+        <v>163500</v>
       </c>
       <c r="E24" s="3">
-        <v>149500</v>
+        <v>162500</v>
       </c>
       <c r="F24" s="3">
-        <v>134400</v>
+        <v>211800</v>
       </c>
       <c r="G24" s="3">
-        <v>157700</v>
+        <v>152000</v>
       </c>
       <c r="H24" s="3">
-        <v>201600</v>
+        <v>136600</v>
       </c>
       <c r="I24" s="3">
+        <v>160400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>204900</v>
+      </c>
+      <c r="K24" s="3">
         <v>156300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>284100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>145100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>177500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>140600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>238300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>133500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>170100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>124400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>143000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>158000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>161000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>122300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>143500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>136900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>158600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>654800</v>
+        <v>547000</v>
       </c>
       <c r="E26" s="3">
-        <v>545800</v>
+        <v>557900</v>
       </c>
       <c r="F26" s="3">
-        <v>482400</v>
+        <v>665600</v>
       </c>
       <c r="G26" s="3">
-        <v>497500</v>
+        <v>554900</v>
       </c>
       <c r="H26" s="3">
-        <v>622600</v>
+        <v>490400</v>
       </c>
       <c r="I26" s="3">
+        <v>505700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>632900</v>
+      </c>
+      <c r="K26" s="3">
         <v>453100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>82100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>478400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>557300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>464600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>842400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>432600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>536300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>390800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>426700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>447600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>547200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>413900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>348900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>365200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>499400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>654800</v>
+        <v>547000</v>
       </c>
       <c r="E27" s="3">
-        <v>545800</v>
+        <v>557900</v>
       </c>
       <c r="F27" s="3">
-        <v>482400</v>
+        <v>665600</v>
       </c>
       <c r="G27" s="3">
-        <v>497500</v>
+        <v>554900</v>
       </c>
       <c r="H27" s="3">
-        <v>622600</v>
+        <v>490400</v>
       </c>
       <c r="I27" s="3">
+        <v>505700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>632900</v>
+      </c>
+      <c r="K27" s="3">
         <v>453100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>82100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>478400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>557300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>464600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>842400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>432600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>536300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>390800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>426700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>447600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>547200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>413900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>348900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>365200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>499600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2177,22 +2299,28 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>34800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>348200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>3600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>52700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13700</v>
+        <v>-25100</v>
       </c>
       <c r="E32" s="3">
-        <v>-10400</v>
+        <v>-6000</v>
       </c>
       <c r="F32" s="3">
-        <v>-21900</v>
+        <v>-14000</v>
       </c>
       <c r="G32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="I32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>103900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-216400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>66900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>50000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>16500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-10700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>6300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>5300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>7000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>9700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>654800</v>
+        <v>547000</v>
       </c>
       <c r="E33" s="3">
-        <v>545800</v>
+        <v>557900</v>
       </c>
       <c r="F33" s="3">
-        <v>482400</v>
+        <v>665600</v>
       </c>
       <c r="G33" s="3">
-        <v>497500</v>
+        <v>554900</v>
       </c>
       <c r="H33" s="3">
-        <v>622600</v>
+        <v>490400</v>
       </c>
       <c r="I33" s="3">
+        <v>505700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>632900</v>
+      </c>
+      <c r="K33" s="3">
         <v>453100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>82100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>478400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>557300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>464600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>842400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>432600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>536300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>390800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>426700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>447600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>547200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>448800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>697100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>368800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>552200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>654800</v>
+        <v>547000</v>
       </c>
       <c r="E35" s="3">
-        <v>545800</v>
+        <v>557900</v>
       </c>
       <c r="F35" s="3">
-        <v>482400</v>
+        <v>665600</v>
       </c>
       <c r="G35" s="3">
-        <v>497500</v>
+        <v>554900</v>
       </c>
       <c r="H35" s="3">
-        <v>622600</v>
+        <v>490400</v>
       </c>
       <c r="I35" s="3">
+        <v>505700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>632900</v>
+      </c>
+      <c r="K35" s="3">
         <v>453100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>82100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>478400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>557300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>464600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>842400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>432600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>536300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>390800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>426700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>447600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>547200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>448800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>697100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>368800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>552200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2115100</v>
+        <v>2438100</v>
       </c>
       <c r="E41" s="3">
-        <v>2385400</v>
+        <v>1760000</v>
       </c>
       <c r="F41" s="3">
-        <v>2065000</v>
+        <v>2150200</v>
       </c>
       <c r="G41" s="3">
-        <v>1474500</v>
+        <v>2425000</v>
       </c>
       <c r="H41" s="3">
-        <v>1762100</v>
+        <v>2099300</v>
       </c>
       <c r="I41" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1791400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1894400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1521800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1813000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1531100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1032300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1286800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1473500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1770600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1488100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1622000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1819400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1841000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1367700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>826200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>919400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1485500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2859,23 +3039,23 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>7600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>9600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>8700</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
@@ -2889,505 +3069,553 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>831300</v>
+        <v>630500</v>
       </c>
       <c r="E43" s="3">
-        <v>805000</v>
+        <v>785900</v>
       </c>
       <c r="F43" s="3">
-        <v>717900</v>
+        <v>845100</v>
       </c>
       <c r="G43" s="3">
-        <v>779900</v>
+        <v>818300</v>
       </c>
       <c r="H43" s="3">
-        <v>839500</v>
+        <v>729800</v>
       </c>
       <c r="I43" s="3">
+        <v>792900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>853400</v>
+      </c>
+      <c r="K43" s="3">
         <v>654800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>682600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>672500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>680600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>539400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>537800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>565500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>548800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>418800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>462300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>390300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>560400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>393700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>361100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>361800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>715300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3967700</v>
+        <v>4251800</v>
       </c>
       <c r="E44" s="3">
-        <v>3990400</v>
+        <v>4045800</v>
       </c>
       <c r="F44" s="3">
-        <v>3360600</v>
+        <v>4033500</v>
       </c>
       <c r="G44" s="3">
-        <v>3309400</v>
+        <v>4056600</v>
       </c>
       <c r="H44" s="3">
-        <v>3377000</v>
+        <v>3416400</v>
       </c>
       <c r="I44" s="3">
+        <v>3364400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3433100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3550500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3193300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3036900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3352000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3446200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2917100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2947500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2888500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2732200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3084200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2919100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3075400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2976400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2675600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2772500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2849600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42300</v>
+        <v>61700</v>
       </c>
       <c r="E45" s="3">
-        <v>53800</v>
+        <v>37300</v>
       </c>
       <c r="F45" s="3">
-        <v>41900</v>
+        <v>43000</v>
       </c>
       <c r="G45" s="3">
-        <v>52800</v>
+        <v>54700</v>
       </c>
       <c r="H45" s="3">
-        <v>34600</v>
+        <v>42600</v>
       </c>
       <c r="I45" s="3">
+        <v>53600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K45" s="3">
         <v>64100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>57200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>58600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>88200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>45400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>76000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>60400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>64100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>49800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>66900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>48500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>50800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>39600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>43600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>649000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>667100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6956400</v>
+        <v>7382100</v>
       </c>
       <c r="E46" s="3">
-        <v>7234500</v>
+        <v>6629000</v>
       </c>
       <c r="F46" s="3">
-        <v>6185500</v>
+        <v>7071900</v>
       </c>
       <c r="G46" s="3">
-        <v>5616600</v>
+        <v>7354600</v>
       </c>
       <c r="H46" s="3">
-        <v>6013200</v>
+        <v>6288100</v>
       </c>
       <c r="I46" s="3">
+        <v>5709900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>6113000</v>
+      </c>
+      <c r="K46" s="3">
         <v>6163800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5454800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5581000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5652000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5063300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4817700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5046900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5272000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4696400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5245000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5186000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5527600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4777400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3906500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4702600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5523600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>109700</v>
+        <v>103700</v>
       </c>
       <c r="E47" s="3">
-        <v>106400</v>
+        <v>108500</v>
       </c>
       <c r="F47" s="3">
-        <v>100200</v>
+        <v>111600</v>
       </c>
       <c r="G47" s="3">
-        <v>102100</v>
+        <v>108200</v>
       </c>
       <c r="H47" s="3">
-        <v>101000</v>
+        <v>101800</v>
       </c>
       <c r="I47" s="3">
+        <v>103800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K47" s="3">
         <v>111700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>113800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>109100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>91100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>107100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>108800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>107500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>101500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>94300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>109100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>99000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>105900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>79200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>73500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>79900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>99800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9890800</v>
+        <v>9975900</v>
       </c>
       <c r="E48" s="3">
-        <v>9629700</v>
+        <v>9927700</v>
       </c>
       <c r="F48" s="3">
-        <v>9448600</v>
+        <v>10054900</v>
       </c>
       <c r="G48" s="3">
-        <v>9479700</v>
+        <v>9789500</v>
       </c>
       <c r="H48" s="3">
-        <v>9457800</v>
+        <v>9605500</v>
       </c>
       <c r="I48" s="3">
+        <v>9637100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9614800</v>
+      </c>
+      <c r="K48" s="3">
         <v>9590600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9639500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9454700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9350300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9317000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8669300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8851900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6576500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6296400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>7530400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>7347300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>7245000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>6959000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6874900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6833900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>7240200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1914600</v>
+        <v>1829100</v>
       </c>
       <c r="E49" s="3">
-        <v>1933600</v>
+        <v>1854400</v>
       </c>
       <c r="F49" s="3">
-        <v>1843700</v>
+        <v>1946400</v>
       </c>
       <c r="G49" s="3">
-        <v>1926100</v>
+        <v>1965700</v>
       </c>
       <c r="H49" s="3">
-        <v>1855100</v>
+        <v>1874300</v>
       </c>
       <c r="I49" s="3">
+        <v>1958100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1885900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2095200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2214900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2189800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1840100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1908900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1796200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1838400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1687100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1686800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2133700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1954500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2036100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1886700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1864000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1933200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2195100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>611300</v>
+        <v>614500</v>
       </c>
       <c r="E52" s="3">
-        <v>531900</v>
+        <v>639600</v>
       </c>
       <c r="F52" s="3">
-        <v>500100</v>
+        <v>621400</v>
       </c>
       <c r="G52" s="3">
-        <v>471200</v>
+        <v>540700</v>
       </c>
       <c r="H52" s="3">
-        <v>449900</v>
+        <v>508400</v>
       </c>
       <c r="I52" s="3">
+        <v>479000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>457400</v>
+      </c>
+      <c r="K52" s="3">
         <v>377700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>361700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>337000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>392400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>419300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>385000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>379800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>340500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>374600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>355100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>385300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>356000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>291600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>265500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>226800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>249600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19482800</v>
+        <v>19905300</v>
       </c>
       <c r="E54" s="3">
-        <v>19436200</v>
+        <v>19159200</v>
       </c>
       <c r="F54" s="3">
-        <v>18078100</v>
+        <v>19806200</v>
       </c>
       <c r="G54" s="3">
-        <v>17595800</v>
+        <v>19758800</v>
       </c>
       <c r="H54" s="3">
-        <v>17877000</v>
+        <v>18378200</v>
       </c>
       <c r="I54" s="3">
+        <v>17887900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>18173800</v>
+      </c>
+      <c r="K54" s="3">
         <v>18339000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17784700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17671700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17325900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16815500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>15776900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16224400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>13977700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>13148400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>15373400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>14972000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>15270600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>13993900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12984500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>13776500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>15308300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4773900</v>
+        <v>4451700</v>
       </c>
       <c r="E57" s="3">
-        <v>4318500</v>
+        <v>4303900</v>
       </c>
       <c r="F57" s="3">
-        <v>3855200</v>
+        <v>4853200</v>
       </c>
       <c r="G57" s="3">
-        <v>3911300</v>
+        <v>4390100</v>
       </c>
       <c r="H57" s="3">
-        <v>4562400</v>
+        <v>3919200</v>
       </c>
       <c r="I57" s="3">
+        <v>3976300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4638100</v>
+      </c>
+      <c r="K57" s="3">
         <v>3945700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3784100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3892600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4322700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3763100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3524800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3632700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3890900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3274300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3722700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3686100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4142700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3310400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2747300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2862000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3500300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>169900</v>
+        <v>177900</v>
       </c>
       <c r="E58" s="3">
-        <v>172200</v>
+        <v>166500</v>
       </c>
       <c r="F58" s="3">
-        <v>151000</v>
+        <v>172700</v>
       </c>
       <c r="G58" s="3">
-        <v>158200</v>
+        <v>175100</v>
       </c>
       <c r="H58" s="3">
-        <v>158900</v>
+        <v>153500</v>
       </c>
       <c r="I58" s="3">
+        <v>160900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>161500</v>
+      </c>
+      <c r="K58" s="3">
         <v>159500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>154900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>145400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>151100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>152200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>144300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>148500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>14100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>13300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>15800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>16800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>19700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>21000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>23100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>26200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>28300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1612000</v>
+        <v>2815500</v>
       </c>
       <c r="E59" s="3">
-        <v>2794900</v>
+        <v>1241500</v>
       </c>
       <c r="F59" s="3">
-        <v>2639100</v>
+        <v>1638800</v>
       </c>
       <c r="G59" s="3">
-        <v>2449600</v>
+        <v>2841300</v>
       </c>
       <c r="H59" s="3">
-        <v>1358300</v>
+        <v>2682900</v>
       </c>
       <c r="I59" s="3">
+        <v>2490200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1380900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2449100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2367000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2494300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1158100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1657200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1937600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2485200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1301000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1655600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2137400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2567100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1414400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1668500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1709800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3197300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1479700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6555800</v>
+        <v>7445100</v>
       </c>
       <c r="E60" s="3">
-        <v>7285600</v>
+        <v>5711900</v>
       </c>
       <c r="F60" s="3">
-        <v>6645200</v>
+        <v>6664600</v>
       </c>
       <c r="G60" s="3">
-        <v>6519200</v>
+        <v>7406500</v>
       </c>
       <c r="H60" s="3">
-        <v>6079700</v>
+        <v>6755500</v>
       </c>
       <c r="I60" s="3">
+        <v>6627400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6180600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6554300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6306000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6532300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5631800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5572500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5606700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6266300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5205900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4943200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5875900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6270000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5576800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4999800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4480200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6085500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5008300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3025900</v>
+        <v>3172800</v>
       </c>
       <c r="E61" s="3">
-        <v>2901200</v>
+        <v>3111800</v>
       </c>
       <c r="F61" s="3">
-        <v>2870100</v>
+        <v>3076100</v>
       </c>
       <c r="G61" s="3">
-        <v>2841200</v>
+        <v>2949400</v>
       </c>
       <c r="H61" s="3">
-        <v>2792200</v>
+        <v>2917800</v>
       </c>
       <c r="I61" s="3">
+        <v>2888400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2838500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2830100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2827300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2750300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2687800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2634800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2410800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2439000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>646000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>640200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>772600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>751700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>709900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>694900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>680000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>671600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>694400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>718600</v>
+        <v>655100</v>
       </c>
       <c r="E62" s="3">
-        <v>682100</v>
+        <v>726700</v>
       </c>
       <c r="F62" s="3">
-        <v>652600</v>
+        <v>730500</v>
       </c>
       <c r="G62" s="3">
-        <v>648700</v>
+        <v>693400</v>
       </c>
       <c r="H62" s="3">
-        <v>650800</v>
+        <v>663500</v>
       </c>
       <c r="I62" s="3">
+        <v>659500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>661600</v>
+      </c>
+      <c r="K62" s="3">
         <v>694700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>626200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>596100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>662900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>568300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>561300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>574800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>605700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>690200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>740600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>762200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>732800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>853400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>886100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>668600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>736500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10300300</v>
+        <v>11272900</v>
       </c>
       <c r="E66" s="3">
-        <v>10868900</v>
+        <v>9550400</v>
       </c>
       <c r="F66" s="3">
-        <v>10168000</v>
+        <v>10471200</v>
       </c>
       <c r="G66" s="3">
-        <v>10009100</v>
+        <v>11049300</v>
       </c>
       <c r="H66" s="3">
-        <v>9522600</v>
+        <v>10336800</v>
       </c>
       <c r="I66" s="3">
+        <v>10175200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9680600</v>
+      </c>
+      <c r="K66" s="3">
         <v>10079100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9759600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9878700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8982600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8775600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8578800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9280100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6457600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6273600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7389100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7783900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7019500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6548100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6046300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7425700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6439200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6289200</v>
+        <v>6014700</v>
       </c>
       <c r="E72" s="3">
-        <v>5600300</v>
+        <v>6951400</v>
       </c>
       <c r="F72" s="3">
-        <v>5089300</v>
+        <v>6393600</v>
       </c>
       <c r="G72" s="3">
-        <v>4607300</v>
+        <v>5693200</v>
       </c>
       <c r="H72" s="3">
-        <v>5501300</v>
+        <v>5173700</v>
       </c>
       <c r="I72" s="3">
+        <v>4683800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5592600</v>
+      </c>
+      <c r="K72" s="3">
         <v>4878800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4426000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4208200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5401600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4939900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4310800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4010800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4771500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4180500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>4514300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4089200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>4986500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4439600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>3991400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>3295400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>5291400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9182600</v>
+        <v>8632400</v>
       </c>
       <c r="E76" s="3">
-        <v>8567300</v>
+        <v>9608800</v>
       </c>
       <c r="F76" s="3">
-        <v>7910100</v>
+        <v>9335000</v>
       </c>
       <c r="G76" s="3">
-        <v>7586700</v>
+        <v>8709500</v>
       </c>
       <c r="H76" s="3">
-        <v>8354500</v>
+        <v>8041400</v>
       </c>
       <c r="I76" s="3">
+        <v>7712700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8493100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8260000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8025100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7793000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8343300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8039900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7198100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6944300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7520100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6874800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7984200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7188100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>8251100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7445700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6938200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6350800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>8869100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>654800</v>
+        <v>547000</v>
       </c>
       <c r="E81" s="3">
-        <v>545800</v>
+        <v>557900</v>
       </c>
       <c r="F81" s="3">
-        <v>482400</v>
+        <v>665600</v>
       </c>
       <c r="G81" s="3">
-        <v>497500</v>
+        <v>554900</v>
       </c>
       <c r="H81" s="3">
-        <v>622600</v>
+        <v>490400</v>
       </c>
       <c r="I81" s="3">
+        <v>505700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>632900</v>
+      </c>
+      <c r="K81" s="3">
         <v>453100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>82100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>478400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>557300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>464600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>842400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>432600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>536300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>390800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>426700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>447600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>547200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>448800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>697100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>368800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>552200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>232600</v>
+        <v>239100</v>
       </c>
       <c r="E83" s="3">
-        <v>226200</v>
+        <v>240400</v>
       </c>
       <c r="F83" s="3">
-        <v>221500</v>
+        <v>236400</v>
       </c>
       <c r="G83" s="3">
-        <v>224000</v>
+        <v>229900</v>
       </c>
       <c r="H83" s="3">
-        <v>220900</v>
+        <v>225200</v>
       </c>
       <c r="I83" s="3">
+        <v>227700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>224600</v>
+      </c>
+      <c r="K83" s="3">
         <v>221000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>226500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>211000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>217900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>215600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>402300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>205800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>152600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>139200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>164900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>163200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>158700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>149300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>145300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>149000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>150200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1618800</v>
+        <v>1050600</v>
       </c>
       <c r="E89" s="3">
-        <v>723400</v>
+        <v>-189100</v>
       </c>
       <c r="F89" s="3">
-        <v>942700</v>
+        <v>1645600</v>
       </c>
       <c r="G89" s="3">
-        <v>-79800</v>
+        <v>735400</v>
       </c>
       <c r="H89" s="3">
-        <v>1703300</v>
+        <v>958300</v>
       </c>
       <c r="I89" s="3">
+        <v>-81100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1731600</v>
+      </c>
+      <c r="K89" s="3">
         <v>712600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>134300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>466500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1424900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>620100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>788100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>138400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1116100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>624300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>287000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>205600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1218100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>895800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>588900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-164100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1324000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-387300</v>
+        <v>-202800</v>
       </c>
       <c r="E91" s="3">
-        <v>-296000</v>
+        <v>-118200</v>
       </c>
       <c r="F91" s="3">
-        <v>-212300</v>
+        <v>-393800</v>
       </c>
       <c r="G91" s="3">
-        <v>-115300</v>
+        <v>-300900</v>
       </c>
       <c r="H91" s="3">
-        <v>-330300</v>
+        <v>-215900</v>
       </c>
       <c r="I91" s="3">
+        <v>-117200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-335800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-227600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-151900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-112900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-305600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-338500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-371300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-159500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-326900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-235600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-197400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-99100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-348500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-230500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-197600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-124700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-352900</v>
+        <v>-187600</v>
       </c>
       <c r="E94" s="3">
-        <v>-267800</v>
+        <v>-200000</v>
       </c>
       <c r="F94" s="3">
-        <v>-197500</v>
+        <v>-358700</v>
       </c>
       <c r="G94" s="3">
-        <v>-126800</v>
+        <v>-272300</v>
       </c>
       <c r="H94" s="3">
-        <v>-303700</v>
+        <v>-200800</v>
       </c>
       <c r="I94" s="3">
+        <v>-128900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-308800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-207200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-123600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-176300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-284400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-320700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-365900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-203400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-301200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-206200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-140400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-89100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-314300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-171700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>866900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-178000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-247400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6717,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1392500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1415600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1297700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-1319200</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-230400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-463400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-503600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-802500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-284900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-504800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-225700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-361100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-148100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-473200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-142700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-124800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-568100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1512300</v>
+        <v>-123700</v>
       </c>
       <c r="E100" s="3">
-        <v>-115600</v>
+        <v>-122900</v>
       </c>
       <c r="F100" s="3">
-        <v>-111300</v>
+        <v>-1537400</v>
       </c>
       <c r="G100" s="3">
+        <v>-117500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-113100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-115100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1431400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-113200</v>
       </c>
-      <c r="H100" s="3">
-        <v>-1408100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-113200</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-338800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-98100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-567400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-605800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-993300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-379800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-522400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-242800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-381700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-170000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-494500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-167100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-145400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-591300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23900</v>
+        <v>-61200</v>
       </c>
       <c r="E101" s="3">
-        <v>-19700</v>
+        <v>121800</v>
       </c>
       <c r="F101" s="3">
-        <v>-43400</v>
+        <v>-24300</v>
       </c>
       <c r="G101" s="3">
-        <v>32100</v>
+        <v>-20000</v>
       </c>
       <c r="H101" s="3">
-        <v>-123800</v>
+        <v>-44100</v>
       </c>
       <c r="I101" s="3">
+        <v>32700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-44000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-15100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>161600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-25600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-20300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-20500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-49100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>37700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-35300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>29600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-15600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-26900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-39900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>29200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-270200</v>
+        <v>678100</v>
       </c>
       <c r="E102" s="3">
-        <v>320300</v>
+        <v>-390200</v>
       </c>
       <c r="F102" s="3">
-        <v>590500</v>
+        <v>-274700</v>
       </c>
       <c r="G102" s="3">
-        <v>-287600</v>
+        <v>325700</v>
       </c>
       <c r="H102" s="3">
-        <v>-132300</v>
+        <v>600300</v>
       </c>
       <c r="I102" s="3">
+        <v>-292400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-134500</v>
+      </c>
+      <c r="K102" s="3">
         <v>372600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-350000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>336500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>511200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-303700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-591400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-465200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>263000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>126200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-197400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-88900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>473300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>541400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-93200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-527500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>503000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9824000</v>
+        <v>10248500</v>
       </c>
       <c r="E8" s="3">
-        <v>9433500</v>
+        <v>10131100</v>
       </c>
       <c r="F8" s="3">
-        <v>10775800</v>
+        <v>9728400</v>
       </c>
       <c r="G8" s="3">
-        <v>8840800</v>
+        <v>11112700</v>
       </c>
       <c r="H8" s="3">
-        <v>8772100</v>
+        <v>9117200</v>
       </c>
       <c r="I8" s="3">
-        <v>8575400</v>
+        <v>9046400</v>
       </c>
       <c r="J8" s="3">
+        <v>8843500</v>
+      </c>
+      <c r="K8" s="3">
         <v>9842500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8170100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8349900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8198300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9216600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7785000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14805300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7576100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8090400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6651000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7862800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7776400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8698500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7080300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7020300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6856800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8363100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7525400</v>
+        <v>7819400</v>
       </c>
       <c r="E9" s="3">
-        <v>7224400</v>
+        <v>7760700</v>
       </c>
       <c r="F9" s="3">
-        <v>8275400</v>
+        <v>7450200</v>
       </c>
       <c r="G9" s="3">
-        <v>6749500</v>
+        <v>8534100</v>
       </c>
       <c r="H9" s="3">
-        <v>6731800</v>
+        <v>6960500</v>
       </c>
       <c r="I9" s="3">
-        <v>6577700</v>
+        <v>6942200</v>
       </c>
       <c r="J9" s="3">
+        <v>6783300</v>
+      </c>
+      <c r="K9" s="3">
         <v>7565300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6238700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6446300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6329100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7126800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5950700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11448100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5853600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6245700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5099100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6076200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5992600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6786200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5437300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5420400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5285300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6525500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2298600</v>
+        <v>2429100</v>
       </c>
       <c r="E10" s="3">
-        <v>2209100</v>
+        <v>2370400</v>
       </c>
       <c r="F10" s="3">
-        <v>2500400</v>
+        <v>2278200</v>
       </c>
       <c r="G10" s="3">
-        <v>2091300</v>
+        <v>2578600</v>
       </c>
       <c r="H10" s="3">
-        <v>2040400</v>
+        <v>2156700</v>
       </c>
       <c r="I10" s="3">
-        <v>1997700</v>
+        <v>2104100</v>
       </c>
       <c r="J10" s="3">
+        <v>2060200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2277300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1931300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1903600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1869200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2089800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1834400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3357200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1722400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1844700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1551900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1786600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1783700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1912300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1643000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1599900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1571500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1837600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9051300</v>
+        <v>9404100</v>
       </c>
       <c r="E17" s="3">
-        <v>8633200</v>
+        <v>9334300</v>
       </c>
       <c r="F17" s="3">
-        <v>9828800</v>
+        <v>8903100</v>
       </c>
       <c r="G17" s="3">
-        <v>8064400</v>
+        <v>10136100</v>
       </c>
       <c r="H17" s="3">
-        <v>8086500</v>
+        <v>8316500</v>
       </c>
       <c r="I17" s="3">
-        <v>7825100</v>
+        <v>8339300</v>
       </c>
       <c r="J17" s="3">
+        <v>8069700</v>
+      </c>
+      <c r="K17" s="3">
         <v>8944900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7489200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7799100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7497800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8412800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7112900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13624100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6960000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7378300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6119400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7303800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7168700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7984100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6538800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6520800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6345000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7691500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>772600</v>
+        <v>844400</v>
       </c>
       <c r="E18" s="3">
-        <v>800400</v>
+        <v>796800</v>
       </c>
       <c r="F18" s="3">
-        <v>946900</v>
+        <v>825400</v>
       </c>
       <c r="G18" s="3">
-        <v>776400</v>
+        <v>976600</v>
       </c>
       <c r="H18" s="3">
-        <v>685600</v>
+        <v>800700</v>
       </c>
       <c r="I18" s="3">
-        <v>750300</v>
+        <v>707000</v>
       </c>
       <c r="J18" s="3">
+        <v>773700</v>
+      </c>
+      <c r="K18" s="3">
         <v>897700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>680900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>550800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>803800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>672100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1181200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>616100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>712200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>531600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>559000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>607600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>714500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>541500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>499500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>511900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>671600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,201 +1582,208 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25100</v>
+        <v>47200</v>
       </c>
       <c r="E20" s="3">
-        <v>6000</v>
+        <v>25800</v>
       </c>
       <c r="F20" s="3">
-        <v>14000</v>
+        <v>6200</v>
       </c>
       <c r="G20" s="3">
-        <v>10600</v>
+        <v>14400</v>
       </c>
       <c r="H20" s="3">
-        <v>22300</v>
+        <v>11000</v>
       </c>
       <c r="I20" s="3">
-        <v>-3300</v>
+        <v>23000</v>
       </c>
       <c r="J20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K20" s="3">
         <v>20100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-103900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>216400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-66900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-50000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-16500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>7100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1036800</v>
+        <v>1143200</v>
       </c>
       <c r="E21" s="3">
-        <v>1046800</v>
+        <v>1069200</v>
       </c>
       <c r="F21" s="3">
-        <v>1197300</v>
+        <v>1079500</v>
       </c>
       <c r="G21" s="3">
-        <v>1017000</v>
+        <v>1234800</v>
       </c>
       <c r="H21" s="3">
-        <v>933100</v>
+        <v>1048700</v>
       </c>
       <c r="I21" s="3">
-        <v>974700</v>
+        <v>962300</v>
       </c>
       <c r="J21" s="3">
+        <v>1005200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1142400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>910900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>673300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>909000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1238200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>820800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1483100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>771900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>859000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>654300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>734600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>768700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>866900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>685500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>637700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>651100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>828900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>87200</v>
+        <v>92200</v>
       </c>
       <c r="E22" s="3">
-        <v>86000</v>
+        <v>89900</v>
       </c>
       <c r="F22" s="3">
-        <v>83500</v>
+        <v>88700</v>
       </c>
       <c r="G22" s="3">
-        <v>80100</v>
+        <v>86100</v>
       </c>
       <c r="H22" s="3">
-        <v>80900</v>
+        <v>82600</v>
       </c>
       <c r="I22" s="3">
-        <v>80900</v>
+        <v>83400</v>
       </c>
       <c r="J22" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K22" s="3">
         <v>80000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>80500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>80600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>74500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>285400</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1775,167 +1815,176 @@
         <v>0</v>
       </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>20700</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>710500</v>
+        <v>799400</v>
       </c>
       <c r="E23" s="3">
-        <v>720400</v>
+        <v>732700</v>
       </c>
       <c r="F23" s="3">
-        <v>877400</v>
+        <v>742900</v>
       </c>
       <c r="G23" s="3">
-        <v>706900</v>
+        <v>904900</v>
       </c>
       <c r="H23" s="3">
-        <v>627000</v>
+        <v>729000</v>
       </c>
       <c r="I23" s="3">
-        <v>666100</v>
+        <v>646600</v>
       </c>
       <c r="J23" s="3">
+        <v>686900</v>
+      </c>
+      <c r="K23" s="3">
         <v>837800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>609400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>366300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>623500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>734800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>605200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1080700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>566100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>706400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>515100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>569700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>605600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>708200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>536200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>492400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>502100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>657900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>163500</v>
+        <v>170000</v>
       </c>
       <c r="E24" s="3">
-        <v>162500</v>
+        <v>168600</v>
       </c>
       <c r="F24" s="3">
-        <v>211800</v>
+        <v>167600</v>
       </c>
       <c r="G24" s="3">
-        <v>152000</v>
+        <v>218400</v>
       </c>
       <c r="H24" s="3">
-        <v>136600</v>
+        <v>156700</v>
       </c>
       <c r="I24" s="3">
-        <v>160400</v>
+        <v>140900</v>
       </c>
       <c r="J24" s="3">
+        <v>165400</v>
+      </c>
+      <c r="K24" s="3">
         <v>204900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>156300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>284100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>145100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>177500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>140600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>238300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>133500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>170100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>124400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>143000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>158000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>161000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>122300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>143500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>136900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>158600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>547000</v>
+        <v>629400</v>
       </c>
       <c r="E26" s="3">
-        <v>557900</v>
+        <v>564100</v>
       </c>
       <c r="F26" s="3">
-        <v>665600</v>
+        <v>575300</v>
       </c>
       <c r="G26" s="3">
-        <v>554900</v>
+        <v>686500</v>
       </c>
       <c r="H26" s="3">
-        <v>490400</v>
+        <v>572200</v>
       </c>
       <c r="I26" s="3">
         <v>505700</v>
       </c>
       <c r="J26" s="3">
+        <v>521500</v>
+      </c>
+      <c r="K26" s="3">
         <v>632900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>453100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>82100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>478400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>557300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>464600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>842400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>432600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>536300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>390800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>426700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>447600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>547200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>413900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>348900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>365200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>499400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>547000</v>
+        <v>629400</v>
       </c>
       <c r="E27" s="3">
-        <v>557900</v>
+        <v>564100</v>
       </c>
       <c r="F27" s="3">
-        <v>665600</v>
+        <v>575300</v>
       </c>
       <c r="G27" s="3">
-        <v>554900</v>
+        <v>686500</v>
       </c>
       <c r="H27" s="3">
-        <v>490400</v>
+        <v>572200</v>
       </c>
       <c r="I27" s="3">
         <v>505700</v>
       </c>
       <c r="J27" s="3">
+        <v>521500</v>
+      </c>
+      <c r="K27" s="3">
         <v>632900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>453100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>82100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>478400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>557300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>464600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>842400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>432600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>536300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>390800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>426700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>447600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>547200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>413900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>348900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>365200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>499600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2305,22 +2366,25 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>34800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>348200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>3600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>52700</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25100</v>
+        <v>-47200</v>
       </c>
       <c r="E32" s="3">
-        <v>-6000</v>
+        <v>-25800</v>
       </c>
       <c r="F32" s="3">
-        <v>-14000</v>
+        <v>-6200</v>
       </c>
       <c r="G32" s="3">
-        <v>-10600</v>
+        <v>-14400</v>
       </c>
       <c r="H32" s="3">
-        <v>-22300</v>
+        <v>-11000</v>
       </c>
       <c r="I32" s="3">
-        <v>3300</v>
+        <v>-23000</v>
       </c>
       <c r="J32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>103900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-216400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>66900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>50000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>16500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>9700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>547000</v>
+        <v>629400</v>
       </c>
       <c r="E33" s="3">
-        <v>557900</v>
+        <v>564100</v>
       </c>
       <c r="F33" s="3">
-        <v>665600</v>
+        <v>575300</v>
       </c>
       <c r="G33" s="3">
-        <v>554900</v>
+        <v>686500</v>
       </c>
       <c r="H33" s="3">
-        <v>490400</v>
+        <v>572200</v>
       </c>
       <c r="I33" s="3">
         <v>505700</v>
       </c>
       <c r="J33" s="3">
+        <v>521500</v>
+      </c>
+      <c r="K33" s="3">
         <v>632900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>453100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>82100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>478400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>557300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>464600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>842400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>432600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>536300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>390800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>426700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>447600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>547200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>448800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>697100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>368800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>552200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>547000</v>
+        <v>629400</v>
       </c>
       <c r="E35" s="3">
-        <v>557900</v>
+        <v>564100</v>
       </c>
       <c r="F35" s="3">
-        <v>665600</v>
+        <v>575300</v>
       </c>
       <c r="G35" s="3">
-        <v>554900</v>
+        <v>686500</v>
       </c>
       <c r="H35" s="3">
-        <v>490400</v>
+        <v>572200</v>
       </c>
       <c r="I35" s="3">
         <v>505700</v>
       </c>
       <c r="J35" s="3">
+        <v>521500</v>
+      </c>
+      <c r="K35" s="3">
         <v>632900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>453100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>82100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>478400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>557300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>464600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>842400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>432600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>536300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>390800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>426700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>447600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>547200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>448800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>697100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>368800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>552200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2438100</v>
+        <v>2735600</v>
       </c>
       <c r="E41" s="3">
-        <v>1760000</v>
+        <v>2514300</v>
       </c>
       <c r="F41" s="3">
-        <v>2150200</v>
+        <v>1815000</v>
       </c>
       <c r="G41" s="3">
-        <v>2425000</v>
+        <v>2217500</v>
       </c>
       <c r="H41" s="3">
-        <v>2099300</v>
+        <v>2500800</v>
       </c>
       <c r="I41" s="3">
-        <v>1499000</v>
+        <v>2164900</v>
       </c>
       <c r="J41" s="3">
+        <v>1545800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1791400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1894400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1521800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1813000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1531100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1032300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1286800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1473500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1770600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1488100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1622000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1819400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1841000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1367700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>826200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>919400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1485500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3045,20 +3135,20 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8700</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -3075,547 +3165,571 @@
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>630500</v>
+        <v>720700</v>
       </c>
       <c r="E43" s="3">
-        <v>785900</v>
+        <v>650200</v>
       </c>
       <c r="F43" s="3">
-        <v>845100</v>
+        <v>810400</v>
       </c>
       <c r="G43" s="3">
-        <v>818300</v>
+        <v>871500</v>
       </c>
       <c r="H43" s="3">
-        <v>729800</v>
+        <v>843900</v>
       </c>
       <c r="I43" s="3">
-        <v>792900</v>
+        <v>752700</v>
       </c>
       <c r="J43" s="3">
+        <v>817700</v>
+      </c>
+      <c r="K43" s="3">
         <v>853400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>654800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>682600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>672500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>680600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>539400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>537800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>565500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>548800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>418800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>462300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>390300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>560400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>393700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>361100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>361800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>715300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4251800</v>
+        <v>5154800</v>
       </c>
       <c r="E44" s="3">
-        <v>4045800</v>
+        <v>4384700</v>
       </c>
       <c r="F44" s="3">
-        <v>4033500</v>
+        <v>4172300</v>
       </c>
       <c r="G44" s="3">
-        <v>4056600</v>
+        <v>4159600</v>
       </c>
       <c r="H44" s="3">
-        <v>3416400</v>
+        <v>4183400</v>
       </c>
       <c r="I44" s="3">
-        <v>3364400</v>
+        <v>3523200</v>
       </c>
       <c r="J44" s="3">
+        <v>3469500</v>
+      </c>
+      <c r="K44" s="3">
         <v>3433100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3550500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3193300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3036900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3352000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3446200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2917100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2947500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2888500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2732200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3084200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2919100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3075400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2976400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2675600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2772500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2849600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61700</v>
+        <v>66100</v>
       </c>
       <c r="E45" s="3">
-        <v>37300</v>
+        <v>63600</v>
       </c>
       <c r="F45" s="3">
-        <v>43000</v>
+        <v>38400</v>
       </c>
       <c r="G45" s="3">
-        <v>54700</v>
+        <v>44400</v>
       </c>
       <c r="H45" s="3">
-        <v>42600</v>
+        <v>56400</v>
       </c>
       <c r="I45" s="3">
-        <v>53600</v>
+        <v>43900</v>
       </c>
       <c r="J45" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K45" s="3">
         <v>35200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>64100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>58600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>88200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>76000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>64100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>49800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>66900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>48500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>50800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>39600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>43600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>649000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>667100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7382100</v>
+        <v>8677200</v>
       </c>
       <c r="E46" s="3">
-        <v>6629000</v>
+        <v>7612900</v>
       </c>
       <c r="F46" s="3">
-        <v>7071900</v>
+        <v>6836200</v>
       </c>
       <c r="G46" s="3">
-        <v>7354600</v>
+        <v>7292900</v>
       </c>
       <c r="H46" s="3">
-        <v>6288100</v>
+        <v>7584500</v>
       </c>
       <c r="I46" s="3">
-        <v>5709900</v>
+        <v>6484700</v>
       </c>
       <c r="J46" s="3">
+        <v>5888400</v>
+      </c>
+      <c r="K46" s="3">
         <v>6113000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6163800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5454800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5581000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5652000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5063300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4817700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5046900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5272000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4696400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5245000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5186000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5527600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4777400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3906500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4702600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5523600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>103700</v>
+        <v>120700</v>
       </c>
       <c r="E47" s="3">
-        <v>108500</v>
+        <v>106900</v>
       </c>
       <c r="F47" s="3">
+        <v>111900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>115100</v>
+      </c>
+      <c r="H47" s="3">
         <v>111600</v>
       </c>
-      <c r="G47" s="3">
-        <v>108200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>101800</v>
-      </c>
       <c r="I47" s="3">
-        <v>103800</v>
+        <v>105000</v>
       </c>
       <c r="J47" s="3">
+        <v>107100</v>
+      </c>
+      <c r="K47" s="3">
         <v>102600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>111700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>113800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>109100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>91100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>107100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>108800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>107500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>101500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>94300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>109100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>99000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>105900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>79200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>73500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>79900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>99800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9975900</v>
+        <v>10522700</v>
       </c>
       <c r="E48" s="3">
-        <v>9927700</v>
+        <v>10287800</v>
       </c>
       <c r="F48" s="3">
-        <v>10054900</v>
+        <v>10238100</v>
       </c>
       <c r="G48" s="3">
-        <v>9789500</v>
+        <v>10369300</v>
       </c>
       <c r="H48" s="3">
-        <v>9605500</v>
+        <v>10095600</v>
       </c>
       <c r="I48" s="3">
-        <v>9637100</v>
+        <v>9905800</v>
       </c>
       <c r="J48" s="3">
+        <v>9938400</v>
+      </c>
+      <c r="K48" s="3">
         <v>9614800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9590600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9639500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9454700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9350300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9317000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8669300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8851900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6576500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6296400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7530400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7347300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7245000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6959000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6874900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6833900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7240200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1829100</v>
+        <v>2005600</v>
       </c>
       <c r="E49" s="3">
-        <v>1854400</v>
+        <v>1886300</v>
       </c>
       <c r="F49" s="3">
-        <v>1946400</v>
+        <v>1912400</v>
       </c>
       <c r="G49" s="3">
-        <v>1965700</v>
+        <v>2007300</v>
       </c>
       <c r="H49" s="3">
-        <v>1874300</v>
+        <v>2027100</v>
       </c>
       <c r="I49" s="3">
-        <v>1958100</v>
+        <v>1932900</v>
       </c>
       <c r="J49" s="3">
+        <v>2019300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1885900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2095200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2214900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2189800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1840100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1908900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1796200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1838400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1687100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1686800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2133700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1954500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2036100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1886700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1864000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1933200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2195100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>614500</v>
+        <v>743800</v>
       </c>
       <c r="E52" s="3">
-        <v>639600</v>
+        <v>633700</v>
       </c>
       <c r="F52" s="3">
-        <v>621400</v>
+        <v>659600</v>
       </c>
       <c r="G52" s="3">
-        <v>540700</v>
+        <v>640900</v>
       </c>
       <c r="H52" s="3">
-        <v>508400</v>
+        <v>557700</v>
       </c>
       <c r="I52" s="3">
-        <v>479000</v>
+        <v>524300</v>
       </c>
       <c r="J52" s="3">
+        <v>494000</v>
+      </c>
+      <c r="K52" s="3">
         <v>457400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>377700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>361700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>337000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>392400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>419300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>385000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>379800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>340500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>374600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>355100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>385300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>356000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>291600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>265500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>226800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>249600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19905300</v>
+        <v>22070000</v>
       </c>
       <c r="E54" s="3">
-        <v>19159200</v>
+        <v>20527600</v>
       </c>
       <c r="F54" s="3">
-        <v>19806200</v>
+        <v>19758100</v>
       </c>
       <c r="G54" s="3">
-        <v>19758800</v>
+        <v>20425400</v>
       </c>
       <c r="H54" s="3">
-        <v>18378200</v>
+        <v>20376500</v>
       </c>
       <c r="I54" s="3">
-        <v>17887900</v>
+        <v>18952700</v>
       </c>
       <c r="J54" s="3">
+        <v>18447100</v>
+      </c>
+      <c r="K54" s="3">
         <v>18173800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18339000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17784700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17671700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17325900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16815500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15776900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16224400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13977700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13148400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15373400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14972000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15270600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13993900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12984500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13776500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>15308300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4451700</v>
+        <v>4956600</v>
       </c>
       <c r="E57" s="3">
-        <v>4303900</v>
+        <v>4590800</v>
       </c>
       <c r="F57" s="3">
-        <v>4853200</v>
+        <v>4438500</v>
       </c>
       <c r="G57" s="3">
-        <v>4390100</v>
+        <v>5004900</v>
       </c>
       <c r="H57" s="3">
-        <v>3919200</v>
+        <v>4527400</v>
       </c>
       <c r="I57" s="3">
-        <v>3976300</v>
+        <v>4041700</v>
       </c>
       <c r="J57" s="3">
+        <v>4100600</v>
+      </c>
+      <c r="K57" s="3">
         <v>4638100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3945700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3784100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3892600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4322700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3763100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3524800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3632700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3890900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3274300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3722700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3686100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4142700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3310400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2747300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2862000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3500300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>177900</v>
+        <v>181600</v>
       </c>
       <c r="E58" s="3">
-        <v>166500</v>
+        <v>183500</v>
       </c>
       <c r="F58" s="3">
-        <v>172700</v>
+        <v>171700</v>
       </c>
       <c r="G58" s="3">
-        <v>175100</v>
+        <v>178100</v>
       </c>
       <c r="H58" s="3">
-        <v>153500</v>
+        <v>180600</v>
       </c>
       <c r="I58" s="3">
-        <v>160900</v>
+        <v>158300</v>
       </c>
       <c r="J58" s="3">
+        <v>165900</v>
+      </c>
+      <c r="K58" s="3">
         <v>161500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>159500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>154900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>145400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>151100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>152200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>144300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>148500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>14100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>16800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>19700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>21000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>26200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>28300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2815500</v>
+        <v>3180300</v>
       </c>
       <c r="E59" s="3">
-        <v>1241500</v>
+        <v>2903500</v>
       </c>
       <c r="F59" s="3">
-        <v>1638800</v>
+        <v>1280300</v>
       </c>
       <c r="G59" s="3">
-        <v>2841300</v>
+        <v>1690000</v>
       </c>
       <c r="H59" s="3">
-        <v>2682900</v>
+        <v>2930100</v>
       </c>
       <c r="I59" s="3">
-        <v>2490200</v>
+        <v>2766700</v>
       </c>
       <c r="J59" s="3">
+        <v>2568100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1380900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2449100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2367000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2494300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1158100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1657200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1937600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2485200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1301000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1655600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2137400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2567100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1414400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1668500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1709800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3197300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1479700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7445100</v>
+        <v>8318600</v>
       </c>
       <c r="E60" s="3">
-        <v>5711900</v>
+        <v>7677800</v>
       </c>
       <c r="F60" s="3">
-        <v>6664600</v>
+        <v>5890400</v>
       </c>
       <c r="G60" s="3">
-        <v>7406500</v>
+        <v>6873000</v>
       </c>
       <c r="H60" s="3">
-        <v>6755500</v>
+        <v>7638100</v>
       </c>
       <c r="I60" s="3">
-        <v>6627400</v>
+        <v>6966700</v>
       </c>
       <c r="J60" s="3">
+        <v>6834600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6180600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6554300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6306000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6532300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5631800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5572500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5606700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6266300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5205900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4943200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5875900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6270000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5576800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4999800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4480200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6085500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5008300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3172800</v>
+        <v>3350900</v>
       </c>
       <c r="E61" s="3">
-        <v>3111800</v>
+        <v>3271900</v>
       </c>
       <c r="F61" s="3">
-        <v>3076100</v>
+        <v>3209100</v>
       </c>
       <c r="G61" s="3">
-        <v>2949400</v>
+        <v>3172300</v>
       </c>
       <c r="H61" s="3">
-        <v>2917800</v>
+        <v>3041600</v>
       </c>
       <c r="I61" s="3">
-        <v>2888400</v>
+        <v>3009000</v>
       </c>
       <c r="J61" s="3">
+        <v>2978700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2838500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2830100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2827300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2750300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2687800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2634800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2410800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2439000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>646000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>640200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>772600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>751700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>709900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>694900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>680000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>671600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>694400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>655100</v>
+        <v>679800</v>
       </c>
       <c r="E62" s="3">
-        <v>726700</v>
+        <v>675600</v>
       </c>
       <c r="F62" s="3">
-        <v>730500</v>
+        <v>749400</v>
       </c>
       <c r="G62" s="3">
-        <v>693400</v>
+        <v>753300</v>
       </c>
       <c r="H62" s="3">
-        <v>663500</v>
+        <v>715100</v>
       </c>
       <c r="I62" s="3">
-        <v>659500</v>
+        <v>684200</v>
       </c>
       <c r="J62" s="3">
+        <v>680100</v>
+      </c>
+      <c r="K62" s="3">
         <v>661600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>694700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>626200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>596100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>662900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>568300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>561300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>574800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>605700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>690200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>740600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>762200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>732800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>853400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>886100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>668600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>736500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11272900</v>
+        <v>12349300</v>
       </c>
       <c r="E66" s="3">
-        <v>9550400</v>
+        <v>11625300</v>
       </c>
       <c r="F66" s="3">
-        <v>10471200</v>
+        <v>9849000</v>
       </c>
       <c r="G66" s="3">
-        <v>11049300</v>
+        <v>10798600</v>
       </c>
       <c r="H66" s="3">
-        <v>10336800</v>
+        <v>11394700</v>
       </c>
       <c r="I66" s="3">
-        <v>10175200</v>
+        <v>10659900</v>
       </c>
       <c r="J66" s="3">
+        <v>10493300</v>
+      </c>
+      <c r="K66" s="3">
         <v>9680600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10079100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9759600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9878700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8982600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8775600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8578800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9280100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6457600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6273600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7389100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7783900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7019500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6548100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6046300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7425700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6439200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6014700</v>
+        <v>6831700</v>
       </c>
       <c r="E72" s="3">
-        <v>6951400</v>
+        <v>6202700</v>
       </c>
       <c r="F72" s="3">
-        <v>6393600</v>
+        <v>7168800</v>
       </c>
       <c r="G72" s="3">
-        <v>5693200</v>
+        <v>6593400</v>
       </c>
       <c r="H72" s="3">
-        <v>5173700</v>
+        <v>5871200</v>
       </c>
       <c r="I72" s="3">
-        <v>4683800</v>
+        <v>5335500</v>
       </c>
       <c r="J72" s="3">
+        <v>4830200</v>
+      </c>
+      <c r="K72" s="3">
         <v>5592600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4878800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4426000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4208200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5401600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4939900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4310800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4010800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4771500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4180500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4514300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4089200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4986500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4439600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3991400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3295400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5291400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8632400</v>
+        <v>9720600</v>
       </c>
       <c r="E76" s="3">
-        <v>9608800</v>
+        <v>8902300</v>
       </c>
       <c r="F76" s="3">
-        <v>9335000</v>
+        <v>9909200</v>
       </c>
       <c r="G76" s="3">
-        <v>8709500</v>
+        <v>9626800</v>
       </c>
       <c r="H76" s="3">
-        <v>8041400</v>
+        <v>8981800</v>
       </c>
       <c r="I76" s="3">
-        <v>7712700</v>
+        <v>8292800</v>
       </c>
       <c r="J76" s="3">
+        <v>7953800</v>
+      </c>
+      <c r="K76" s="3">
         <v>8493100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8260000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8025100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7793000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8343300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8039900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7198100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6944300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7520100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6874800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7984200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7188100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8251100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7445700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6938200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6350800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8869100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>547000</v>
+        <v>629400</v>
       </c>
       <c r="E81" s="3">
-        <v>557900</v>
+        <v>564100</v>
       </c>
       <c r="F81" s="3">
-        <v>665600</v>
+        <v>575300</v>
       </c>
       <c r="G81" s="3">
-        <v>554900</v>
+        <v>686500</v>
       </c>
       <c r="H81" s="3">
-        <v>490400</v>
+        <v>572200</v>
       </c>
       <c r="I81" s="3">
         <v>505700</v>
       </c>
       <c r="J81" s="3">
+        <v>521500</v>
+      </c>
+      <c r="K81" s="3">
         <v>632900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>453100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>82100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>478400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>557300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>464600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>842400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>432600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>536300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>390800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>426700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>447600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>547200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>448800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>697100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>368800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>552200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>239100</v>
+        <v>251700</v>
       </c>
       <c r="E83" s="3">
-        <v>240400</v>
+        <v>246500</v>
       </c>
       <c r="F83" s="3">
-        <v>236400</v>
+        <v>247900</v>
       </c>
       <c r="G83" s="3">
-        <v>229900</v>
+        <v>243800</v>
       </c>
       <c r="H83" s="3">
-        <v>225200</v>
+        <v>237100</v>
       </c>
       <c r="I83" s="3">
-        <v>227700</v>
+        <v>232300</v>
       </c>
       <c r="J83" s="3">
+        <v>234800</v>
+      </c>
+      <c r="K83" s="3">
         <v>224600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>221000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>226500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>211000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>217900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>215600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>402300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>205800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>152600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>139200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>164900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>163200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>158700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>149300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>145300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>149000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>150200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1050600</v>
+        <v>632000</v>
       </c>
       <c r="E89" s="3">
-        <v>-189100</v>
+        <v>1083400</v>
       </c>
       <c r="F89" s="3">
-        <v>1645600</v>
+        <v>-195000</v>
       </c>
       <c r="G89" s="3">
-        <v>735400</v>
+        <v>1697100</v>
       </c>
       <c r="H89" s="3">
-        <v>958300</v>
+        <v>758400</v>
       </c>
       <c r="I89" s="3">
-        <v>-81100</v>
+        <v>988300</v>
       </c>
       <c r="J89" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1731600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>712600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>134300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>466500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1424900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>620100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>788100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>138400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1116100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>624300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>287000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>205600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1218100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>895800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>588900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-164100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1324000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-202800</v>
+        <v>-322100</v>
       </c>
       <c r="E91" s="3">
-        <v>-118200</v>
+        <v>-209100</v>
       </c>
       <c r="F91" s="3">
-        <v>-393800</v>
+        <v>-121900</v>
       </c>
       <c r="G91" s="3">
-        <v>-300900</v>
+        <v>-406100</v>
       </c>
       <c r="H91" s="3">
-        <v>-215900</v>
+        <v>-310300</v>
       </c>
       <c r="I91" s="3">
-        <v>-117200</v>
+        <v>-222600</v>
       </c>
       <c r="J91" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-335800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-227600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-151900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-112900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-305600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-338500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-371300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-159500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-326900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-235600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-197400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-99100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-348500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-230500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-197600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-124700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-187600</v>
+        <v>-263700</v>
       </c>
       <c r="E94" s="3">
-        <v>-200000</v>
+        <v>-193400</v>
       </c>
       <c r="F94" s="3">
-        <v>-358700</v>
+        <v>-206300</v>
       </c>
       <c r="G94" s="3">
-        <v>-272300</v>
+        <v>-370000</v>
       </c>
       <c r="H94" s="3">
-        <v>-200800</v>
+        <v>-280800</v>
       </c>
       <c r="I94" s="3">
-        <v>-128900</v>
+        <v>-207100</v>
       </c>
       <c r="J94" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-308800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-207200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-123600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-176300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-284400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-320700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-365900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-203400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-301200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-206200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-140400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-89100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-314300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-171700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>866900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-178000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-247400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6731,10 +6965,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1415600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1459900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6743,61 +6977,64 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1319200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-230400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-463400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-503600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-802500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-284900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-504800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-225700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-361100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-148100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-473200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-142700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-124800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-568100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-123700</v>
+        <v>-133200</v>
       </c>
       <c r="E100" s="3">
-        <v>-122900</v>
+        <v>-127600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1537400</v>
+        <v>-126800</v>
       </c>
       <c r="G100" s="3">
-        <v>-117500</v>
+        <v>-1585400</v>
       </c>
       <c r="H100" s="3">
-        <v>-113100</v>
+        <v>-121100</v>
       </c>
       <c r="I100" s="3">
-        <v>-115100</v>
+        <v>-116600</v>
       </c>
       <c r="J100" s="3">
+        <v>-118700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1431400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-113200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-338800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-98100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-567400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-605800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-993300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-379800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-522400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-242800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-381700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-170000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-494500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-167100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-145400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-591300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-61200</v>
+        <v>-13800</v>
       </c>
       <c r="E101" s="3">
-        <v>121800</v>
+        <v>-63100</v>
       </c>
       <c r="F101" s="3">
-        <v>-24300</v>
+        <v>125600</v>
       </c>
       <c r="G101" s="3">
-        <v>-20000</v>
+        <v>-25000</v>
       </c>
       <c r="H101" s="3">
-        <v>-44100</v>
+        <v>-20700</v>
       </c>
       <c r="I101" s="3">
-        <v>32700</v>
+        <v>-45500</v>
       </c>
       <c r="J101" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-125900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-44000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>161600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-25600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-20500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-29400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-49100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>37700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-35300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>29600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-15600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-26900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-39900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>29200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>678100</v>
+        <v>221300</v>
       </c>
       <c r="E102" s="3">
-        <v>-390200</v>
+        <v>699300</v>
       </c>
       <c r="F102" s="3">
-        <v>-274700</v>
+        <v>-402400</v>
       </c>
       <c r="G102" s="3">
-        <v>325700</v>
+        <v>-283300</v>
       </c>
       <c r="H102" s="3">
-        <v>600300</v>
+        <v>335800</v>
       </c>
       <c r="I102" s="3">
-        <v>-292400</v>
+        <v>619100</v>
       </c>
       <c r="J102" s="3">
+        <v>-301500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-134500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>372600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-350000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>336500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>511200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-303700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-591400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-465200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>263000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>126200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-197400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-88900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>473300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>541400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-93200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-527500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>503000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10248500</v>
+        <v>10786700</v>
       </c>
       <c r="E8" s="3">
-        <v>10131100</v>
+        <v>10663200</v>
       </c>
       <c r="F8" s="3">
-        <v>9728400</v>
+        <v>10239400</v>
       </c>
       <c r="G8" s="3">
-        <v>11112700</v>
+        <v>11696300</v>
       </c>
       <c r="H8" s="3">
-        <v>9117200</v>
+        <v>9596000</v>
       </c>
       <c r="I8" s="3">
-        <v>9046400</v>
+        <v>9521500</v>
       </c>
       <c r="J8" s="3">
-        <v>8843500</v>
+        <v>9308000</v>
       </c>
       <c r="K8" s="3">
         <v>9842500</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7819400</v>
+        <v>8230000</v>
       </c>
       <c r="E9" s="3">
-        <v>7760700</v>
+        <v>8168300</v>
       </c>
       <c r="F9" s="3">
-        <v>7450200</v>
+        <v>7841500</v>
       </c>
       <c r="G9" s="3">
-        <v>8534100</v>
+        <v>8982300</v>
       </c>
       <c r="H9" s="3">
-        <v>6960500</v>
+        <v>7326100</v>
       </c>
       <c r="I9" s="3">
-        <v>6942200</v>
+        <v>7306800</v>
       </c>
       <c r="J9" s="3">
-        <v>6783300</v>
+        <v>7139600</v>
       </c>
       <c r="K9" s="3">
         <v>7565300</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2429100</v>
+        <v>2556700</v>
       </c>
       <c r="E10" s="3">
-        <v>2370400</v>
+        <v>2494900</v>
       </c>
       <c r="F10" s="3">
-        <v>2278200</v>
+        <v>2397900</v>
       </c>
       <c r="G10" s="3">
-        <v>2578600</v>
+        <v>2714000</v>
       </c>
       <c r="H10" s="3">
-        <v>2156700</v>
+        <v>2269900</v>
       </c>
       <c r="I10" s="3">
-        <v>2104100</v>
+        <v>2214700</v>
       </c>
       <c r="J10" s="3">
-        <v>2060200</v>
+        <v>2168400</v>
       </c>
       <c r="K10" s="3">
         <v>2277300</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9404100</v>
+        <v>9898000</v>
       </c>
       <c r="E17" s="3">
-        <v>9334300</v>
+        <v>9824600</v>
       </c>
       <c r="F17" s="3">
-        <v>8903100</v>
+        <v>9370600</v>
       </c>
       <c r="G17" s="3">
-        <v>10136100</v>
+        <v>10668400</v>
       </c>
       <c r="H17" s="3">
-        <v>8316500</v>
+        <v>8753300</v>
       </c>
       <c r="I17" s="3">
-        <v>8339300</v>
+        <v>8777300</v>
       </c>
       <c r="J17" s="3">
-        <v>8069700</v>
+        <v>8493600</v>
       </c>
       <c r="K17" s="3">
         <v>8944900</v>
@@ -1479,25 +1479,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>844400</v>
+        <v>888700</v>
       </c>
       <c r="E18" s="3">
-        <v>796800</v>
+        <v>838600</v>
       </c>
       <c r="F18" s="3">
-        <v>825400</v>
+        <v>868700</v>
       </c>
       <c r="G18" s="3">
-        <v>976600</v>
+        <v>1027800</v>
       </c>
       <c r="H18" s="3">
-        <v>800700</v>
+        <v>842700</v>
       </c>
       <c r="I18" s="3">
-        <v>707000</v>
+        <v>744200</v>
       </c>
       <c r="J18" s="3">
-        <v>773700</v>
+        <v>814400</v>
       </c>
       <c r="K18" s="3">
         <v>897700</v>
@@ -1589,25 +1589,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47200</v>
+        <v>49600</v>
       </c>
       <c r="E20" s="3">
-        <v>25800</v>
+        <v>27200</v>
       </c>
       <c r="F20" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="G20" s="3">
-        <v>14400</v>
+        <v>15200</v>
       </c>
       <c r="H20" s="3">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="I20" s="3">
-        <v>23000</v>
+        <v>24200</v>
       </c>
       <c r="J20" s="3">
-        <v>-3400</v>
+        <v>-3600</v>
       </c>
       <c r="K20" s="3">
         <v>20100</v>
@@ -1669,25 +1669,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1143200</v>
+        <v>1203200</v>
       </c>
       <c r="E21" s="3">
-        <v>1069200</v>
+        <v>1125300</v>
       </c>
       <c r="F21" s="3">
-        <v>1079500</v>
+        <v>1136200</v>
       </c>
       <c r="G21" s="3">
-        <v>1234800</v>
+        <v>1299600</v>
       </c>
       <c r="H21" s="3">
-        <v>1048700</v>
+        <v>1103800</v>
       </c>
       <c r="I21" s="3">
-        <v>962300</v>
+        <v>1012800</v>
       </c>
       <c r="J21" s="3">
-        <v>1005200</v>
+        <v>1057900</v>
       </c>
       <c r="K21" s="3">
         <v>1142400</v>
@@ -1749,25 +1749,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>92200</v>
+        <v>97000</v>
       </c>
       <c r="E22" s="3">
-        <v>89900</v>
+        <v>94700</v>
       </c>
       <c r="F22" s="3">
-        <v>88700</v>
+        <v>93400</v>
       </c>
       <c r="G22" s="3">
-        <v>86100</v>
+        <v>90600</v>
       </c>
       <c r="H22" s="3">
-        <v>82600</v>
+        <v>87000</v>
       </c>
       <c r="I22" s="3">
-        <v>83400</v>
+        <v>87800</v>
       </c>
       <c r="J22" s="3">
-        <v>83400</v>
+        <v>87800</v>
       </c>
       <c r="K22" s="3">
         <v>80000</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>799400</v>
+        <v>841300</v>
       </c>
       <c r="E23" s="3">
-        <v>732700</v>
+        <v>771200</v>
       </c>
       <c r="F23" s="3">
-        <v>742900</v>
+        <v>781900</v>
       </c>
       <c r="G23" s="3">
-        <v>904900</v>
+        <v>952400</v>
       </c>
       <c r="H23" s="3">
-        <v>729000</v>
+        <v>767300</v>
       </c>
       <c r="I23" s="3">
-        <v>646600</v>
+        <v>680500</v>
       </c>
       <c r="J23" s="3">
-        <v>686900</v>
+        <v>723000</v>
       </c>
       <c r="K23" s="3">
         <v>837800</v>
@@ -1909,25 +1909,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>170000</v>
+        <v>178900</v>
       </c>
       <c r="E24" s="3">
-        <v>168600</v>
+        <v>177400</v>
       </c>
       <c r="F24" s="3">
-        <v>167600</v>
+        <v>176400</v>
       </c>
       <c r="G24" s="3">
-        <v>218400</v>
+        <v>229900</v>
       </c>
       <c r="H24" s="3">
-        <v>156700</v>
+        <v>165000</v>
       </c>
       <c r="I24" s="3">
-        <v>140900</v>
+        <v>148300</v>
       </c>
       <c r="J24" s="3">
-        <v>165400</v>
+        <v>174100</v>
       </c>
       <c r="K24" s="3">
         <v>204900</v>
@@ -2069,25 +2069,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>629400</v>
+        <v>662400</v>
       </c>
       <c r="E26" s="3">
-        <v>564100</v>
+        <v>593700</v>
       </c>
       <c r="F26" s="3">
-        <v>575300</v>
+        <v>605500</v>
       </c>
       <c r="G26" s="3">
-        <v>686500</v>
+        <v>722500</v>
       </c>
       <c r="H26" s="3">
-        <v>572200</v>
+        <v>602300</v>
       </c>
       <c r="I26" s="3">
-        <v>505700</v>
+        <v>532200</v>
       </c>
       <c r="J26" s="3">
-        <v>521500</v>
+        <v>548900</v>
       </c>
       <c r="K26" s="3">
         <v>632900</v>
@@ -2149,25 +2149,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>629400</v>
+        <v>662400</v>
       </c>
       <c r="E27" s="3">
-        <v>564100</v>
+        <v>593700</v>
       </c>
       <c r="F27" s="3">
-        <v>575300</v>
+        <v>605500</v>
       </c>
       <c r="G27" s="3">
-        <v>686500</v>
+        <v>722500</v>
       </c>
       <c r="H27" s="3">
-        <v>572200</v>
+        <v>602300</v>
       </c>
       <c r="I27" s="3">
-        <v>505700</v>
+        <v>532200</v>
       </c>
       <c r="J27" s="3">
-        <v>521500</v>
+        <v>548900</v>
       </c>
       <c r="K27" s="3">
         <v>632900</v>
@@ -2549,25 +2549,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47200</v>
+        <v>-49600</v>
       </c>
       <c r="E32" s="3">
-        <v>-25800</v>
+        <v>-27200</v>
       </c>
       <c r="F32" s="3">
-        <v>-6200</v>
+        <v>-6600</v>
       </c>
       <c r="G32" s="3">
-        <v>-14400</v>
+        <v>-15200</v>
       </c>
       <c r="H32" s="3">
-        <v>-11000</v>
+        <v>-11500</v>
       </c>
       <c r="I32" s="3">
-        <v>-23000</v>
+        <v>-24200</v>
       </c>
       <c r="J32" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="K32" s="3">
         <v>-20100</v>
@@ -2629,25 +2629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>629400</v>
+        <v>662400</v>
       </c>
       <c r="E33" s="3">
-        <v>564100</v>
+        <v>593700</v>
       </c>
       <c r="F33" s="3">
-        <v>575300</v>
+        <v>605500</v>
       </c>
       <c r="G33" s="3">
-        <v>686500</v>
+        <v>722500</v>
       </c>
       <c r="H33" s="3">
-        <v>572200</v>
+        <v>602300</v>
       </c>
       <c r="I33" s="3">
-        <v>505700</v>
+        <v>532200</v>
       </c>
       <c r="J33" s="3">
-        <v>521500</v>
+        <v>548900</v>
       </c>
       <c r="K33" s="3">
         <v>632900</v>
@@ -2789,25 +2789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>629400</v>
+        <v>662400</v>
       </c>
       <c r="E35" s="3">
-        <v>564100</v>
+        <v>593700</v>
       </c>
       <c r="F35" s="3">
-        <v>575300</v>
+        <v>605500</v>
       </c>
       <c r="G35" s="3">
-        <v>686500</v>
+        <v>722500</v>
       </c>
       <c r="H35" s="3">
-        <v>572200</v>
+        <v>602300</v>
       </c>
       <c r="I35" s="3">
-        <v>505700</v>
+        <v>532200</v>
       </c>
       <c r="J35" s="3">
-        <v>521500</v>
+        <v>548900</v>
       </c>
       <c r="K35" s="3">
         <v>632900</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2735600</v>
+        <v>2879300</v>
       </c>
       <c r="E41" s="3">
-        <v>2514300</v>
+        <v>2646400</v>
       </c>
       <c r="F41" s="3">
-        <v>1815000</v>
+        <v>1910300</v>
       </c>
       <c r="G41" s="3">
-        <v>2217500</v>
+        <v>2333900</v>
       </c>
       <c r="H41" s="3">
-        <v>2500800</v>
+        <v>2632100</v>
       </c>
       <c r="I41" s="3">
-        <v>2164900</v>
+        <v>2278600</v>
       </c>
       <c r="J41" s="3">
-        <v>1545800</v>
+        <v>1627000</v>
       </c>
       <c r="K41" s="3">
         <v>1791400</v>
@@ -3174,25 +3174,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>720700</v>
+        <v>758500</v>
       </c>
       <c r="E43" s="3">
-        <v>650200</v>
+        <v>684400</v>
       </c>
       <c r="F43" s="3">
-        <v>810400</v>
+        <v>853000</v>
       </c>
       <c r="G43" s="3">
-        <v>871500</v>
+        <v>917300</v>
       </c>
       <c r="H43" s="3">
-        <v>843900</v>
+        <v>888300</v>
       </c>
       <c r="I43" s="3">
-        <v>752700</v>
+        <v>792200</v>
       </c>
       <c r="J43" s="3">
-        <v>817700</v>
+        <v>860600</v>
       </c>
       <c r="K43" s="3">
         <v>853400</v>
@@ -3254,25 +3254,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5154800</v>
+        <v>5425600</v>
       </c>
       <c r="E44" s="3">
-        <v>4384700</v>
+        <v>4615000</v>
       </c>
       <c r="F44" s="3">
-        <v>4172300</v>
+        <v>4391500</v>
       </c>
       <c r="G44" s="3">
-        <v>4159600</v>
+        <v>4378100</v>
       </c>
       <c r="H44" s="3">
-        <v>4183400</v>
+        <v>4403200</v>
       </c>
       <c r="I44" s="3">
-        <v>3523200</v>
+        <v>3708200</v>
       </c>
       <c r="J44" s="3">
-        <v>3469500</v>
+        <v>3651800</v>
       </c>
       <c r="K44" s="3">
         <v>3433100</v>
@@ -3334,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66100</v>
+        <v>69500</v>
       </c>
       <c r="E45" s="3">
-        <v>63600</v>
+        <v>67000</v>
       </c>
       <c r="F45" s="3">
-        <v>38400</v>
+        <v>40400</v>
       </c>
       <c r="G45" s="3">
-        <v>44400</v>
+        <v>46700</v>
       </c>
       <c r="H45" s="3">
-        <v>56400</v>
+        <v>59300</v>
       </c>
       <c r="I45" s="3">
-        <v>43900</v>
+        <v>46200</v>
       </c>
       <c r="J45" s="3">
-        <v>55300</v>
+        <v>58200</v>
       </c>
       <c r="K45" s="3">
         <v>35200</v>
@@ -3414,25 +3414,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8677200</v>
+        <v>9132900</v>
       </c>
       <c r="E46" s="3">
-        <v>7612900</v>
+        <v>8012700</v>
       </c>
       <c r="F46" s="3">
-        <v>6836200</v>
+        <v>7195200</v>
       </c>
       <c r="G46" s="3">
-        <v>7292900</v>
+        <v>7676000</v>
       </c>
       <c r="H46" s="3">
-        <v>7584500</v>
+        <v>7982900</v>
       </c>
       <c r="I46" s="3">
-        <v>6484700</v>
+        <v>6825300</v>
       </c>
       <c r="J46" s="3">
-        <v>5888400</v>
+        <v>6197600</v>
       </c>
       <c r="K46" s="3">
         <v>6113000</v>
@@ -3494,25 +3494,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120700</v>
+        <v>127000</v>
       </c>
       <c r="E47" s="3">
-        <v>106900</v>
+        <v>112500</v>
       </c>
       <c r="F47" s="3">
-        <v>111900</v>
+        <v>117800</v>
       </c>
       <c r="G47" s="3">
-        <v>115100</v>
+        <v>121100</v>
       </c>
       <c r="H47" s="3">
-        <v>111600</v>
+        <v>117500</v>
       </c>
       <c r="I47" s="3">
-        <v>105000</v>
+        <v>110500</v>
       </c>
       <c r="J47" s="3">
-        <v>107100</v>
+        <v>112700</v>
       </c>
       <c r="K47" s="3">
         <v>102600</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10522700</v>
+        <v>11075300</v>
       </c>
       <c r="E48" s="3">
-        <v>10287800</v>
+        <v>10828100</v>
       </c>
       <c r="F48" s="3">
-        <v>10238100</v>
+        <v>10775800</v>
       </c>
       <c r="G48" s="3">
-        <v>10369300</v>
+        <v>10913900</v>
       </c>
       <c r="H48" s="3">
-        <v>10095600</v>
+        <v>10625800</v>
       </c>
       <c r="I48" s="3">
-        <v>9905800</v>
+        <v>10426000</v>
       </c>
       <c r="J48" s="3">
-        <v>9938400</v>
+        <v>10460300</v>
       </c>
       <c r="K48" s="3">
         <v>9614800</v>
@@ -3654,25 +3654,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2005600</v>
+        <v>2111000</v>
       </c>
       <c r="E49" s="3">
-        <v>1886300</v>
+        <v>1985300</v>
       </c>
       <c r="F49" s="3">
-        <v>1912400</v>
+        <v>2012800</v>
       </c>
       <c r="G49" s="3">
-        <v>2007300</v>
+        <v>2112700</v>
       </c>
       <c r="H49" s="3">
-        <v>2027100</v>
+        <v>2133600</v>
       </c>
       <c r="I49" s="3">
-        <v>1932900</v>
+        <v>2034400</v>
       </c>
       <c r="J49" s="3">
-        <v>2019300</v>
+        <v>2125400</v>
       </c>
       <c r="K49" s="3">
         <v>1885900</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>743800</v>
+        <v>782800</v>
       </c>
       <c r="E52" s="3">
-        <v>633700</v>
+        <v>667000</v>
       </c>
       <c r="F52" s="3">
-        <v>659600</v>
+        <v>694200</v>
       </c>
       <c r="G52" s="3">
-        <v>640900</v>
+        <v>674500</v>
       </c>
       <c r="H52" s="3">
-        <v>557700</v>
+        <v>586900</v>
       </c>
       <c r="I52" s="3">
-        <v>524300</v>
+        <v>551900</v>
       </c>
       <c r="J52" s="3">
-        <v>494000</v>
+        <v>519900</v>
       </c>
       <c r="K52" s="3">
         <v>457400</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22070000</v>
+        <v>23229100</v>
       </c>
       <c r="E54" s="3">
-        <v>20527600</v>
+        <v>21605700</v>
       </c>
       <c r="F54" s="3">
-        <v>19758100</v>
+        <v>20795800</v>
       </c>
       <c r="G54" s="3">
-        <v>20425400</v>
+        <v>21498200</v>
       </c>
       <c r="H54" s="3">
-        <v>20376500</v>
+        <v>21446700</v>
       </c>
       <c r="I54" s="3">
-        <v>18952700</v>
+        <v>19948100</v>
       </c>
       <c r="J54" s="3">
-        <v>18447100</v>
+        <v>19416000</v>
       </c>
       <c r="K54" s="3">
         <v>18173800</v>
@@ -4194,25 +4194,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4956600</v>
+        <v>5216900</v>
       </c>
       <c r="E57" s="3">
-        <v>4590800</v>
+        <v>4832000</v>
       </c>
       <c r="F57" s="3">
-        <v>4438500</v>
+        <v>4671600</v>
       </c>
       <c r="G57" s="3">
-        <v>5004900</v>
+        <v>5267700</v>
       </c>
       <c r="H57" s="3">
-        <v>4527400</v>
+        <v>4765200</v>
       </c>
       <c r="I57" s="3">
-        <v>4041700</v>
+        <v>4254000</v>
       </c>
       <c r="J57" s="3">
-        <v>4100600</v>
+        <v>4315900</v>
       </c>
       <c r="K57" s="3">
         <v>4638100</v>
@@ -4274,25 +4274,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>181600</v>
+        <v>191100</v>
       </c>
       <c r="E58" s="3">
-        <v>183500</v>
+        <v>193100</v>
       </c>
       <c r="F58" s="3">
-        <v>171700</v>
+        <v>180700</v>
       </c>
       <c r="G58" s="3">
-        <v>178100</v>
+        <v>187400</v>
       </c>
       <c r="H58" s="3">
-        <v>180600</v>
+        <v>190000</v>
       </c>
       <c r="I58" s="3">
-        <v>158300</v>
+        <v>166600</v>
       </c>
       <c r="J58" s="3">
-        <v>165900</v>
+        <v>174600</v>
       </c>
       <c r="K58" s="3">
         <v>161500</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3180300</v>
+        <v>3347400</v>
       </c>
       <c r="E59" s="3">
-        <v>2903500</v>
+        <v>3056000</v>
       </c>
       <c r="F59" s="3">
-        <v>1280300</v>
+        <v>1347500</v>
       </c>
       <c r="G59" s="3">
-        <v>1690000</v>
+        <v>1778800</v>
       </c>
       <c r="H59" s="3">
-        <v>2930100</v>
+        <v>3084000</v>
       </c>
       <c r="I59" s="3">
-        <v>2766700</v>
+        <v>2912000</v>
       </c>
       <c r="J59" s="3">
-        <v>2568100</v>
+        <v>2703000</v>
       </c>
       <c r="K59" s="3">
         <v>1380900</v>
@@ -4434,25 +4434,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8318600</v>
+        <v>8755500</v>
       </c>
       <c r="E60" s="3">
-        <v>7677800</v>
+        <v>8081100</v>
       </c>
       <c r="F60" s="3">
-        <v>5890400</v>
+        <v>6199800</v>
       </c>
       <c r="G60" s="3">
-        <v>6873000</v>
+        <v>7233900</v>
       </c>
       <c r="H60" s="3">
-        <v>7638100</v>
+        <v>8039200</v>
       </c>
       <c r="I60" s="3">
-        <v>6966700</v>
+        <v>7332600</v>
       </c>
       <c r="J60" s="3">
-        <v>6834600</v>
+        <v>7193500</v>
       </c>
       <c r="K60" s="3">
         <v>6180600</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3350900</v>
+        <v>3526900</v>
       </c>
       <c r="E61" s="3">
-        <v>3271900</v>
+        <v>3443800</v>
       </c>
       <c r="F61" s="3">
-        <v>3209100</v>
+        <v>3377700</v>
       </c>
       <c r="G61" s="3">
-        <v>3172300</v>
+        <v>3338900</v>
       </c>
       <c r="H61" s="3">
-        <v>3041600</v>
+        <v>3201300</v>
       </c>
       <c r="I61" s="3">
-        <v>3009000</v>
+        <v>3167000</v>
       </c>
       <c r="J61" s="3">
-        <v>2978700</v>
+        <v>3135100</v>
       </c>
       <c r="K61" s="3">
         <v>2838500</v>
@@ -4594,25 +4594,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>679800</v>
+        <v>715500</v>
       </c>
       <c r="E62" s="3">
-        <v>675600</v>
+        <v>711000</v>
       </c>
       <c r="F62" s="3">
-        <v>749400</v>
+        <v>788700</v>
       </c>
       <c r="G62" s="3">
-        <v>753300</v>
+        <v>792900</v>
       </c>
       <c r="H62" s="3">
-        <v>715100</v>
+        <v>752600</v>
       </c>
       <c r="I62" s="3">
-        <v>684200</v>
+        <v>720100</v>
       </c>
       <c r="J62" s="3">
-        <v>680100</v>
+        <v>715800</v>
       </c>
       <c r="K62" s="3">
         <v>661600</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12349300</v>
+        <v>12997900</v>
       </c>
       <c r="E66" s="3">
-        <v>11625300</v>
+        <v>12235900</v>
       </c>
       <c r="F66" s="3">
-        <v>9849000</v>
+        <v>10366200</v>
       </c>
       <c r="G66" s="3">
-        <v>10798600</v>
+        <v>11365700</v>
       </c>
       <c r="H66" s="3">
-        <v>11394700</v>
+        <v>11993200</v>
       </c>
       <c r="I66" s="3">
-        <v>10659900</v>
+        <v>11219800</v>
       </c>
       <c r="J66" s="3">
-        <v>10493300</v>
+        <v>11044500</v>
       </c>
       <c r="K66" s="3">
         <v>9680600</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6831700</v>
+        <v>7190500</v>
       </c>
       <c r="E72" s="3">
-        <v>6202700</v>
+        <v>6528500</v>
       </c>
       <c r="F72" s="3">
-        <v>7168800</v>
+        <v>7545300</v>
       </c>
       <c r="G72" s="3">
-        <v>6593400</v>
+        <v>6939700</v>
       </c>
       <c r="H72" s="3">
-        <v>5871200</v>
+        <v>6179600</v>
       </c>
       <c r="I72" s="3">
-        <v>5335500</v>
+        <v>5615700</v>
       </c>
       <c r="J72" s="3">
-        <v>4830200</v>
+        <v>5083900</v>
       </c>
       <c r="K72" s="3">
         <v>5592600</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9720600</v>
+        <v>10231200</v>
       </c>
       <c r="E76" s="3">
-        <v>8902300</v>
+        <v>9369800</v>
       </c>
       <c r="F76" s="3">
-        <v>9909200</v>
+        <v>10429600</v>
       </c>
       <c r="G76" s="3">
-        <v>9626800</v>
+        <v>10132400</v>
       </c>
       <c r="H76" s="3">
-        <v>8981800</v>
+        <v>9453500</v>
       </c>
       <c r="I76" s="3">
-        <v>8292800</v>
+        <v>8728300</v>
       </c>
       <c r="J76" s="3">
-        <v>7953800</v>
+        <v>8371500</v>
       </c>
       <c r="K76" s="3">
         <v>8493100</v>
@@ -5909,25 +5909,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>629400</v>
+        <v>662400</v>
       </c>
       <c r="E81" s="3">
-        <v>564100</v>
+        <v>593700</v>
       </c>
       <c r="F81" s="3">
-        <v>575300</v>
+        <v>605500</v>
       </c>
       <c r="G81" s="3">
-        <v>686500</v>
+        <v>722500</v>
       </c>
       <c r="H81" s="3">
-        <v>572200</v>
+        <v>602300</v>
       </c>
       <c r="I81" s="3">
-        <v>505700</v>
+        <v>532200</v>
       </c>
       <c r="J81" s="3">
-        <v>521500</v>
+        <v>548900</v>
       </c>
       <c r="K81" s="3">
         <v>632900</v>
@@ -6019,25 +6019,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>251700</v>
+        <v>264900</v>
       </c>
       <c r="E83" s="3">
-        <v>246500</v>
+        <v>259500</v>
       </c>
       <c r="F83" s="3">
-        <v>247900</v>
+        <v>260900</v>
       </c>
       <c r="G83" s="3">
-        <v>243800</v>
+        <v>256600</v>
       </c>
       <c r="H83" s="3">
-        <v>237100</v>
+        <v>249600</v>
       </c>
       <c r="I83" s="3">
-        <v>232300</v>
+        <v>244500</v>
       </c>
       <c r="J83" s="3">
-        <v>234800</v>
+        <v>247200</v>
       </c>
       <c r="K83" s="3">
         <v>224600</v>
@@ -6499,25 +6499,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>632000</v>
+        <v>665200</v>
       </c>
       <c r="E89" s="3">
-        <v>1083400</v>
+        <v>1140300</v>
       </c>
       <c r="F89" s="3">
-        <v>-195000</v>
+        <v>-205300</v>
       </c>
       <c r="G89" s="3">
-        <v>1697100</v>
+        <v>1786200</v>
       </c>
       <c r="H89" s="3">
-        <v>758400</v>
+        <v>798300</v>
       </c>
       <c r="I89" s="3">
-        <v>988300</v>
+        <v>1040200</v>
       </c>
       <c r="J89" s="3">
-        <v>-83600</v>
+        <v>-88000</v>
       </c>
       <c r="K89" s="3">
         <v>1731600</v>
@@ -6609,25 +6609,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-322100</v>
+        <v>-339000</v>
       </c>
       <c r="E91" s="3">
-        <v>-209100</v>
+        <v>-220100</v>
       </c>
       <c r="F91" s="3">
-        <v>-121900</v>
+        <v>-128300</v>
       </c>
       <c r="G91" s="3">
-        <v>-406100</v>
+        <v>-427400</v>
       </c>
       <c r="H91" s="3">
-        <v>-310300</v>
+        <v>-326600</v>
       </c>
       <c r="I91" s="3">
-        <v>-222600</v>
+        <v>-234300</v>
       </c>
       <c r="J91" s="3">
-        <v>-120900</v>
+        <v>-127300</v>
       </c>
       <c r="K91" s="3">
         <v>-335800</v>
@@ -6849,25 +6849,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-263700</v>
+        <v>-277600</v>
       </c>
       <c r="E94" s="3">
-        <v>-193400</v>
+        <v>-203600</v>
       </c>
       <c r="F94" s="3">
-        <v>-206300</v>
+        <v>-217100</v>
       </c>
       <c r="G94" s="3">
-        <v>-370000</v>
+        <v>-389400</v>
       </c>
       <c r="H94" s="3">
-        <v>-280800</v>
+        <v>-295500</v>
       </c>
       <c r="I94" s="3">
-        <v>-207100</v>
+        <v>-218000</v>
       </c>
       <c r="J94" s="3">
-        <v>-132900</v>
+        <v>-139900</v>
       </c>
       <c r="K94" s="3">
         <v>-308800</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1459900</v>
+        <v>-1536600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-133200</v>
+        <v>-140200</v>
       </c>
       <c r="E100" s="3">
-        <v>-127600</v>
+        <v>-134300</v>
       </c>
       <c r="F100" s="3">
-        <v>-126800</v>
+        <v>-133500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1585400</v>
+        <v>-1668700</v>
       </c>
       <c r="H100" s="3">
-        <v>-121100</v>
+        <v>-127500</v>
       </c>
       <c r="I100" s="3">
-        <v>-116600</v>
+        <v>-122800</v>
       </c>
       <c r="J100" s="3">
-        <v>-118700</v>
+        <v>-124900</v>
       </c>
       <c r="K100" s="3">
         <v>-1431400</v>
@@ -7359,25 +7359,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13800</v>
+        <v>-14500</v>
       </c>
       <c r="E101" s="3">
-        <v>-63100</v>
+        <v>-66400</v>
       </c>
       <c r="F101" s="3">
-        <v>125600</v>
+        <v>132200</v>
       </c>
       <c r="G101" s="3">
-        <v>-25000</v>
+        <v>-26300</v>
       </c>
       <c r="H101" s="3">
-        <v>-20700</v>
+        <v>-21700</v>
       </c>
       <c r="I101" s="3">
-        <v>-45500</v>
+        <v>-47900</v>
       </c>
       <c r="J101" s="3">
-        <v>33700</v>
+        <v>35500</v>
       </c>
       <c r="K101" s="3">
         <v>-125900</v>
@@ -7439,25 +7439,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>221300</v>
+        <v>232900</v>
       </c>
       <c r="E102" s="3">
-        <v>699300</v>
+        <v>736000</v>
       </c>
       <c r="F102" s="3">
-        <v>-402400</v>
+        <v>-423600</v>
       </c>
       <c r="G102" s="3">
-        <v>-283300</v>
+        <v>-298200</v>
       </c>
       <c r="H102" s="3">
-        <v>335800</v>
+        <v>353500</v>
       </c>
       <c r="I102" s="3">
-        <v>619100</v>
+        <v>651600</v>
       </c>
       <c r="J102" s="3">
-        <v>-301500</v>
+        <v>-317400</v>
       </c>
       <c r="K102" s="3">
         <v>-134500</v>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10786700</v>
+        <v>11641200</v>
       </c>
       <c r="E8" s="3">
-        <v>10663200</v>
+        <v>13434500</v>
       </c>
       <c r="F8" s="3">
-        <v>10239400</v>
+        <v>11178500</v>
       </c>
       <c r="G8" s="3">
-        <v>11696300</v>
+        <v>11050500</v>
       </c>
       <c r="H8" s="3">
-        <v>9596000</v>
+        <v>10611300</v>
       </c>
       <c r="I8" s="3">
+        <v>12121100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9944600</v>
+      </c>
+      <c r="K8" s="3">
         <v>9521500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9308000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9842500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8170100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8349900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8198300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9216600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7785000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>14805300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7576100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8090400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6651000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>7862800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>7776400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>8698500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>7080300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>7020300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>6856800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>8363100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8230000</v>
+        <v>8891500</v>
       </c>
       <c r="E9" s="3">
-        <v>8168300</v>
+        <v>10342500</v>
       </c>
       <c r="F9" s="3">
-        <v>7841500</v>
+        <v>8529000</v>
       </c>
       <c r="G9" s="3">
-        <v>8982300</v>
+        <v>8465000</v>
       </c>
       <c r="H9" s="3">
-        <v>7326100</v>
+        <v>8126300</v>
       </c>
       <c r="I9" s="3">
+        <v>9308600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7592200</v>
+      </c>
+      <c r="K9" s="3">
         <v>7306800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7139600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7565300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6238700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>6446300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>6329100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7126800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5950700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11448100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>5853600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>6245700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>5099100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>6076200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>5992600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>6786200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>5437300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>5420400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>5285300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>6525500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2556700</v>
+        <v>2749600</v>
       </c>
       <c r="E10" s="3">
-        <v>2494900</v>
+        <v>3092000</v>
       </c>
       <c r="F10" s="3">
-        <v>2397900</v>
+        <v>2649600</v>
       </c>
       <c r="G10" s="3">
-        <v>2714000</v>
+        <v>2585500</v>
       </c>
       <c r="H10" s="3">
-        <v>2269900</v>
+        <v>2485000</v>
       </c>
       <c r="I10" s="3">
+        <v>2812600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2352400</v>
+      </c>
+      <c r="K10" s="3">
         <v>2214700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2168400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2277300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1931300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1903600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1869200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2089800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1834400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>3357200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1722400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1844700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1551900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1786600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1783700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1912300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1643000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1599900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1571500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1837600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9898000</v>
+        <v>10661800</v>
       </c>
       <c r="E17" s="3">
-        <v>9824600</v>
+        <v>12282900</v>
       </c>
       <c r="F17" s="3">
-        <v>9370600</v>
+        <v>10257600</v>
       </c>
       <c r="G17" s="3">
-        <v>10668400</v>
+        <v>10181400</v>
       </c>
       <c r="H17" s="3">
-        <v>8753300</v>
+        <v>9711000</v>
       </c>
       <c r="I17" s="3">
+        <v>11056000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9071300</v>
+      </c>
+      <c r="K17" s="3">
         <v>8777300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8493600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8944900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7489200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7799100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7497800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8412800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7112900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>13624100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6960000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7378300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>6119400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>7303800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>7168700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>7984100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>6538800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>6520800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>6345000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>7691500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>888700</v>
+        <v>979400</v>
       </c>
       <c r="E18" s="3">
-        <v>838600</v>
+        <v>1151600</v>
       </c>
       <c r="F18" s="3">
-        <v>868700</v>
+        <v>921000</v>
       </c>
       <c r="G18" s="3">
-        <v>1027800</v>
+        <v>869100</v>
       </c>
       <c r="H18" s="3">
-        <v>842700</v>
+        <v>900300</v>
       </c>
       <c r="I18" s="3">
+        <v>1065200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>873300</v>
+      </c>
+      <c r="K18" s="3">
         <v>744200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>814400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>897700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>680900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>550800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>700500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>803800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>672100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1181200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>616100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>712200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>531600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>559000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>607600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>714500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>541500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>499500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>511900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>671600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,213 +1648,227 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>49600</v>
+        <v>30100</v>
       </c>
       <c r="E20" s="3">
-        <v>27200</v>
+        <v>49400</v>
       </c>
       <c r="F20" s="3">
-        <v>6600</v>
+        <v>51500</v>
       </c>
       <c r="G20" s="3">
-        <v>15200</v>
+        <v>28200</v>
       </c>
       <c r="H20" s="3">
-        <v>11500</v>
+        <v>6800</v>
       </c>
       <c r="I20" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K20" s="3">
         <v>24200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>20100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-103900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>216400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-66900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-50000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-5700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-16500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>10700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-6300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>7100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1203200</v>
+        <v>1290700</v>
       </c>
       <c r="E21" s="3">
-        <v>1125300</v>
+        <v>1480800</v>
       </c>
       <c r="F21" s="3">
-        <v>1136200</v>
+        <v>1246900</v>
       </c>
       <c r="G21" s="3">
-        <v>1299600</v>
+        <v>1166200</v>
       </c>
       <c r="H21" s="3">
-        <v>1103800</v>
+        <v>1177400</v>
       </c>
       <c r="I21" s="3">
+        <v>1346800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1143900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1012800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1057900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1142400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>910900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>673300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>909000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1238200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>820800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1483100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>771900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>859000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>654300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>734600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>768700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>866900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>685500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>637700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>651100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>828900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>97000</v>
+        <v>104500</v>
       </c>
       <c r="E22" s="3">
-        <v>94700</v>
+        <v>102800</v>
       </c>
       <c r="F22" s="3">
-        <v>93400</v>
+        <v>100500</v>
       </c>
       <c r="G22" s="3">
-        <v>90600</v>
+        <v>98100</v>
       </c>
       <c r="H22" s="3">
-        <v>87000</v>
+        <v>96800</v>
       </c>
       <c r="I22" s="3">
+        <v>93900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>90100</v>
+      </c>
+      <c r="K22" s="3">
         <v>87800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>87800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>80000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>80500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>80600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>74500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>285400</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1818,173 +1897,191 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
         <v>20700</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>841300</v>
+        <v>905000</v>
       </c>
       <c r="E23" s="3">
-        <v>771200</v>
+        <v>1098200</v>
       </c>
       <c r="F23" s="3">
-        <v>781900</v>
+        <v>871900</v>
       </c>
       <c r="G23" s="3">
-        <v>952400</v>
+        <v>799200</v>
       </c>
       <c r="H23" s="3">
-        <v>767300</v>
+        <v>810300</v>
       </c>
       <c r="I23" s="3">
+        <v>987000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>795100</v>
+      </c>
+      <c r="K23" s="3">
         <v>680500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>723000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>837800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>609400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>366300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>623500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>734800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>605200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1080700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>566100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>706400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>515100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>569700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>605600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>708200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>536200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>492400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>502100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>657900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>178900</v>
+        <v>254200</v>
       </c>
       <c r="E24" s="3">
-        <v>177400</v>
+        <v>261000</v>
       </c>
       <c r="F24" s="3">
-        <v>176400</v>
+        <v>185400</v>
       </c>
       <c r="G24" s="3">
-        <v>229900</v>
+        <v>183900</v>
       </c>
       <c r="H24" s="3">
-        <v>165000</v>
+        <v>182800</v>
       </c>
       <c r="I24" s="3">
+        <v>238200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>171000</v>
+      </c>
+      <c r="K24" s="3">
         <v>148300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>174100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>204900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>156300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>284100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>145100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>177500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>140600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>238300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>133500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>170100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>124400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>143000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>158000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>161000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>122300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>143500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>136900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>158600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>662400</v>
+        <v>650700</v>
       </c>
       <c r="E26" s="3">
-        <v>593700</v>
+        <v>837200</v>
       </c>
       <c r="F26" s="3">
-        <v>605500</v>
+        <v>686500</v>
       </c>
       <c r="G26" s="3">
-        <v>722500</v>
+        <v>615300</v>
       </c>
       <c r="H26" s="3">
-        <v>602300</v>
+        <v>627500</v>
       </c>
       <c r="I26" s="3">
+        <v>748700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>624200</v>
+      </c>
+      <c r="K26" s="3">
         <v>532200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>548900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>632900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>453100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>82100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>478400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>557300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>464600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>842400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>432600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>536300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>390800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>426700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>447600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>547200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>413900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>348900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>365200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>499400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>662400</v>
+        <v>650700</v>
       </c>
       <c r="E27" s="3">
-        <v>593700</v>
+        <v>837200</v>
       </c>
       <c r="F27" s="3">
-        <v>605500</v>
+        <v>686500</v>
       </c>
       <c r="G27" s="3">
-        <v>722500</v>
+        <v>615300</v>
       </c>
       <c r="H27" s="3">
-        <v>602300</v>
+        <v>627500</v>
       </c>
       <c r="I27" s="3">
+        <v>748700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>624200</v>
+      </c>
+      <c r="K27" s="3">
         <v>532200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>548900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>632900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>453100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>82100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>478400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>557300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>464600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>842400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>432600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>536300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>390800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>426700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>447600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>547200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>413900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>348900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>365200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>499600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2369,22 +2490,28 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>34800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>348200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>3600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>52700</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-49600</v>
+        <v>-30100</v>
       </c>
       <c r="E32" s="3">
-        <v>-27200</v>
+        <v>-49400</v>
       </c>
       <c r="F32" s="3">
-        <v>-6600</v>
+        <v>-51500</v>
       </c>
       <c r="G32" s="3">
-        <v>-15200</v>
+        <v>-28200</v>
       </c>
       <c r="H32" s="3">
-        <v>-11500</v>
+        <v>-6800</v>
       </c>
       <c r="I32" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-24200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-20100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>103900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-216400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>66900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>100500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>50000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>5700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>16500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-10700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>6300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>5300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>7000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>9700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-7100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>662400</v>
+        <v>650700</v>
       </c>
       <c r="E33" s="3">
-        <v>593700</v>
+        <v>837200</v>
       </c>
       <c r="F33" s="3">
-        <v>605500</v>
+        <v>686500</v>
       </c>
       <c r="G33" s="3">
-        <v>722500</v>
+        <v>615300</v>
       </c>
       <c r="H33" s="3">
-        <v>602300</v>
+        <v>627500</v>
       </c>
       <c r="I33" s="3">
+        <v>748700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>624200</v>
+      </c>
+      <c r="K33" s="3">
         <v>532200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>548900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>632900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>453100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>82100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>478400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>557300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>464600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>842400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>432600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>536300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>390800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>426700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>447600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>547200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>448800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>697100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>368800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>552200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>662400</v>
+        <v>650700</v>
       </c>
       <c r="E35" s="3">
-        <v>593700</v>
+        <v>837200</v>
       </c>
       <c r="F35" s="3">
-        <v>605500</v>
+        <v>686500</v>
       </c>
       <c r="G35" s="3">
-        <v>722500</v>
+        <v>615300</v>
       </c>
       <c r="H35" s="3">
-        <v>602300</v>
+        <v>627500</v>
       </c>
       <c r="I35" s="3">
+        <v>748700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>624200</v>
+      </c>
+      <c r="K35" s="3">
         <v>532200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>548900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>632900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>453100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>82100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>478400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>557300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>464600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>842400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>432600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>536300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>390800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>426700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>447600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>547200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>448800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>697100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>368800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>552200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2879300</v>
+        <v>2631800</v>
       </c>
       <c r="E41" s="3">
-        <v>2646400</v>
+        <v>2679200</v>
       </c>
       <c r="F41" s="3">
-        <v>1910300</v>
+        <v>2983900</v>
       </c>
       <c r="G41" s="3">
-        <v>2333900</v>
+        <v>2742500</v>
       </c>
       <c r="H41" s="3">
-        <v>2632100</v>
+        <v>1979700</v>
       </c>
       <c r="I41" s="3">
+        <v>2418700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2727700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2278600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1627000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1791400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1894400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1521800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1813000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1531100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1032300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1286800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1473500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1770600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1488100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1622000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1819400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1841000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1367700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>826200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>919400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1485500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3138,23 +3317,23 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>7600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>9600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>8700</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>8</v>
@@ -3168,568 +3347,616 @@
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>758500</v>
+        <v>784800</v>
       </c>
       <c r="E43" s="3">
-        <v>684400</v>
+        <v>944500</v>
       </c>
       <c r="F43" s="3">
-        <v>853000</v>
+        <v>786100</v>
       </c>
       <c r="G43" s="3">
-        <v>917300</v>
+        <v>709200</v>
       </c>
       <c r="H43" s="3">
-        <v>888300</v>
+        <v>884000</v>
       </c>
       <c r="I43" s="3">
+        <v>950600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>920500</v>
+      </c>
+      <c r="K43" s="3">
         <v>792200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>860600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>853400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>654800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>682600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>672500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>680600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>539400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>537800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>565500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>548800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>418800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>462300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>390300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>560400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>393700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>361100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>361800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>715300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5425600</v>
+        <v>5116900</v>
       </c>
       <c r="E44" s="3">
-        <v>4615000</v>
+        <v>5053700</v>
       </c>
       <c r="F44" s="3">
-        <v>4391500</v>
+        <v>5622600</v>
       </c>
       <c r="G44" s="3">
-        <v>4378100</v>
+        <v>4782600</v>
       </c>
       <c r="H44" s="3">
-        <v>4403200</v>
+        <v>4551000</v>
       </c>
       <c r="I44" s="3">
+        <v>4537100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4563100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3708200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3651800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3433100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3550500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3193300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3036900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3352000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3446200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2917100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2947500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2888500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>2732200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>3084200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2919100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>3075400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2976400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2675600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>2772500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>2849600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69500</v>
+        <v>43500</v>
       </c>
       <c r="E45" s="3">
-        <v>67000</v>
+        <v>52200</v>
       </c>
       <c r="F45" s="3">
-        <v>40400</v>
+        <v>72100</v>
       </c>
       <c r="G45" s="3">
-        <v>46700</v>
+        <v>69400</v>
       </c>
       <c r="H45" s="3">
-        <v>59300</v>
+        <v>41900</v>
       </c>
       <c r="I45" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K45" s="3">
         <v>46200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>58200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>35200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>64100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>57200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>58600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>88200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>45400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>76000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>60400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>64100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>49800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>66900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>48500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>50800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>39600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>43600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>649000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>667100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9132900</v>
+        <v>8576900</v>
       </c>
       <c r="E46" s="3">
-        <v>8012700</v>
+        <v>8729600</v>
       </c>
       <c r="F46" s="3">
-        <v>7195200</v>
+        <v>9464700</v>
       </c>
       <c r="G46" s="3">
-        <v>7676000</v>
+        <v>8303800</v>
       </c>
       <c r="H46" s="3">
-        <v>7982900</v>
+        <v>7456600</v>
       </c>
       <c r="I46" s="3">
+        <v>7954800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8272900</v>
+      </c>
+      <c r="K46" s="3">
         <v>6825300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6197600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6113000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6163800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5454800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5581000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5652000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5063300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4817700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5046900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5272000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4696400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5245000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5186000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5527600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4777400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3906500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>4702600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>5523600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>127000</v>
+        <v>106800</v>
       </c>
       <c r="E47" s="3">
-        <v>112500</v>
+        <v>131000</v>
       </c>
       <c r="F47" s="3">
-        <v>117800</v>
+        <v>131600</v>
       </c>
       <c r="G47" s="3">
-        <v>121100</v>
+        <v>116600</v>
       </c>
       <c r="H47" s="3">
-        <v>117500</v>
+        <v>122000</v>
       </c>
       <c r="I47" s="3">
+        <v>125500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>121700</v>
+      </c>
+      <c r="K47" s="3">
         <v>110500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>112700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>102600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>111700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>113800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>109100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>91100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>107100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>108800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>107500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>101500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>94300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>109100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>99000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>105900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>79200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>73500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>79900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>99800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11075300</v>
+        <v>11672600</v>
       </c>
       <c r="E48" s="3">
-        <v>10828100</v>
+        <v>11785800</v>
       </c>
       <c r="F48" s="3">
-        <v>10775800</v>
+        <v>11477600</v>
       </c>
       <c r="G48" s="3">
-        <v>10913900</v>
+        <v>11221400</v>
       </c>
       <c r="H48" s="3">
-        <v>10625800</v>
+        <v>11167200</v>
       </c>
       <c r="I48" s="3">
+        <v>11310300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>11011700</v>
+      </c>
+      <c r="K48" s="3">
         <v>10426000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10460300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9614800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9590600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9639500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>9454700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>9350300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>9317000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8669300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>8851900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6576500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6296400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>7530400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>7347300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>7245000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>6959000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>6874900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>6833900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>7240200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2111000</v>
+        <v>2205400</v>
       </c>
       <c r="E49" s="3">
-        <v>1985300</v>
+        <v>2215400</v>
       </c>
       <c r="F49" s="3">
-        <v>2012800</v>
+        <v>2187700</v>
       </c>
       <c r="G49" s="3">
-        <v>2112700</v>
+        <v>2057400</v>
       </c>
       <c r="H49" s="3">
-        <v>2133600</v>
+        <v>2085900</v>
       </c>
       <c r="I49" s="3">
+        <v>2189400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2211100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2034400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2125400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1885900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2095200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2214900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2189800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1840100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1908900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1796200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1838400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1687100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1686800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2133700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1954500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2036100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1886700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1864000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1933200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2195100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>782800</v>
+        <v>797900</v>
       </c>
       <c r="E52" s="3">
-        <v>667000</v>
+        <v>796700</v>
       </c>
       <c r="F52" s="3">
-        <v>694200</v>
+        <v>811300</v>
       </c>
       <c r="G52" s="3">
-        <v>674500</v>
+        <v>691200</v>
       </c>
       <c r="H52" s="3">
-        <v>586900</v>
+        <v>719400</v>
       </c>
       <c r="I52" s="3">
+        <v>699000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>608300</v>
+      </c>
+      <c r="K52" s="3">
         <v>551900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>519900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>457400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>377700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>361700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>337000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>392400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>419300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>385000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>379800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>340500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>374600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>355100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>385300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>356000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>291600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>265500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>226800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>249600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23229100</v>
+        <v>23359700</v>
       </c>
       <c r="E54" s="3">
-        <v>21605700</v>
+        <v>23658500</v>
       </c>
       <c r="F54" s="3">
-        <v>20795800</v>
+        <v>24072800</v>
       </c>
       <c r="G54" s="3">
-        <v>21498200</v>
+        <v>22390500</v>
       </c>
       <c r="H54" s="3">
-        <v>21446700</v>
+        <v>21551200</v>
       </c>
       <c r="I54" s="3">
+        <v>22279100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>22225700</v>
+      </c>
+      <c r="K54" s="3">
         <v>19948100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>19416000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18173800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>18339000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>17784700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>17671700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17325900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>16815500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>15776900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>16224400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>13977700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>13148400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>15373400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>14972000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>15270600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>13993900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>12984500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>13776500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>15308300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5216900</v>
+        <v>5253500</v>
       </c>
       <c r="E57" s="3">
-        <v>4832000</v>
+        <v>5661100</v>
       </c>
       <c r="F57" s="3">
-        <v>4671600</v>
+        <v>5406400</v>
       </c>
       <c r="G57" s="3">
-        <v>5267700</v>
+        <v>5007500</v>
       </c>
       <c r="H57" s="3">
-        <v>4765200</v>
+        <v>4841300</v>
       </c>
       <c r="I57" s="3">
+        <v>5459100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4938300</v>
+      </c>
+      <c r="K57" s="3">
         <v>4254000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4315900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4638100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3945700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3784100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3892600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4322700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3763100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3524800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3632700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3890900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3274300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3722700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3686100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>4142700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3310400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2747300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>2862000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>3500300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>191100</v>
+        <v>195800</v>
       </c>
       <c r="E58" s="3">
-        <v>193100</v>
+        <v>198400</v>
       </c>
       <c r="F58" s="3">
-        <v>180700</v>
+        <v>198100</v>
       </c>
       <c r="G58" s="3">
-        <v>187400</v>
+        <v>200200</v>
       </c>
       <c r="H58" s="3">
-        <v>190000</v>
+        <v>187300</v>
       </c>
       <c r="I58" s="3">
+        <v>194200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>196900</v>
+      </c>
+      <c r="K58" s="3">
         <v>166600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>174600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>161500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>159500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>154900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>145400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>151100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>152200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>144300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>148500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>14100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>13300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>15800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>16800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>19700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>21000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>23100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>26200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>28300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3347400</v>
+        <v>4205700</v>
       </c>
       <c r="E59" s="3">
-        <v>3056000</v>
+        <v>1918400</v>
       </c>
       <c r="F59" s="3">
-        <v>1347500</v>
+        <v>3469000</v>
       </c>
       <c r="G59" s="3">
-        <v>1778800</v>
+        <v>3167000</v>
       </c>
       <c r="H59" s="3">
-        <v>3084000</v>
+        <v>1396500</v>
       </c>
       <c r="I59" s="3">
+        <v>1843400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3196000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2912000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2703000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1380900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2449100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2367000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2494300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1158100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1657200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1937600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2485200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1301000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1655600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2137400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2567100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1414400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1668500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1709800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>3197300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1479700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8755500</v>
+        <v>9655000</v>
       </c>
       <c r="E60" s="3">
-        <v>8081100</v>
+        <v>7777900</v>
       </c>
       <c r="F60" s="3">
-        <v>6199800</v>
+        <v>9073500</v>
       </c>
       <c r="G60" s="3">
-        <v>7233900</v>
+        <v>8374600</v>
       </c>
       <c r="H60" s="3">
-        <v>8039200</v>
+        <v>6425000</v>
       </c>
       <c r="I60" s="3">
+        <v>7496700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8331200</v>
+      </c>
+      <c r="K60" s="3">
         <v>7332600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7193500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6180600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6554300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6306000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6532300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5631800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5572500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5606700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6266300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5205900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4943200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5875900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6270000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5576800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>4999800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4480200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>6085500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>5008300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3526900</v>
+        <v>3758600</v>
       </c>
       <c r="E61" s="3">
-        <v>3443800</v>
+        <v>3746800</v>
       </c>
       <c r="F61" s="3">
-        <v>3377700</v>
+        <v>3655000</v>
       </c>
       <c r="G61" s="3">
-        <v>3338900</v>
+        <v>3568900</v>
       </c>
       <c r="H61" s="3">
-        <v>3201300</v>
+        <v>3500400</v>
       </c>
       <c r="I61" s="3">
+        <v>3460200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3317600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3167000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3135100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2838500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2830100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2827300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2750300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2687800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2634800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2410800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2439000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>646000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>640200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>772600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>751700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>709900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>694900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>680000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>671600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>694400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>715500</v>
+        <v>655100</v>
       </c>
       <c r="E62" s="3">
-        <v>711000</v>
+        <v>696400</v>
       </c>
       <c r="F62" s="3">
-        <v>788700</v>
+        <v>741500</v>
       </c>
       <c r="G62" s="3">
-        <v>792900</v>
+        <v>736900</v>
       </c>
       <c r="H62" s="3">
-        <v>752600</v>
+        <v>817400</v>
       </c>
       <c r="I62" s="3">
+        <v>821700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>780000</v>
+      </c>
+      <c r="K62" s="3">
         <v>720100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>715800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>661600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>694700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>626200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>596100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>662900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>568300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>561300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>574800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>605700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>690200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>740600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>762200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>732800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>853400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>886100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>668600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>736500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12997900</v>
+        <v>14068700</v>
       </c>
       <c r="E66" s="3">
-        <v>12235900</v>
+        <v>12221000</v>
       </c>
       <c r="F66" s="3">
-        <v>10366200</v>
+        <v>13470000</v>
       </c>
       <c r="G66" s="3">
-        <v>11365700</v>
+        <v>12680300</v>
       </c>
       <c r="H66" s="3">
-        <v>11993200</v>
+        <v>10742800</v>
       </c>
       <c r="I66" s="3">
+        <v>11778600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>12428800</v>
+      </c>
+      <c r="K66" s="3">
         <v>11219800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11044500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9680600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10079100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9759600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9878700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8982600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8775600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8578800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9280100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6457600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6273600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7389100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7783900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7019500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6548100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6046300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>7425700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6439200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7190500</v>
+        <v>6316800</v>
       </c>
       <c r="E72" s="3">
-        <v>6528500</v>
+        <v>8288600</v>
       </c>
       <c r="F72" s="3">
-        <v>7545300</v>
+        <v>7451700</v>
       </c>
       <c r="G72" s="3">
-        <v>6939700</v>
+        <v>6765600</v>
       </c>
       <c r="H72" s="3">
-        <v>6179600</v>
+        <v>7819300</v>
       </c>
       <c r="I72" s="3">
+        <v>7191800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6404000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5615700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5083900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5592600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4878800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4426000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4208200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5401600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4939900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4310800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>4010800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4771500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>4180500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4514300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>4089200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>4986500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>4439600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>3991400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>3295400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>5291400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10231200</v>
+        <v>9291000</v>
       </c>
       <c r="E76" s="3">
-        <v>9369800</v>
+        <v>11437400</v>
       </c>
       <c r="F76" s="3">
-        <v>10429600</v>
+        <v>10602800</v>
       </c>
       <c r="G76" s="3">
-        <v>10132400</v>
+        <v>9710200</v>
       </c>
       <c r="H76" s="3">
-        <v>9453500</v>
+        <v>10808500</v>
       </c>
       <c r="I76" s="3">
+        <v>10500500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9796900</v>
+      </c>
+      <c r="K76" s="3">
         <v>8728300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8371500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8493100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8260000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8025100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7793000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8343300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8039900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7198100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6944300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7520100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6874800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7984200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>7188100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>8251100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>7445700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6938200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>6350800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>8869100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>662400</v>
+        <v>650700</v>
       </c>
       <c r="E81" s="3">
-        <v>593700</v>
+        <v>837200</v>
       </c>
       <c r="F81" s="3">
-        <v>605500</v>
+        <v>686500</v>
       </c>
       <c r="G81" s="3">
-        <v>722500</v>
+        <v>615300</v>
       </c>
       <c r="H81" s="3">
-        <v>602300</v>
+        <v>627500</v>
       </c>
       <c r="I81" s="3">
+        <v>748700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>624200</v>
+      </c>
+      <c r="K81" s="3">
         <v>532200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>548900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>632900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>453100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>82100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>478400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>557300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>464600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>842400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>432600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>536300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>390800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>426700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>447600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>547200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>448800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>697100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>368800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>552200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>264900</v>
+        <v>281300</v>
       </c>
       <c r="E83" s="3">
-        <v>259500</v>
+        <v>279800</v>
       </c>
       <c r="F83" s="3">
-        <v>260900</v>
+        <v>274500</v>
       </c>
       <c r="G83" s="3">
-        <v>256600</v>
+        <v>268900</v>
       </c>
       <c r="H83" s="3">
-        <v>249600</v>
+        <v>270400</v>
       </c>
       <c r="I83" s="3">
+        <v>266000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>258700</v>
+      </c>
+      <c r="K83" s="3">
         <v>244500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>247200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>224600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>221000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>226500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>211000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>217900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>215600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>402300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>205800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>152600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>139200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>164900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>163200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>158700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>149300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>145300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>149000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>150200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>665200</v>
+        <v>378800</v>
       </c>
       <c r="E89" s="3">
-        <v>1140300</v>
+        <v>1983500</v>
       </c>
       <c r="F89" s="3">
-        <v>-205300</v>
+        <v>689400</v>
       </c>
       <c r="G89" s="3">
-        <v>1786200</v>
+        <v>1181700</v>
       </c>
       <c r="H89" s="3">
-        <v>798300</v>
+        <v>-212700</v>
       </c>
       <c r="I89" s="3">
+        <v>1851100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>827300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1040200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-88000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1731600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>712600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>134300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>466500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1424900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>620100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>788100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>138400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1116100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>624300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>287000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>205600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1218100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>895800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>588900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-164100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>1324000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-339000</v>
+        <v>-2544000</v>
       </c>
       <c r="E91" s="3">
-        <v>-220100</v>
+        <v>-8693900</v>
       </c>
       <c r="F91" s="3">
-        <v>-128300</v>
+        <v>-6219400</v>
       </c>
       <c r="G91" s="3">
-        <v>-427400</v>
+        <v>-4037300</v>
       </c>
       <c r="H91" s="3">
-        <v>-326600</v>
+        <v>-2353100</v>
       </c>
       <c r="I91" s="3">
+        <v>-7841100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-5992400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-234300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-127300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-335800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-227600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-151900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-112900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-305600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-338500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-371300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-159500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-326900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-235600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-197400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-99100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-348500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-230500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-197600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-124700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-277600</v>
+        <v>-232300</v>
       </c>
       <c r="E94" s="3">
-        <v>-203600</v>
+        <v>-424100</v>
       </c>
       <c r="F94" s="3">
-        <v>-217100</v>
+        <v>-287700</v>
       </c>
       <c r="G94" s="3">
-        <v>-389400</v>
+        <v>-211000</v>
       </c>
       <c r="H94" s="3">
-        <v>-295500</v>
+        <v>-225000</v>
       </c>
       <c r="I94" s="3">
+        <v>-403500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-306300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-218000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-139900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-308800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-207200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-123600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-176300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-284400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-320700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-365900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-203400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-301200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-206200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-140400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-89100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-314300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-171700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>866900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-178000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-247400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6968,73 +7435,79 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1536600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1592400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1319200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-230400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-463400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-503600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-802500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-284900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-504800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-225700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-361100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-148100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-473200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-142700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-124800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-568100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7758,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-140200</v>
+        <v>-150400</v>
       </c>
       <c r="E100" s="3">
-        <v>-134300</v>
+        <v>-1816600</v>
       </c>
       <c r="F100" s="3">
-        <v>-133500</v>
+        <v>-145300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1668700</v>
+        <v>-139100</v>
       </c>
       <c r="H100" s="3">
-        <v>-127500</v>
+        <v>-138300</v>
       </c>
       <c r="I100" s="3">
+        <v>-1729300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-132100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-122800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-124900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1431400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-113200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-338800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-98100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-567400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-605800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-993300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-379800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-522400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-242800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-381700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-170000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-494500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-167100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-145400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-591300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14500</v>
+        <v>-43500</v>
       </c>
       <c r="E101" s="3">
-        <v>-66400</v>
+        <v>-47600</v>
       </c>
       <c r="F101" s="3">
-        <v>132200</v>
+        <v>-15000</v>
       </c>
       <c r="G101" s="3">
-        <v>-26300</v>
+        <v>-68800</v>
       </c>
       <c r="H101" s="3">
-        <v>-21700</v>
+        <v>137000</v>
       </c>
       <c r="I101" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-47900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>35500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-125900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-44000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-15100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>161600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-25600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-20300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-20500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-29400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-49100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>37700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-35300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>29600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-26900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-39900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>29200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>232900</v>
+        <v>-47300</v>
       </c>
       <c r="E102" s="3">
-        <v>736000</v>
+        <v>-304700</v>
       </c>
       <c r="F102" s="3">
-        <v>-423600</v>
+        <v>241400</v>
       </c>
       <c r="G102" s="3">
-        <v>-298200</v>
+        <v>762800</v>
       </c>
       <c r="H102" s="3">
-        <v>353500</v>
+        <v>-439000</v>
       </c>
       <c r="I102" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>366300</v>
+      </c>
+      <c r="K102" s="3">
         <v>651600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-317400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-134500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>372600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-350000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>336500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>511200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-303700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-591400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-465200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>263000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>126200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-197400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-88900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>473300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>541400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-93200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-527500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>503000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11641200</v>
+        <v>12552100</v>
       </c>
       <c r="E8" s="3">
-        <v>13434500</v>
+        <v>12102800</v>
       </c>
       <c r="F8" s="3">
-        <v>11178500</v>
+        <v>13967200</v>
       </c>
       <c r="G8" s="3">
-        <v>11050500</v>
+        <v>11621800</v>
       </c>
       <c r="H8" s="3">
-        <v>10611300</v>
+        <v>11488700</v>
       </c>
       <c r="I8" s="3">
-        <v>12121100</v>
+        <v>11032100</v>
       </c>
       <c r="J8" s="3">
+        <v>12601800</v>
+      </c>
+      <c r="K8" s="3">
         <v>9944600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9521500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9308000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9842500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8170100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8349900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8198300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9216600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7785000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14805300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7576100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8090400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6651000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7862800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7776400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8698500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7080300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7020300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6856800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8363100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8891500</v>
+        <v>9626000</v>
       </c>
       <c r="E9" s="3">
-        <v>10342500</v>
+        <v>9244100</v>
       </c>
       <c r="F9" s="3">
-        <v>8529000</v>
+        <v>10752600</v>
       </c>
       <c r="G9" s="3">
-        <v>8465000</v>
+        <v>8867200</v>
       </c>
       <c r="H9" s="3">
-        <v>8126300</v>
+        <v>8800600</v>
       </c>
       <c r="I9" s="3">
-        <v>9308600</v>
+        <v>8448600</v>
       </c>
       <c r="J9" s="3">
+        <v>9677700</v>
+      </c>
+      <c r="K9" s="3">
         <v>7592200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7306800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7139600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7565300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6238700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6446300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6329100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7126800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5950700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11448100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5853600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6245700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5099100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6076200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5992600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6786200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5437300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5420400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5285300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6525500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2749600</v>
+        <v>2926000</v>
       </c>
       <c r="E10" s="3">
-        <v>3092000</v>
+        <v>2858700</v>
       </c>
       <c r="F10" s="3">
-        <v>2649600</v>
+        <v>3214600</v>
       </c>
       <c r="G10" s="3">
-        <v>2585500</v>
+        <v>2754600</v>
       </c>
       <c r="H10" s="3">
-        <v>2485000</v>
+        <v>2688100</v>
       </c>
       <c r="I10" s="3">
-        <v>2812600</v>
+        <v>2583500</v>
       </c>
       <c r="J10" s="3">
+        <v>2924100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2352400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2214700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2168400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2277300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1931300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1903600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1869200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2089800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1834400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3357200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1722400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1844700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1551900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1786600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1783700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1912300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1643000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1599900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1571500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1837600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10661800</v>
+        <v>11563200</v>
       </c>
       <c r="E17" s="3">
-        <v>12282900</v>
+        <v>11084600</v>
       </c>
       <c r="F17" s="3">
-        <v>10257600</v>
+        <v>12770000</v>
       </c>
       <c r="G17" s="3">
-        <v>10181400</v>
+        <v>10664300</v>
       </c>
       <c r="H17" s="3">
-        <v>9711000</v>
+        <v>10585100</v>
       </c>
       <c r="I17" s="3">
-        <v>11056000</v>
+        <v>10096100</v>
       </c>
       <c r="J17" s="3">
+        <v>11494400</v>
+      </c>
+      <c r="K17" s="3">
         <v>9071300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8777300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8493600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8944900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7489200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7799100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7497800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8412800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7112900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13624100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6960000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7378300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6119400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7303800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7168700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7984100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6538800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6520800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6345000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7691500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>979400</v>
+        <v>988900</v>
       </c>
       <c r="E18" s="3">
-        <v>1151600</v>
+        <v>1018200</v>
       </c>
       <c r="F18" s="3">
-        <v>921000</v>
+        <v>1197300</v>
       </c>
       <c r="G18" s="3">
-        <v>869100</v>
+        <v>957500</v>
       </c>
       <c r="H18" s="3">
-        <v>900300</v>
+        <v>903600</v>
       </c>
       <c r="I18" s="3">
-        <v>1065200</v>
+        <v>936000</v>
       </c>
       <c r="J18" s="3">
+        <v>1107400</v>
+      </c>
+      <c r="K18" s="3">
         <v>873300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>744200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>814400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>897700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>680900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>550800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>803800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>672100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1181200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>616100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>712200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>531600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>559000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>607600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>714500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>541500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>499500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>511900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>671600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,228 +1683,235 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30100</v>
+        <v>42700</v>
       </c>
       <c r="E20" s="3">
-        <v>49400</v>
+        <v>31200</v>
       </c>
       <c r="F20" s="3">
-        <v>51500</v>
+        <v>51400</v>
       </c>
       <c r="G20" s="3">
-        <v>28200</v>
+        <v>53500</v>
       </c>
       <c r="H20" s="3">
-        <v>6800</v>
+        <v>29300</v>
       </c>
       <c r="I20" s="3">
-        <v>15700</v>
+        <v>7100</v>
       </c>
       <c r="J20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K20" s="3">
         <v>11900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-103900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>216400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-66900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-50000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-16500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>10700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>7100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1290700</v>
+        <v>1326800</v>
       </c>
       <c r="E21" s="3">
-        <v>1480800</v>
+        <v>1341900</v>
       </c>
       <c r="F21" s="3">
-        <v>1246900</v>
+        <v>1539600</v>
       </c>
       <c r="G21" s="3">
-        <v>1166200</v>
+        <v>1296400</v>
       </c>
       <c r="H21" s="3">
-        <v>1177400</v>
+        <v>1212400</v>
       </c>
       <c r="I21" s="3">
-        <v>1346800</v>
+        <v>1224100</v>
       </c>
       <c r="J21" s="3">
+        <v>1400200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1143900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1012800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1057900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1142400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>910900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>673300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>909000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1238200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>820800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1483100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>771900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>859000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>654300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>734600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>768700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>866900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>685500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>637700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>651100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>828900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>108600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>106900</v>
+      </c>
+      <c r="G22" s="3">
         <v>104500</v>
       </c>
-      <c r="E22" s="3">
-        <v>102800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>98100</v>
-      </c>
       <c r="H22" s="3">
-        <v>96800</v>
+        <v>102000</v>
       </c>
       <c r="I22" s="3">
-        <v>93900</v>
+        <v>100600</v>
       </c>
       <c r="J22" s="3">
+        <v>97600</v>
+      </c>
+      <c r="K22" s="3">
         <v>90100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>87800</v>
       </c>
       <c r="L22" s="3">
         <v>87800</v>
       </c>
       <c r="M22" s="3">
+        <v>87800</v>
+      </c>
+      <c r="N22" s="3">
         <v>80000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>80500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>80600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>74500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>285400</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1903,185 +1943,194 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
         <v>20700</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>905000</v>
+        <v>921100</v>
       </c>
       <c r="E23" s="3">
-        <v>1098200</v>
+        <v>940800</v>
       </c>
       <c r="F23" s="3">
-        <v>871900</v>
+        <v>1141700</v>
       </c>
       <c r="G23" s="3">
-        <v>799200</v>
+        <v>906500</v>
       </c>
       <c r="H23" s="3">
-        <v>810300</v>
+        <v>830900</v>
       </c>
       <c r="I23" s="3">
-        <v>987000</v>
+        <v>842400</v>
       </c>
       <c r="J23" s="3">
+        <v>1026100</v>
+      </c>
+      <c r="K23" s="3">
         <v>795100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>680500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>723000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>837800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>609400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>366300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>623500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>734800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>605200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1080700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>566100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>706400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>515100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>569700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>605600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>708200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>536200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>492400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>502100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>657900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>254200</v>
+        <v>249000</v>
       </c>
       <c r="E24" s="3">
-        <v>261000</v>
+        <v>264300</v>
       </c>
       <c r="F24" s="3">
-        <v>185400</v>
+        <v>271300</v>
       </c>
       <c r="G24" s="3">
-        <v>183900</v>
+        <v>192800</v>
       </c>
       <c r="H24" s="3">
-        <v>182800</v>
+        <v>191200</v>
       </c>
       <c r="I24" s="3">
-        <v>238200</v>
+        <v>190000</v>
       </c>
       <c r="J24" s="3">
+        <v>247700</v>
+      </c>
+      <c r="K24" s="3">
         <v>171000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>148300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>174100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>204900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>156300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>284100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>145100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>177500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>140600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>238300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>133500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>170100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>124400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>143000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>158000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>161000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>122300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>143500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>136900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>158600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>650700</v>
+        <v>672100</v>
       </c>
       <c r="E26" s="3">
-        <v>837200</v>
+        <v>676500</v>
       </c>
       <c r="F26" s="3">
-        <v>686500</v>
+        <v>870400</v>
       </c>
       <c r="G26" s="3">
-        <v>615300</v>
+        <v>713700</v>
       </c>
       <c r="H26" s="3">
-        <v>627500</v>
+        <v>639700</v>
       </c>
       <c r="I26" s="3">
-        <v>748700</v>
+        <v>652400</v>
       </c>
       <c r="J26" s="3">
+        <v>778400</v>
+      </c>
+      <c r="K26" s="3">
         <v>624200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>532200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>548900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>632900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>453100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>82100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>478400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>557300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>464600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>842400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>432600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>536300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>390800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>426700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>447600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>547200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>413900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>348900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>365200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>499400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>650700</v>
+        <v>672100</v>
       </c>
       <c r="E27" s="3">
-        <v>837200</v>
+        <v>676500</v>
       </c>
       <c r="F27" s="3">
-        <v>686500</v>
+        <v>870400</v>
       </c>
       <c r="G27" s="3">
-        <v>615300</v>
+        <v>713700</v>
       </c>
       <c r="H27" s="3">
-        <v>627500</v>
+        <v>639700</v>
       </c>
       <c r="I27" s="3">
-        <v>748700</v>
+        <v>652400</v>
       </c>
       <c r="J27" s="3">
+        <v>778400</v>
+      </c>
+      <c r="K27" s="3">
         <v>624200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>532200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>548900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>632900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>453100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>82100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>478400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>557300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>464600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>842400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>432600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>536300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>390800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>426700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>447600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>547200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>413900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>348900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>365200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>499600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2496,22 +2557,25 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>34800</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>348200</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>3600</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>52700</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30100</v>
+        <v>-42700</v>
       </c>
       <c r="E32" s="3">
-        <v>-49400</v>
+        <v>-31200</v>
       </c>
       <c r="F32" s="3">
-        <v>-51500</v>
+        <v>-51400</v>
       </c>
       <c r="G32" s="3">
-        <v>-28200</v>
+        <v>-53500</v>
       </c>
       <c r="H32" s="3">
-        <v>-6800</v>
+        <v>-29300</v>
       </c>
       <c r="I32" s="3">
-        <v>-15700</v>
+        <v>-7100</v>
       </c>
       <c r="J32" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>103900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-216400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>66900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>50000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>16500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-10700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>7000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>9700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-7100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>650700</v>
+        <v>672100</v>
       </c>
       <c r="E33" s="3">
-        <v>837200</v>
+        <v>676500</v>
       </c>
       <c r="F33" s="3">
-        <v>686500</v>
+        <v>870400</v>
       </c>
       <c r="G33" s="3">
-        <v>615300</v>
+        <v>713700</v>
       </c>
       <c r="H33" s="3">
-        <v>627500</v>
+        <v>639700</v>
       </c>
       <c r="I33" s="3">
-        <v>748700</v>
+        <v>652400</v>
       </c>
       <c r="J33" s="3">
+        <v>778400</v>
+      </c>
+      <c r="K33" s="3">
         <v>624200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>532200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>548900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>632900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>453100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>82100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>478400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>557300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>464600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>842400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>432600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>536300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>390800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>426700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>447600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>547200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>448800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>697100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>368800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>552200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>650700</v>
+        <v>672100</v>
       </c>
       <c r="E35" s="3">
-        <v>837200</v>
+        <v>676500</v>
       </c>
       <c r="F35" s="3">
-        <v>686500</v>
+        <v>870400</v>
       </c>
       <c r="G35" s="3">
-        <v>615300</v>
+        <v>713700</v>
       </c>
       <c r="H35" s="3">
-        <v>627500</v>
+        <v>639700</v>
       </c>
       <c r="I35" s="3">
-        <v>748700</v>
+        <v>652400</v>
       </c>
       <c r="J35" s="3">
+        <v>778400</v>
+      </c>
+      <c r="K35" s="3">
         <v>624200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>532200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>548900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>632900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>453100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>82100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>478400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>557300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>464600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>842400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>432600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>536300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>390800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>426700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>447600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>547200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>448800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>697100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>368800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>552200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2631800</v>
+        <v>2645000</v>
       </c>
       <c r="E41" s="3">
-        <v>2679200</v>
+        <v>2736200</v>
       </c>
       <c r="F41" s="3">
-        <v>2983900</v>
+        <v>2785400</v>
       </c>
       <c r="G41" s="3">
-        <v>2742500</v>
+        <v>3102200</v>
       </c>
       <c r="H41" s="3">
-        <v>1979700</v>
+        <v>2851200</v>
       </c>
       <c r="I41" s="3">
-        <v>2418700</v>
+        <v>2058200</v>
       </c>
       <c r="J41" s="3">
+        <v>2514600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2727700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2278600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1627000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1791400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1894400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1521800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1813000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1531100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1032300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1286800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1473500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1770600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1488100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1622000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1819400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1841000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1367700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>826200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>919400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1485500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3323,20 +3413,20 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>9600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8700</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>8</v>
@@ -3353,610 +3443,634 @@
       <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>784800</v>
+        <v>785200</v>
       </c>
       <c r="E43" s="3">
-        <v>944500</v>
+        <v>815900</v>
       </c>
       <c r="F43" s="3">
-        <v>786100</v>
+        <v>981900</v>
       </c>
       <c r="G43" s="3">
-        <v>709200</v>
+        <v>817300</v>
       </c>
       <c r="H43" s="3">
-        <v>884000</v>
+        <v>737300</v>
       </c>
       <c r="I43" s="3">
-        <v>950600</v>
+        <v>919000</v>
       </c>
       <c r="J43" s="3">
+        <v>988300</v>
+      </c>
+      <c r="K43" s="3">
         <v>920500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>792200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>860600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>853400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>654800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>682600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>672500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>680600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>539400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>537800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>565500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>548800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>418800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>462300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>390300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>560400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>393700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>361100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>361800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>715300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5116900</v>
+        <v>5227400</v>
       </c>
       <c r="E44" s="3">
-        <v>5053700</v>
+        <v>5319800</v>
       </c>
       <c r="F44" s="3">
-        <v>5622600</v>
+        <v>5254100</v>
       </c>
       <c r="G44" s="3">
-        <v>4782600</v>
+        <v>5845600</v>
       </c>
       <c r="H44" s="3">
-        <v>4551000</v>
+        <v>4972300</v>
       </c>
       <c r="I44" s="3">
-        <v>4537100</v>
+        <v>4731400</v>
       </c>
       <c r="J44" s="3">
+        <v>4717000</v>
+      </c>
+      <c r="K44" s="3">
         <v>4563100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3708200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3651800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3433100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3550500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3193300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3036900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3352000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3446200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2917100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2947500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2888500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2732200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3084200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2919100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3075400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2976400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2675600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2772500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2849600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43500</v>
+        <v>67400</v>
       </c>
       <c r="E45" s="3">
-        <v>52200</v>
+        <v>45200</v>
       </c>
       <c r="F45" s="3">
-        <v>72100</v>
+        <v>54300</v>
       </c>
       <c r="G45" s="3">
-        <v>69400</v>
+        <v>74900</v>
       </c>
       <c r="H45" s="3">
-        <v>41900</v>
+        <v>72200</v>
       </c>
       <c r="I45" s="3">
-        <v>48400</v>
+        <v>43600</v>
       </c>
       <c r="J45" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K45" s="3">
         <v>61500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>58200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>64100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>58600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>88200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>76000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>60400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>64100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>49800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>66900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>48500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>50800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>39600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>43600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>649000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>667100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8576900</v>
+        <v>8725100</v>
       </c>
       <c r="E46" s="3">
-        <v>8729600</v>
+        <v>8917000</v>
       </c>
       <c r="F46" s="3">
-        <v>9464700</v>
+        <v>9075700</v>
       </c>
       <c r="G46" s="3">
-        <v>8303800</v>
+        <v>9840000</v>
       </c>
       <c r="H46" s="3">
-        <v>7456600</v>
+        <v>8633000</v>
       </c>
       <c r="I46" s="3">
-        <v>7954800</v>
+        <v>7752300</v>
       </c>
       <c r="J46" s="3">
+        <v>8270200</v>
+      </c>
+      <c r="K46" s="3">
         <v>8272900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6825300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6197600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6113000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6163800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5454800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5581000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5652000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5063300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4817700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5046900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5272000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4696400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5245000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5186000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5527600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4777400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3906500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4702600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5523600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>106800</v>
+        <v>108000</v>
       </c>
       <c r="E47" s="3">
-        <v>131000</v>
+        <v>111000</v>
       </c>
       <c r="F47" s="3">
-        <v>131600</v>
+        <v>136100</v>
       </c>
       <c r="G47" s="3">
-        <v>116600</v>
+        <v>136900</v>
       </c>
       <c r="H47" s="3">
-        <v>122000</v>
+        <v>121200</v>
       </c>
       <c r="I47" s="3">
-        <v>125500</v>
+        <v>126900</v>
       </c>
       <c r="J47" s="3">
+        <v>130500</v>
+      </c>
+      <c r="K47" s="3">
         <v>121700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>110500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>112700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>102600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>111700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>113800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>109100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>91100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>107100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>108800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>107500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>101500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>94300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>109100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>99000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>105900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>79200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>73500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>79900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>99800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11672600</v>
+        <v>12353000</v>
       </c>
       <c r="E48" s="3">
-        <v>11785800</v>
+        <v>12135500</v>
       </c>
       <c r="F48" s="3">
-        <v>11477600</v>
+        <v>12253100</v>
       </c>
       <c r="G48" s="3">
-        <v>11221400</v>
+        <v>11932700</v>
       </c>
       <c r="H48" s="3">
-        <v>11167200</v>
+        <v>11666400</v>
       </c>
       <c r="I48" s="3">
-        <v>11310300</v>
+        <v>11610000</v>
       </c>
       <c r="J48" s="3">
+        <v>11758800</v>
+      </c>
+      <c r="K48" s="3">
         <v>11011700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10426000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10460300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9614800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9590600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9639500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9454700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9350300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9317000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8669300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8851900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6576500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6296400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7530400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7347300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7245000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6959000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6874900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6833900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>7240200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2205400</v>
+        <v>2182300</v>
       </c>
       <c r="E49" s="3">
-        <v>2215400</v>
+        <v>2292900</v>
       </c>
       <c r="F49" s="3">
-        <v>2187700</v>
+        <v>2303300</v>
       </c>
       <c r="G49" s="3">
-        <v>2057400</v>
+        <v>2274400</v>
       </c>
       <c r="H49" s="3">
-        <v>2085900</v>
+        <v>2139000</v>
       </c>
       <c r="I49" s="3">
-        <v>2189400</v>
+        <v>2168600</v>
       </c>
       <c r="J49" s="3">
+        <v>2276300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2211100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2034400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2125400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1885900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2095200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2214900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2189800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1840100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1908900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1796200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1838400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1687100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1686800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2133700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1954500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2036100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1886700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1864000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1933200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2195100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>797900</v>
+        <v>863700</v>
       </c>
       <c r="E52" s="3">
-        <v>796700</v>
+        <v>829500</v>
       </c>
       <c r="F52" s="3">
-        <v>811300</v>
+        <v>828300</v>
       </c>
       <c r="G52" s="3">
-        <v>691200</v>
+        <v>843400</v>
       </c>
       <c r="H52" s="3">
-        <v>719400</v>
+        <v>718600</v>
       </c>
       <c r="I52" s="3">
-        <v>699000</v>
+        <v>748000</v>
       </c>
       <c r="J52" s="3">
+        <v>726700</v>
+      </c>
+      <c r="K52" s="3">
         <v>608300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>551900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>519900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>457400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>377700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>361700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>337000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>392400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>419300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>385000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>379800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>340500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>374600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>355100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>385300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>356000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>291600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>265500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>226800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>249600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23359700</v>
+        <v>24232100</v>
       </c>
       <c r="E54" s="3">
-        <v>23658500</v>
+        <v>24286000</v>
       </c>
       <c r="F54" s="3">
-        <v>24072800</v>
+        <v>24596600</v>
       </c>
       <c r="G54" s="3">
-        <v>22390500</v>
+        <v>25027400</v>
       </c>
       <c r="H54" s="3">
-        <v>21551200</v>
+        <v>23278300</v>
       </c>
       <c r="I54" s="3">
-        <v>22279100</v>
+        <v>22405800</v>
       </c>
       <c r="J54" s="3">
+        <v>23162500</v>
+      </c>
+      <c r="K54" s="3">
         <v>22225700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19948100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19416000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18173800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18339000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17784700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17671700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17325900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16815500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15776900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16224400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13977700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13148400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15373400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14972000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>15270600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13993900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12984500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>13776500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>15308300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5253500</v>
+        <v>5435200</v>
       </c>
       <c r="E57" s="3">
-        <v>5661100</v>
+        <v>5461800</v>
       </c>
       <c r="F57" s="3">
-        <v>5406400</v>
+        <v>5885600</v>
       </c>
       <c r="G57" s="3">
-        <v>5007500</v>
+        <v>5620800</v>
       </c>
       <c r="H57" s="3">
-        <v>4841300</v>
+        <v>5206000</v>
       </c>
       <c r="I57" s="3">
-        <v>5459100</v>
+        <v>5033200</v>
       </c>
       <c r="J57" s="3">
+        <v>5675500</v>
+      </c>
+      <c r="K57" s="3">
         <v>4938300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4254000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4315900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4638100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3945700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3784100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3892600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4322700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3763100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3524800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3632700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3890900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3274300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3722700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3686100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4142700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3310400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2747300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2862000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3500300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>195800</v>
+        <v>228800</v>
       </c>
       <c r="E58" s="3">
-        <v>198400</v>
+        <v>203600</v>
       </c>
       <c r="F58" s="3">
-        <v>198100</v>
+        <v>206200</v>
       </c>
       <c r="G58" s="3">
-        <v>200200</v>
+        <v>205900</v>
       </c>
       <c r="H58" s="3">
-        <v>187300</v>
+        <v>208100</v>
       </c>
       <c r="I58" s="3">
-        <v>194200</v>
+        <v>194700</v>
       </c>
       <c r="J58" s="3">
+        <v>201900</v>
+      </c>
+      <c r="K58" s="3">
         <v>196900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>166600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>174600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>161500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>159500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>154900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>145400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>151100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>152200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>144300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>148500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>14100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>15800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>16800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>19700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>21000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>23100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>26200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>28300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4205700</v>
+        <v>3743800</v>
       </c>
       <c r="E59" s="3">
-        <v>1918400</v>
+        <v>4372500</v>
       </c>
       <c r="F59" s="3">
-        <v>3469000</v>
+        <v>1994500</v>
       </c>
       <c r="G59" s="3">
-        <v>3167000</v>
+        <v>3606500</v>
       </c>
       <c r="H59" s="3">
-        <v>1396500</v>
+        <v>3292500</v>
       </c>
       <c r="I59" s="3">
-        <v>1843400</v>
+        <v>1451800</v>
       </c>
       <c r="J59" s="3">
+        <v>1916500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3196000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2912000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2703000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1380900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2449100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2367000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2494300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1158100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1657200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1937600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2485200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1301000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1655600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2137400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2567100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1414400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1668500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1709800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3197300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1479700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9655000</v>
+        <v>9407800</v>
       </c>
       <c r="E60" s="3">
-        <v>7777900</v>
+        <v>10037900</v>
       </c>
       <c r="F60" s="3">
-        <v>9073500</v>
+        <v>8086300</v>
       </c>
       <c r="G60" s="3">
-        <v>8374600</v>
+        <v>9433300</v>
       </c>
       <c r="H60" s="3">
-        <v>6425000</v>
+        <v>8706700</v>
       </c>
       <c r="I60" s="3">
-        <v>7496700</v>
+        <v>6679800</v>
       </c>
       <c r="J60" s="3">
+        <v>7794000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8331200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7332600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7193500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6180600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6554300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6306000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6532300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5631800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5572500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5606700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6266300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5205900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4943200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5875900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6270000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5576800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4999800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4480200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6085500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5008300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3758600</v>
+        <v>4123900</v>
       </c>
       <c r="E61" s="3">
-        <v>3746800</v>
+        <v>3907600</v>
       </c>
       <c r="F61" s="3">
-        <v>3655000</v>
+        <v>3895400</v>
       </c>
       <c r="G61" s="3">
-        <v>3568900</v>
+        <v>3800000</v>
       </c>
       <c r="H61" s="3">
-        <v>3500400</v>
+        <v>3710400</v>
       </c>
       <c r="I61" s="3">
-        <v>3460200</v>
+        <v>3639200</v>
       </c>
       <c r="J61" s="3">
+        <v>3597400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3317600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3167000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3135100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2838500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2830100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2827300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2750300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2687800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2634800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2410800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2439000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>646000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>640200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>772600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>751700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>709900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>694900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>680000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>671600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>694400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>655100</v>
+        <v>656600</v>
       </c>
       <c r="E62" s="3">
-        <v>696400</v>
+        <v>681100</v>
       </c>
       <c r="F62" s="3">
-        <v>741500</v>
+        <v>724000</v>
       </c>
       <c r="G62" s="3">
-        <v>736900</v>
+        <v>770900</v>
       </c>
       <c r="H62" s="3">
-        <v>817400</v>
+        <v>766100</v>
       </c>
       <c r="I62" s="3">
-        <v>821700</v>
+        <v>849800</v>
       </c>
       <c r="J62" s="3">
+        <v>854300</v>
+      </c>
+      <c r="K62" s="3">
         <v>780000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>720100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>715800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>661600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>694700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>626200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>596100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>662900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>568300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>561300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>574800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>605700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>690200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>740600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>762200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>732800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>853400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>886100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>668600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>736500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14068700</v>
+        <v>14188200</v>
       </c>
       <c r="E66" s="3">
-        <v>12221000</v>
+        <v>14626600</v>
       </c>
       <c r="F66" s="3">
-        <v>13470000</v>
+        <v>12705600</v>
       </c>
       <c r="G66" s="3">
-        <v>12680300</v>
+        <v>14004200</v>
       </c>
       <c r="H66" s="3">
-        <v>10742800</v>
+        <v>13183200</v>
       </c>
       <c r="I66" s="3">
-        <v>11778600</v>
+        <v>11168700</v>
       </c>
       <c r="J66" s="3">
+        <v>12245600</v>
+      </c>
+      <c r="K66" s="3">
         <v>12428800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11219800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11044500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9680600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10079100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9759600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9878700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8982600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8775600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8578800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9280100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6457600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6273600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7389100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7783900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7019500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6548100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6046300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7425700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6439200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6316800</v>
+        <v>7240700</v>
       </c>
       <c r="E72" s="3">
-        <v>8288600</v>
+        <v>6567300</v>
       </c>
       <c r="F72" s="3">
-        <v>7451700</v>
+        <v>8617300</v>
       </c>
       <c r="G72" s="3">
-        <v>6765600</v>
+        <v>7747200</v>
       </c>
       <c r="H72" s="3">
-        <v>7819300</v>
+        <v>7033900</v>
       </c>
       <c r="I72" s="3">
-        <v>7191800</v>
+        <v>8129400</v>
       </c>
       <c r="J72" s="3">
+        <v>7477000</v>
+      </c>
+      <c r="K72" s="3">
         <v>6404000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5615700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5083900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5592600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4878800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4426000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4208200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5401600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4939900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4310800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4010800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4771500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4180500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4514300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4089200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4986500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4439600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3991400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3295400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5291400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9291000</v>
+        <v>10043800</v>
       </c>
       <c r="E76" s="3">
-        <v>11437400</v>
+        <v>9659400</v>
       </c>
       <c r="F76" s="3">
-        <v>10602800</v>
+        <v>11891000</v>
       </c>
       <c r="G76" s="3">
-        <v>9710200</v>
+        <v>11023200</v>
       </c>
       <c r="H76" s="3">
-        <v>10808500</v>
+        <v>10095200</v>
       </c>
       <c r="I76" s="3">
-        <v>10500500</v>
+        <v>11237000</v>
       </c>
       <c r="J76" s="3">
+        <v>10916900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9796900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8728300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8371500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8493100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8260000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8025100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7793000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8343300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8039900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7198100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6944300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7520100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6874800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7984200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7188100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8251100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7445700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6938200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6350800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>8869100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>650700</v>
+        <v>672100</v>
       </c>
       <c r="E81" s="3">
-        <v>837200</v>
+        <v>676500</v>
       </c>
       <c r="F81" s="3">
-        <v>686500</v>
+        <v>870400</v>
       </c>
       <c r="G81" s="3">
-        <v>615300</v>
+        <v>713700</v>
       </c>
       <c r="H81" s="3">
-        <v>627500</v>
+        <v>639700</v>
       </c>
       <c r="I81" s="3">
-        <v>748700</v>
+        <v>652400</v>
       </c>
       <c r="J81" s="3">
+        <v>778400</v>
+      </c>
+      <c r="K81" s="3">
         <v>624200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>532200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>548900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>632900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>453100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>82100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>478400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>557300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>464600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>842400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>432600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>536300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>390800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>426700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>447600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>547200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>448800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>697100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>368800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>552200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>281300</v>
+        <v>295200</v>
       </c>
       <c r="E83" s="3">
-        <v>279800</v>
+        <v>292400</v>
       </c>
       <c r="F83" s="3">
-        <v>274500</v>
+        <v>290900</v>
       </c>
       <c r="G83" s="3">
-        <v>268900</v>
+        <v>285400</v>
       </c>
       <c r="H83" s="3">
-        <v>270400</v>
+        <v>279600</v>
       </c>
       <c r="I83" s="3">
-        <v>266000</v>
+        <v>281100</v>
       </c>
       <c r="J83" s="3">
+        <v>276500</v>
+      </c>
+      <c r="K83" s="3">
         <v>258700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>244500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>247200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>224600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>221000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>226500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>211000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>217900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>215600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>402300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>205800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>152600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>139200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>164900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>163200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>158700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>149300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>145300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>149000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>150200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>378800</v>
+        <v>1256900</v>
       </c>
       <c r="E89" s="3">
-        <v>1983500</v>
+        <v>393800</v>
       </c>
       <c r="F89" s="3">
-        <v>689400</v>
+        <v>2062200</v>
       </c>
       <c r="G89" s="3">
-        <v>1181700</v>
+        <v>716700</v>
       </c>
       <c r="H89" s="3">
-        <v>-212700</v>
+        <v>1228600</v>
       </c>
       <c r="I89" s="3">
-        <v>1851100</v>
+        <v>-221200</v>
       </c>
       <c r="J89" s="3">
+        <v>1924500</v>
+      </c>
+      <c r="K89" s="3">
         <v>827300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1040200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-88000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1731600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>712600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>134300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>466500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1424900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>620100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>788100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>138400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1116100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>624300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>287000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>205600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1218100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>895800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>588900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-164100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1324000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5702800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2544000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8693900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6219400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4037300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2353100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7841100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5992400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-234300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-127300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-335800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-227600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-151900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-112900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-305600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-338500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-371300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-159500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-326900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-235600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-197400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-99100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-348500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-230500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-197600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-124700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-232300</v>
+        <v>-353100</v>
       </c>
       <c r="E94" s="3">
-        <v>-424100</v>
+        <v>-241500</v>
       </c>
       <c r="F94" s="3">
-        <v>-287700</v>
+        <v>-440900</v>
       </c>
       <c r="G94" s="3">
-        <v>-211000</v>
+        <v>-299100</v>
       </c>
       <c r="H94" s="3">
-        <v>-225000</v>
+        <v>-219300</v>
       </c>
       <c r="I94" s="3">
-        <v>-403500</v>
+        <v>-233900</v>
       </c>
       <c r="J94" s="3">
+        <v>-419500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-306300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-218000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-139900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-308800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-207200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-123600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-176300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-284400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-320700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-365900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-203400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-301200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-206200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-140400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-89100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-314300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-171700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>866900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-178000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-247400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7441,10 +7675,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1592400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1655500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7453,61 +7687,64 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1319200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-230400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-463400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-503600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-802500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-284900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-504800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-225700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-361100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-148100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-473200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-142700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-124800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-568100</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-150400</v>
+        <v>-919200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1816600</v>
+        <v>-156300</v>
       </c>
       <c r="F100" s="3">
-        <v>-145300</v>
+        <v>-1888600</v>
       </c>
       <c r="G100" s="3">
-        <v>-139100</v>
+        <v>-151100</v>
       </c>
       <c r="H100" s="3">
-        <v>-138300</v>
+        <v>-144700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1729300</v>
+        <v>-143800</v>
       </c>
       <c r="J100" s="3">
+        <v>-1797900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-132100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-122800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-124900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1431400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-113200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-338800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-98100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-567400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-605800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-993300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-379800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-522400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-242800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-381700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-170000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-494500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-167100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-145400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-591300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-43500</v>
+        <v>-75800</v>
       </c>
       <c r="E101" s="3">
-        <v>-47600</v>
+        <v>-45200</v>
       </c>
       <c r="F101" s="3">
-        <v>-15000</v>
+        <v>-49400</v>
       </c>
       <c r="G101" s="3">
-        <v>-68800</v>
+        <v>-15600</v>
       </c>
       <c r="H101" s="3">
-        <v>137000</v>
+        <v>-71600</v>
       </c>
       <c r="I101" s="3">
-        <v>-27300</v>
+        <v>142500</v>
       </c>
       <c r="J101" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-22500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-47900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>35500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-125900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-44000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>161600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-25600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-20300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-20500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-29400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-49100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>37700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-35300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>29600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-26900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-39900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>29200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-47300</v>
+        <v>-91200</v>
       </c>
       <c r="E102" s="3">
-        <v>-304700</v>
+        <v>-49200</v>
       </c>
       <c r="F102" s="3">
-        <v>241400</v>
+        <v>-316800</v>
       </c>
       <c r="G102" s="3">
-        <v>762800</v>
+        <v>250900</v>
       </c>
       <c r="H102" s="3">
-        <v>-439000</v>
+        <v>793000</v>
       </c>
       <c r="I102" s="3">
-        <v>-309000</v>
+        <v>-456400</v>
       </c>
       <c r="J102" s="3">
+        <v>-321300</v>
+      </c>
+      <c r="K102" s="3">
         <v>366300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>651600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-317400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-134500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>372600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-350000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>336500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>511200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-303700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-591400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-465200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>263000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>126200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-197400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-88900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>473300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>541400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-93200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-527500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>503000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12552100</v>
+        <v>12370600</v>
       </c>
       <c r="E8" s="3">
-        <v>12102800</v>
+        <v>12408900</v>
       </c>
       <c r="F8" s="3">
-        <v>13967200</v>
+        <v>11964700</v>
       </c>
       <c r="G8" s="3">
-        <v>11621800</v>
+        <v>13807900</v>
       </c>
       <c r="H8" s="3">
-        <v>11488700</v>
+        <v>11489200</v>
       </c>
       <c r="I8" s="3">
-        <v>11032100</v>
+        <v>11357600</v>
       </c>
       <c r="J8" s="3">
+        <v>10906200</v>
+      </c>
+      <c r="K8" s="3">
         <v>12601800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9944600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9521500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9308000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9842500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8170100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8349900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8198300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9216600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7785000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14805300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7576100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8090400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6651000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7862800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7776400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8698500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7080300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7020300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6856800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>8363100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9626000</v>
+        <v>9353800</v>
       </c>
       <c r="E9" s="3">
-        <v>9244100</v>
+        <v>9516200</v>
       </c>
       <c r="F9" s="3">
-        <v>10752600</v>
+        <v>9138600</v>
       </c>
       <c r="G9" s="3">
-        <v>8867200</v>
+        <v>10629900</v>
       </c>
       <c r="H9" s="3">
-        <v>8800600</v>
+        <v>8766000</v>
       </c>
       <c r="I9" s="3">
-        <v>8448600</v>
+        <v>8700200</v>
       </c>
       <c r="J9" s="3">
+        <v>8352200</v>
+      </c>
+      <c r="K9" s="3">
         <v>9677700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7592200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7306800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7139600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7565300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6238700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6446300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6329100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7126800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5950700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11448100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5853600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6245700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5099100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6076200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5992600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6786200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5437300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5420400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>5285300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>6525500</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2926000</v>
+        <v>3016800</v>
       </c>
       <c r="E10" s="3">
-        <v>2858700</v>
+        <v>2892700</v>
       </c>
       <c r="F10" s="3">
-        <v>3214600</v>
+        <v>2826100</v>
       </c>
       <c r="G10" s="3">
-        <v>2754600</v>
+        <v>3178000</v>
       </c>
       <c r="H10" s="3">
-        <v>2688100</v>
+        <v>2723200</v>
       </c>
       <c r="I10" s="3">
-        <v>2583500</v>
+        <v>2657400</v>
       </c>
       <c r="J10" s="3">
+        <v>2554000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2924100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2352400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2214700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2168400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2277300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1931300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1903600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1869200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2089800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1834400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3357200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1722400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1844700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1551900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1786600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1783700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1912300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1643000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1599900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1571500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1837600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11563200</v>
+        <v>11340200</v>
       </c>
       <c r="E17" s="3">
-        <v>11084600</v>
+        <v>11431300</v>
       </c>
       <c r="F17" s="3">
-        <v>12770000</v>
+        <v>10958100</v>
       </c>
       <c r="G17" s="3">
-        <v>10664300</v>
+        <v>12624300</v>
       </c>
       <c r="H17" s="3">
-        <v>10585100</v>
+        <v>10542600</v>
       </c>
       <c r="I17" s="3">
-        <v>10096100</v>
+        <v>10464400</v>
       </c>
       <c r="J17" s="3">
+        <v>9980900</v>
+      </c>
+      <c r="K17" s="3">
         <v>11494400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9071300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8777300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8493600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8944900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7489200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7799100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7497800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8412800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7112900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13624100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6960000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7378300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6119400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7303800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7168700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7984100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6538800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6520800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6345000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>7691500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>988900</v>
+        <v>1030300</v>
       </c>
       <c r="E18" s="3">
-        <v>1018200</v>
+        <v>977600</v>
       </c>
       <c r="F18" s="3">
-        <v>1197300</v>
+        <v>1006600</v>
       </c>
       <c r="G18" s="3">
-        <v>957500</v>
+        <v>1183600</v>
       </c>
       <c r="H18" s="3">
-        <v>903600</v>
+        <v>946600</v>
       </c>
       <c r="I18" s="3">
-        <v>936000</v>
+        <v>893200</v>
       </c>
       <c r="J18" s="3">
+        <v>925300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1107400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>873300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>744200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>814400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>897700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>680900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>550800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>700500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>803800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>672100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1181200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>616100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>712200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>531600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>559000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>607600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>714500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>541500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>499500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>511900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>671600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,237 +1717,244 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42700</v>
+        <v>77100</v>
       </c>
       <c r="E20" s="3">
-        <v>31200</v>
+        <v>42200</v>
       </c>
       <c r="F20" s="3">
-        <v>51400</v>
+        <v>30900</v>
       </c>
       <c r="G20" s="3">
-        <v>53500</v>
+        <v>50800</v>
       </c>
       <c r="H20" s="3">
-        <v>29300</v>
+        <v>52900</v>
       </c>
       <c r="I20" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>11900</v>
+      </c>
+      <c r="M20" s="3">
+        <v>24200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-103900</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S20" s="3">
+        <v>216400</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="AE20" s="3">
         <v>7100</v>
       </c>
-      <c r="J20" s="3">
-        <v>16300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>11900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>24200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>20100</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="AF20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3">
-        <v>-103900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>216400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-66900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="X20" s="3">
-        <v>10700</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>7100</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1326800</v>
+        <v>1410600</v>
       </c>
       <c r="E21" s="3">
-        <v>1341900</v>
+        <v>1311600</v>
       </c>
       <c r="F21" s="3">
-        <v>1539600</v>
+        <v>1326600</v>
       </c>
       <c r="G21" s="3">
-        <v>1296400</v>
+        <v>1522000</v>
       </c>
       <c r="H21" s="3">
-        <v>1212400</v>
+        <v>1281600</v>
       </c>
       <c r="I21" s="3">
-        <v>1224100</v>
+        <v>1198600</v>
       </c>
       <c r="J21" s="3">
+        <v>1210200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1400200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1143900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1012800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1057900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1142400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>910900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>673300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>909000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1238200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>820800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1483100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>771900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>859000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>654300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>734600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>768700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>866900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>685500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>637700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>651100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>828900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>110400</v>
+        <v>118800</v>
       </c>
       <c r="E22" s="3">
-        <v>108600</v>
+        <v>109200</v>
       </c>
       <c r="F22" s="3">
-        <v>106900</v>
+        <v>107400</v>
       </c>
       <c r="G22" s="3">
-        <v>104500</v>
+        <v>105700</v>
       </c>
       <c r="H22" s="3">
-        <v>102000</v>
+        <v>103300</v>
       </c>
       <c r="I22" s="3">
-        <v>100600</v>
+        <v>100800</v>
       </c>
       <c r="J22" s="3">
+        <v>99500</v>
+      </c>
+      <c r="K22" s="3">
         <v>97600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>90100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>87800</v>
       </c>
       <c r="M22" s="3">
         <v>87800</v>
       </c>
       <c r="N22" s="3">
+        <v>87800</v>
+      </c>
+      <c r="O22" s="3">
         <v>80000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>80500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>80600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>74500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>285400</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1946,191 +1986,200 @@
         <v>0</v>
       </c>
       <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
         <v>20700</v>
       </c>
-      <c r="AE22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>921100</v>
+        <v>988600</v>
       </c>
       <c r="E23" s="3">
-        <v>940800</v>
+        <v>910600</v>
       </c>
       <c r="F23" s="3">
-        <v>1141700</v>
+        <v>930100</v>
       </c>
       <c r="G23" s="3">
-        <v>906500</v>
+        <v>1128700</v>
       </c>
       <c r="H23" s="3">
-        <v>830900</v>
+        <v>896100</v>
       </c>
       <c r="I23" s="3">
-        <v>842400</v>
+        <v>821400</v>
       </c>
       <c r="J23" s="3">
+        <v>832800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1026100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>795100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>680500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>723000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>837800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>609400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>366300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>623500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>734800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>605200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1080700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>566100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>706400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>515100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>569700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>605600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>708200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>536200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>492400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>502100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>657900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>249000</v>
+        <v>197200</v>
       </c>
       <c r="E24" s="3">
-        <v>264300</v>
+        <v>246200</v>
       </c>
       <c r="F24" s="3">
-        <v>271300</v>
+        <v>261300</v>
       </c>
       <c r="G24" s="3">
-        <v>192800</v>
+        <v>268200</v>
       </c>
       <c r="H24" s="3">
-        <v>191200</v>
+        <v>190600</v>
       </c>
       <c r="I24" s="3">
-        <v>190000</v>
+        <v>189000</v>
       </c>
       <c r="J24" s="3">
+        <v>187900</v>
+      </c>
+      <c r="K24" s="3">
         <v>247700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>171000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>148300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>174100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>204900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>156300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>284100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>145100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>177500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>140600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>238300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>133500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>170100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>124400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>143000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>158000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>161000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>122300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>143500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>136900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>158600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>672100</v>
+        <v>791400</v>
       </c>
       <c r="E26" s="3">
-        <v>676500</v>
+        <v>664400</v>
       </c>
       <c r="F26" s="3">
-        <v>870400</v>
+        <v>668800</v>
       </c>
       <c r="G26" s="3">
-        <v>713700</v>
+        <v>860500</v>
       </c>
       <c r="H26" s="3">
-        <v>639700</v>
+        <v>705600</v>
       </c>
       <c r="I26" s="3">
-        <v>652400</v>
+        <v>632400</v>
       </c>
       <c r="J26" s="3">
+        <v>645000</v>
+      </c>
+      <c r="K26" s="3">
         <v>778400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>624200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>532200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>548900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>632900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>453100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>82100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>478400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>557300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>464600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>842400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>432600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>536300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>390800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>426700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>447600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>547200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>413900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>348900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>365200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>499400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>672100</v>
+        <v>791400</v>
       </c>
       <c r="E27" s="3">
-        <v>676500</v>
+        <v>664400</v>
       </c>
       <c r="F27" s="3">
-        <v>870400</v>
+        <v>668800</v>
       </c>
       <c r="G27" s="3">
-        <v>713700</v>
+        <v>860500</v>
       </c>
       <c r="H27" s="3">
-        <v>639700</v>
+        <v>705600</v>
       </c>
       <c r="I27" s="3">
-        <v>652400</v>
+        <v>632400</v>
       </c>
       <c r="J27" s="3">
+        <v>645000</v>
+      </c>
+      <c r="K27" s="3">
         <v>778400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>624200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>532200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>548900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>632900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>453100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>82100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>478400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>557300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>464600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>842400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>432600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>536300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>390800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>426700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>447600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>547200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>413900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>348900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>365200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>499600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2560,22 +2621,25 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>34800</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>348200</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>3600</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>52700</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42700</v>
+        <v>-77100</v>
       </c>
       <c r="E32" s="3">
-        <v>-31200</v>
+        <v>-42200</v>
       </c>
       <c r="F32" s="3">
-        <v>-51400</v>
+        <v>-30900</v>
       </c>
       <c r="G32" s="3">
-        <v>-53500</v>
+        <v>-50800</v>
       </c>
       <c r="H32" s="3">
-        <v>-29300</v>
+        <v>-52900</v>
       </c>
       <c r="I32" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>103900</v>
+      </c>
+      <c r="R32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-216400</v>
+      </c>
+      <c r="T32" s="3">
+        <v>66900</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100500</v>
+      </c>
+      <c r="V32" s="3">
+        <v>50000</v>
+      </c>
+      <c r="W32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="X32" s="3">
+        <v>16500</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-7100</v>
       </c>
-      <c r="J32" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="AF32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3">
-        <v>103900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-216400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>66900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>100500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>50000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>5700</v>
-      </c>
-      <c r="W32" s="3">
-        <v>16500</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>6300</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>7000</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>9700</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="AE32" s="3">
-        <v>-9000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>672100</v>
+        <v>791400</v>
       </c>
       <c r="E33" s="3">
-        <v>676500</v>
+        <v>664400</v>
       </c>
       <c r="F33" s="3">
-        <v>870400</v>
+        <v>668800</v>
       </c>
       <c r="G33" s="3">
-        <v>713700</v>
+        <v>860500</v>
       </c>
       <c r="H33" s="3">
-        <v>639700</v>
+        <v>705600</v>
       </c>
       <c r="I33" s="3">
-        <v>652400</v>
+        <v>632400</v>
       </c>
       <c r="J33" s="3">
+        <v>645000</v>
+      </c>
+      <c r="K33" s="3">
         <v>778400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>624200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>532200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>548900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>632900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>453100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>82100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>478400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>557300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>464600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>842400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>432600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>536300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>390800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>426700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>447600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>547200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>448800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>697100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>368800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>552200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>672100</v>
+        <v>791400</v>
       </c>
       <c r="E35" s="3">
-        <v>676500</v>
+        <v>664400</v>
       </c>
       <c r="F35" s="3">
-        <v>870400</v>
+        <v>668800</v>
       </c>
       <c r="G35" s="3">
-        <v>713700</v>
+        <v>860500</v>
       </c>
       <c r="H35" s="3">
-        <v>639700</v>
+        <v>705600</v>
       </c>
       <c r="I35" s="3">
-        <v>652400</v>
+        <v>632400</v>
       </c>
       <c r="J35" s="3">
+        <v>645000</v>
+      </c>
+      <c r="K35" s="3">
         <v>778400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>624200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>532200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>548900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>632900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>453100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>82100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>478400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>557300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>464600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>842400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>432600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>536300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>390800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>426700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>447600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>547200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>448800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>697100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>368800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>552200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2645000</v>
+        <v>2902700</v>
       </c>
       <c r="E41" s="3">
-        <v>2736200</v>
+        <v>2614800</v>
       </c>
       <c r="F41" s="3">
-        <v>2785400</v>
+        <v>2705000</v>
       </c>
       <c r="G41" s="3">
-        <v>3102200</v>
+        <v>2753600</v>
       </c>
       <c r="H41" s="3">
-        <v>2851200</v>
+        <v>3066800</v>
       </c>
       <c r="I41" s="3">
-        <v>2058200</v>
+        <v>2818700</v>
       </c>
       <c r="J41" s="3">
+        <v>2034800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2514600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2727700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2278600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1627000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1791400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1894400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1521800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1813000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1531100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1032300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1286800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1473500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1770600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1488100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1622000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1819400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1841000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1367700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>826200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>919400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1485500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3416,20 +3506,20 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>9600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8700</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>8</v>
@@ -3446,631 +3536,655 @@
       <c r="AE42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>785200</v>
+        <v>916400</v>
       </c>
       <c r="E43" s="3">
-        <v>815900</v>
+        <v>776300</v>
       </c>
       <c r="F43" s="3">
-        <v>981900</v>
+        <v>806600</v>
       </c>
       <c r="G43" s="3">
-        <v>817300</v>
+        <v>970700</v>
       </c>
       <c r="H43" s="3">
-        <v>737300</v>
+        <v>807900</v>
       </c>
       <c r="I43" s="3">
-        <v>919000</v>
+        <v>728900</v>
       </c>
       <c r="J43" s="3">
+        <v>908500</v>
+      </c>
+      <c r="K43" s="3">
         <v>988300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>920500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>792200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>860600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>853400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>654800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>682600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>672500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>680600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>539400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>537800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>565500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>548800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>418800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>462300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>390300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>560400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>393700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>361100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>361800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>715300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5227400</v>
+        <v>5928100</v>
       </c>
       <c r="E44" s="3">
-        <v>5319800</v>
+        <v>5167800</v>
       </c>
       <c r="F44" s="3">
-        <v>5254100</v>
+        <v>5259100</v>
       </c>
       <c r="G44" s="3">
-        <v>5845600</v>
+        <v>5194100</v>
       </c>
       <c r="H44" s="3">
-        <v>4972300</v>
+        <v>5778900</v>
       </c>
       <c r="I44" s="3">
-        <v>4731400</v>
+        <v>4915500</v>
       </c>
       <c r="J44" s="3">
+        <v>4677500</v>
+      </c>
+      <c r="K44" s="3">
         <v>4717000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4563100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3708200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3651800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3433100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3550500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3193300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3036900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3352000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3446200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2917100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2947500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2888500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2732200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3084200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2919100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3075400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2976400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2675600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2772500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2849600</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67400</v>
+        <v>92000</v>
       </c>
       <c r="E45" s="3">
-        <v>45200</v>
+        <v>66700</v>
       </c>
       <c r="F45" s="3">
-        <v>54300</v>
+        <v>44700</v>
       </c>
       <c r="G45" s="3">
-        <v>74900</v>
+        <v>53700</v>
       </c>
       <c r="H45" s="3">
-        <v>72200</v>
+        <v>74100</v>
       </c>
       <c r="I45" s="3">
+        <v>71300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>50300</v>
+      </c>
+      <c r="L45" s="3">
+        <v>61500</v>
+      </c>
+      <c r="M45" s="3">
+        <v>46200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>58200</v>
+      </c>
+      <c r="O45" s="3">
+        <v>35200</v>
+      </c>
+      <c r="P45" s="3">
+        <v>64100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>57200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>58600</v>
+      </c>
+      <c r="S45" s="3">
+        <v>88200</v>
+      </c>
+      <c r="T45" s="3">
+        <v>45400</v>
+      </c>
+      <c r="U45" s="3">
+        <v>76000</v>
+      </c>
+      <c r="V45" s="3">
+        <v>60400</v>
+      </c>
+      <c r="W45" s="3">
+        <v>64100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>49800</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>66900</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>48500</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>50800</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>39600</v>
+      </c>
+      <c r="AC45" s="3">
         <v>43600</v>
       </c>
-      <c r="J45" s="3">
-        <v>50300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>61500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>46200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>58200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>35200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>64100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>57200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>58600</v>
-      </c>
-      <c r="R45" s="3">
-        <v>88200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>45400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>76000</v>
-      </c>
-      <c r="U45" s="3">
-        <v>60400</v>
-      </c>
-      <c r="V45" s="3">
-        <v>64100</v>
-      </c>
-      <c r="W45" s="3">
-        <v>49800</v>
-      </c>
-      <c r="X45" s="3">
-        <v>66900</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>48500</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>50800</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>39600</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>43600</v>
-      </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>649000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>667100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8725100</v>
+        <v>9839200</v>
       </c>
       <c r="E46" s="3">
-        <v>8917000</v>
+        <v>8625600</v>
       </c>
       <c r="F46" s="3">
-        <v>9075700</v>
+        <v>8815300</v>
       </c>
       <c r="G46" s="3">
-        <v>9840000</v>
+        <v>8972200</v>
       </c>
       <c r="H46" s="3">
-        <v>8633000</v>
+        <v>9727700</v>
       </c>
       <c r="I46" s="3">
-        <v>7752300</v>
+        <v>8534500</v>
       </c>
       <c r="J46" s="3">
+        <v>7663800</v>
+      </c>
+      <c r="K46" s="3">
         <v>8270200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8272900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6825300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6197600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6113000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6163800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5454800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5581000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5652000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5063300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4817700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5046900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5272000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4696400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5245000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5186000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5527600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4777400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3906500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4702600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5523600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>108000</v>
+        <v>111300</v>
       </c>
       <c r="E47" s="3">
-        <v>111000</v>
+        <v>106800</v>
       </c>
       <c r="F47" s="3">
-        <v>136100</v>
+        <v>109800</v>
       </c>
       <c r="G47" s="3">
-        <v>136900</v>
+        <v>134600</v>
       </c>
       <c r="H47" s="3">
-        <v>121200</v>
+        <v>135300</v>
       </c>
       <c r="I47" s="3">
-        <v>126900</v>
+        <v>119800</v>
       </c>
       <c r="J47" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K47" s="3">
         <v>130500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>121700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>110500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>112700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>102600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>111700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>113800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>109100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>91100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>107100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>108800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>107500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>101500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>94300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>109100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>99000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>105900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>79200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>73500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>79900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>99800</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12353000</v>
+        <v>12546600</v>
       </c>
       <c r="E48" s="3">
-        <v>12135500</v>
+        <v>12212100</v>
       </c>
       <c r="F48" s="3">
-        <v>12253100</v>
+        <v>11997000</v>
       </c>
       <c r="G48" s="3">
-        <v>11932700</v>
+        <v>12113300</v>
       </c>
       <c r="H48" s="3">
-        <v>11666400</v>
+        <v>11796600</v>
       </c>
       <c r="I48" s="3">
-        <v>11610000</v>
+        <v>11533300</v>
       </c>
       <c r="J48" s="3">
+        <v>11477600</v>
+      </c>
+      <c r="K48" s="3">
         <v>11758800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11011700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10426000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10460300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9614800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9590600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9639500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9454700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9350300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9317000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8669300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8851900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6576500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6296400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7530400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7347300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7245000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6959000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6874900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>6833900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>7240200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2182300</v>
+        <v>2224500</v>
       </c>
       <c r="E49" s="3">
-        <v>2292900</v>
+        <v>2157400</v>
       </c>
       <c r="F49" s="3">
-        <v>2303300</v>
+        <v>2266700</v>
       </c>
       <c r="G49" s="3">
-        <v>2274400</v>
+        <v>2277000</v>
       </c>
       <c r="H49" s="3">
-        <v>2139000</v>
+        <v>2248500</v>
       </c>
       <c r="I49" s="3">
-        <v>2168600</v>
+        <v>2114600</v>
       </c>
       <c r="J49" s="3">
+        <v>2143900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2276300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2211100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2034400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2125400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1885900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2095200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2214900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2189800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1840100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1908900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1796200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1838400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1687100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1686800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2133700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1954500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2036100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1886700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1864000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1933200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2195100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>863700</v>
+        <v>888400</v>
       </c>
       <c r="E52" s="3">
-        <v>829500</v>
+        <v>853800</v>
       </c>
       <c r="F52" s="3">
-        <v>828300</v>
+        <v>820100</v>
       </c>
       <c r="G52" s="3">
-        <v>843400</v>
+        <v>818900</v>
       </c>
       <c r="H52" s="3">
-        <v>718600</v>
+        <v>833800</v>
       </c>
       <c r="I52" s="3">
-        <v>748000</v>
+        <v>710500</v>
       </c>
       <c r="J52" s="3">
+        <v>739400</v>
+      </c>
+      <c r="K52" s="3">
         <v>726700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>608300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>551900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>519900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>457400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>377700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>361700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>337000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>392400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>419300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>385000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>379800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>340500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>374600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>355100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>385300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>356000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>291600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>265500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>226800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>249600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24232100</v>
+        <v>25610000</v>
       </c>
       <c r="E54" s="3">
-        <v>24286000</v>
+        <v>23955600</v>
       </c>
       <c r="F54" s="3">
-        <v>24596600</v>
+        <v>24008900</v>
       </c>
       <c r="G54" s="3">
-        <v>25027400</v>
+        <v>24316000</v>
       </c>
       <c r="H54" s="3">
-        <v>23278300</v>
+        <v>24741900</v>
       </c>
       <c r="I54" s="3">
-        <v>22405800</v>
+        <v>23012800</v>
       </c>
       <c r="J54" s="3">
+        <v>22150200</v>
+      </c>
+      <c r="K54" s="3">
         <v>23162500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22225700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19948100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19416000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18173800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18339000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17784700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17671700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17325900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16815500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15776900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16224400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13977700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13148400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>15373400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>14972000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>15270600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>13993900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12984500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>13776500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>15308300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5435200</v>
+        <v>6035800</v>
       </c>
       <c r="E57" s="3">
-        <v>5461800</v>
+        <v>5373200</v>
       </c>
       <c r="F57" s="3">
-        <v>5885600</v>
+        <v>5399500</v>
       </c>
       <c r="G57" s="3">
-        <v>5620800</v>
+        <v>5818500</v>
       </c>
       <c r="H57" s="3">
-        <v>5206000</v>
+        <v>5556700</v>
       </c>
       <c r="I57" s="3">
-        <v>5033200</v>
+        <v>5146600</v>
       </c>
       <c r="J57" s="3">
+        <v>4975800</v>
+      </c>
+      <c r="K57" s="3">
         <v>5675500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4938300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4254000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4315900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4638100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3945700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3784100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3892600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4322700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3763100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3524800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3632700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3890900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3274300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3722700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3686100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4142700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3310400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2747300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2862000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3500300</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>228800</v>
+        <v>248300</v>
       </c>
       <c r="E58" s="3">
+        <v>226200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>201300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>203900</v>
+      </c>
+      <c r="H58" s="3">
         <v>203600</v>
       </c>
-      <c r="F58" s="3">
-        <v>206200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>205900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>208100</v>
-      </c>
       <c r="I58" s="3">
-        <v>194700</v>
+        <v>205700</v>
       </c>
       <c r="J58" s="3">
+        <v>192500</v>
+      </c>
+      <c r="K58" s="3">
         <v>201900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>196900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>166600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>174600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>161500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>159500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>154900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>145400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>151100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>152200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>144300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>148500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>14100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>15800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>16800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>19700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>21000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>23100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>26200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>28300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3743800</v>
+        <v>3784500</v>
       </c>
       <c r="E59" s="3">
-        <v>4372500</v>
+        <v>3701100</v>
       </c>
       <c r="F59" s="3">
-        <v>1994500</v>
+        <v>4322600</v>
       </c>
       <c r="G59" s="3">
-        <v>3606500</v>
+        <v>1971700</v>
       </c>
       <c r="H59" s="3">
-        <v>3292500</v>
+        <v>3565400</v>
       </c>
       <c r="I59" s="3">
-        <v>1451800</v>
+        <v>3255000</v>
       </c>
       <c r="J59" s="3">
+        <v>1435300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1916500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3196000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2912000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2703000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1380900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2449100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2367000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2494300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1158100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1657200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1937600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2485200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1301000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1655600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2137400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2567100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1414400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1668500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1709800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3197300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1479700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9407800</v>
+        <v>10068600</v>
       </c>
       <c r="E60" s="3">
-        <v>10037900</v>
+        <v>9300400</v>
       </c>
       <c r="F60" s="3">
-        <v>8086300</v>
+        <v>9923400</v>
       </c>
       <c r="G60" s="3">
-        <v>9433300</v>
+        <v>7994000</v>
       </c>
       <c r="H60" s="3">
-        <v>8706700</v>
+        <v>9325700</v>
       </c>
       <c r="I60" s="3">
-        <v>6679800</v>
+        <v>8607300</v>
       </c>
       <c r="J60" s="3">
+        <v>6603600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7794000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8331200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7332600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7193500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6180600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6554300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6306000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6532300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5631800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5572500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5606700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6266300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5205900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4943200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5875900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6270000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5576800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4999800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4480200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6085500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5008300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4123900</v>
+        <v>4103300</v>
       </c>
       <c r="E61" s="3">
-        <v>3907600</v>
+        <v>4076800</v>
       </c>
       <c r="F61" s="3">
-        <v>3895400</v>
+        <v>3863000</v>
       </c>
       <c r="G61" s="3">
-        <v>3800000</v>
+        <v>3850900</v>
       </c>
       <c r="H61" s="3">
-        <v>3710400</v>
+        <v>3756600</v>
       </c>
       <c r="I61" s="3">
-        <v>3639200</v>
+        <v>3668100</v>
       </c>
       <c r="J61" s="3">
+        <v>3597600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3597400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3317600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3167000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3135100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2838500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2830100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2827300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2750300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2687800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2634800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2410800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2439000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>646000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>640200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>772600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>751700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>709900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>694900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>680000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>671600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>694400</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>656600</v>
+        <v>650900</v>
       </c>
       <c r="E62" s="3">
-        <v>681100</v>
+        <v>649100</v>
       </c>
       <c r="F62" s="3">
-        <v>724000</v>
+        <v>673300</v>
       </c>
       <c r="G62" s="3">
-        <v>770900</v>
+        <v>715700</v>
       </c>
       <c r="H62" s="3">
-        <v>766100</v>
+        <v>762100</v>
       </c>
       <c r="I62" s="3">
-        <v>849800</v>
+        <v>757400</v>
       </c>
       <c r="J62" s="3">
+        <v>840100</v>
+      </c>
+      <c r="K62" s="3">
         <v>854300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>780000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>720100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>715800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>661600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>694700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>626200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>596100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>662900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>568300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>561300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>574800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>605700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>690200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>740600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>762200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>732800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>853400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>886100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>668600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>736500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14188200</v>
+        <v>14822700</v>
       </c>
       <c r="E66" s="3">
-        <v>14626600</v>
+        <v>14026400</v>
       </c>
       <c r="F66" s="3">
-        <v>12705600</v>
+        <v>14459700</v>
       </c>
       <c r="G66" s="3">
-        <v>14004200</v>
+        <v>12560700</v>
       </c>
       <c r="H66" s="3">
-        <v>13183200</v>
+        <v>13844400</v>
       </c>
       <c r="I66" s="3">
-        <v>11168700</v>
+        <v>13032800</v>
       </c>
       <c r="J66" s="3">
+        <v>11041300</v>
+      </c>
+      <c r="K66" s="3">
         <v>12245600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12428800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11219800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11044500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9680600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10079100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9759600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9878700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8982600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8775600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8578800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9280100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6457600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6273600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7389100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7783900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7019500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6548100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6046300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7425700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6439200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7240700</v>
+        <v>7951100</v>
       </c>
       <c r="E72" s="3">
-        <v>6567300</v>
+        <v>7158100</v>
       </c>
       <c r="F72" s="3">
-        <v>8617300</v>
+        <v>6492400</v>
       </c>
       <c r="G72" s="3">
-        <v>7747200</v>
+        <v>8519000</v>
       </c>
       <c r="H72" s="3">
-        <v>7033900</v>
+        <v>7658800</v>
       </c>
       <c r="I72" s="3">
-        <v>8129400</v>
+        <v>6953700</v>
       </c>
       <c r="J72" s="3">
+        <v>8036600</v>
+      </c>
+      <c r="K72" s="3">
         <v>7477000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6404000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5615700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5083900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5592600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4878800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4426000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4208200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5401600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4939900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4310800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4010800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4771500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4180500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4514300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4089200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4986500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4439600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3991400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>3295400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5291400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10043800</v>
+        <v>10787200</v>
       </c>
       <c r="E76" s="3">
-        <v>9659400</v>
+        <v>9929300</v>
       </c>
       <c r="F76" s="3">
-        <v>11891000</v>
+        <v>9549200</v>
       </c>
       <c r="G76" s="3">
-        <v>11023200</v>
+        <v>11755300</v>
       </c>
       <c r="H76" s="3">
-        <v>10095200</v>
+        <v>10897500</v>
       </c>
       <c r="I76" s="3">
-        <v>11237000</v>
+        <v>9980000</v>
       </c>
       <c r="J76" s="3">
+        <v>11108900</v>
+      </c>
+      <c r="K76" s="3">
         <v>10916900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9796900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8728300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8371500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8493100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8260000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8025100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7793000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8343300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8039900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7198100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6944300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7520100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6874800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7984200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7188100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8251100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7445700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6938200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6350800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>8869100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>672100</v>
+        <v>791400</v>
       </c>
       <c r="E81" s="3">
-        <v>676500</v>
+        <v>664400</v>
       </c>
       <c r="F81" s="3">
-        <v>870400</v>
+        <v>668800</v>
       </c>
       <c r="G81" s="3">
-        <v>713700</v>
+        <v>860500</v>
       </c>
       <c r="H81" s="3">
-        <v>639700</v>
+        <v>705600</v>
       </c>
       <c r="I81" s="3">
-        <v>652400</v>
+        <v>632400</v>
       </c>
       <c r="J81" s="3">
+        <v>645000</v>
+      </c>
+      <c r="K81" s="3">
         <v>778400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>624200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>532200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>548900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>632900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>453100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>82100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>478400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>557300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>464600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>842400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>432600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>536300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>390800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>426700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>447600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>547200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>448800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>697100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>368800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>552200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>295200</v>
+        <v>303200</v>
       </c>
       <c r="E83" s="3">
-        <v>292400</v>
+        <v>291800</v>
       </c>
       <c r="F83" s="3">
-        <v>290900</v>
+        <v>289100</v>
       </c>
       <c r="G83" s="3">
-        <v>285400</v>
+        <v>287600</v>
       </c>
       <c r="H83" s="3">
-        <v>279600</v>
+        <v>282100</v>
       </c>
       <c r="I83" s="3">
-        <v>281100</v>
+        <v>276400</v>
       </c>
       <c r="J83" s="3">
+        <v>277900</v>
+      </c>
+      <c r="K83" s="3">
         <v>276500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>258700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>244500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>247200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>224600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>221000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>226500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>211000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>217900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>215600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>402300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>205800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>152600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>139200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>164900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>163200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>158700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>149300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>145300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>149000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>150200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1256900</v>
+        <v>977200</v>
       </c>
       <c r="E89" s="3">
-        <v>393800</v>
+        <v>1242500</v>
       </c>
       <c r="F89" s="3">
-        <v>2062200</v>
+        <v>389300</v>
       </c>
       <c r="G89" s="3">
-        <v>716700</v>
+        <v>2038600</v>
       </c>
       <c r="H89" s="3">
-        <v>1228600</v>
+        <v>708500</v>
       </c>
       <c r="I89" s="3">
-        <v>-221200</v>
+        <v>1214600</v>
       </c>
       <c r="J89" s="3">
+        <v>-218600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1924500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>827300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1040200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-88000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1731600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>712600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>134300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>466500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1424900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>620100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>788100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>138400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1116100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>624300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>287000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>205600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1218100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>895800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>588900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-164100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1324000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8775100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5702800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2544000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8693900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6219400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4037300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2353100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7841100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5992400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-234300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-127300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-335800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-227600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-151900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-112900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-305600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-338500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-371300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-159500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-326900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-235600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-197400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-99100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-348500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-230500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-197600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-124700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-353100</v>
+        <v>-514600</v>
       </c>
       <c r="E94" s="3">
-        <v>-241500</v>
+        <v>-349100</v>
       </c>
       <c r="F94" s="3">
-        <v>-440900</v>
+        <v>-238700</v>
       </c>
       <c r="G94" s="3">
-        <v>-299100</v>
+        <v>-435900</v>
       </c>
       <c r="H94" s="3">
-        <v>-219300</v>
+        <v>-295700</v>
       </c>
       <c r="I94" s="3">
-        <v>-233900</v>
+        <v>-216800</v>
       </c>
       <c r="J94" s="3">
+        <v>-231200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-419500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-306300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-218000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-139900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-308800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-207200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-123600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-176300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-284400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-320700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-365900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-203400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-301200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-206200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-140400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-89100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-314300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-171700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>866900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-178000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-247400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7678,11 +7912,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1655500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7690,61 +7924,64 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1319200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-230400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-463400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-503600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-802500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-284900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-504800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-225700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-361100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-148100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-473200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-142700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-124800</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-568100</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-919200</v>
+        <v>-167100</v>
       </c>
       <c r="E100" s="3">
-        <v>-156300</v>
+        <v>-908700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1888600</v>
+        <v>-154500</v>
       </c>
       <c r="G100" s="3">
-        <v>-151100</v>
+        <v>-1867100</v>
       </c>
       <c r="H100" s="3">
-        <v>-144700</v>
+        <v>-149400</v>
       </c>
       <c r="I100" s="3">
-        <v>-143800</v>
+        <v>-143000</v>
       </c>
       <c r="J100" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1797900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-132100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-122800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-124900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1431400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-113200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-338800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-98100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-567400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-605800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-993300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-379800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-522400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-242800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-381700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-170000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-494500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-167100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-145400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-591300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-75800</v>
+        <v>-7600</v>
       </c>
       <c r="E101" s="3">
-        <v>-45200</v>
+        <v>-74900</v>
       </c>
       <c r="F101" s="3">
-        <v>-49400</v>
+        <v>-44700</v>
       </c>
       <c r="G101" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>140800</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="N101" s="3">
+        <v>35500</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="R101" s="3">
+        <v>161600</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="T101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>37700</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>29600</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-15600</v>
       </c>
-      <c r="H101" s="3">
-        <v>-71600</v>
-      </c>
-      <c r="I101" s="3">
-        <v>142500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-47900</v>
-      </c>
-      <c r="M101" s="3">
-        <v>35500</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-125900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-44000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>161600</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-25600</v>
-      </c>
-      <c r="S101" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-49100</v>
-      </c>
-      <c r="X101" s="3">
-        <v>37700</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-35300</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>29600</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-26900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-39900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>29200</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-91200</v>
+        <v>287900</v>
       </c>
       <c r="E102" s="3">
-        <v>-49200</v>
+        <v>-90200</v>
       </c>
       <c r="F102" s="3">
-        <v>-316800</v>
+        <v>-48600</v>
       </c>
       <c r="G102" s="3">
-        <v>250900</v>
+        <v>-313200</v>
       </c>
       <c r="H102" s="3">
-        <v>793000</v>
+        <v>248100</v>
       </c>
       <c r="I102" s="3">
-        <v>-456400</v>
+        <v>784000</v>
       </c>
       <c r="J102" s="3">
+        <v>-451200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-321300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>366300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>651600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-317400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-134500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>372600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-350000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>336500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>511200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-303700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-591400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-465200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>263000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>126200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-197400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-88900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>473300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>541400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-93200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-527500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>503000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>39200</v>
       </c>
     </row>
